--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassic\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="284">
   <si>
     <t>老鼠</t>
   </si>
@@ -958,6 +958,33 @@
   </si>
   <si>
     <t>51000281;51000270</t>
+  </si>
+  <si>
+    <t>Rule</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速对战地图</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleMap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>blank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>doublec</t>
+  </si>
+  <si>
+    <t>oneline</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1159,7 +1186,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,6 +1375,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
@@ -1627,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1656,6 +1695,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1703,7 +1763,63 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF4F81BD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF4F81BD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF4F81BD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF4F81BD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2110,19 +2226,30 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF4F81BD"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF4F81BD"/>
-        </right>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
-          <color rgb="FF4F81BD"/>
+          <color theme="4"/>
         </top>
-        <bottom style="thin">
-          <color rgb="FF4F81BD"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2137,33 +2264,20 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2640,54 +2754,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:O73" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="A3:O73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P73" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="A3:P73"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="32"/>
-    <tableColumn id="2" name="Name" dataDxfId="31"/>
-    <tableColumn id="3" name="Type" dataDxfId="30"/>
-    <tableColumn id="6" name="World" dataDxfId="29"/>
-    <tableColumn id="7" name="Deck" dataDxfId="28"/>
-    <tableColumn id="8" name="Cards" dataDxfId="27"/>
-    <tableColumn id="10" name="Job" dataDxfId="26"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="25"/>
-    <tableColumn id="5" name="Rule" dataDxfId="24"/>
-    <tableColumn id="11" name="Level" dataDxfId="23"/>
-    <tableColumn id="12" name="Reward" dataDxfId="22"/>
-    <tableColumn id="16" name="EnergyRate" dataDxfId="21"/>
-    <tableColumn id="13" name="Method" dataDxfId="20"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="19"/>
-    <tableColumn id="15" name="Figue" dataDxfId="18"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="34"/>
+    <tableColumn id="2" name="Name" dataDxfId="33"/>
+    <tableColumn id="3" name="Type" dataDxfId="32"/>
+    <tableColumn id="6" name="World" dataDxfId="31"/>
+    <tableColumn id="7" name="Deck" dataDxfId="30"/>
+    <tableColumn id="8" name="Cards" dataDxfId="29"/>
+    <tableColumn id="10" name="Job" dataDxfId="28"/>
+    <tableColumn id="4" name="KingCard" dataDxfId="27"/>
+    <tableColumn id="5" name="Rule" dataDxfId="26"/>
+    <tableColumn id="11" name="Level" dataDxfId="25"/>
+    <tableColumn id="12" name="Reward" dataDxfId="24"/>
+    <tableColumn id="16" name="EnergyRate" dataDxfId="23"/>
+    <tableColumn id="13" name="Method" dataDxfId="22"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="21"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="4"/>
+    <tableColumn id="15" name="Figue" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:O14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A3:O14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A3:P14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" name="Type" dataDxfId="12"/>
-    <tableColumn id="6" name="World" dataDxfId="11"/>
-    <tableColumn id="7" name="Deck" dataDxfId="10"/>
-    <tableColumn id="8" name="Cards" dataDxfId="9"/>
-    <tableColumn id="10" name="Job" dataDxfId="8"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="7"/>
-    <tableColumn id="5" name="Rule" dataDxfId="6"/>
-    <tableColumn id="11" name="Level" dataDxfId="5"/>
-    <tableColumn id="12" name="Reward" dataDxfId="4"/>
-    <tableColumn id="16" name="EnergyRate" dataDxfId="3"/>
-    <tableColumn id="13" name="Method" dataDxfId="2"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="1"/>
-    <tableColumn id="15" name="Figue" dataDxfId="0"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" name="Name" dataDxfId="18"/>
+    <tableColumn id="3" name="Type" dataDxfId="17"/>
+    <tableColumn id="6" name="World" dataDxfId="16"/>
+    <tableColumn id="7" name="Deck" dataDxfId="15"/>
+    <tableColumn id="8" name="Cards" dataDxfId="14"/>
+    <tableColumn id="10" name="Job" dataDxfId="13"/>
+    <tableColumn id="4" name="KingCard" dataDxfId="12"/>
+    <tableColumn id="5" name="Rule" dataDxfId="11"/>
+    <tableColumn id="11" name="Level" dataDxfId="10"/>
+    <tableColumn id="12" name="Reward" dataDxfId="9"/>
+    <tableColumn id="16" name="EnergyRate" dataDxfId="8"/>
+    <tableColumn id="13" name="Method" dataDxfId="7"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="6"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="3"/>
+    <tableColumn id="15" name="Figue" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2980,13 +3096,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2999,10 +3115,10 @@
     <col min="9" max="10" width="6.25" customWidth="1"/>
     <col min="11" max="12" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="9.5" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="14" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>210</v>
       </c>
@@ -3045,11 +3161,14 @@
       <c r="N1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
@@ -3092,11 +3211,14 @@
       <c r="N2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>222</v>
       </c>
@@ -3122,7 +3244,7 @@
         <v>244</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>229</v>
@@ -3140,10 +3262,13 @@
         <v>232</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
@@ -3183,10 +3308,13 @@
         <v>4</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
@@ -3226,10 +3354,13 @@
         <v>6</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
@@ -3269,10 +3400,13 @@
         <v>8</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
@@ -3312,10 +3446,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
@@ -3355,10 +3492,13 @@
         <v>12</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -3398,10 +3538,13 @@
         <v>14</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
@@ -3441,10 +3584,13 @@
         <v>16</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -3484,10 +3630,13 @@
         <v>18</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -3527,10 +3676,13 @@
         <v>20</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
@@ -3570,10 +3722,13 @@
         <v>22</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
@@ -3613,10 +3768,13 @@
         <v>24</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000012</v>
       </c>
@@ -3656,10 +3814,13 @@
         <v>26</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000013</v>
       </c>
@@ -3699,10 +3860,13 @@
         <v>28</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000014</v>
       </c>
@@ -3742,10 +3906,13 @@
         <v>30</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
@@ -3785,10 +3952,13 @@
         <v>32</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
@@ -3828,10 +3998,13 @@
         <v>34</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
@@ -3871,10 +4044,13 @@
         <v>36</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
@@ -3914,10 +4090,13 @@
         <v>38</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000019</v>
       </c>
@@ -3957,10 +4136,13 @@
         <v>40</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
@@ -4000,10 +4182,13 @@
         <v>42</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000021</v>
       </c>
@@ -4043,10 +4228,13 @@
         <v>44</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000022</v>
       </c>
@@ -4086,10 +4274,13 @@
         <v>46</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000023</v>
       </c>
@@ -4129,10 +4320,13 @@
         <v>48</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000024</v>
       </c>
@@ -4172,10 +4366,13 @@
         <v>50</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000025</v>
       </c>
@@ -4215,10 +4412,13 @@
         <v>52</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000026</v>
       </c>
@@ -4258,10 +4458,13 @@
         <v>54</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000027</v>
       </c>
@@ -4301,10 +4504,13 @@
         <v>56</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000028</v>
       </c>
@@ -4344,10 +4550,13 @@
         <v>58</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000029</v>
       </c>
@@ -4387,10 +4596,13 @@
         <v>60</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000030</v>
       </c>
@@ -4430,10 +4642,13 @@
         <v>62</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000031</v>
       </c>
@@ -4473,10 +4688,13 @@
         <v>64</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000032</v>
       </c>
@@ -4516,10 +4734,13 @@
         <v>66</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000033</v>
       </c>
@@ -4559,10 +4780,13 @@
         <v>68</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000101</v>
       </c>
@@ -4604,10 +4828,13 @@
         <v>71</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43000102</v>
       </c>
@@ -4649,10 +4876,13 @@
         <v>74</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43000103</v>
       </c>
@@ -4694,10 +4924,13 @@
         <v>78</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43000104</v>
       </c>
@@ -4739,10 +4972,13 @@
         <v>82</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43000105</v>
       </c>
@@ -4784,10 +5020,13 @@
         <v>86</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43000106</v>
       </c>
@@ -4829,10 +5068,13 @@
         <v>90</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43000107</v>
       </c>
@@ -4874,10 +5116,13 @@
         <v>93</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43000108</v>
       </c>
@@ -4919,10 +5164,13 @@
         <v>97</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43000109</v>
       </c>
@@ -4964,10 +5212,13 @@
         <v>101</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43000110</v>
       </c>
@@ -5009,10 +5260,13 @@
         <v>105</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43000201</v>
       </c>
@@ -5054,10 +5308,13 @@
         <v>109</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>43000202</v>
       </c>
@@ -5099,10 +5356,13 @@
         <v>112</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>43000203</v>
       </c>
@@ -5144,10 +5404,13 @@
         <v>115</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>43000301</v>
       </c>
@@ -5189,10 +5452,13 @@
         <v>119</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>43000302</v>
       </c>
@@ -5234,10 +5500,13 @@
         <v>122</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>43000303</v>
       </c>
@@ -5279,10 +5548,13 @@
         <v>125</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>43000304</v>
       </c>
@@ -5324,10 +5596,13 @@
         <v>129</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>43000305</v>
       </c>
@@ -5369,10 +5644,13 @@
         <v>132</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>43000306</v>
       </c>
@@ -5414,10 +5692,13 @@
         <v>134</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>43000307</v>
       </c>
@@ -5459,10 +5740,13 @@
         <v>137</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>43000308</v>
       </c>
@@ -5504,10 +5788,13 @@
         <v>139</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>43000309</v>
       </c>
@@ -5549,10 +5836,13 @@
         <v>142</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>43000310</v>
       </c>
@@ -5594,10 +5884,13 @@
         <v>144</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>43000311</v>
       </c>
@@ -5639,10 +5932,13 @@
         <v>147</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>43000312</v>
       </c>
@@ -5684,10 +5980,13 @@
         <v>151</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P61" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>43000401</v>
       </c>
@@ -5729,10 +6028,13 @@
         <v>154</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>43000402</v>
       </c>
@@ -5774,10 +6076,13 @@
         <v>156</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>43000403</v>
       </c>
@@ -5819,10 +6124,13 @@
         <v>159</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P64" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>43000404</v>
       </c>
@@ -5864,10 +6172,13 @@
         <v>161</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>43000405</v>
       </c>
@@ -5909,10 +6220,13 @@
         <v>164</v>
       </c>
       <c r="O66" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P66" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>43000406</v>
       </c>
@@ -5954,10 +6268,13 @@
         <v>166</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P67" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>43000407</v>
       </c>
@@ -5999,10 +6316,13 @@
         <v>168</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P68" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>43000408</v>
       </c>
@@ -6044,10 +6364,13 @@
         <v>170</v>
       </c>
       <c r="O69" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P69" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>43000501</v>
       </c>
@@ -6089,10 +6412,13 @@
         <v>174</v>
       </c>
       <c r="O70" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P70" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>43000502</v>
       </c>
@@ -6134,10 +6460,13 @@
         <v>176</v>
       </c>
       <c r="O71" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P71" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>43000503</v>
       </c>
@@ -6179,10 +6508,13 @@
         <v>179</v>
       </c>
       <c r="O72" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P72" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>43000504</v>
       </c>
@@ -6224,6 +6556,9 @@
         <v>181</v>
       </c>
       <c r="O73" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P73" s="7" t="s">
         <v>181</v>
       </c>
     </row>
@@ -6240,13 +6575,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6259,152 +6594,161 @@
     <col min="9" max="10" width="6.125" customWidth="1"/>
     <col min="11" max="12" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="9.5" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43010001</v>
       </c>
@@ -6444,10 +6788,13 @@
         <v>184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43010002</v>
       </c>
@@ -6487,10 +6834,13 @@
         <v>3</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43010003</v>
       </c>
@@ -6530,10 +6880,13 @@
         <v>188</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43010004</v>
       </c>
@@ -6573,10 +6926,13 @@
         <v>190</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
@@ -6615,11 +6971,14 @@
       <c r="N8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
@@ -6658,11 +7017,14 @@
       <c r="N9" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43010101</v>
       </c>
@@ -6704,10 +7066,13 @@
         <v>194</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43010102</v>
       </c>
@@ -6749,10 +7114,13 @@
         <v>198</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43010103</v>
       </c>
@@ -6794,10 +7162,13 @@
         <v>201</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43010104</v>
       </c>
@@ -6839,10 +7210,13 @@
         <v>204</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>
@@ -6884,6 +7258,9 @@
         <v>207</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>207</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="285">
   <si>
     <t>老鼠</t>
   </si>
@@ -981,6 +981,9 @@
   </si>
   <si>
     <t>doublec</t>
+  </si>
+  <si>
+    <t>oneline</t>
   </si>
   <si>
     <t>oneline</t>
@@ -3098,11 +3101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4828,7 +4831,7 @@
         <v>71</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>71</v>
@@ -4876,7 +4879,7 @@
         <v>74</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>74</v>
@@ -6577,7 +6580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -6880,7 +6883,7 @@
         <v>188</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>188</v>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>real</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
     <author>real</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="285">
   <si>
     <t>老鼠</t>
   </si>
@@ -854,18 +854,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>游戏规则</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>EnergyRate</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -960,10 +948,6 @@
     <t>51000281;51000270</t>
   </si>
   <si>
-    <t>Rule</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>快速对战地图</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -987,6 +971,25 @@
   </si>
   <si>
     <t>oneline</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励资源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法点获取
+的比率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对战卡组
+限定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速对战
+地图</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1669,7 +1672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,15 +1685,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1698,15 +1692,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1720,6 +1705,27 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1766,63 +1772,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF4F81BD"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF4F81BD"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF4F81BD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF4F81BD"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <b val="0"/>
@@ -2256,30 +2206,19 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF4F81BD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF4F81BD"/>
+        </right>
         <top style="thin">
-          <color theme="4"/>
+          <color rgb="FF4F81BD"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color rgb="FF4F81BD"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2294,20 +2233,33 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2757,56 +2709,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P73" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="A3:P73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:O73" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="A3:O73"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="34"/>
-    <tableColumn id="2" name="Name" dataDxfId="33"/>
-    <tableColumn id="3" name="Type" dataDxfId="32"/>
-    <tableColumn id="6" name="World" dataDxfId="31"/>
-    <tableColumn id="7" name="Deck" dataDxfId="30"/>
-    <tableColumn id="8" name="Cards" dataDxfId="29"/>
-    <tableColumn id="10" name="Job" dataDxfId="28"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="27"/>
-    <tableColumn id="5" name="Rule" dataDxfId="26"/>
-    <tableColumn id="11" name="Level" dataDxfId="25"/>
-    <tableColumn id="12" name="Reward" dataDxfId="24"/>
-    <tableColumn id="16" name="EnergyRate" dataDxfId="23"/>
-    <tableColumn id="13" name="Method" dataDxfId="22"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="21"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="4"/>
-    <tableColumn id="15" name="Figue" dataDxfId="20"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" name="Type" dataDxfId="30"/>
+    <tableColumn id="6" name="World" dataDxfId="29"/>
+    <tableColumn id="7" name="Deck" dataDxfId="28"/>
+    <tableColumn id="8" name="Cards" dataDxfId="27"/>
+    <tableColumn id="10" name="Job" dataDxfId="26"/>
+    <tableColumn id="4" name="KingCard" dataDxfId="25"/>
+    <tableColumn id="11" name="Level" dataDxfId="24"/>
+    <tableColumn id="12" name="Reward" dataDxfId="23"/>
+    <tableColumn id="16" name="EnergyRate" dataDxfId="22"/>
+    <tableColumn id="13" name="Method" dataDxfId="21"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="20"/>
+    <tableColumn id="17" name="Figue" dataDxfId="2"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A3:P14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:O14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A3:O14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" name="Name" dataDxfId="18"/>
-    <tableColumn id="3" name="Type" dataDxfId="17"/>
-    <tableColumn id="6" name="World" dataDxfId="16"/>
-    <tableColumn id="7" name="Deck" dataDxfId="15"/>
-    <tableColumn id="8" name="Cards" dataDxfId="14"/>
-    <tableColumn id="10" name="Job" dataDxfId="13"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="12"/>
-    <tableColumn id="5" name="Rule" dataDxfId="11"/>
-    <tableColumn id="11" name="Level" dataDxfId="10"/>
-    <tableColumn id="12" name="Reward" dataDxfId="9"/>
-    <tableColumn id="16" name="EnergyRate" dataDxfId="8"/>
-    <tableColumn id="13" name="Method" dataDxfId="7"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="6"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="3"/>
-    <tableColumn id="15" name="Figue" dataDxfId="5"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Id" dataDxfId="15"/>
+    <tableColumn id="2" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" name="Type" dataDxfId="13"/>
+    <tableColumn id="6" name="World" dataDxfId="12"/>
+    <tableColumn id="7" name="Deck" dataDxfId="11"/>
+    <tableColumn id="8" name="Cards" dataDxfId="10"/>
+    <tableColumn id="10" name="Job" dataDxfId="9"/>
+    <tableColumn id="4" name="KingCard" dataDxfId="8"/>
+    <tableColumn id="11" name="Level" dataDxfId="7"/>
+    <tableColumn id="12" name="Reward" dataDxfId="6"/>
+    <tableColumn id="16" name="EnergyRate" dataDxfId="5"/>
+    <tableColumn id="13" name="Method" dataDxfId="4"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="3"/>
+    <tableColumn id="9" name="Figue" dataDxfId="0"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3099,13 +3049,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O38" sqref="O38"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3113,65 +3063,63 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="10" width="6.25" customWidth="1"/>
-    <col min="11" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
-    <col min="14" max="15" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="6.25" customWidth="1"/>
+    <col min="10" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="J1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="N1" s="13" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O1" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
@@ -3197,3372 +3145,3156 @@
         <v>243</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>209</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="K3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="N3" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O3" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>51018001</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="N4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O4" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>51018001</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O5" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>51018001</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="I6" s="4">
         <v>4</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P6" s="7" t="s">
+      <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O6" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>51018001</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="7" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="N7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O7" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>51018001</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="I8" s="4">
         <v>7</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="N8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O8" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000006</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>51018001</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="I9" s="4">
         <v>11</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="7" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P9" s="7" t="s">
+      <c r="N9" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O9" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>51018001</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="N10" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O10" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000008</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>51018001</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="I11" s="4">
         <v>13</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="N11" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O11" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000009</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
         <v>51018001</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="I12" s="4">
         <v>13</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="N12" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O12" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <v>51018001</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="I13" s="4">
         <v>6</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="N13" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O13" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>51018001</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="N14" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O14" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000012</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>51018001</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="I15" s="4">
         <v>12</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="7" t="s">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P15" s="7" t="s">
+      <c r="N15" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O15" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000013</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <v>51018001</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="I16" s="4">
         <v>10</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="N16" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O16" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000014</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <v>51018001</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
+      <c r="I17" s="4">
         <v>12</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="N17" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O17" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <v>51018001</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="I18" s="4">
         <v>12</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="7" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="N18" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O18" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
         <v>51018001</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="I19" s="4">
         <v>1</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="N19" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O19" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
         <v>51018001</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="I20" s="4">
         <v>1</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7" t="s">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="N20" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O20" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>51018001</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="I21" s="4">
         <v>9</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P21" s="7" t="s">
+      <c r="N21" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O21" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000019</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
         <v>51018001</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="I22" s="4">
         <v>15</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="7" t="s">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P22" s="7" t="s">
+      <c r="N22" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O22" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
         <v>51018001</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="I23" s="4">
         <v>4</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="7" t="s">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P23" s="7" t="s">
+      <c r="N23" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O23" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000021</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
         <v>51018001</v>
       </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="I24" s="4">
         <v>15</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="7" t="s">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P24" s="7" t="s">
+      <c r="N24" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O24" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000022</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
         <v>51018001</v>
       </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="I25" s="4">
         <v>14</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7" t="s">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="N25" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O25" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000023</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
         <v>51018001</v>
       </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="I26" s="4">
         <v>17</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="7" t="s">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P26" s="7" t="s">
+      <c r="N26" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O26" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000024</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
         <v>51018001</v>
       </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="I27" s="4">
         <v>34</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="7" t="s">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P27" s="7" t="s">
+      <c r="N27" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O27" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000025</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
         <v>51018001</v>
       </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="I28" s="4">
         <v>35</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N28" s="7" t="s">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O28" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P28" s="7" t="s">
+      <c r="N28" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O28" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000026</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
         <v>51018001</v>
       </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="I29" s="4">
         <v>35</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7" t="s">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P29" s="7" t="s">
+      <c r="N29" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O29" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000027</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
         <v>51018001</v>
       </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="I30" s="4">
         <v>5</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N30" s="7" t="s">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P30" s="7" t="s">
+      <c r="N30" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O30" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000028</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
         <v>51018001</v>
       </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="I31" s="4">
         <v>16</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N31" s="7" t="s">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P31" s="7" t="s">
+      <c r="N31" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O31" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000029</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
         <v>51018001</v>
       </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="I32" s="4">
         <v>19</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="7" t="s">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P32" s="7" t="s">
+      <c r="N32" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O32" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000030</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
         <v>51018001</v>
       </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7">
+      <c r="I33" s="4">
         <v>16</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="7" t="s">
+      <c r="J33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O33" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P33" s="7" t="s">
+      <c r="N33" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O33" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000031</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
         <v>51018001</v>
       </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="I34" s="4">
         <v>7</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N34" s="7" t="s">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P34" s="7" t="s">
+      <c r="N34" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O34" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000032</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
         <v>51018001</v>
       </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="7">
+      <c r="I35" s="4">
         <v>18</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="7" t="s">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O35" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P35" s="7" t="s">
+      <c r="N35" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O35" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000033</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
         <v>51018001</v>
       </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7">
+      <c r="I36" s="4">
         <v>7</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N36" s="7" t="s">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O36" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P36" s="7" t="s">
+      <c r="N36" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O36" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000101</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>256</v>
+      <c r="F37" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="G37">
         <v>11000001</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
         <v>2</v>
       </c>
-      <c r="K37" s="7">
+      <c r="J37" s="4">
         <v>2</v>
       </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N37" s="7" t="s">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="O37" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P37" s="7" t="s">
+      <c r="N37" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O37" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43000102</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>257</v>
+      <c r="F38" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="G38">
         <v>11000003</v>
       </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7">
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
         <v>4</v>
       </c>
-      <c r="K38" s="7">
-        <v>3</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="7" t="s">
+      <c r="J38" s="4">
+        <v>3</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P38" s="7" t="s">
+      <c r="N38" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O38" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43000103</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>258</v>
+      <c r="F39" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="G39">
         <v>11000002</v>
       </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7">
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
         <v>7</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="J39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N39" s="7" t="s">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O39" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P39" s="7" t="s">
+      <c r="N39" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O39" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43000104</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>259</v>
+      <c r="F40" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="G40">
         <v>11000008</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7">
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
         <v>9</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="J40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N40" s="7" t="s">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="O40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P40" s="7" t="s">
+      <c r="N40" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O40" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43000105</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="4">
         <v>1</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>260</v>
+      <c r="F41" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="G41">
         <v>11000007</v>
       </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="7">
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
         <v>12</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="J41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="7" t="s">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O41" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P41" s="7" t="s">
+      <c r="N41" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O41" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43000106</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="4">
         <v>1</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>261</v>
+      <c r="F42" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="G42">
         <v>11000005</v>
       </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
         <v>14</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="J42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="7" t="s">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O42" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P42" s="7" t="s">
+      <c r="N42" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O42" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43000107</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="4">
         <v>1</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>262</v>
+      <c r="F43" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="G43">
         <v>11000007</v>
       </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="7">
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
         <v>15</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="J43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="7" t="s">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O43" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P43" s="7" t="s">
+      <c r="N43" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O43" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43000108</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="4">
         <v>1</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>263</v>
+      <c r="F44" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="G44">
         <v>11000005</v>
       </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="7">
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
         <v>18</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="J44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="7" t="s">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O44" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P44" s="7" t="s">
+      <c r="N44" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O44" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43000109</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="4">
         <v>1</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>264</v>
+      <c r="F45" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="G45">
         <v>11000006</v>
       </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7">
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
         <v>21</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="J45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="7" t="s">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P45" s="7" t="s">
+      <c r="N45" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O45" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43000110</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="4">
         <v>1</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>265</v>
+      <c r="F46" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="G46">
         <v>11000006</v>
       </c>
-      <c r="H46" s="7">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="7">
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
         <v>24</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="J46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="7" t="s">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O46" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P46" s="7" t="s">
+      <c r="N46" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O46" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43000201</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="4">
         <v>2</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>266</v>
+      <c r="F47" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="G47">
         <v>11000007</v>
       </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7">
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
         <v>22</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="J47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="7" t="s">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O47" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P47" s="7" t="s">
+      <c r="N47" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O47" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>43000202</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="4">
         <v>2</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>267</v>
+      <c r="F48" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="G48">
         <v>11000001</v>
       </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
         <v>17</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="J48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="7" t="s">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O48" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P48" s="7" t="s">
+      <c r="N48" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O48" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>43000203</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="4">
         <v>2</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>268</v>
+      <c r="F49" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="G49">
         <v>11000002</v>
       </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7">
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
         <v>22</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="J49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="7" t="s">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O49" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P49" s="7" t="s">
+      <c r="N49" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O49" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>43000301</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="7">
-        <v>3</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="4">
+        <v>3</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="4">
         <v>51000060</v>
       </c>
       <c r="G50">
         <v>11000002</v>
       </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7">
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
         <v>7</v>
       </c>
-      <c r="K50" s="7">
+      <c r="J50" s="4">
         <v>2</v>
       </c>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N50" s="7" t="s">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O50" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P50" s="7" t="s">
+      <c r="N50" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O50" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>43000302</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="7">
-        <v>3</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="4">
+        <v>3</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="4">
         <v>51000222</v>
       </c>
       <c r="G51">
         <v>11000008</v>
       </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="7">
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
         <v>9</v>
       </c>
-      <c r="K51" s="7">
-        <v>3</v>
-      </c>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N51" s="7" t="s">
+      <c r="J51" s="4">
+        <v>3</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="O51" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P51" s="7" t="s">
+      <c r="N51" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O51" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>43000303</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="4">
         <v>4</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>269</v>
+      <c r="F52" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="G52">
         <v>11000004</v>
       </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
         <v>5</v>
       </c>
-      <c r="K52" s="7">
+      <c r="J52" s="4">
         <v>2</v>
       </c>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="7" t="s">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P52" s="7" t="s">
+      <c r="N52" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O52" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>43000304</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>4</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>270</v>
+      <c r="F53" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="G53">
         <v>11000002</v>
       </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7">
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
         <v>14</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="J53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N53" s="7" t="s">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="O53" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P53" s="7" t="s">
+      <c r="N53" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O53" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>43000305</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>4</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>271</v>
+      <c r="F54" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="G54">
         <v>11000005</v>
       </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7">
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
         <v>14</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="J54" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="7" t="s">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O54" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P54" s="7" t="s">
+      <c r="N54" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O54" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>43000306</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="7">
-        <v>3</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="4">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>272</v>
+      <c r="F55" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="G55">
         <v>11000008</v>
       </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7">
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
         <v>1</v>
       </c>
-      <c r="K55" s="7">
+      <c r="J55" s="4">
         <v>6</v>
       </c>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N55" s="7" t="s">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="O55" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P55" s="7" t="s">
+      <c r="N55" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O55" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>43000307</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="4">
         <v>4</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="4">
         <v>51000185</v>
       </c>
       <c r="G56">
         <v>11000001</v>
       </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7">
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
         <v>10</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="J56" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N56" s="7" t="s">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M56" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O56" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P56" s="7" t="s">
+      <c r="N56" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O56" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>43000308</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <v>4</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="4">
         <v>51000192</v>
       </c>
       <c r="G57">
         <v>11000001</v>
       </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0</v>
-      </c>
-      <c r="J57" s="7">
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
         <v>11</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="J57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="7" t="s">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="O57" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P57" s="7" t="s">
+      <c r="N57" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O57" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>43000309</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <v>4</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="4">
         <v>51000282</v>
       </c>
       <c r="G58">
         <v>11000004</v>
       </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
         <v>13</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="J58" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="7" t="s">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="O58" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P58" s="7" t="s">
+      <c r="N58" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O58" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>43000310</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="4">
         <v>4</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="4">
         <v>51000057</v>
       </c>
       <c r="G59">
         <v>11000003</v>
       </c>
-      <c r="H59" s="7">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
         <v>8</v>
       </c>
-      <c r="K59" s="7">
+      <c r="J59" s="4">
         <v>2</v>
       </c>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="7" t="s">
+      <c r="K59" s="4"/>
+      <c r="L59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="O59" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P59" s="7" t="s">
+      <c r="N59" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O59" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>43000311</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="4">
         <v>4</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>273</v>
+      <c r="F60" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="G60">
         <v>11000005</v>
       </c>
-      <c r="H60" s="7">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>0</v>
-      </c>
-      <c r="J60" s="7">
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
         <v>13</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="J60" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="7" t="s">
+      <c r="K60" s="4"/>
+      <c r="L60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="O60" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P60" s="7" t="s">
+      <c r="N60" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O60" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>43000312</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="4">
         <v>4</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>274</v>
+      <c r="F61" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="G61">
         <v>11000001</v>
       </c>
-      <c r="H61" s="7">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>0</v>
-      </c>
-      <c r="J61" s="7">
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
         <v>18</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="J61" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N61" s="7" t="s">
+      <c r="K61" s="4"/>
+      <c r="L61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M61" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="O61" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P61" s="7" t="s">
+      <c r="N61" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O61" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>43000401</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <v>5</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="4">
         <v>51000224</v>
       </c>
       <c r="G62">
         <v>11000002</v>
       </c>
-      <c r="H62" s="7">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>0</v>
-      </c>
-      <c r="J62" s="7">
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
         <v>10</v>
       </c>
-      <c r="K62" s="7">
+      <c r="J62" s="4">
         <v>6</v>
       </c>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="7" t="s">
+      <c r="K62" s="4"/>
+      <c r="L62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="O62" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P62" s="7" t="s">
+      <c r="N62" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O62" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>43000402</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="4">
         <v>5</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="4">
         <v>51000130</v>
       </c>
       <c r="G63">
         <v>11000001</v>
       </c>
-      <c r="H63" s="7">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
         <v>11</v>
       </c>
-      <c r="K63" s="7">
+      <c r="J63" s="4">
         <v>5</v>
       </c>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N63" s="7" t="s">
+      <c r="K63" s="4"/>
+      <c r="L63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M63" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="O63" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P63" s="7" t="s">
+      <c r="N63" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O63" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>43000403</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="4">
         <v>5</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>275</v>
+      <c r="F64" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="G64">
         <v>11000002</v>
       </c>
-      <c r="H64" s="7">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>0</v>
-      </c>
-      <c r="J64" s="7">
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
         <v>13</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="J64" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N64" s="7" t="s">
+      <c r="K64" s="4"/>
+      <c r="L64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O64" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P64" s="7" t="s">
+      <c r="N64" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O64" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>43000404</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="4">
         <v>5</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="4">
         <v>51000099</v>
       </c>
       <c r="G65">
         <v>11000001</v>
       </c>
-      <c r="H65" s="7">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>0</v>
-      </c>
-      <c r="J65" s="7">
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
         <v>14</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="J65" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N65" s="7" t="s">
+      <c r="K65" s="4"/>
+      <c r="L65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M65" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="O65" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P65" s="7" t="s">
+      <c r="N65" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O65" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>43000405</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="4">
         <v>5</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>276</v>
+      <c r="F66" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="G66">
         <v>11000007</v>
       </c>
-      <c r="H66" s="7">
-        <v>0</v>
-      </c>
-      <c r="I66" s="7">
-        <v>0</v>
-      </c>
-      <c r="J66" s="7">
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
         <v>18</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="J66" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="7" t="s">
+      <c r="K66" s="4"/>
+      <c r="L66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="O66" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P66" s="7" t="s">
+      <c r="N66" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O66" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>43000406</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="4">
         <v>5</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="4">
         <v>51000198</v>
       </c>
       <c r="G67">
         <v>11000006</v>
       </c>
-      <c r="H67" s="7">
-        <v>0</v>
-      </c>
-      <c r="I67" s="7">
-        <v>0</v>
-      </c>
-      <c r="J67" s="7">
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
         <v>15</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="J67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N67" s="7" t="s">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M67" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O67" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P67" s="7" t="s">
+      <c r="N67" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O67" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>43000407</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="4">
         <v>5</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="4">
         <v>51000185</v>
       </c>
       <c r="G68">
         <v>11000004</v>
       </c>
-      <c r="H68" s="7">
-        <v>0</v>
-      </c>
-      <c r="I68" s="7">
-        <v>0</v>
-      </c>
-      <c r="J68" s="7">
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
         <v>10</v>
       </c>
-      <c r="K68" s="7">
+      <c r="J68" s="4">
         <v>4</v>
       </c>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N68" s="7" t="s">
+      <c r="K68" s="4"/>
+      <c r="L68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M68" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="O68" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P68" s="7" t="s">
+      <c r="N68" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O68" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>43000408</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="4">
         <v>5</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="4">
         <v>51000129</v>
       </c>
       <c r="G69">
         <v>11000002</v>
       </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>0</v>
-      </c>
-      <c r="J69" s="7">
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
         <v>7</v>
       </c>
-      <c r="K69" s="7">
+      <c r="J69" s="4">
         <v>5</v>
       </c>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N69" s="7" t="s">
+      <c r="K69" s="4"/>
+      <c r="L69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M69" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="O69" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P69" s="7" t="s">
+      <c r="N69" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O69" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>43000501</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="4">
         <v>6</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="4">
         <v>51000012</v>
       </c>
       <c r="G70">
         <v>11000003</v>
       </c>
-      <c r="H70" s="7">
-        <v>0</v>
-      </c>
-      <c r="I70" s="7">
-        <v>0</v>
-      </c>
-      <c r="J70" s="7">
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
         <v>15</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="J70" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N70" s="7" t="s">
+      <c r="K70" s="4"/>
+      <c r="L70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="O70" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P70" s="7" t="s">
+      <c r="N70" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O70" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>43000502</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="4">
         <v>6</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="4">
         <v>51000194</v>
       </c>
       <c r="G71">
         <v>11000002</v>
       </c>
-      <c r="H71" s="7">
-        <v>0</v>
-      </c>
-      <c r="I71" s="7">
-        <v>0</v>
-      </c>
-      <c r="J71" s="7">
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
         <v>13</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="J71" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N71" s="7" t="s">
+      <c r="K71" s="4"/>
+      <c r="L71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M71" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="O71" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P71" s="7" t="s">
+      <c r="N71" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O71" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>43000503</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="4">
         <v>6</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="4">
         <v>51000196</v>
       </c>
       <c r="G72">
         <v>11000008</v>
       </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7">
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
         <v>9</v>
       </c>
-      <c r="K72" s="7">
-        <v>3</v>
-      </c>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="7" t="s">
+      <c r="J72" s="4">
+        <v>3</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="O72" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P72" s="7" t="s">
+      <c r="N72" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O72" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>43000504</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="4">
         <v>6</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="4">
         <v>51000243</v>
       </c>
       <c r="G73">
         <v>11000001</v>
       </c>
-      <c r="H73" s="7">
-        <v>0</v>
-      </c>
-      <c r="I73" s="7">
-        <v>0</v>
-      </c>
-      <c r="J73" s="7">
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
         <v>19</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="J73" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N73" s="7" t="s">
+      <c r="K73" s="4"/>
+      <c r="L73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M73" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="O73" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P73" s="7" t="s">
+      <c r="N73" s="4" t="s">
         <v>181</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -6578,13 +6310,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6594,677 +6326,636 @@
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="6.125" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="10" width="6.125" customWidth="1"/>
-    <col min="11" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
-    <col min="14" max="15" width="10.625" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.125" customWidth="1"/>
+    <col min="10" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="M3" s="16" t="s">
+      <c r="L3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="P3" s="16" t="s">
+      <c r="N3" s="10" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O3" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43010001</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>101</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>51018001</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43010002</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>101</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>51018001</v>
       </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="4">
         <v>5</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O5" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43010003</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>101</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>51018001</v>
       </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="M6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P6" s="7" t="s">
+      <c r="N6" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O6" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43010004</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>101</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>51018001</v>
       </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="I7" s="4">
         <v>10</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="M7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="N7" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O7" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>101</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>51018001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M8" s="9" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="M8" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P8" s="9" t="s">
+      <c r="N8" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O8" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>101</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>51018001</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M9" s="9" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="M9" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P9" s="9" t="s">
+      <c r="N9" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O9" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43010101</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>102</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <v>10040</v>
       </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>51018001</v>
       </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="I10" s="4">
         <v>5</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M10" s="7" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="M10" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="N10" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O10" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43010102</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>102</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <v>10040</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>51018001</v>
       </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="I11" s="4">
         <v>10</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M11" s="7" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="M11" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="N11" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O11" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43010103</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>102</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <v>10223</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
         <v>51018001</v>
       </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="I12" s="4">
         <v>5</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="M12" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="N12" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O12" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43010104</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>102</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <v>51018001</v>
       </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="I13" s="4">
         <v>10</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M13" s="7" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="M13" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="N13" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O13" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>102</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <v>10065</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>51018001</v>
       </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="4">
         <v>25</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="M14" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="N14" s="4" t="s">
         <v>207</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -2179,33 +2179,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color rgb="FF4F81BD"/>
@@ -2260,6 +2233,33 @@
           <bgColor theme="9" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2728,35 +2728,35 @@
     <tableColumn id="16" name="EnergyRate" dataDxfId="22"/>
     <tableColumn id="13" name="Method" dataDxfId="21"/>
     <tableColumn id="14" name="Emethod" dataDxfId="20"/>
-    <tableColumn id="17" name="Figue" dataDxfId="2"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="19"/>
+    <tableColumn id="17" name="Figue" dataDxfId="19"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:O14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:O14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A3:O14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="15"/>
-    <tableColumn id="2" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" name="Type" dataDxfId="13"/>
-    <tableColumn id="6" name="World" dataDxfId="12"/>
-    <tableColumn id="7" name="Deck" dataDxfId="11"/>
-    <tableColumn id="8" name="Cards" dataDxfId="10"/>
-    <tableColumn id="10" name="Job" dataDxfId="9"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="8"/>
-    <tableColumn id="11" name="Level" dataDxfId="7"/>
-    <tableColumn id="12" name="Reward" dataDxfId="6"/>
-    <tableColumn id="16" name="EnergyRate" dataDxfId="5"/>
-    <tableColumn id="13" name="Method" dataDxfId="4"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="3"/>
-    <tableColumn id="9" name="Figue" dataDxfId="0"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="14"/>
+    <tableColumn id="2" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" name="Type" dataDxfId="12"/>
+    <tableColumn id="6" name="World" dataDxfId="11"/>
+    <tableColumn id="7" name="Deck" dataDxfId="10"/>
+    <tableColumn id="8" name="Cards" dataDxfId="9"/>
+    <tableColumn id="10" name="Job" dataDxfId="8"/>
+    <tableColumn id="4" name="KingCard" dataDxfId="7"/>
+    <tableColumn id="11" name="Level" dataDxfId="6"/>
+    <tableColumn id="12" name="Reward" dataDxfId="5"/>
+    <tableColumn id="16" name="EnergyRate" dataDxfId="4"/>
+    <tableColumn id="13" name="Method" dataDxfId="3"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="2"/>
+    <tableColumn id="9" name="Figue" dataDxfId="1"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3058,21 +3058,21 @@
       <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="6.25" customWidth="1"/>
-    <col min="10" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>210</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>222</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43000001</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>43000002</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43000003</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>43000004</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>43000005</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>43000007</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>43000010</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>43000011</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>43000012</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>43000013</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>43000014</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>43000015</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>43000016</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>43000017</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>43000018</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43000019</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>43000020</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>43000021</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>43000022</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>43000023</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>43000024</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>43000025</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>43000026</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>43000027</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>43000028</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43000029</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>43000030</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>43000031</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>43000032</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>43000033</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>43000101</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>43000102</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43000103</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>43000104</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43000105</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43000106</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43000107</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43000108</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43000109</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43000110</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43000201</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43000202</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>43000203</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43000301</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43000302</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>43000303</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>43000304</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>43000305</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>43000306</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>43000307</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>43000308</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>43000309</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>43000310</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>43000311</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>43000312</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>43000401</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>43000402</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>43000403</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>43000404</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>43000405</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>43000406</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>43000407</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>43000408</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>43000501</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>43000502</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>43000503</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>43000504</v>
       </c>
@@ -6316,25 +6316,25 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4:O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="6.125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="6.125" customWidth="1"/>
-    <col min="10" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" customWidth="1"/>
+    <col min="10" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>210</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>208</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>222</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43010001</v>
       </c>
@@ -6515,10 +6515,10 @@
         <v>277</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>43010002</v>
       </c>
@@ -6558,10 +6558,10 @@
         <v>186</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>43010003</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>43010004</v>
       </c>
@@ -6644,10 +6644,10 @@
         <v>190</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>43010005</v>
       </c>
@@ -6687,10 +6687,10 @@
         <v>237</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>43010006</v>
       </c>
@@ -6730,10 +6730,10 @@
         <v>240</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>43010101</v>
       </c>
@@ -6775,10 +6775,10 @@
         <v>195</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>43010102</v>
       </c>
@@ -6820,10 +6820,10 @@
         <v>199</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>43010103</v>
       </c>
@@ -6865,10 +6865,10 @@
         <v>201</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>43010104</v>
       </c>
@@ -6910,10 +6910,10 @@
         <v>205</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>43010105</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>207</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="274">
   <si>
     <t>老鼠</t>
   </si>
@@ -262,9 +262,6 @@
     <t>威阿伊丁</t>
   </si>
   <si>
-    <t>atr4;atr7</t>
-  </si>
-  <si>
     <t>5;7</t>
   </si>
   <si>
@@ -415,9 +412,6 @@
     <t>萨恩</t>
   </si>
   <si>
-    <t>atr8;atr6</t>
-  </si>
-  <si>
     <t>saen</t>
   </si>
   <si>
@@ -445,9 +439,6 @@
     <t>拉凯尔</t>
   </si>
   <si>
-    <t>atr7</t>
-  </si>
-  <si>
     <t>lakar</t>
   </si>
   <si>
@@ -460,18 +451,12 @@
     <t>维加</t>
   </si>
   <si>
-    <t>atr8;atr4</t>
-  </si>
-  <si>
     <t>viga</t>
   </si>
   <si>
     <t>纳隆</t>
   </si>
   <si>
-    <t>atr4;atr6</t>
-  </si>
-  <si>
     <t>5;6</t>
   </si>
   <si>
@@ -509,9 +494,6 @@
   </si>
   <si>
     <t>洛克</t>
-  </si>
-  <si>
-    <t>atr8</t>
   </si>
   <si>
     <t>lock</t>
@@ -883,6 +865,18 @@
     <t>快速对战
 地图</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>atr4;atr0</t>
+  </si>
+  <si>
+    <t>atr4;atr5</t>
+  </si>
+  <si>
+    <t>atr6;atr0</t>
+  </si>
+  <si>
+    <t>atr6;atr4</t>
   </si>
 </sst>
 </file>
@@ -1675,69 +1669,15 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1891,15 +1831,69 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2578,15 +2572,15 @@
     <tableColumn id="3" name="Type" dataDxfId="11"/>
     <tableColumn id="6" name="World" dataDxfId="10"/>
     <tableColumn id="7" name="Deck" dataDxfId="9"/>
-    <tableColumn id="8" name="Cards" dataDxfId="2"/>
-    <tableColumn id="10" name="Job" dataDxfId="0"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="1"/>
-    <tableColumn id="11" name="Level" dataDxfId="8"/>
-    <tableColumn id="12" name="Reward" dataDxfId="7"/>
-    <tableColumn id="13" name="Method" dataDxfId="6"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="5"/>
-    <tableColumn id="9" name="Figue" dataDxfId="4"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="3"/>
+    <tableColumn id="8" name="Cards" dataDxfId="8"/>
+    <tableColumn id="10" name="Job" dataDxfId="7"/>
+    <tableColumn id="4" name="KingCard" dataDxfId="6"/>
+    <tableColumn id="11" name="Level" dataDxfId="5"/>
+    <tableColumn id="12" name="Reward" dataDxfId="4"/>
+    <tableColumn id="13" name="Method" dataDxfId="3"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="2"/>
+    <tableColumn id="9" name="Figue" dataDxfId="1"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2882,10 +2876,10 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2904,134 +2898,134 @@
   <sheetData>
     <row r="1" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="H1" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="J1" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="N1" s="14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="N3" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -3071,7 +3065,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -3111,7 +3105,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -3151,7 +3145,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -3191,7 +3185,7 @@
         <v>10</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -3231,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3271,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -3311,7 +3305,7 @@
         <v>16</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -3351,7 +3345,7 @@
         <v>18</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -3391,7 +3385,7 @@
         <v>20</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -3431,7 +3425,7 @@
         <v>22</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -3471,7 +3465,7 @@
         <v>24</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -3511,7 +3505,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -3551,7 +3545,7 @@
         <v>28</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -3591,7 +3585,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -3631,7 +3625,7 @@
         <v>32</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -3671,7 +3665,7 @@
         <v>34</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -3711,7 +3705,7 @@
         <v>36</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -3751,7 +3745,7 @@
         <v>38</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -3791,7 +3785,7 @@
         <v>40</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -3831,7 +3825,7 @@
         <v>42</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -3871,7 +3865,7 @@
         <v>44</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -3911,7 +3905,7 @@
         <v>46</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -3951,7 +3945,7 @@
         <v>48</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -3991,7 +3985,7 @@
         <v>50</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -4031,7 +4025,7 @@
         <v>52</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -4071,7 +4065,7 @@
         <v>54</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -4111,7 +4105,7 @@
         <v>56</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -4151,7 +4145,7 @@
         <v>58</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -4191,7 +4185,7 @@
         <v>60</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -4231,7 +4225,7 @@
         <v>62</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -4271,7 +4265,7 @@
         <v>64</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -4311,7 +4305,7 @@
         <v>66</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -4351,7 +4345,7 @@
         <v>68</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -4371,7 +4365,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G37">
         <v>11000001</v>
@@ -4395,7 +4389,7 @@
         <v>71</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -4415,7 +4409,7 @@
         <v>73</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G38">
         <v>11000003</v>
@@ -4439,7 +4433,7 @@
         <v>74</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -4459,7 +4453,7 @@
         <v>76</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G39">
         <v>11000002</v>
@@ -4483,7 +4477,7 @@
         <v>78</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -4500,10 +4494,10 @@
         <v>70</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G40">
         <v>11000008</v>
@@ -4515,19 +4509,19 @@
         <v>9</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="M40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -4535,7 +4529,7 @@
         <v>43000105</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -4544,10 +4538,10 @@
         <v>70</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G41">
         <v>11000007</v>
@@ -4559,19 +4553,19 @@
         <v>12</v>
       </c>
       <c r="J41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="M41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -4579,7 +4573,7 @@
         <v>43000106</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -4588,10 +4582,10 @@
         <v>70</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G42">
         <v>11000005</v>
@@ -4603,19 +4597,19 @@
         <v>14</v>
       </c>
       <c r="J42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="M42" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -4623,7 +4617,7 @@
         <v>43000107</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -4635,7 +4629,7 @@
         <v>73</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G43">
         <v>11000007</v>
@@ -4647,19 +4641,19 @@
         <v>15</v>
       </c>
       <c r="J43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="M43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -4667,7 +4661,7 @@
         <v>43000108</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -4676,10 +4670,10 @@
         <v>70</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G44">
         <v>11000005</v>
@@ -4691,19 +4685,19 @@
         <v>18</v>
       </c>
       <c r="J44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="M44" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -4711,7 +4705,7 @@
         <v>43000109</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -4720,10 +4714,10 @@
         <v>70</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G45">
         <v>11000006</v>
@@ -4735,19 +4729,19 @@
         <v>21</v>
       </c>
       <c r="J45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="M45" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -4755,7 +4749,7 @@
         <v>43000110</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -4764,10 +4758,10 @@
         <v>70</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G46">
         <v>11000006</v>
@@ -4779,19 +4773,19 @@
         <v>24</v>
       </c>
       <c r="J46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="M46" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -4799,19 +4793,19 @@
         <v>43000201</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G47">
         <v>11000007</v>
@@ -4823,19 +4817,19 @@
         <v>22</v>
       </c>
       <c r="J47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="M47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -4843,19 +4837,19 @@
         <v>43000202</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4">
         <v>2</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G48">
         <v>11000001</v>
@@ -4867,19 +4861,19 @@
         <v>17</v>
       </c>
       <c r="J48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="M48" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -4887,19 +4881,19 @@
         <v>43000203</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="4">
         <v>2</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G49">
         <v>11000002</v>
@@ -4911,19 +4905,19 @@
         <v>22</v>
       </c>
       <c r="J49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="M49" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -4931,16 +4925,16 @@
         <v>43000301</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="4">
+        <v>3</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="4">
-        <v>3</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="F50" s="4">
         <v>51000060</v>
@@ -4961,13 +4955,13 @@
         <v>3</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
@@ -4975,16 +4969,16 @@
         <v>43000302</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="F51" s="4">
         <v>51000222</v>
@@ -5005,13 +4999,13 @@
         <v>3</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
@@ -5019,19 +5013,19 @@
         <v>43000303</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="4">
         <v>4</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G52">
         <v>11000004</v>
@@ -5049,13 +5043,13 @@
         <v>3</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
@@ -5063,19 +5057,19 @@
         <v>43000304</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="4">
         <v>4</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G53">
         <v>11000002</v>
@@ -5087,19 +5081,19 @@
         <v>14</v>
       </c>
       <c r="J53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="M53" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
@@ -5107,19 +5101,19 @@
         <v>43000305</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="4">
         <v>4</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G54">
         <v>11000005</v>
@@ -5131,19 +5125,19 @@
         <v>14</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
@@ -5151,19 +5145,19 @@
         <v>43000306</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G55">
         <v>11000008</v>
@@ -5181,13 +5175,13 @@
         <v>3</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
@@ -5195,16 +5189,16 @@
         <v>43000307</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4">
         <v>51000185</v>
@@ -5219,19 +5213,19 @@
         <v>10</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
@@ -5239,16 +5233,16 @@
         <v>43000308</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C57" s="4">
         <v>4</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F57" s="4">
         <v>51000192</v>
@@ -5269,13 +5263,13 @@
         <v>3</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
@@ -5283,16 +5277,16 @@
         <v>43000309</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" s="4">
         <v>4</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F58" s="4">
         <v>51000282</v>
@@ -5307,19 +5301,19 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
@@ -5327,13 +5321,13 @@
         <v>43000310</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4">
         <v>4</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>2</v>
@@ -5357,13 +5351,13 @@
         <v>3</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
@@ -5371,19 +5365,19 @@
         <v>43000311</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G60">
         <v>11000005</v>
@@ -5395,19 +5389,19 @@
         <v>13</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
@@ -5415,19 +5409,19 @@
         <v>43000312</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C61" s="4">
         <v>4</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G61">
         <v>11000001</v>
@@ -5439,19 +5433,19 @@
         <v>18</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
@@ -5459,16 +5453,16 @@
         <v>43000401</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C62" s="4">
         <v>5</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F62" s="4">
         <v>51000224</v>
@@ -5489,13 +5483,13 @@
         <v>3</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -5503,16 +5497,16 @@
         <v>43000402</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C63" s="4">
         <v>5</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F63" s="4">
         <v>51000130</v>
@@ -5533,13 +5527,13 @@
         <v>3</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
@@ -5547,19 +5541,19 @@
         <v>43000403</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C64" s="4">
         <v>5</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G64">
         <v>11000002</v>
@@ -5571,19 +5565,19 @@
         <v>13</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
@@ -5591,13 +5585,13 @@
         <v>43000404</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4">
         <v>5</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>76</v>
@@ -5615,19 +5609,19 @@
         <v>14</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
@@ -5635,19 +5629,19 @@
         <v>43000405</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C66" s="4">
         <v>5</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G66">
         <v>11000007</v>
@@ -5659,19 +5653,19 @@
         <v>18</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
@@ -5679,16 +5673,16 @@
         <v>43000406</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C67" s="4">
         <v>5</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" s="4">
         <v>51000198</v>
@@ -5703,19 +5697,19 @@
         <v>15</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
@@ -5723,13 +5717,13 @@
         <v>43000407</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C68" s="4">
         <v>5</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>2</v>
@@ -5753,13 +5747,13 @@
         <v>3</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
@@ -5767,16 +5761,16 @@
         <v>43000408</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C69" s="4">
         <v>5</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F69" s="4">
         <v>51000129</v>
@@ -5797,13 +5791,13 @@
         <v>3</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
@@ -5811,16 +5805,16 @@
         <v>43000501</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C70" s="4">
         <v>6</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="F70" s="4">
         <v>51000012</v>
@@ -5835,19 +5829,19 @@
         <v>15</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
@@ -5855,16 +5849,16 @@
         <v>43000502</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C71" s="4">
         <v>6</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F71" s="4">
         <v>51000194</v>
@@ -5885,13 +5879,13 @@
         <v>3</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
@@ -5899,16 +5893,16 @@
         <v>43000503</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C72" s="4">
         <v>6</v>
       </c>
       <c r="D72" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="F72" s="4">
         <v>51000196</v>
@@ -5929,13 +5923,13 @@
         <v>3</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
@@ -5943,16 +5937,16 @@
         <v>43000504</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C73" s="4">
         <v>6</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F73" s="4">
         <v>51000243</v>
@@ -5967,19 +5961,19 @@
         <v>19</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6020,134 +6014,134 @@
   <sheetData>
     <row r="1" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>221</v>
-      </c>
       <c r="N1" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="H3" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="N3" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -6155,13 +6149,13 @@
         <v>43010001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C4" s="4">
         <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>2</v>
@@ -6181,13 +6175,13 @@
         <v>3</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -6195,13 +6189,13 @@
         <v>43010002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C5" s="4">
         <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
@@ -6224,10 +6218,10 @@
         <v>3</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -6235,13 +6229,13 @@
         <v>43010003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C6" s="4">
         <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -6258,16 +6252,16 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -6275,13 +6269,13 @@
         <v>43010004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C7" s="4">
         <v>101</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
@@ -6298,16 +6292,16 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -6315,13 +6309,13 @@
         <v>43010005</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C8" s="4">
         <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -6338,16 +6332,16 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -6355,13 +6349,13 @@
         <v>43010006</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C9" s="4">
         <v>101</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -6378,16 +6372,16 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -6395,13 +6389,13 @@
         <v>43010101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C10" s="4">
         <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>2</v>
@@ -6420,16 +6414,16 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -6437,13 +6431,13 @@
         <v>43010102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C11" s="4">
         <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>2</v>
@@ -6462,16 +6456,16 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -6479,13 +6473,13 @@
         <v>43010103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C12" s="4">
         <v>102</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>2</v>
@@ -6504,16 +6498,16 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -6521,19 +6515,19 @@
         <v>43010104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C13" s="4">
         <v>102</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G13" s="18">
         <v>11001001</v>
@@ -6546,16 +6540,16 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -6563,13 +6557,13 @@
         <v>43010105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C14" s="4">
         <v>102</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>2</v>
@@ -6588,16 +6582,16 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="287">
   <si>
     <t>老鼠</t>
   </si>
@@ -877,6 +877,58 @@
   </si>
   <si>
     <t>atr6;atr4</t>
+  </si>
+  <si>
+    <t>左方Add</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>右方Add</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>左方Add</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>右方Add</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000229;-4;1;51000229;-4;3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019298;4;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019299;4;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019299;-4;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019298;-4;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1652,7 +1704,115 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2535,52 +2695,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:N73" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" tableBorderDxfId="31">
-  <autoFilter ref="A3:N73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P73" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="A3:P73"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="30"/>
-    <tableColumn id="2" name="Name" dataDxfId="29"/>
-    <tableColumn id="3" name="Type" dataDxfId="28"/>
-    <tableColumn id="6" name="World" dataDxfId="27"/>
-    <tableColumn id="7" name="Deck" dataDxfId="26"/>
-    <tableColumn id="8" name="Cards" dataDxfId="25"/>
-    <tableColumn id="10" name="Job" dataDxfId="24"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="23"/>
-    <tableColumn id="11" name="Level" dataDxfId="22"/>
-    <tableColumn id="12" name="Reward" dataDxfId="21"/>
-    <tableColumn id="13" name="Method" dataDxfId="20"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="19"/>
-    <tableColumn id="17" name="Figue" dataDxfId="18"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="17"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="34"/>
+    <tableColumn id="2" name="Name" dataDxfId="33"/>
+    <tableColumn id="3" name="Type" dataDxfId="32"/>
+    <tableColumn id="6" name="World" dataDxfId="31"/>
+    <tableColumn id="7" name="Deck" dataDxfId="30"/>
+    <tableColumn id="8" name="Cards" dataDxfId="29"/>
+    <tableColumn id="10" name="Job" dataDxfId="28"/>
+    <tableColumn id="4" name="KingCard" dataDxfId="27"/>
+    <tableColumn id="11" name="Level" dataDxfId="26"/>
+    <tableColumn id="12" name="Reward" dataDxfId="25"/>
+    <tableColumn id="13" name="Method" dataDxfId="24"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="23"/>
+    <tableColumn id="5" name="LeftMon" dataDxfId="3"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="2"/>
+    <tableColumn id="17" name="Figue" dataDxfId="22"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:N14" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A3:N14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A3:P14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="13"/>
-    <tableColumn id="2" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="6" name="World" dataDxfId="10"/>
-    <tableColumn id="7" name="Deck" dataDxfId="9"/>
-    <tableColumn id="8" name="Cards" dataDxfId="8"/>
-    <tableColumn id="10" name="Job" dataDxfId="7"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="6"/>
-    <tableColumn id="11" name="Level" dataDxfId="5"/>
-    <tableColumn id="12" name="Reward" dataDxfId="4"/>
-    <tableColumn id="13" name="Method" dataDxfId="3"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="2"/>
-    <tableColumn id="9" name="Figue" dataDxfId="1"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="0"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="17"/>
+    <tableColumn id="2" name="Name" dataDxfId="16"/>
+    <tableColumn id="3" name="Type" dataDxfId="15"/>
+    <tableColumn id="6" name="World" dataDxfId="14"/>
+    <tableColumn id="7" name="Deck" dataDxfId="13"/>
+    <tableColumn id="8" name="Cards" dataDxfId="12"/>
+    <tableColumn id="10" name="Job" dataDxfId="11"/>
+    <tableColumn id="4" name="KingCard" dataDxfId="10"/>
+    <tableColumn id="11" name="Level" dataDxfId="9"/>
+    <tableColumn id="12" name="Reward" dataDxfId="8"/>
+    <tableColumn id="13" name="Method" dataDxfId="7"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="6"/>
+    <tableColumn id="5" name="LeftMon" dataDxfId="1"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="0"/>
+    <tableColumn id="9" name="Figue" dataDxfId="5"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2873,13 +3037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2892,11 +3056,11 @@
     <col min="9" max="9" width="6.25" customWidth="1"/>
     <col min="10" max="10" width="11.875" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="12" max="14" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>204</v>
       </c>
@@ -2933,14 +3097,20 @@
       <c r="L1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>202</v>
       </c>
@@ -2977,14 +3147,20 @@
       <c r="L2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>216</v>
       </c>
@@ -3022,13 +3198,19 @@
         <v>226</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
@@ -3061,14 +3243,16 @@
       <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
@@ -3101,14 +3285,16 @@
       <c r="L5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
@@ -3141,14 +3327,16 @@
       <c r="L6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
@@ -3181,14 +3369,16 @@
       <c r="L7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
@@ -3221,14 +3411,16 @@
       <c r="L8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -3261,14 +3453,16 @@
       <c r="L9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
@@ -3301,14 +3495,16 @@
       <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -3341,14 +3537,16 @@
       <c r="L11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -3381,14 +3579,16 @@
       <c r="L12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
@@ -3421,14 +3621,16 @@
       <c r="L13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
@@ -3461,14 +3663,16 @@
       <c r="L14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000012</v>
       </c>
@@ -3501,14 +3705,16 @@
       <c r="L15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000013</v>
       </c>
@@ -3541,14 +3747,16 @@
       <c r="L16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000014</v>
       </c>
@@ -3581,14 +3789,16 @@
       <c r="L17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
@@ -3621,14 +3831,16 @@
       <c r="L18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
@@ -3661,14 +3873,16 @@
       <c r="L19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
@@ -3701,14 +3915,16 @@
       <c r="L20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
@@ -3741,14 +3957,16 @@
       <c r="L21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000019</v>
       </c>
@@ -3781,14 +3999,16 @@
       <c r="L22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
@@ -3821,14 +4041,16 @@
       <c r="L23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000021</v>
       </c>
@@ -3861,14 +4083,16 @@
       <c r="L24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000022</v>
       </c>
@@ -3901,14 +4125,16 @@
       <c r="L25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000023</v>
       </c>
@@ -3941,14 +4167,16 @@
       <c r="L26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="P26" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000024</v>
       </c>
@@ -3981,14 +4209,16 @@
       <c r="L27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000025</v>
       </c>
@@ -4021,14 +4251,16 @@
       <c r="L28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000026</v>
       </c>
@@ -4061,14 +4293,16 @@
       <c r="L29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000027</v>
       </c>
@@ -4101,14 +4335,16 @@
       <c r="L30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="P30" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000028</v>
       </c>
@@ -4141,14 +4377,16 @@
       <c r="L31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000029</v>
       </c>
@@ -4181,14 +4419,16 @@
       <c r="L32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000030</v>
       </c>
@@ -4221,14 +4461,16 @@
       <c r="L33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000031</v>
       </c>
@@ -4261,14 +4503,16 @@
       <c r="L34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000032</v>
       </c>
@@ -4301,14 +4545,16 @@
       <c r="L35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000033</v>
       </c>
@@ -4341,14 +4587,16 @@
       <c r="L36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000101</v>
       </c>
@@ -4385,14 +4633,16 @@
       <c r="L37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="P37" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43000102</v>
       </c>
@@ -4429,14 +4679,16 @@
       <c r="L38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="P38" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43000103</v>
       </c>
@@ -4473,14 +4725,16 @@
       <c r="L39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43000104</v>
       </c>
@@ -4517,14 +4771,16 @@
       <c r="L40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43000105</v>
       </c>
@@ -4561,14 +4817,16 @@
       <c r="L41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="P41" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43000106</v>
       </c>
@@ -4605,14 +4863,16 @@
       <c r="L42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="P42" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43000107</v>
       </c>
@@ -4649,14 +4909,16 @@
       <c r="L43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="P43" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43000108</v>
       </c>
@@ -4693,14 +4955,16 @@
       <c r="L44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="P44" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43000109</v>
       </c>
@@ -4737,14 +5001,16 @@
       <c r="L45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="P45" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43000110</v>
       </c>
@@ -4781,14 +5047,16 @@
       <c r="L46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="P46" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43000201</v>
       </c>
@@ -4825,14 +5093,16 @@
       <c r="L47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="P47" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>43000202</v>
       </c>
@@ -4869,14 +5139,16 @@
       <c r="L48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="P48" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>43000203</v>
       </c>
@@ -4913,14 +5185,16 @@
       <c r="L49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="P49" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>43000301</v>
       </c>
@@ -4957,14 +5231,16 @@
       <c r="L50" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>43000302</v>
       </c>
@@ -5001,14 +5277,16 @@
       <c r="L51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>43000303</v>
       </c>
@@ -5045,14 +5323,16 @@
       <c r="L52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="P52" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>43000304</v>
       </c>
@@ -5089,14 +5369,16 @@
       <c r="L53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="P53" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>43000305</v>
       </c>
@@ -5133,14 +5415,16 @@
       <c r="L54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="P54" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>43000306</v>
       </c>
@@ -5177,14 +5461,16 @@
       <c r="L55" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="P55" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>43000307</v>
       </c>
@@ -5221,14 +5507,16 @@
       <c r="L56" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="P56" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>43000308</v>
       </c>
@@ -5265,14 +5553,16 @@
       <c r="L57" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="P57" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>43000309</v>
       </c>
@@ -5309,14 +5599,16 @@
       <c r="L58" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M58" s="4" t="s">
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="P58" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>43000310</v>
       </c>
@@ -5353,14 +5645,16 @@
       <c r="L59" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="M59" s="4" t="s">
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="P59" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>43000311</v>
       </c>
@@ -5397,14 +5691,16 @@
       <c r="L60" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M60" s="4" t="s">
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="P60" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>43000312</v>
       </c>
@@ -5441,14 +5737,16 @@
       <c r="L61" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M61" s="4" t="s">
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="P61" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>43000401</v>
       </c>
@@ -5485,14 +5783,16 @@
       <c r="L62" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="P62" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>43000402</v>
       </c>
@@ -5529,14 +5829,16 @@
       <c r="L63" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="P63" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>43000403</v>
       </c>
@@ -5573,14 +5875,16 @@
       <c r="L64" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="P64" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>43000404</v>
       </c>
@@ -5617,14 +5921,16 @@
       <c r="L65" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="P65" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>43000405</v>
       </c>
@@ -5661,14 +5967,16 @@
       <c r="L66" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="P66" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>43000406</v>
       </c>
@@ -5705,14 +6013,16 @@
       <c r="L67" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="P67" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>43000407</v>
       </c>
@@ -5749,14 +6059,16 @@
       <c r="L68" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="P68" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>43000408</v>
       </c>
@@ -5793,14 +6105,16 @@
       <c r="L69" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M69" s="4" t="s">
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="P69" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>43000501</v>
       </c>
@@ -5837,14 +6151,16 @@
       <c r="L70" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="M70" s="4" t="s">
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="P70" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>43000502</v>
       </c>
@@ -5881,14 +6197,16 @@
       <c r="L71" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="M71" s="4" t="s">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="P71" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>43000503</v>
       </c>
@@ -5925,14 +6243,16 @@
       <c r="L72" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="M72" s="4" t="s">
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="P72" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>43000504</v>
       </c>
@@ -5969,10 +6289,12 @@
       <c r="L73" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M73" s="4" t="s">
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="P73" s="4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5988,13 +6310,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6007,12 +6329,12 @@
     <col min="9" max="9" width="6.125" customWidth="1"/>
     <col min="10" max="10" width="11.875" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>204</v>
       </c>
@@ -6049,14 +6371,20 @@
       <c r="L1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>202</v>
       </c>
@@ -6093,14 +6421,20 @@
       <c r="L2" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>216</v>
       </c>
@@ -6138,13 +6472,19 @@
         <v>226</v>
       </c>
       <c r="M3" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43010001</v>
       </c>
@@ -6177,14 +6517,18 @@
       <c r="L4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43010002</v>
       </c>
@@ -6217,14 +6561,16 @@
       <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43010003</v>
       </c>
@@ -6257,14 +6603,16 @@
       <c r="L6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43010004</v>
       </c>
@@ -6297,14 +6645,16 @@
       <c r="L7" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
@@ -6334,17 +6684,23 @@
       <c r="K8" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="L8" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
@@ -6375,16 +6731,22 @@
         <v>235</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43010101</v>
       </c>
@@ -6419,14 +6781,16 @@
       <c r="L10" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43010102</v>
       </c>
@@ -6461,14 +6825,16 @@
       <c r="L11" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43010103</v>
       </c>
@@ -6503,14 +6869,16 @@
       <c r="L12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43010104</v>
       </c>
@@ -6545,14 +6913,16 @@
       <c r="L13" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>
@@ -6587,10 +6957,12 @@
       <c r="L14" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>266</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="269">
   <si>
     <t>老鼠</t>
   </si>
@@ -611,9 +611,6 @@
   </si>
   <si>
     <t>龙之谷</t>
-  </si>
-  <si>
-    <t>10065;10066;10182</t>
   </si>
   <si>
     <t>dragons</t>
@@ -656,10 +653,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>招牌卡片</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>职业</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -699,9 +692,6 @@
     <t>Deck</t>
   </si>
   <si>
-    <t>Cards</t>
-  </si>
-  <si>
     <t>Job</t>
   </si>
   <si>
@@ -762,69 +752,6 @@
   <si>
     <t>KingCard</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51000003;51000010</t>
-  </si>
-  <si>
-    <t>51000143;51000144</t>
-  </si>
-  <si>
-    <t>51000147;51000155</t>
-  </si>
-  <si>
-    <t>51000175;51000009</t>
-  </si>
-  <si>
-    <t>51000188;51000220</t>
-  </si>
-  <si>
-    <t>51000036;51000060;51000126</t>
-  </si>
-  <si>
-    <t>51000113;51000189;51000079</t>
-  </si>
-  <si>
-    <t>51000111;51000047;51000198</t>
-  </si>
-  <si>
-    <t>51000177;51000064;51000178</t>
-  </si>
-  <si>
-    <t>51000180;51000094;51000182</t>
-  </si>
-  <si>
-    <t>51000238;51000039;51000242;51000115</t>
-  </si>
-  <si>
-    <t>51000244;51000099</t>
-  </si>
-  <si>
-    <t>51000247;51000165</t>
-  </si>
-  <si>
-    <t>51000253;51000201</t>
-  </si>
-  <si>
-    <t>51000067;51000009</t>
-  </si>
-  <si>
-    <t>51000190;51000221</t>
-  </si>
-  <si>
-    <t>51000250;51000265</t>
-  </si>
-  <si>
-    <t>51000190;51000171</t>
-  </si>
-  <si>
-    <t>51000231;51000193;51000009</t>
-  </si>
-  <si>
-    <t>51000134;51000222</t>
-  </si>
-  <si>
-    <t>51000281;51000270</t>
   </si>
   <si>
     <t>快速对战地图</t>
@@ -928,6 +855,30 @@
   </si>
   <si>
     <t>51019298;-4;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +886,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,6 +1062,27 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1601,7 +1573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1657,6 +1629,21 @@
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1744,9 +1731,9 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="宋体"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -2022,31 +2009,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2626,6 +2588,33 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -2706,45 +2695,45 @@
     <tableColumn id="3" name="Type" dataDxfId="32"/>
     <tableColumn id="6" name="World" dataDxfId="31"/>
     <tableColumn id="7" name="Deck" dataDxfId="30"/>
-    <tableColumn id="8" name="Cards" dataDxfId="29"/>
-    <tableColumn id="10" name="Job" dataDxfId="28"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="27"/>
-    <tableColumn id="11" name="Level" dataDxfId="26"/>
-    <tableColumn id="12" name="Reward" dataDxfId="25"/>
-    <tableColumn id="13" name="Method" dataDxfId="24"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="23"/>
-    <tableColumn id="5" name="LeftMon" dataDxfId="3"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="2"/>
-    <tableColumn id="17" name="Figue" dataDxfId="22"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="21"/>
+    <tableColumn id="10" name="Job" dataDxfId="29"/>
+    <tableColumn id="4" name="KingCard" dataDxfId="28"/>
+    <tableColumn id="11" name="Level" dataDxfId="27"/>
+    <tableColumn id="12" name="Reward" dataDxfId="26"/>
+    <tableColumn id="13" name="Method" dataDxfId="25"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="24"/>
+    <tableColumn id="5" name="LeftMon" dataDxfId="23"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="22"/>
+    <tableColumn id="17" name="Figue" dataDxfId="21"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="20"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A3:P14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="17"/>
-    <tableColumn id="2" name="Name" dataDxfId="16"/>
-    <tableColumn id="3" name="Type" dataDxfId="15"/>
-    <tableColumn id="6" name="World" dataDxfId="14"/>
-    <tableColumn id="7" name="Deck" dataDxfId="13"/>
-    <tableColumn id="8" name="Cards" dataDxfId="12"/>
+    <tableColumn id="1" name="Id" dataDxfId="16"/>
+    <tableColumn id="2" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" name="Type" dataDxfId="14"/>
+    <tableColumn id="6" name="World" dataDxfId="13"/>
+    <tableColumn id="7" name="Deck" dataDxfId="12"/>
     <tableColumn id="10" name="Job" dataDxfId="11"/>
     <tableColumn id="4" name="KingCard" dataDxfId="10"/>
     <tableColumn id="11" name="Level" dataDxfId="9"/>
     <tableColumn id="12" name="Reward" dataDxfId="8"/>
     <tableColumn id="13" name="Method" dataDxfId="7"/>
     <tableColumn id="14" name="Emethod" dataDxfId="6"/>
-    <tableColumn id="5" name="LeftMon" dataDxfId="1"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="0"/>
-    <tableColumn id="9" name="Figue" dataDxfId="5"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="4"/>
+    <tableColumn id="5" name="LeftMon" dataDxfId="5"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="4"/>
+    <tableColumn id="9" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3039,175 +3028,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="6.25" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="14" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="6.25" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="13" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>268</v>
+        <v>243</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>215</v>
+        <v>251</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="P3" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -3226,31 +3215,31 @@
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="18">
+      <c r="F4" s="18">
         <v>11001001</v>
       </c>
+      <c r="G4" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H4" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="O4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -3268,31 +3257,31 @@
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="18">
+      <c r="F5" s="18">
         <v>11001001</v>
       </c>
+      <c r="G5" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H5" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -3310,31 +3299,31 @@
       <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="18">
+      <c r="F6" s="18">
         <v>11001001</v>
       </c>
+      <c r="G6" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H6" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I6" s="4">
         <v>4</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="O6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -3352,31 +3341,31 @@
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="18">
+      <c r="F7" s="18">
         <v>11001001</v>
       </c>
+      <c r="G7" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H7" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -3394,31 +3383,31 @@
       <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="18">
+      <c r="F8" s="18">
         <v>11001001</v>
       </c>
+      <c r="G8" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H8" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I8" s="4">
         <v>7</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="O8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -3436,31 +3425,31 @@
       <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="18">
+      <c r="F9" s="18">
         <v>11001001</v>
       </c>
+      <c r="G9" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H9" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I9" s="4">
         <v>11</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="O9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -3478,31 +3467,31 @@
       <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="18">
+      <c r="F10" s="18">
         <v>11001001</v>
       </c>
+      <c r="G10" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H10" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -3520,31 +3509,31 @@
       <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="18">
+      <c r="F11" s="18">
         <v>11001001</v>
       </c>
+      <c r="G11" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H11" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I11" s="4">
         <v>13</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -3562,31 +3551,31 @@
       <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="18">
+      <c r="F12" s="18">
         <v>11001001</v>
       </c>
+      <c r="G12" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H12" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I12" s="4">
         <v>13</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="O12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -3604,31 +3593,31 @@
       <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="18">
+      <c r="F13" s="18">
         <v>11001001</v>
       </c>
+      <c r="G13" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H13" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I13" s="4">
         <v>6</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="O13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -3646,31 +3635,31 @@
       <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="18">
+      <c r="F14" s="18">
         <v>11001001</v>
       </c>
+      <c r="G14" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H14" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I14" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="O14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -3688,31 +3677,31 @@
       <c r="E15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="18">
+      <c r="F15" s="18">
         <v>11001001</v>
       </c>
+      <c r="G15" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H15" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I15" s="4">
         <v>12</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="O15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -3730,31 +3719,31 @@
       <c r="E16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="18">
+      <c r="F16" s="18">
         <v>11001001</v>
       </c>
+      <c r="G16" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H16" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I16" s="4">
         <v>10</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
@@ -3772,31 +3761,31 @@
       <c r="E17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="18">
+      <c r="F17" s="18">
         <v>11001001</v>
       </c>
+      <c r="G17" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H17" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I17" s="4">
         <v>12</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="O17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P17" s="23"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -3814,31 +3803,31 @@
       <c r="E18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="18">
+      <c r="F18" s="18">
         <v>11001001</v>
       </c>
+      <c r="G18" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H18" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I18" s="4">
         <v>12</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
@@ -3856,31 +3845,31 @@
       <c r="E19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="18">
+      <c r="F19" s="18">
         <v>11001001</v>
       </c>
+      <c r="G19" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H19" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I19" s="4">
         <v>1</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="O19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
@@ -3898,31 +3887,31 @@
       <c r="E20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="18">
+      <c r="F20" s="18">
         <v>11001001</v>
       </c>
+      <c r="G20" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H20" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I20" s="4">
         <v>1</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="O20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
@@ -3940,31 +3929,31 @@
       <c r="E21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="18">
+      <c r="F21" s="18">
         <v>11001001</v>
       </c>
+      <c r="G21" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H21" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I21" s="4">
         <v>9</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="O21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P21" s="23"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
@@ -3982,31 +3971,31 @@
       <c r="E22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="18">
+      <c r="F22" s="18">
         <v>11001001</v>
       </c>
+      <c r="G22" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H22" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I22" s="4">
         <v>15</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="O22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P22" s="23"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
@@ -4024,31 +4013,31 @@
       <c r="E23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="18">
+      <c r="F23" s="18">
         <v>11001001</v>
       </c>
+      <c r="G23" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H23" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I23" s="4">
         <v>4</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="O23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
@@ -4066,31 +4055,31 @@
       <c r="E24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="18">
+      <c r="F24" s="18">
         <v>11001001</v>
       </c>
+      <c r="G24" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H24" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I24" s="4">
         <v>15</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="O24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
@@ -4108,31 +4097,31 @@
       <c r="E25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="18">
+      <c r="F25" s="18">
         <v>11001001</v>
       </c>
+      <c r="G25" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H25" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I25" s="4">
         <v>14</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L25" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="O25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
@@ -4150,31 +4139,31 @@
       <c r="E26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="18">
+      <c r="F26" s="18">
         <v>11001001</v>
       </c>
+      <c r="G26" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H26" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I26" s="4">
         <v>17</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="O26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
@@ -4192,31 +4181,31 @@
       <c r="E27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="18">
+      <c r="F27" s="18">
         <v>11001001</v>
       </c>
+      <c r="G27" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H27" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I27" s="4">
         <v>34</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="O27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -4234,31 +4223,31 @@
       <c r="E28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="18">
+      <c r="F28" s="18">
         <v>11001001</v>
       </c>
+      <c r="G28" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H28" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I28" s="4">
         <v>35</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="O28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -4276,31 +4265,31 @@
       <c r="E29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="18">
+      <c r="F29" s="18">
         <v>11001001</v>
       </c>
+      <c r="G29" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H29" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I29" s="4">
         <v>35</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="N29" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="O29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P29" s="23"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -4318,31 +4307,31 @@
       <c r="E30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="18">
+      <c r="F30" s="18">
         <v>11001001</v>
       </c>
+      <c r="G30" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H30" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I30" s="4">
         <v>5</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="N30" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="O30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P30" s="23"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -4360,31 +4349,31 @@
       <c r="E31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="18">
+      <c r="F31" s="18">
         <v>11001001</v>
       </c>
+      <c r="G31" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H31" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I31" s="4">
         <v>16</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="N31" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="O31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P31" s="23"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -4402,31 +4391,31 @@
       <c r="E32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="18">
+      <c r="F32" s="18">
         <v>11001001</v>
       </c>
+      <c r="G32" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H32" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I32" s="4">
         <v>19</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="O32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P32" s="23"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
@@ -4444,31 +4433,31 @@
       <c r="E33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="18">
+      <c r="F33" s="18">
         <v>11001001</v>
       </c>
+      <c r="G33" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H33" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I33" s="4">
         <v>16</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="O33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P33" s="23"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
@@ -4486,31 +4475,31 @@
       <c r="E34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="18">
+      <c r="F34" s="18">
         <v>11001001</v>
       </c>
+      <c r="G34" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H34" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I34" s="4">
         <v>7</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L34" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="N34" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="O34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
@@ -4528,31 +4517,31 @@
       <c r="E35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="18">
+      <c r="F35" s="18">
         <v>11001001</v>
       </c>
+      <c r="G35" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H35" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I35" s="4">
         <v>18</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="O35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P35" s="23"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
@@ -4570,31 +4559,31 @@
       <c r="E36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="18">
+      <c r="F36" s="18">
         <v>11001001</v>
       </c>
+      <c r="G36" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H36" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I36" s="4">
         <v>7</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L36" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="N36" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="O36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
@@ -4612,34 +4601,34 @@
       <c r="E37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37">
+      <c r="F37">
         <v>11000001</v>
       </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
       <c r="H37" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="4">
         <v>2</v>
       </c>
-      <c r="J37" s="4">
-        <v>2</v>
+      <c r="J37" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="O37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>265</v>
+        <v>241</v>
+      </c>
+      <c r="P37" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
@@ -4658,34 +4647,34 @@
       <c r="E38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G38">
+      <c r="F38">
         <v>11000003</v>
       </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
       <c r="H38" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38" s="4">
-        <v>4</v>
-      </c>
-      <c r="J38" s="4">
+        <v>3</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="N38" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="O38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>265</v>
+        <v>241</v>
+      </c>
+      <c r="P38" s="23">
+        <v>22031004</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
@@ -4704,34 +4693,34 @@
       <c r="E39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G39">
+      <c r="F39">
         <v>11000002</v>
       </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
       <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
         <v>7</v>
       </c>
+      <c r="I39" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="J39" s="4" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L39" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
+      <c r="N39" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="O39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P39" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
@@ -4748,36 +4737,36 @@
         <v>70</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G40">
+        <v>247</v>
+      </c>
+      <c r="F40">
         <v>11000008</v>
       </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
       <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
         <v>9</v>
       </c>
+      <c r="I40" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="J40" s="4" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="N40" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="O40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P40" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
@@ -4796,34 +4785,34 @@
       <c r="E41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41">
+      <c r="F41">
         <v>11000007</v>
       </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
       <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
         <v>12</v>
       </c>
+      <c r="I41" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="J41" s="4" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="N41" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="O41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P41" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
@@ -4842,34 +4831,34 @@
       <c r="E42" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G42">
+      <c r="F42">
         <v>11000005</v>
       </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
       <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
         <v>14</v>
       </c>
+      <c r="I42" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="J42" s="4" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="N42" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="O42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P42" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
@@ -4888,34 +4877,34 @@
       <c r="E43" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G43">
+      <c r="F43">
         <v>11000007</v>
       </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
       <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
         <v>15</v>
       </c>
+      <c r="I43" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J43" s="4" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+      <c r="N43" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="O43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P43" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
@@ -4934,34 +4923,34 @@
       <c r="E44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G44">
+      <c r="F44">
         <v>11000005</v>
       </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
       <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
         <v>18</v>
       </c>
+      <c r="I44" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="J44" s="4" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="N44" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="O44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P44" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
@@ -4980,34 +4969,34 @@
       <c r="E45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45">
+      <c r="F45">
         <v>11000006</v>
       </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
       <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
         <v>21</v>
       </c>
+      <c r="I45" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="J45" s="4" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="N45" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="O45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P45" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
@@ -5026,34 +5015,34 @@
       <c r="E46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46">
+      <c r="F46">
         <v>11000006</v>
       </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
       <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
         <v>24</v>
       </c>
+      <c r="I46" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="J46" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="N46" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="O46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P46" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
@@ -5072,34 +5061,34 @@
       <c r="E47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G47">
+      <c r="F47">
         <v>11000007</v>
       </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
       <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
         <v>22</v>
       </c>
+      <c r="I47" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="J47" s="4" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
+      <c r="N47" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="O47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P47" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
@@ -5118,34 +5107,34 @@
       <c r="E48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G48">
+      <c r="F48">
         <v>11000001</v>
       </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
       <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
         <v>17</v>
       </c>
+      <c r="I48" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="J48" s="4" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="N48" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="O48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P48" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
@@ -5164,34 +5153,34 @@
       <c r="E49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G49">
+      <c r="F49">
         <v>11000002</v>
       </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
       <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
         <v>22</v>
       </c>
+      <c r="I49" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="J49" s="4" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+      <c r="N49" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="O49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P49" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
@@ -5210,34 +5199,34 @@
       <c r="E50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="4">
-        <v>51000060</v>
-      </c>
-      <c r="G50">
+      <c r="F50">
         <v>11000002</v>
       </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
       <c r="H50" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I50" s="4">
-        <v>7</v>
-      </c>
-      <c r="J50" s="4">
         <v>2</v>
       </c>
+      <c r="J50" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L50" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="N50" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="O50" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P50" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
@@ -5256,34 +5245,34 @@
       <c r="E51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="4">
-        <v>51000222</v>
-      </c>
-      <c r="G51">
+      <c r="F51">
         <v>11000008</v>
       </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
       <c r="H51" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I51" s="4">
-        <v>9</v>
-      </c>
-      <c r="J51" s="4">
+        <v>3</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L51" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="N51" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="O51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P51" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
@@ -5302,34 +5291,34 @@
       <c r="E52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G52">
+      <c r="F52">
         <v>11000004</v>
       </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
       <c r="H52" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I52" s="4">
-        <v>5</v>
-      </c>
-      <c r="J52" s="4">
         <v>2</v>
       </c>
+      <c r="J52" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
+      <c r="N52" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="O52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P52" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.15">
@@ -5348,34 +5337,34 @@
       <c r="E53" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G53">
+      <c r="F53">
         <v>11000002</v>
       </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
       <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
         <v>14</v>
       </c>
+      <c r="I53" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="J53" s="4" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L53" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="N53" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="O53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P53" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
@@ -5392,36 +5381,36 @@
         <v>123</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G54">
+        <v>248</v>
+      </c>
+      <c r="F54">
         <v>11000005</v>
       </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
       <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
         <v>14</v>
       </c>
+      <c r="I54" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="J54" s="4" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="N54" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="O54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P54" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
@@ -5440,34 +5429,34 @@
       <c r="E55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G55">
+      <c r="F55">
         <v>11000008</v>
       </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
       <c r="H55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4">
-        <v>1</v>
-      </c>
-      <c r="J55" s="4">
         <v>6</v>
       </c>
+      <c r="J55" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L55" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
+      <c r="N55" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="O55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P55" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
@@ -5486,34 +5475,34 @@
       <c r="E56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="4">
-        <v>51000185</v>
-      </c>
-      <c r="G56">
+      <c r="F56">
         <v>11000001</v>
       </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
       <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
         <v>10</v>
       </c>
+      <c r="I56" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="J56" s="4" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L56" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="N56" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="O56" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P56" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
@@ -5532,34 +5521,34 @@
       <c r="E57" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="4">
-        <v>51000192</v>
-      </c>
-      <c r="G57">
+      <c r="F57">
         <v>11000001</v>
       </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
       <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
         <v>11</v>
       </c>
+      <c r="I57" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="J57" s="4" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
+      <c r="N57" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="O57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P57" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
@@ -5578,34 +5567,34 @@
       <c r="E58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F58" s="4">
-        <v>51000282</v>
-      </c>
-      <c r="G58">
+      <c r="F58">
         <v>11000004</v>
       </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
       <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
         <v>13</v>
       </c>
+      <c r="I58" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="J58" s="4" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
+      <c r="N58" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="O58" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P58" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
@@ -5624,34 +5613,34 @@
       <c r="E59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="4">
-        <v>51000057</v>
-      </c>
-      <c r="G59">
+      <c r="F59">
         <v>11000003</v>
       </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
       <c r="H59" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I59" s="4">
-        <v>8</v>
-      </c>
-      <c r="J59" s="4">
         <v>2</v>
       </c>
+      <c r="J59" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
+      <c r="N59" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="O59" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P59" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
@@ -5668,36 +5657,36 @@
         <v>123</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G60">
+        <v>249</v>
+      </c>
+      <c r="F60">
         <v>11000005</v>
       </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
       <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
         <v>13</v>
       </c>
+      <c r="I60" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="J60" s="4" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
+      <c r="N60" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="O60" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P60" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.15">
@@ -5714,36 +5703,36 @@
         <v>123</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G61">
+        <v>246</v>
+      </c>
+      <c r="F61">
         <v>11000001</v>
       </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
       <c r="H61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
         <v>18</v>
       </c>
+      <c r="I61" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="J61" s="4" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L61" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
+      <c r="N61" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="O61" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P61" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
@@ -5762,34 +5751,34 @@
       <c r="E62" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="4">
-        <v>51000224</v>
-      </c>
-      <c r="G62">
+      <c r="F62">
         <v>11000002</v>
       </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
       <c r="H62" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I62" s="4">
-        <v>10</v>
-      </c>
-      <c r="J62" s="4">
         <v>6</v>
       </c>
+      <c r="J62" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
+      <c r="N62" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="O62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P62" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P62" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.15">
@@ -5808,34 +5797,34 @@
       <c r="E63" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F63" s="4">
-        <v>51000130</v>
-      </c>
-      <c r="G63">
+      <c r="F63">
         <v>11000001</v>
       </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
       <c r="H63" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I63" s="4">
-        <v>11</v>
-      </c>
-      <c r="J63" s="4">
         <v>5</v>
       </c>
+      <c r="J63" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L63" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
+      <c r="N63" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="O63" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P63" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
@@ -5854,34 +5843,34 @@
       <c r="E64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G64">
+      <c r="F64">
         <v>11000002</v>
       </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
       <c r="H64" s="4">
-        <v>0</v>
-      </c>
-      <c r="I64" s="4">
         <v>13</v>
       </c>
+      <c r="I64" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="J64" s="4" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L64" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
+      <c r="N64" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="O64" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P64" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.15">
@@ -5900,34 +5889,34 @@
       <c r="E65" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F65" s="4">
-        <v>51000099</v>
-      </c>
-      <c r="G65">
+      <c r="F65">
         <v>11000001</v>
       </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
       <c r="H65" s="4">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4">
         <v>14</v>
       </c>
+      <c r="I65" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="J65" s="4" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L65" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
+      <c r="N65" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="O65" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P65" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
@@ -5946,34 +5935,34 @@
       <c r="E66" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G66">
+      <c r="F66">
         <v>11000007</v>
       </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
       <c r="H66" s="4">
-        <v>0</v>
-      </c>
-      <c r="I66" s="4">
         <v>18</v>
       </c>
+      <c r="I66" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="J66" s="4" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
+      <c r="N66" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="O66" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P66" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
@@ -5992,34 +5981,34 @@
       <c r="E67" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F67" s="4">
-        <v>51000198</v>
-      </c>
-      <c r="G67">
+      <c r="F67">
         <v>11000006</v>
       </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
       <c r="H67" s="4">
-        <v>0</v>
-      </c>
-      <c r="I67" s="4">
         <v>15</v>
       </c>
+      <c r="I67" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="J67" s="4" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L67" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
+      <c r="N67" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="O67" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P67" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P67" s="23">
+        <v>22031003</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
@@ -6038,34 +6027,34 @@
       <c r="E68" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F68" s="4">
-        <v>51000185</v>
-      </c>
-      <c r="G68">
+      <c r="F68">
         <v>11000004</v>
       </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
       <c r="H68" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I68" s="4">
-        <v>10</v>
-      </c>
-      <c r="J68" s="4">
         <v>4</v>
       </c>
+      <c r="J68" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L68" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
+      <c r="N68" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="O68" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P68" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
@@ -6084,34 +6073,34 @@
       <c r="E69" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F69" s="4">
-        <v>51000129</v>
-      </c>
-      <c r="G69">
+      <c r="F69">
         <v>11000002</v>
       </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
       <c r="H69" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I69" s="4">
-        <v>7</v>
-      </c>
-      <c r="J69" s="4">
         <v>5</v>
       </c>
+      <c r="J69" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L69" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+      <c r="N69" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="O69" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P69" s="23">
+        <v>22031005</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.15">
@@ -6130,34 +6119,34 @@
       <c r="E70" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="4">
-        <v>51000012</v>
-      </c>
-      <c r="G70">
+      <c r="F70">
         <v>11000003</v>
       </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
       <c r="H70" s="4">
-        <v>0</v>
-      </c>
-      <c r="I70" s="4">
         <v>15</v>
       </c>
+      <c r="I70" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="J70" s="4" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L70" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="L70" s="4"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
+      <c r="N70" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="O70" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P70" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
@@ -6176,34 +6165,34 @@
       <c r="E71" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F71" s="4">
-        <v>51000194</v>
-      </c>
-      <c r="G71">
+      <c r="F71">
         <v>11000002</v>
       </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
       <c r="H71" s="4">
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
         <v>13</v>
       </c>
+      <c r="I71" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="J71" s="4" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L71" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
+      <c r="N71" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="O71" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="P71" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P71" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
@@ -6222,34 +6211,34 @@
       <c r="E72" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F72" s="4">
-        <v>51000196</v>
-      </c>
-      <c r="G72">
+      <c r="F72">
         <v>11000008</v>
       </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
       <c r="H72" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I72" s="4">
-        <v>9</v>
-      </c>
-      <c r="J72" s="4">
+        <v>3</v>
+      </c>
+      <c r="J72" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
+      <c r="N72" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="O72" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P72" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P72" s="23">
+        <v>22031002</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
@@ -6268,34 +6257,34 @@
       <c r="E73" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F73" s="4">
-        <v>51000243</v>
-      </c>
-      <c r="G73">
+      <c r="F73">
         <v>11000001</v>
       </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
       <c r="H73" s="4">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
         <v>19</v>
       </c>
+      <c r="I73" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="J73" s="4" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L73" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
+      <c r="N73" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="O73" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="P73" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="P73" s="23">
+        <v>22031002</v>
       </c>
     </row>
   </sheetData>
@@ -6312,176 +6301,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="6.125" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="14" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="10.625" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="13" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>260</v>
+      <c r="P1" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="C2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>203</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>261</v>
+      <c r="P2" s="22" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="K3" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>262</v>
+      <c r="P3" s="20" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -6500,33 +6488,33 @@
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="18">
+      <c r="F4" s="18">
         <v>11001002</v>
       </c>
+      <c r="G4" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H4" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="6" t="s">
-        <v>282</v>
+      <c r="L4" s="4"/>
+      <c r="M4" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -6544,31 +6532,31 @@
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="18">
+      <c r="F5" s="18">
         <v>11001002</v>
       </c>
+      <c r="G5" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H5" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I5" s="4">
         <v>5</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="O5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -6586,31 +6574,31 @@
       <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="18">
+      <c r="F6" s="18">
         <v>11001002</v>
       </c>
+      <c r="G6" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H6" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I6" s="4">
         <v>10</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="K6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -6628,38 +6616,38 @@
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="18">
+      <c r="F7" s="18">
         <v>11001002</v>
       </c>
+      <c r="G7" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H7" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I7" s="4">
         <v>10</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="K7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="O7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C8" s="4">
         <v>101</v>
@@ -6670,42 +6658,42 @@
       <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="18">
+      <c r="F8" s="18">
         <v>11001001</v>
       </c>
+      <c r="G8" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H8" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="K8" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C9" s="4">
         <v>101</v>
@@ -6716,35 +6704,35 @@
       <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="18">
+      <c r="F9" s="18">
         <v>11001001</v>
       </c>
+      <c r="G9" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H9" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="K9" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -6762,33 +6750,31 @@
       <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="4">
-        <v>10040</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="F10" s="18">
         <v>11001001</v>
       </c>
+      <c r="G10" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H10" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I10" s="4">
         <v>5</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="L10" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="O10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -6806,33 +6792,31 @@
       <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="4">
-        <v>10040</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="F11" s="18">
         <v>11001001</v>
       </c>
+      <c r="G11" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H11" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I11" s="4">
         <v>10</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="K11" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="O11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -6850,33 +6834,31 @@
       <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="4">
-        <v>10223</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="F12" s="18">
         <v>11001001</v>
       </c>
+      <c r="G12" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H12" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I12" s="4">
         <v>5</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="K12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -6894,40 +6876,38 @@
       <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="18">
+        <v>11001001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>51018001</v>
+      </c>
+      <c r="H13" s="4">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="18">
-        <v>11001001</v>
-      </c>
-      <c r="H13" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I13" s="4">
-        <v>10</v>
-      </c>
-      <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="4">
         <v>102</v>
@@ -6938,33 +6918,31 @@
       <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="4">
-        <v>10065</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="F14" s="18">
         <v>11001001</v>
       </c>
+      <c r="G14" s="4">
+        <v>51018001</v>
+      </c>
       <c r="H14" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="I14" s="4">
         <v>25</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="K14" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>201</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="O14" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>266</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="P14" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="267">
   <si>
     <t>老鼠</t>
   </si>
@@ -739,18 +739,6 @@
   </si>
   <si>
     <t>test2e</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>王牌卡</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KingCard</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -806,10 +794,6 @@
     <t>atr6;atr4</t>
   </si>
   <si>
-    <t>左方Add</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>右方Add</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -818,18 +802,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LeftMon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RightMon</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>左方Add</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>右方Add</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -838,26 +814,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51000229;-4;1;51000229;-4;3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51019298;4;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51019299;4;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51019299;-4;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51019298;-4;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -879,6 +835,40 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别怪物</t>
+  </si>
+  <si>
+    <t>特别怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetMon</t>
+  </si>
+  <si>
+    <t>PetMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019299;4;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019298;4;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000229;4;-1;51000229;4;1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1691,7 +1681,34 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1933,58 +1950,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2588,33 +2553,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -2672,6 +2610,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2684,56 +2690,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P73" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="A3:P73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:O73" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="A3:O73"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="34"/>
-    <tableColumn id="2" name="Name" dataDxfId="33"/>
-    <tableColumn id="3" name="Type" dataDxfId="32"/>
-    <tableColumn id="6" name="World" dataDxfId="31"/>
-    <tableColumn id="7" name="Deck" dataDxfId="30"/>
-    <tableColumn id="10" name="Job" dataDxfId="29"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="28"/>
-    <tableColumn id="11" name="Level" dataDxfId="27"/>
-    <tableColumn id="12" name="Reward" dataDxfId="26"/>
-    <tableColumn id="13" name="Method" dataDxfId="25"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="24"/>
-    <tableColumn id="5" name="LeftMon" dataDxfId="23"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" name="Type" dataDxfId="30"/>
+    <tableColumn id="6" name="World" dataDxfId="29"/>
+    <tableColumn id="7" name="Deck" dataDxfId="28"/>
+    <tableColumn id="10" name="Job" dataDxfId="27"/>
+    <tableColumn id="11" name="Level" dataDxfId="26"/>
+    <tableColumn id="12" name="Reward" dataDxfId="25"/>
+    <tableColumn id="13" name="Method" dataDxfId="24"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="23"/>
     <tableColumn id="15" name="RightMon" dataDxfId="22"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="0"/>
     <tableColumn id="17" name="Figue" dataDxfId="21"/>
     <tableColumn id="9" name="BattleMap" dataDxfId="20"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="0"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A3:P14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:O14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A3:O14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="16"/>
-    <tableColumn id="2" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" name="Type" dataDxfId="14"/>
-    <tableColumn id="6" name="World" dataDxfId="13"/>
-    <tableColumn id="7" name="Deck" dataDxfId="12"/>
-    <tableColumn id="10" name="Job" dataDxfId="11"/>
-    <tableColumn id="4" name="KingCard" dataDxfId="10"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Id" dataDxfId="15"/>
+    <tableColumn id="2" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" name="Type" dataDxfId="13"/>
+    <tableColumn id="6" name="World" dataDxfId="12"/>
+    <tableColumn id="7" name="Deck" dataDxfId="11"/>
+    <tableColumn id="10" name="Job" dataDxfId="10"/>
     <tableColumn id="11" name="Level" dataDxfId="9"/>
     <tableColumn id="12" name="Reward" dataDxfId="8"/>
     <tableColumn id="13" name="Method" dataDxfId="7"/>
     <tableColumn id="14" name="Emethod" dataDxfId="6"/>
-    <tableColumn id="5" name="LeftMon" dataDxfId="5"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="4"/>
-    <tableColumn id="9" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="1"/>
+    <tableColumn id="9" name="Figue" dataDxfId="4"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="3"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2747,7 +2751,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3026,13 +3030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P69" sqref="P69"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3040,16 +3044,15 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="6.25" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="13" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="12" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
@@ -3069,37 +3072,34 @@
         <v>208</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="N1" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>213</v>
       </c>
+      <c r="N1" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="O1" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
@@ -3119,37 +3119,34 @@
         <v>201</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>202</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>202</v>
+      <c r="N2" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>214</v>
       </c>
@@ -3169,37 +3166,34 @@
         <v>219</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
@@ -3219,29 +3213,26 @@
         <v>11001001</v>
       </c>
       <c r="G4" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="N4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P4" s="23"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
@@ -3261,29 +3252,26 @@
         <v>11001001</v>
       </c>
       <c r="G5" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="N5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
@@ -3303,29 +3291,26 @@
         <v>11001001</v>
       </c>
       <c r="G6" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="N6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
@@ -3345,29 +3330,26 @@
         <v>11001001</v>
       </c>
       <c r="G7" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="N7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
@@ -3387,29 +3369,26 @@
         <v>11001001</v>
       </c>
       <c r="G8" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H8" s="4">
         <v>7</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -3429,29 +3408,26 @@
         <v>11001001</v>
       </c>
       <c r="G9" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H9" s="4">
         <v>11</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="N9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
@@ -3471,29 +3447,26 @@
         <v>11001001</v>
       </c>
       <c r="G10" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="N10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -3513,29 +3486,26 @@
         <v>11001001</v>
       </c>
       <c r="G11" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H11" s="4">
         <v>13</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P11" s="23"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -3555,29 +3525,26 @@
         <v>11001001</v>
       </c>
       <c r="G12" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H12" s="4">
         <v>13</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
@@ -3597,29 +3564,26 @@
         <v>11001001</v>
       </c>
       <c r="G13" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H13" s="4">
         <v>6</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
@@ -3639,29 +3603,26 @@
         <v>11001001</v>
       </c>
       <c r="G14" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H14" s="4">
         <v>5</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="N14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P14" s="23"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000012</v>
       </c>
@@ -3681,29 +3642,26 @@
         <v>11001001</v>
       </c>
       <c r="G15" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H15" s="4">
         <v>12</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000013</v>
       </c>
@@ -3723,29 +3681,26 @@
         <v>11001001</v>
       </c>
       <c r="G16" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H16" s="4">
         <v>10</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="N16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P16" s="23"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000014</v>
       </c>
@@ -3765,29 +3720,26 @@
         <v>11001001</v>
       </c>
       <c r="G17" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H17" s="4">
         <v>12</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="N17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P17" s="23"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
@@ -3807,29 +3759,26 @@
         <v>11001001</v>
       </c>
       <c r="G18" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H18" s="4">
         <v>12</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="N18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P18" s="23"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
@@ -3849,29 +3798,26 @@
         <v>11001001</v>
       </c>
       <c r="G19" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H19" s="4">
         <v>1</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="N19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P19" s="23"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
@@ -3891,29 +3837,26 @@
         <v>11001001</v>
       </c>
       <c r="G20" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="N20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P20" s="23"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O20" s="23"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
@@ -3933,29 +3876,26 @@
         <v>11001001</v>
       </c>
       <c r="G21" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H21" s="4">
         <v>9</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="N21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P21" s="23"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O21" s="23"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000019</v>
       </c>
@@ -3975,29 +3915,26 @@
         <v>11001001</v>
       </c>
       <c r="G22" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H22" s="4">
         <v>15</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="N22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P22" s="23"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
@@ -4017,29 +3954,26 @@
         <v>11001001</v>
       </c>
       <c r="G23" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H23" s="4">
         <v>4</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P23" s="23"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O23" s="23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000021</v>
       </c>
@@ -4059,29 +3993,26 @@
         <v>11001001</v>
       </c>
       <c r="G24" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H24" s="4">
         <v>15</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="N24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P24" s="23"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000022</v>
       </c>
@@ -4101,29 +4032,26 @@
         <v>11001001</v>
       </c>
       <c r="G25" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H25" s="4">
         <v>14</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="N25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P25" s="23"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000023</v>
       </c>
@@ -4143,29 +4071,26 @@
         <v>11001001</v>
       </c>
       <c r="G26" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H26" s="4">
         <v>17</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="N26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P26" s="23"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000024</v>
       </c>
@@ -4185,29 +4110,26 @@
         <v>11001001</v>
       </c>
       <c r="G27" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H27" s="4">
         <v>34</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="M27" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="N27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P27" s="23"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000025</v>
       </c>
@@ -4227,29 +4149,26 @@
         <v>11001001</v>
       </c>
       <c r="G28" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H28" s="4">
         <v>35</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="N28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P28" s="23"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000026</v>
       </c>
@@ -4269,29 +4188,26 @@
         <v>11001001</v>
       </c>
       <c r="G29" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H29" s="4">
         <v>35</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="M29" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="N29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P29" s="23"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O29" s="23"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000027</v>
       </c>
@@ -4311,29 +4227,26 @@
         <v>11001001</v>
       </c>
       <c r="G30" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H30" s="4">
         <v>5</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="N30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P30" s="23"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000028</v>
       </c>
@@ -4353,29 +4266,26 @@
         <v>11001001</v>
       </c>
       <c r="G31" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H31" s="4">
         <v>16</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="M31" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="N31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P31" s="23"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000029</v>
       </c>
@@ -4395,29 +4305,26 @@
         <v>11001001</v>
       </c>
       <c r="G32" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H32" s="4">
         <v>19</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="M32" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="N32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O32" s="23"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000030</v>
       </c>
@@ -4437,29 +4344,26 @@
         <v>11001001</v>
       </c>
       <c r="G33" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H33" s="4">
         <v>16</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="N33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P33" s="23"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O33" s="23"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000031</v>
       </c>
@@ -4479,29 +4383,26 @@
         <v>11001001</v>
       </c>
       <c r="G34" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H34" s="4">
         <v>7</v>
       </c>
-      <c r="I34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="M34" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="N34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P34" s="23"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000032</v>
       </c>
@@ -4521,29 +4422,26 @@
         <v>11001001</v>
       </c>
       <c r="G35" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H35" s="4">
         <v>18</v>
       </c>
-      <c r="I35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="M35" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="N35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P35" s="23"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O35" s="23"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000033</v>
       </c>
@@ -4563,29 +4461,26 @@
         <v>11001001</v>
       </c>
       <c r="G36" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H36" s="4">
         <v>7</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="M36" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="N36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P36" s="23"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+      <c r="O36" s="23"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000101</v>
       </c>
@@ -4605,33 +4500,30 @@
         <v>11000001</v>
       </c>
       <c r="G37" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4">
         <v>2</v>
       </c>
-      <c r="I37" s="4">
-        <v>2</v>
+      <c r="I37" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K37" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="M37" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="N37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="P37" s="23">
+        <v>238</v>
+      </c>
+      <c r="O37" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43000102</v>
       </c>
@@ -4651,33 +4543,30 @@
         <v>11000003</v>
       </c>
       <c r="G38" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="4">
-        <v>4</v>
-      </c>
-      <c r="I38" s="4">
+        <v>3</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="M38" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="N38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="P38" s="23">
+        <v>238</v>
+      </c>
+      <c r="O38" s="23">
         <v>22031004</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43000103</v>
       </c>
@@ -4697,33 +4586,30 @@
         <v>11000002</v>
       </c>
       <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
         <v>7</v>
       </c>
+      <c r="H39" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="I39" s="4" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K39" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="M39" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="N39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P39" s="23">
+        <v>237</v>
+      </c>
+      <c r="O39" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43000104</v>
       </c>
@@ -4737,39 +4623,36 @@
         <v>70</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F40">
         <v>11000008</v>
       </c>
       <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
         <v>9</v>
       </c>
+      <c r="H40" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="I40" s="4" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="M40" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="N40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P40" s="23">
+        <v>237</v>
+      </c>
+      <c r="O40" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43000105</v>
       </c>
@@ -4789,33 +4672,30 @@
         <v>11000007</v>
       </c>
       <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
         <v>12</v>
       </c>
+      <c r="H41" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I41" s="4" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="M41" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="N41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P41" s="23">
+        <v>237</v>
+      </c>
+      <c r="O41" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43000106</v>
       </c>
@@ -4835,33 +4715,30 @@
         <v>11000005</v>
       </c>
       <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
         <v>14</v>
       </c>
+      <c r="H42" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="I42" s="4" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="M42" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="N42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P42" s="23">
+        <v>237</v>
+      </c>
+      <c r="O42" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43000107</v>
       </c>
@@ -4881,33 +4758,30 @@
         <v>11000007</v>
       </c>
       <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
         <v>15</v>
       </c>
+      <c r="H43" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="I43" s="4" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="M43" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="N43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P43" s="23">
+        <v>237</v>
+      </c>
+      <c r="O43" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43000108</v>
       </c>
@@ -4927,33 +4801,30 @@
         <v>11000005</v>
       </c>
       <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
         <v>18</v>
       </c>
+      <c r="H44" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="I44" s="4" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="N44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P44" s="23">
+        <v>237</v>
+      </c>
+      <c r="O44" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43000109</v>
       </c>
@@ -4973,33 +4844,30 @@
         <v>11000006</v>
       </c>
       <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
         <v>21</v>
       </c>
+      <c r="H45" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="I45" s="4" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="M45" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="N45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P45" s="23">
+        <v>237</v>
+      </c>
+      <c r="O45" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43000110</v>
       </c>
@@ -5019,33 +4887,30 @@
         <v>11000006</v>
       </c>
       <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
         <v>24</v>
       </c>
+      <c r="H46" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="I46" s="4" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="M46" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="N46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P46" s="23">
+        <v>237</v>
+      </c>
+      <c r="O46" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43000201</v>
       </c>
@@ -5065,33 +4930,30 @@
         <v>11000007</v>
       </c>
       <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
         <v>22</v>
       </c>
+      <c r="H47" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="I47" s="4" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="M47" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="N47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P47" s="23">
+        <v>237</v>
+      </c>
+      <c r="O47" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>43000202</v>
       </c>
@@ -5111,33 +4973,30 @@
         <v>11000001</v>
       </c>
       <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
         <v>17</v>
       </c>
+      <c r="H48" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="I48" s="4" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="M48" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="N48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P48" s="23">
+        <v>237</v>
+      </c>
+      <c r="O48" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>43000203</v>
       </c>
@@ -5157,33 +5016,30 @@
         <v>11000002</v>
       </c>
       <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
         <v>22</v>
       </c>
+      <c r="H49" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="I49" s="4" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="M49" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="N49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P49" s="23">
+        <v>237</v>
+      </c>
+      <c r="O49" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>43000301</v>
       </c>
@@ -5203,33 +5059,30 @@
         <v>11000002</v>
       </c>
       <c r="G50" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H50" s="4">
-        <v>7</v>
-      </c>
-      <c r="I50" s="4">
         <v>2</v>
       </c>
+      <c r="I50" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K50" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="M50" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="N50" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P50" s="23">
+        <v>237</v>
+      </c>
+      <c r="O50" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>43000302</v>
       </c>
@@ -5249,33 +5102,30 @@
         <v>11000008</v>
       </c>
       <c r="G51" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H51" s="4">
-        <v>9</v>
-      </c>
-      <c r="I51" s="4">
+        <v>3</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
+      <c r="M51" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="N51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P51" s="23">
+        <v>237</v>
+      </c>
+      <c r="O51" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>43000303</v>
       </c>
@@ -5295,33 +5145,30 @@
         <v>11000004</v>
       </c>
       <c r="G52" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H52" s="4">
-        <v>5</v>
-      </c>
-      <c r="I52" s="4">
         <v>2</v>
       </c>
+      <c r="I52" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
+      <c r="M52" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="N52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P52" s="23">
+        <v>237</v>
+      </c>
+      <c r="O52" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>43000304</v>
       </c>
@@ -5341,33 +5188,30 @@
         <v>11000002</v>
       </c>
       <c r="G53" s="4">
-        <v>0</v>
-      </c>
-      <c r="H53" s="4">
         <v>14</v>
       </c>
+      <c r="H53" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="I53" s="4" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K53" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
+      <c r="M53" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="N53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P53" s="23">
+        <v>237</v>
+      </c>
+      <c r="O53" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>43000305</v>
       </c>
@@ -5381,39 +5225,36 @@
         <v>123</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F54">
         <v>11000005</v>
       </c>
       <c r="G54" s="4">
-        <v>0</v>
-      </c>
-      <c r="H54" s="4">
         <v>14</v>
       </c>
+      <c r="H54" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="I54" s="4" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
+      <c r="M54" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="N54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P54" s="23">
+        <v>237</v>
+      </c>
+      <c r="O54" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>43000306</v>
       </c>
@@ -5433,33 +5274,30 @@
         <v>11000008</v>
       </c>
       <c r="G55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="4">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4">
         <v>6</v>
       </c>
+      <c r="I55" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K55" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
+      <c r="M55" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="N55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P55" s="23">
+        <v>237</v>
+      </c>
+      <c r="O55" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>43000307</v>
       </c>
@@ -5479,33 +5317,30 @@
         <v>11000001</v>
       </c>
       <c r="G56" s="4">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4">
         <v>10</v>
       </c>
+      <c r="H56" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="I56" s="4" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K56" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="M56" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="N56" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P56" s="23">
+        <v>237</v>
+      </c>
+      <c r="O56" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>43000308</v>
       </c>
@@ -5525,33 +5360,30 @@
         <v>11000001</v>
       </c>
       <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4">
         <v>11</v>
       </c>
+      <c r="H57" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="I57" s="4" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
+      <c r="M57" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="N57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P57" s="23">
+        <v>237</v>
+      </c>
+      <c r="O57" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>43000309</v>
       </c>
@@ -5571,33 +5403,30 @@
         <v>11000004</v>
       </c>
       <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
         <v>13</v>
       </c>
+      <c r="H58" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="I58" s="4" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
+      <c r="M58" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="N58" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P58" s="23">
+        <v>237</v>
+      </c>
+      <c r="O58" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>43000310</v>
       </c>
@@ -5617,33 +5446,30 @@
         <v>11000003</v>
       </c>
       <c r="G59" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H59" s="4">
-        <v>8</v>
-      </c>
-      <c r="I59" s="4">
         <v>2</v>
       </c>
+      <c r="I59" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
+      <c r="M59" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="N59" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P59" s="23">
+        <v>237</v>
+      </c>
+      <c r="O59" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>43000311</v>
       </c>
@@ -5657,39 +5483,36 @@
         <v>123</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F60">
         <v>11000005</v>
       </c>
       <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
         <v>13</v>
       </c>
+      <c r="H60" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I60" s="4" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="M60" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="N60" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P60" s="23">
+        <v>237</v>
+      </c>
+      <c r="O60" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>43000312</v>
       </c>
@@ -5703,39 +5526,36 @@
         <v>123</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F61">
         <v>11000001</v>
       </c>
       <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
         <v>18</v>
       </c>
+      <c r="H61" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="I61" s="4" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K61" s="4" t="s">
         <v>146</v>
       </c>
+      <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="M61" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="N61" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P61" s="23">
+        <v>237</v>
+      </c>
+      <c r="O61" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>43000401</v>
       </c>
@@ -5755,33 +5575,30 @@
         <v>11000002</v>
       </c>
       <c r="G62" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H62" s="4">
-        <v>10</v>
-      </c>
-      <c r="I62" s="4">
         <v>6</v>
       </c>
+      <c r="I62" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="M62" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="N62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P62" s="23">
+        <v>237</v>
+      </c>
+      <c r="O62" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>43000402</v>
       </c>
@@ -5801,33 +5618,30 @@
         <v>11000001</v>
       </c>
       <c r="G63" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H63" s="4">
-        <v>11</v>
-      </c>
-      <c r="I63" s="4">
         <v>5</v>
       </c>
+      <c r="I63" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K63" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="M63" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="N63" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P63" s="23">
+        <v>237</v>
+      </c>
+      <c r="O63" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>43000403</v>
       </c>
@@ -5847,33 +5661,30 @@
         <v>11000002</v>
       </c>
       <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
         <v>13</v>
       </c>
+      <c r="H64" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="I64" s="4" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K64" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
+      <c r="M64" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="N64" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P64" s="23">
+        <v>237</v>
+      </c>
+      <c r="O64" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>43000404</v>
       </c>
@@ -5893,33 +5704,30 @@
         <v>11000001</v>
       </c>
       <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
         <v>14</v>
       </c>
+      <c r="H65" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="I65" s="4" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K65" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="M65" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="N65" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P65" s="23">
+        <v>237</v>
+      </c>
+      <c r="O65" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>43000405</v>
       </c>
@@ -5939,33 +5747,30 @@
         <v>11000007</v>
       </c>
       <c r="G66" s="4">
-        <v>0</v>
-      </c>
-      <c r="H66" s="4">
         <v>18</v>
       </c>
+      <c r="H66" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="I66" s="4" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="M66" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="N66" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P66" s="23">
+        <v>237</v>
+      </c>
+      <c r="O66" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>43000406</v>
       </c>
@@ -5985,33 +5790,30 @@
         <v>11000006</v>
       </c>
       <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
         <v>15</v>
       </c>
+      <c r="H67" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="I67" s="4" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K67" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="M67" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="N67" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P67" s="23">
+        <v>237</v>
+      </c>
+      <c r="O67" s="23">
         <v>22031003</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>43000407</v>
       </c>
@@ -6031,33 +5833,30 @@
         <v>11000004</v>
       </c>
       <c r="G68" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H68" s="4">
-        <v>10</v>
-      </c>
-      <c r="I68" s="4">
         <v>4</v>
       </c>
+      <c r="I68" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K68" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
+      <c r="M68" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="N68" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P68" s="23">
+        <v>237</v>
+      </c>
+      <c r="O68" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>43000408</v>
       </c>
@@ -6077,33 +5876,30 @@
         <v>11000002</v>
       </c>
       <c r="G69" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H69" s="4">
-        <v>7</v>
-      </c>
-      <c r="I69" s="4">
         <v>5</v>
       </c>
+      <c r="I69" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K69" s="4" t="s">
         <v>164</v>
       </c>
+      <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="M69" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="N69" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P69" s="23">
+        <v>237</v>
+      </c>
+      <c r="O69" s="23">
         <v>22031005</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>43000501</v>
       </c>
@@ -6123,33 +5919,30 @@
         <v>11000003</v>
       </c>
       <c r="G70" s="4">
-        <v>0</v>
-      </c>
-      <c r="H70" s="4">
         <v>15</v>
       </c>
+      <c r="H70" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="I70" s="4" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K70" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="M70" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="N70" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P70" s="23">
+        <v>237</v>
+      </c>
+      <c r="O70" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>43000502</v>
       </c>
@@ -6169,33 +5962,30 @@
         <v>11000002</v>
       </c>
       <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
         <v>13</v>
       </c>
+      <c r="H71" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="I71" s="4" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K71" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="M71" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="N71" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P71" s="23">
+        <v>237</v>
+      </c>
+      <c r="O71" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>43000503</v>
       </c>
@@ -6215,33 +6005,30 @@
         <v>11000008</v>
       </c>
       <c r="G72" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H72" s="4">
-        <v>9</v>
-      </c>
-      <c r="I72" s="4">
+        <v>3</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
+      <c r="M72" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="N72" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="O72" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P72" s="23">
+        <v>237</v>
+      </c>
+      <c r="O72" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>43000504</v>
       </c>
@@ -6261,29 +6048,26 @@
         <v>11000001</v>
       </c>
       <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
         <v>19</v>
       </c>
+      <c r="H73" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="I73" s="4" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K73" s="4" t="s">
         <v>175</v>
       </c>
+      <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
+      <c r="M73" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="N73" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P73" s="23">
+        <v>237</v>
+      </c>
+      <c r="O73" s="23">
         <v>22031002</v>
       </c>
     </row>
@@ -6299,13 +6083,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6313,16 +6097,15 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="6.125" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="13" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="12" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>203</v>
       </c>
@@ -6342,37 +6125,34 @@
         <v>208</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O1" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -6392,37 +6172,34 @@
         <v>201</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>202</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>214</v>
       </c>
@@ -6442,37 +6219,34 @@
         <v>219</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="O3" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43010001</v>
       </c>
@@ -6492,31 +6266,28 @@
         <v>11001002</v>
       </c>
       <c r="G4" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="6" t="s">
-        <v>258</v>
+      <c r="K4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43010002</v>
       </c>
@@ -6536,29 +6307,26 @@
         <v>11001002</v>
       </c>
       <c r="G5" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H5" s="4">
         <v>5</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="N5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43010003</v>
       </c>
@@ -6578,29 +6346,26 @@
         <v>11001002</v>
       </c>
       <c r="G6" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P6" s="19"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43010004</v>
       </c>
@@ -6620,29 +6385,26 @@
         <v>11001002</v>
       </c>
       <c r="G7" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H7" s="4">
         <v>10</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="J7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="N7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
@@ -6662,33 +6424,28 @@
         <v>11001001</v>
       </c>
       <c r="G8" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="J8" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K8" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="K8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N8" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
@@ -6708,33 +6465,28 @@
         <v>11001001</v>
       </c>
       <c r="G9" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="J9" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="K9" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43010101</v>
       </c>
@@ -6754,29 +6506,26 @@
         <v>11001001</v>
       </c>
       <c r="G10" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K10" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="N10" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43010102</v>
       </c>
@@ -6796,29 +6545,26 @@
         <v>11001001</v>
       </c>
       <c r="G11" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H11" s="4">
         <v>10</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="K11" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="N11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43010103</v>
       </c>
@@ -6838,29 +6584,26 @@
         <v>11001001</v>
       </c>
       <c r="G12" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H12" s="4">
         <v>5</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43010104</v>
       </c>
@@ -6880,29 +6623,26 @@
         <v>11001001</v>
       </c>
       <c r="G13" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H13" s="4">
         <v>10</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="N13" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>
@@ -6922,27 +6662,24 @@
         <v>11001001</v>
       </c>
       <c r="G14" s="4">
-        <v>51018001</v>
-      </c>
-      <c r="H14" s="4">
         <v>25</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P14" s="19"/>
+        <v>239</v>
+      </c>
+      <c r="O14" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
     <sheet name="特殊" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="268">
   <si>
     <t>老鼠</t>
   </si>
@@ -869,13 +869,17 @@
   </si>
   <si>
     <t>51000229;4;-1;51000229;4;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000002;4;-1;51000002;4;1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1694,9 +1698,9 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="宋体"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1724,33 +1728,6 @@
         <color theme="1"/>
         <name val="宋体"/>
         <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -2553,6 +2530,33 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -2610,74 +2614,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2707,51 +2643,51 @@
     <tableColumn id="13" name="Method" dataDxfId="24"/>
     <tableColumn id="14" name="Emethod" dataDxfId="23"/>
     <tableColumn id="15" name="RightMon" dataDxfId="22"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="0"/>
-    <tableColumn id="17" name="Figue" dataDxfId="21"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="20"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="19"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="21"/>
+    <tableColumn id="17" name="Figue" dataDxfId="20"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="19"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:O14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:O14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A3:O14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="15"/>
-    <tableColumn id="2" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" name="Type" dataDxfId="13"/>
-    <tableColumn id="6" name="World" dataDxfId="12"/>
-    <tableColumn id="7" name="Deck" dataDxfId="11"/>
-    <tableColumn id="10" name="Job" dataDxfId="10"/>
-    <tableColumn id="11" name="Level" dataDxfId="9"/>
-    <tableColumn id="12" name="Reward" dataDxfId="8"/>
-    <tableColumn id="13" name="Method" dataDxfId="7"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="6"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="1"/>
-    <tableColumn id="9" name="Figue" dataDxfId="4"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="3"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
+    <tableColumn id="1" name="Id" dataDxfId="14"/>
+    <tableColumn id="2" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" name="Type" dataDxfId="12"/>
+    <tableColumn id="6" name="World" dataDxfId="11"/>
+    <tableColumn id="7" name="Deck" dataDxfId="10"/>
+    <tableColumn id="10" name="Job" dataDxfId="9"/>
+    <tableColumn id="11" name="Level" dataDxfId="8"/>
+    <tableColumn id="12" name="Reward" dataDxfId="7"/>
+    <tableColumn id="13" name="Method" dataDxfId="6"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="5"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="4"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="3"/>
+    <tableColumn id="9" name="Figue" dataDxfId="2"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="1"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2819,6 +2755,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2854,6 +2807,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3032,11 +3002,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3262,7 +3232,9 @@
         <v>6</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
@@ -6085,11 +6057,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="People" sheetId="1" r:id="rId1"/>
     <sheet name="特殊" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="274">
   <si>
     <t>老鼠</t>
   </si>
@@ -873,13 +873,35 @@
   </si>
   <si>
     <t>51000002;4;-1;51000002;4;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启等级</t>
+  </si>
+  <si>
+    <t>自动开启等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoAddLevel</t>
+  </si>
+  <si>
+    <t>AutoAddLevel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1063,6 +1085,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1070,6 +1093,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1077,6 +1101,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1685,7 +1710,61 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2626,61 +2705,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:O73" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="A3:O73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P73" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="A3:P73"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="32"/>
-    <tableColumn id="2" name="Name" dataDxfId="31"/>
-    <tableColumn id="3" name="Type" dataDxfId="30"/>
-    <tableColumn id="6" name="World" dataDxfId="29"/>
-    <tableColumn id="7" name="Deck" dataDxfId="28"/>
-    <tableColumn id="10" name="Job" dataDxfId="27"/>
-    <tableColumn id="11" name="Level" dataDxfId="26"/>
-    <tableColumn id="12" name="Reward" dataDxfId="25"/>
-    <tableColumn id="13" name="Method" dataDxfId="24"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="23"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="22"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="21"/>
-    <tableColumn id="17" name="Figue" dataDxfId="20"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="19"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="18"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="34"/>
+    <tableColumn id="2" name="Name" dataDxfId="33"/>
+    <tableColumn id="3" name="Type" dataDxfId="32"/>
+    <tableColumn id="6" name="World" dataDxfId="31"/>
+    <tableColumn id="7" name="Deck" dataDxfId="30"/>
+    <tableColumn id="10" name="Job" dataDxfId="29"/>
+    <tableColumn id="11" name="Level" dataDxfId="28"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="0"/>
+    <tableColumn id="12" name="Reward" dataDxfId="27"/>
+    <tableColumn id="13" name="Method" dataDxfId="26"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="25"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="24"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="23"/>
+    <tableColumn id="17" name="Figue" dataDxfId="22"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="21"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:O14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A3:O14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A3:P14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" name="Type" dataDxfId="12"/>
-    <tableColumn id="6" name="World" dataDxfId="11"/>
-    <tableColumn id="7" name="Deck" dataDxfId="10"/>
-    <tableColumn id="10" name="Job" dataDxfId="9"/>
-    <tableColumn id="11" name="Level" dataDxfId="8"/>
-    <tableColumn id="12" name="Reward" dataDxfId="7"/>
-    <tableColumn id="13" name="Method" dataDxfId="6"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="5"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="4"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="3"/>
-    <tableColumn id="9" name="Figue" dataDxfId="2"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="1"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="0"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="16"/>
+    <tableColumn id="2" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" name="Type" dataDxfId="14"/>
+    <tableColumn id="6" name="World" dataDxfId="13"/>
+    <tableColumn id="7" name="Deck" dataDxfId="12"/>
+    <tableColumn id="10" name="Job" dataDxfId="11"/>
+    <tableColumn id="11" name="Level" dataDxfId="10"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="1"/>
+    <tableColumn id="12" name="Reward" dataDxfId="9"/>
+    <tableColumn id="13" name="Method" dataDxfId="8"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="7"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="6"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="5"/>
+    <tableColumn id="9" name="Figue" dataDxfId="4"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="3"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2755,23 +2836,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2807,23 +2871,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3000,13 +3047,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3014,15 +3061,15 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
     <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="12" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.25" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="13" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>203</v>
       </c>
@@ -3045,31 +3092,34 @@
         <v>209</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
@@ -3092,31 +3142,34 @@
         <v>201</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>202</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>214</v>
       </c>
@@ -3139,31 +3192,34 @@
         <v>220</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
@@ -3186,23 +3242,24 @@
         <v>1</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
@@ -3225,25 +3282,26 @@
         <v>2</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
@@ -3266,23 +3324,24 @@
         <v>4</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
@@ -3305,23 +3364,24 @@
         <v>5</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O7" s="23"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
@@ -3344,23 +3404,24 @@
         <v>7</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -3383,23 +3444,24 @@
         <v>11</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
@@ -3422,23 +3484,24 @@
         <v>3</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O10" s="23"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -3461,23 +3524,24 @@
         <v>13</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -3500,23 +3564,24 @@
         <v>13</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
@@ -3539,23 +3604,24 @@
         <v>6</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
@@ -3578,23 +3644,24 @@
         <v>5</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000012</v>
       </c>
@@ -3617,23 +3684,24 @@
         <v>12</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000013</v>
       </c>
@@ -3656,23 +3724,24 @@
         <v>10</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000014</v>
       </c>
@@ -3695,23 +3764,24 @@
         <v>12</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
@@ -3734,23 +3804,24 @@
         <v>12</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
@@ -3773,23 +3844,24 @@
         <v>1</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
@@ -3812,23 +3884,24 @@
         <v>1</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O20" s="23"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
@@ -3851,23 +3924,24 @@
         <v>9</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O21" s="23"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000019</v>
       </c>
@@ -3890,23 +3964,24 @@
         <v>15</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O22" s="23"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
@@ -3929,23 +4004,24 @@
         <v>4</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000021</v>
       </c>
@@ -3968,23 +4044,24 @@
         <v>15</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O24" s="23"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P24" s="23"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000022</v>
       </c>
@@ -4007,23 +4084,24 @@
         <v>14</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000023</v>
       </c>
@@ -4046,23 +4124,24 @@
         <v>17</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O26" s="23"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000024</v>
       </c>
@@ -4085,23 +4164,24 @@
         <v>34</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O27" s="23"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000025</v>
       </c>
@@ -4124,23 +4204,24 @@
         <v>35</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O28" s="23"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000026</v>
       </c>
@@ -4163,23 +4244,24 @@
         <v>35</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O29" s="23"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P29" s="23"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000027</v>
       </c>
@@ -4202,23 +4284,24 @@
         <v>5</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O30" s="23"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P30" s="23"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000028</v>
       </c>
@@ -4241,23 +4324,24 @@
         <v>16</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O31" s="23"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P31" s="23"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000029</v>
       </c>
@@ -4280,23 +4364,24 @@
         <v>19</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O32" s="23"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P32" s="23"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000030</v>
       </c>
@@ -4319,23 +4404,24 @@
         <v>16</v>
       </c>
       <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O33" s="23"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P33" s="23"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000031</v>
       </c>
@@ -4358,23 +4444,24 @@
         <v>7</v>
       </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4" t="s">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="O34" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O34" s="23"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P34" s="23"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000032</v>
       </c>
@@ -4397,23 +4484,24 @@
         <v>18</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O35" s="23"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000033</v>
       </c>
@@ -4436,23 +4524,24 @@
         <v>7</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="4" t="s">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O36" s="23"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P36" s="23"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000101</v>
       </c>
@@ -4474,28 +4563,29 @@
       <c r="G37" s="4">
         <v>2</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
         <v>2</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="O37" s="23">
+      <c r="P37" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43000102</v>
       </c>
@@ -4517,28 +4607,29 @@
       <c r="G38" s="4">
         <v>4</v>
       </c>
-      <c r="H38" s="4">
-        <v>3</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4">
         <v>3</v>
       </c>
       <c r="J38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="O38" s="23">
+      <c r="P38" s="23">
         <v>22031004</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43000103</v>
       </c>
@@ -4560,28 +4651,29 @@
       <c r="G39" s="4">
         <v>7</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4" t="s">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O39" s="23">
+      <c r="P39" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43000104</v>
       </c>
@@ -4603,28 +4695,29 @@
       <c r="G40" s="4">
         <v>9</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="O40" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O40" s="23">
+      <c r="P40" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43000105</v>
       </c>
@@ -4646,28 +4739,29 @@
       <c r="G41" s="4">
         <v>12</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O41" s="23">
+      <c r="P41" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43000106</v>
       </c>
@@ -4689,28 +4783,29 @@
       <c r="G42" s="4">
         <v>14</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4" t="s">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O42" s="23">
+      <c r="P42" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43000107</v>
       </c>
@@ -4732,28 +4827,29 @@
       <c r="G43" s="4">
         <v>15</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O43" s="23">
+      <c r="P43" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43000108</v>
       </c>
@@ -4775,28 +4871,29 @@
       <c r="G44" s="4">
         <v>18</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="O44" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O44" s="23">
+      <c r="P44" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43000109</v>
       </c>
@@ -4818,28 +4915,29 @@
       <c r="G45" s="4">
         <v>21</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4" t="s">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="O45" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O45" s="23">
+      <c r="P45" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43000110</v>
       </c>
@@ -4861,28 +4959,29 @@
       <c r="G46" s="4">
         <v>24</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4" t="s">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="O46" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O46" s="23">
+      <c r="P46" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43000201</v>
       </c>
@@ -4904,28 +5003,29 @@
       <c r="G47" s="4">
         <v>22</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="O47" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O47" s="23">
+      <c r="P47" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>43000202</v>
       </c>
@@ -4947,28 +5047,29 @@
       <c r="G48" s="4">
         <v>17</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="4" t="s">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="O48" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O48" s="23">
+      <c r="P48" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>43000203</v>
       </c>
@@ -4990,28 +5091,29 @@
       <c r="G49" s="4">
         <v>22</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="4"/>
+      <c r="N49" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="O49" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O49" s="23">
+      <c r="P49" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>43000301</v>
       </c>
@@ -5033,28 +5135,29 @@
       <c r="G50" s="4">
         <v>7</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4">
         <v>2</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4" t="s">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O50" s="23">
+      <c r="P50" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>43000302</v>
       </c>
@@ -5076,28 +5179,29 @@
       <c r="G51" s="4">
         <v>9</v>
       </c>
-      <c r="H51" s="4">
-        <v>3</v>
-      </c>
-      <c r="I51" s="4" t="s">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
         <v>3</v>
       </c>
       <c r="J51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="O51" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O51" s="23">
+      <c r="P51" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>43000303</v>
       </c>
@@ -5119,28 +5223,29 @@
       <c r="G52" s="4">
         <v>5</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4">
         <v>2</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4" t="s">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="O52" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O52" s="23">
+      <c r="P52" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>43000304</v>
       </c>
@@ -5162,28 +5267,29 @@
       <c r="G53" s="4">
         <v>14</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="O53" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O53" s="23">
+      <c r="P53" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>43000305</v>
       </c>
@@ -5205,28 +5311,29 @@
       <c r="G54" s="4">
         <v>14</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4" t="s">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="O54" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O54" s="23">
+      <c r="P54" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>43000306</v>
       </c>
@@ -5248,28 +5355,29 @@
       <c r="G55" s="4">
         <v>1</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4">
         <v>6</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="O55" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O55" s="23">
+      <c r="P55" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>43000307</v>
       </c>
@@ -5291,28 +5399,29 @@
       <c r="G56" s="4">
         <v>10</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4" t="s">
+      <c r="M56" s="4"/>
+      <c r="N56" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="O56" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O56" s="23">
+      <c r="P56" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>43000308</v>
       </c>
@@ -5334,28 +5443,29 @@
       <c r="G57" s="4">
         <v>11</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
+      <c r="M57" s="4"/>
+      <c r="N57" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="O57" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O57" s="23">
+      <c r="P57" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>43000309</v>
       </c>
@@ -5377,28 +5487,29 @@
       <c r="G58" s="4">
         <v>13</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4" t="s">
+      <c r="M58" s="4"/>
+      <c r="N58" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="O58" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O58" s="23">
+      <c r="P58" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>43000310</v>
       </c>
@@ -5420,28 +5531,29 @@
       <c r="G59" s="4">
         <v>8</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4">
         <v>2</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4" t="s">
+      <c r="M59" s="4"/>
+      <c r="N59" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="O59" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O59" s="23">
+      <c r="P59" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>43000311</v>
       </c>
@@ -5463,28 +5575,29 @@
       <c r="G60" s="4">
         <v>13</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4" t="s">
+      <c r="M60" s="4"/>
+      <c r="N60" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="O60" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O60" s="23">
+      <c r="P60" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>43000312</v>
       </c>
@@ -5506,28 +5619,29 @@
       <c r="G61" s="4">
         <v>18</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4" t="s">
+      <c r="M61" s="4"/>
+      <c r="N61" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="O61" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O61" s="23">
+      <c r="P61" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>43000401</v>
       </c>
@@ -5549,28 +5663,29 @@
       <c r="G62" s="4">
         <v>10</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4">
         <v>6</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4" t="s">
+      <c r="M62" s="4"/>
+      <c r="N62" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="O62" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O62" s="23">
+      <c r="P62" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>43000402</v>
       </c>
@@ -5592,28 +5707,29 @@
       <c r="G63" s="4">
         <v>11</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4">
         <v>5</v>
       </c>
-      <c r="I63" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4" t="s">
+      <c r="M63" s="4"/>
+      <c r="N63" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="O63" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O63" s="23">
+      <c r="P63" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>43000403</v>
       </c>
@@ -5635,28 +5751,29 @@
       <c r="G64" s="4">
         <v>13</v>
       </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I64" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4" t="s">
+      <c r="M64" s="4"/>
+      <c r="N64" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="O64" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O64" s="23">
+      <c r="P64" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>43000404</v>
       </c>
@@ -5678,28 +5795,29 @@
       <c r="G65" s="4">
         <v>14</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4" t="s">
+      <c r="M65" s="4"/>
+      <c r="N65" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="O65" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O65" s="23">
+      <c r="P65" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>43000405</v>
       </c>
@@ -5721,28 +5839,29 @@
       <c r="G66" s="4">
         <v>18</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="4" t="s">
+      <c r="M66" s="4"/>
+      <c r="N66" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="O66" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O66" s="23">
+      <c r="P66" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>43000406</v>
       </c>
@@ -5764,28 +5883,29 @@
       <c r="G67" s="4">
         <v>15</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I67" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
+      <c r="M67" s="4"/>
+      <c r="N67" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="O67" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O67" s="23">
+      <c r="P67" s="23">
         <v>22031003</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>43000407</v>
       </c>
@@ -5807,28 +5927,29 @@
       <c r="G68" s="4">
         <v>10</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4">
         <v>4</v>
       </c>
-      <c r="I68" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="4" t="s">
+      <c r="M68" s="4"/>
+      <c r="N68" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O68" s="23">
+      <c r="P68" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>43000408</v>
       </c>
@@ -5850,28 +5971,29 @@
       <c r="G69" s="4">
         <v>7</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4">
         <v>5</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4" t="s">
+      <c r="M69" s="4"/>
+      <c r="N69" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="O69" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O69" s="23">
+      <c r="P69" s="23">
         <v>22031005</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>43000501</v>
       </c>
@@ -5893,28 +6015,29 @@
       <c r="G70" s="4">
         <v>15</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="4"/>
+      <c r="I70" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4" t="s">
+      <c r="M70" s="4"/>
+      <c r="N70" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="O70" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O70" s="23">
+      <c r="P70" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>43000502</v>
       </c>
@@ -5936,28 +6059,29 @@
       <c r="G71" s="4">
         <v>13</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I71" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4" t="s">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="O71" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O71" s="23">
+      <c r="P71" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>43000503</v>
       </c>
@@ -5979,28 +6103,29 @@
       <c r="G72" s="4">
         <v>9</v>
       </c>
-      <c r="H72" s="4">
-        <v>3</v>
-      </c>
-      <c r="I72" s="4" t="s">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4">
         <v>3</v>
       </c>
       <c r="J72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K72" s="4"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="4" t="s">
+      <c r="M72" s="4"/>
+      <c r="N72" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="O72" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O72" s="23">
+      <c r="P72" s="23">
         <v>22031002</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>43000504</v>
       </c>
@@ -6022,24 +6147,25 @@
       <c r="G73" s="4">
         <v>19</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I73" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="J73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="K73" s="4"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="4" t="s">
+      <c r="M73" s="4"/>
+      <c r="N73" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="O73" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="O73" s="23">
+      <c r="P73" s="23">
         <v>22031002</v>
       </c>
     </row>
@@ -6055,13 +6181,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6069,15 +6195,15 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="6.125" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="12" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="13" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>203</v>
       </c>
@@ -6100,31 +6226,34 @@
         <v>209</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>201</v>
       </c>
@@ -6147,31 +6276,34 @@
         <v>201</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>202</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="P2" s="22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>214</v>
       </c>
@@ -6194,31 +6326,34 @@
         <v>220</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43010001</v>
       </c>
@@ -6240,26 +6375,29 @@
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43010002</v>
       </c>
@@ -6281,24 +6419,27 @@
       <c r="G5" s="4">
         <v>5</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O5" s="19"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43010003</v>
       </c>
@@ -6320,24 +6461,27 @@
       <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43010004</v>
       </c>
@@ -6359,24 +6503,27 @@
       <c r="G7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
@@ -6398,26 +6545,29 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
@@ -6439,26 +6589,29 @@
       <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43010101</v>
       </c>
@@ -6481,23 +6634,24 @@
         <v>5</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43010102</v>
       </c>
@@ -6520,23 +6674,24 @@
         <v>10</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43010103</v>
       </c>
@@ -6559,23 +6714,24 @@
         <v>5</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43010104</v>
       </c>
@@ -6598,23 +6754,24 @@
         <v>10</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>
@@ -6637,21 +6794,22 @@
         <v>25</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1723,9 +1723,9 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="宋体"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1753,33 +1753,6 @@
         <color theme="1"/>
         <name val="宋体"/>
         <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -2636,6 +2609,33 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -2718,43 +2718,43 @@
     <tableColumn id="7" name="Deck" dataDxfId="30"/>
     <tableColumn id="10" name="Job" dataDxfId="29"/>
     <tableColumn id="11" name="Level" dataDxfId="28"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="0"/>
-    <tableColumn id="12" name="Reward" dataDxfId="27"/>
-    <tableColumn id="13" name="Method" dataDxfId="26"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="25"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="24"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="23"/>
-    <tableColumn id="17" name="Figue" dataDxfId="22"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="21"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="20"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="27"/>
+    <tableColumn id="12" name="Reward" dataDxfId="26"/>
+    <tableColumn id="13" name="Method" dataDxfId="25"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="24"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="23"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="22"/>
+    <tableColumn id="17" name="Figue" dataDxfId="21"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="20"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A3:P14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="16"/>
-    <tableColumn id="2" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" name="Type" dataDxfId="14"/>
-    <tableColumn id="6" name="World" dataDxfId="13"/>
-    <tableColumn id="7" name="Deck" dataDxfId="12"/>
-    <tableColumn id="10" name="Job" dataDxfId="11"/>
-    <tableColumn id="11" name="Level" dataDxfId="10"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="1"/>
-    <tableColumn id="12" name="Reward" dataDxfId="9"/>
-    <tableColumn id="13" name="Method" dataDxfId="8"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="7"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="6"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="5"/>
-    <tableColumn id="9" name="Figue" dataDxfId="4"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="3"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
+    <tableColumn id="1" name="Id" dataDxfId="15"/>
+    <tableColumn id="2" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" name="Type" dataDxfId="13"/>
+    <tableColumn id="6" name="World" dataDxfId="12"/>
+    <tableColumn id="7" name="Deck" dataDxfId="11"/>
+    <tableColumn id="10" name="Job" dataDxfId="10"/>
+    <tableColumn id="11" name="Level" dataDxfId="9"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="8"/>
+    <tableColumn id="12" name="Reward" dataDxfId="7"/>
+    <tableColumn id="13" name="Method" dataDxfId="6"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="5"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="4"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="3"/>
+    <tableColumn id="9" name="Figue" dataDxfId="2"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="1"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3053,7 +3053,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3236,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -3276,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -3318,7 +3318,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
@@ -3358,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G7" s="4">
         <v>5</v>
@@ -3398,7 +3398,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G8" s="4">
         <v>7</v>
@@ -3438,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G9" s="4">
         <v>11</v>
@@ -3478,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G10" s="4">
         <v>3</v>
@@ -3518,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G11" s="4">
         <v>13</v>
@@ -3558,7 +3558,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G12" s="4">
         <v>13</v>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G13" s="4">
         <v>6</v>
@@ -3638,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
@@ -3678,7 +3678,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G15" s="4">
         <v>12</v>
@@ -3718,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G16" s="4">
         <v>10</v>
@@ -3758,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G17" s="4">
         <v>12</v>
@@ -3798,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G18" s="4">
         <v>12</v>
@@ -3838,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G20" s="4">
         <v>1</v>
@@ -3918,7 +3918,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G21" s="4">
         <v>9</v>
@@ -3958,7 +3958,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G22" s="4">
         <v>15</v>
@@ -3998,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G23" s="4">
         <v>4</v>
@@ -4038,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G24" s="4">
         <v>15</v>
@@ -4078,7 +4078,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G25" s="4">
         <v>14</v>
@@ -4118,7 +4118,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G26" s="4">
         <v>17</v>
@@ -4158,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G27" s="4">
         <v>34</v>
@@ -4198,7 +4198,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G28" s="4">
         <v>35</v>
@@ -4238,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G29" s="4">
         <v>35</v>
@@ -4278,7 +4278,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G30" s="4">
         <v>5</v>
@@ -4318,7 +4318,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G31" s="4">
         <v>16</v>
@@ -4358,7 +4358,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G32" s="4">
         <v>19</v>
@@ -4398,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G33" s="4">
         <v>16</v>
@@ -4438,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G34" s="4">
         <v>7</v>
@@ -4478,7 +4478,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G35" s="4">
         <v>18</v>
@@ -4518,7 +4518,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="18">
-        <v>11001001</v>
+        <v>11001003</v>
       </c>
       <c r="G36" s="4">
         <v>7</v>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="275">
   <si>
     <t>老鼠</t>
   </si>
@@ -895,6 +895,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3050,10 +3054,10 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4579,7 +4583,7 @@
         <v>71</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="P37" s="23">
         <v>22031002</v>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -872,10 +872,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51000002;4;-1;51000002;4;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>自动开启等级</t>
   </si>
   <si>
@@ -899,6 +895,10 @@
   </si>
   <si>
     <t>mini</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000002;4;-1;51000002;4;1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2697,6 +2697,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2772,7 +2840,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3054,10 +3122,10 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3096,7 +3164,7 @@
         <v>209</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>240</v>
@@ -3146,7 +3214,7 @@
         <v>201</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>225</v>
@@ -3196,7 +3264,7 @@
         <v>220</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>221</v>
@@ -3295,7 +3363,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>6</v>
@@ -4583,7 +4651,7 @@
         <v>71</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P37" s="23">
         <v>22031002</v>
@@ -6230,7 +6298,7 @@
         <v>209</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>210</v>
@@ -6280,7 +6348,7 @@
         <v>201</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>225</v>
@@ -6330,7 +6398,7 @@
         <v>220</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>221</v>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="People" sheetId="1" r:id="rId1"/>
     <sheet name="特殊" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="276">
   <si>
     <t>老鼠</t>
   </si>
@@ -899,13 +899,17 @@
   </si>
   <si>
     <t>51000002;4;-1;51000002;4;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认对战等级</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2697,74 +2701,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2833,14 +2769,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2908,6 +2844,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2943,6 +2896,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3125,7 +3095,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3161,7 +3131,7 @@
         <v>208</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>268</v>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="People" sheetId="1" r:id="rId1"/>
     <sheet name="特殊" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -898,18 +898,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51000002;4;-1;51000002;4;1</t>
+    <t>默认对战等级</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>默认对战等级</t>
+    <t>51000002;3;-1;51000002;3;1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2769,7 +2769,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2844,23 +2844,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2896,23 +2879,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3095,7 +3061,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3131,7 +3097,7 @@
         <v>208</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>268</v>
@@ -3333,7 +3299,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>6</v>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="People" sheetId="1" r:id="rId1"/>
-    <sheet name="特殊" sheetId="2" r:id="rId2"/>
+    <sheet name="人物" sheetId="4" r:id="rId1"/>
+    <sheet name="怪物" sheetId="1" r:id="rId2"/>
+    <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="276">
   <si>
     <t>老鼠</t>
   </si>
@@ -119,18 +120,6 @@
   </si>
   <si>
     <t>element4</t>
-  </si>
-  <si>
-    <t>鸡</t>
-  </si>
-  <si>
-    <t>chick</t>
-  </si>
-  <si>
-    <t>青蛙</t>
-  </si>
-  <si>
-    <t>frog</t>
   </si>
   <si>
     <t>红狼</t>
@@ -903,13 +892,29 @@
   </si>
   <si>
     <t>51000002;3;-1;51000002;3;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanzei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tufei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1718,7 +1723,495 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF4F81BD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF4F81BD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF4F81BD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF4F81BD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2713,8 +3206,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P73" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="A3:P73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:P40" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A3:P40"/>
+  <sortState ref="A4:O50">
+    <sortCondition ref="A3:A50"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="15"/>
+    <tableColumn id="2" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" name="Type" dataDxfId="13"/>
+    <tableColumn id="6" name="World" dataDxfId="12"/>
+    <tableColumn id="7" name="Deck" dataDxfId="11"/>
+    <tableColumn id="10" name="Job" dataDxfId="10"/>
+    <tableColumn id="11" name="Level" dataDxfId="9"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="8"/>
+    <tableColumn id="12" name="Reward" dataDxfId="7"/>
+    <tableColumn id="13" name="Method" dataDxfId="6"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="5"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="4"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="3"/>
+    <tableColumn id="17" name="Figue" dataDxfId="2"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="1"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P36" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+  <autoFilter ref="A3:P36"/>
+  <sortState ref="A4:O44">
+    <sortCondition ref="A3:A44"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Id" dataDxfId="53"/>
+    <tableColumn id="2" name="Name" dataDxfId="52"/>
+    <tableColumn id="3" name="Type" dataDxfId="51"/>
+    <tableColumn id="6" name="World" dataDxfId="50"/>
+    <tableColumn id="7" name="Deck" dataDxfId="49"/>
+    <tableColumn id="10" name="Job" dataDxfId="48"/>
+    <tableColumn id="11" name="Level" dataDxfId="47"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="46"/>
+    <tableColumn id="12" name="Reward" dataDxfId="45"/>
+    <tableColumn id="13" name="Method" dataDxfId="44"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="43"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="42"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="41"/>
+    <tableColumn id="17" name="Figue" dataDxfId="40"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="39"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="A3:P14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
@@ -2732,44 +3281,16 @@
     <tableColumn id="14" name="Emethod" dataDxfId="24"/>
     <tableColumn id="15" name="RightMon" dataDxfId="23"/>
     <tableColumn id="4" name="PetMon" dataDxfId="22"/>
-    <tableColumn id="17" name="Figue" dataDxfId="21"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="20"/>
+    <tableColumn id="9" name="Figue" dataDxfId="21"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="20"/>
     <tableColumn id="8" name="DropItem" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A3:P14"/>
-  <sortState ref="A4:O83">
-    <sortCondition ref="A3:A83"/>
-  </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="15"/>
-    <tableColumn id="2" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" name="Type" dataDxfId="13"/>
-    <tableColumn id="6" name="World" dataDxfId="12"/>
-    <tableColumn id="7" name="Deck" dataDxfId="11"/>
-    <tableColumn id="10" name="Job" dataDxfId="10"/>
-    <tableColumn id="11" name="Level" dataDxfId="9"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="8"/>
-    <tableColumn id="12" name="Reward" dataDxfId="7"/>
-    <tableColumn id="13" name="Method" dataDxfId="6"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="5"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="4"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="3"/>
-    <tableColumn id="9" name="Figue" dataDxfId="2"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="1"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2844,6 +3365,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2879,6 +3417,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3055,13 +3610,1825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="8" width="6.25" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="13" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>43020101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>11000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>43020102</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>11000003</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P5" s="23">
+        <v>22031004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>43020103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>11000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P6" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>43020104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7">
+        <v>11000008</v>
+      </c>
+      <c r="G7" s="4">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P7" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>43020105</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <v>11000007</v>
+      </c>
+      <c r="G8" s="4">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>43020106</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9">
+        <v>11000005</v>
+      </c>
+      <c r="G9" s="4">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P9" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>43020107</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10">
+        <v>11000007</v>
+      </c>
+      <c r="G10" s="4">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>43020108</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>11000005</v>
+      </c>
+      <c r="G11" s="4">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P11" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>43020109</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <v>11000006</v>
+      </c>
+      <c r="G12" s="4">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P12" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>43020110</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>11000006</v>
+      </c>
+      <c r="G13" s="4">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>43020201</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>11000007</v>
+      </c>
+      <c r="G14" s="4">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P14" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>43020202</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>11000001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>17</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P15" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>43020203</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>11000002</v>
+      </c>
+      <c r="G16" s="4">
+        <v>22</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P16" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>43020301</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>11000002</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P17" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>43020302</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>11000008</v>
+      </c>
+      <c r="G18" s="4">
+        <v>9</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P18" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>43020303</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19">
+        <v>11000004</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P19" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>43020304</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20">
+        <v>11000002</v>
+      </c>
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P20" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>43020305</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="4">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21">
+        <v>11000005</v>
+      </c>
+      <c r="G21" s="4">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P21" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>43020306</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>11000008</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P22" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>43020307</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>11000001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P23" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>43020308</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24">
+        <v>11000001</v>
+      </c>
+      <c r="G24" s="4">
+        <v>11</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P24" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>43020309</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25">
+        <v>11000004</v>
+      </c>
+      <c r="G25" s="4">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P25" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>43020310</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>11000003</v>
+      </c>
+      <c r="G26" s="4">
+        <v>8</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P26" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>43020311</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27">
+        <v>11000005</v>
+      </c>
+      <c r="G27" s="4">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P27" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>43020312</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28">
+        <v>11000001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>18</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>43020401</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29">
+        <v>11000002</v>
+      </c>
+      <c r="G29" s="4">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4">
+        <v>6</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P29" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>43020402</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30">
+        <v>11000001</v>
+      </c>
+      <c r="G30" s="4">
+        <v>11</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P30" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>43020403</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>11000002</v>
+      </c>
+      <c r="G31" s="4">
+        <v>13</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P31" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>43020404</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32">
+        <v>11000001</v>
+      </c>
+      <c r="G32" s="4">
+        <v>14</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P32" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>43020405</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33">
+        <v>11000007</v>
+      </c>
+      <c r="G33" s="4">
+        <v>18</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P33" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>43020406</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34">
+        <v>11000006</v>
+      </c>
+      <c r="G34" s="4">
+        <v>15</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P34" s="23">
+        <v>22031003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>43020407</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="4">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>11000004</v>
+      </c>
+      <c r="G35" s="4">
+        <v>10</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4">
+        <v>4</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P35" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>43020408</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36">
+        <v>11000002</v>
+      </c>
+      <c r="G36" s="4">
+        <v>7</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <v>5</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P36" s="23">
+        <v>22031005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>43020501</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="4">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37">
+        <v>11000003</v>
+      </c>
+      <c r="G37" s="4">
+        <v>15</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P37" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>43020502</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="4">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38">
+        <v>11000002</v>
+      </c>
+      <c r="G38" s="4">
+        <v>13</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P38" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>43020503</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="4">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39">
+        <v>11000008</v>
+      </c>
+      <c r="G39" s="4">
+        <v>9</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4">
+        <v>3</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P39" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>43020504</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="4">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40">
+        <v>11000001</v>
+      </c>
+      <c r="G40" s="4">
+        <v>19</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P40" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3079,152 +5446,152 @@
   <sheetData>
     <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="L1" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="L3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -3263,7 +5630,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P4" s="23"/>
     </row>
@@ -3299,13 +5666,13 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P5" s="23"/>
     </row>
@@ -3345,7 +5712,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P6" s="23"/>
     </row>
@@ -3385,7 +5752,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P7" s="23"/>
     </row>
@@ -3425,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P8" s="23"/>
     </row>
@@ -3465,7 +5832,7 @@
         <v>14</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P9" s="23"/>
     </row>
@@ -3505,7 +5872,7 @@
         <v>16</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P10" s="23"/>
     </row>
@@ -3545,7 +5912,7 @@
         <v>18</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P11" s="23"/>
     </row>
@@ -3585,7 +5952,7 @@
         <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P12" s="23"/>
     </row>
@@ -3625,7 +5992,7 @@
         <v>22</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P13" s="23"/>
     </row>
@@ -3665,7 +6032,7 @@
         <v>24</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P14" s="23"/>
     </row>
@@ -3705,7 +6072,7 @@
         <v>26</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P15" s="23"/>
     </row>
@@ -3745,7 +6112,7 @@
         <v>28</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P16" s="23"/>
     </row>
@@ -3785,7 +6152,7 @@
         <v>30</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P17" s="23"/>
     </row>
@@ -3825,7 +6192,7 @@
         <v>32</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P18" s="23"/>
     </row>
@@ -3834,7 +6201,7 @@
         <v>43000016</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -3849,7 +6216,7 @@
         <v>11001003</v>
       </c>
       <c r="G19" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -3857,15 +6224,15 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P19" s="23"/>
     </row>
@@ -3874,7 +6241,7 @@
         <v>43000017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -3889,7 +6256,7 @@
         <v>11001003</v>
       </c>
       <c r="G20" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -3897,15 +6264,15 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P20" s="23"/>
     </row>
@@ -3914,7 +6281,7 @@
         <v>43000018</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -3937,15 +6304,15 @@
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P21" s="23"/>
     </row>
@@ -3954,7 +6321,7 @@
         <v>43000019</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -3977,15 +6344,15 @@
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P22" s="23"/>
     </row>
@@ -3994,7 +6361,7 @@
         <v>43000020</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -4017,15 +6384,15 @@
         <v>3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P23" s="23"/>
     </row>
@@ -4034,7 +6401,7 @@
         <v>43000021</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -4057,15 +6424,15 @@
         <v>3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P24" s="23"/>
     </row>
@@ -4074,7 +6441,7 @@
         <v>43000022</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -4097,15 +6464,15 @@
         <v>3</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P25" s="23"/>
     </row>
@@ -4114,7 +6481,7 @@
         <v>43000023</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -4137,15 +6504,15 @@
         <v>3</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P26" s="23"/>
     </row>
@@ -4154,7 +6521,7 @@
         <v>43000024</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -4177,15 +6544,15 @@
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P27" s="23"/>
     </row>
@@ -4194,7 +6561,7 @@
         <v>43000025</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -4217,15 +6584,15 @@
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P28" s="23"/>
     </row>
@@ -4234,7 +6601,7 @@
         <v>43000026</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -4257,15 +6624,15 @@
         <v>3</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P29" s="23"/>
     </row>
@@ -4274,7 +6641,7 @@
         <v>43000027</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -4297,15 +6664,15 @@
         <v>3</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P30" s="23"/>
     </row>
@@ -4314,7 +6681,7 @@
         <v>43000028</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -4337,15 +6704,15 @@
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P31" s="23"/>
     </row>
@@ -4354,7 +6721,7 @@
         <v>43000029</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -4377,15 +6744,15 @@
         <v>3</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P32" s="23"/>
     </row>
@@ -4394,7 +6761,7 @@
         <v>43000030</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -4417,15 +6784,15 @@
         <v>3</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P33" s="23"/>
     </row>
@@ -4434,7 +6801,7 @@
         <v>43000031</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -4457,15 +6824,15 @@
         <v>3</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P34" s="23"/>
     </row>
@@ -4474,7 +6841,7 @@
         <v>43000032</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -4497,15 +6864,15 @@
         <v>3</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P35" s="23"/>
     </row>
@@ -4514,7 +6881,7 @@
         <v>43000033</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -4537,1645 +6904,17 @@
         <v>3</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P36" s="23"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>43000101</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>11000001</v>
-      </c>
-      <c r="G37" s="4">
-        <v>2</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4">
-        <v>2</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="P37" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>43000102</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38">
-        <v>11000003</v>
-      </c>
-      <c r="G38" s="4">
-        <v>4</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4">
-        <v>3</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="P38" s="23">
-        <v>22031004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>43000103</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F39">
-        <v>11000002</v>
-      </c>
-      <c r="G39" s="4">
-        <v>7</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P39" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>43000104</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F40">
-        <v>11000008</v>
-      </c>
-      <c r="G40" s="4">
-        <v>9</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P40" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>43000105</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41">
-        <v>11000007</v>
-      </c>
-      <c r="G41" s="4">
-        <v>12</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P41" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>43000106</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42">
-        <v>11000005</v>
-      </c>
-      <c r="G42" s="4">
-        <v>14</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P42" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>43000107</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43">
-        <v>11000007</v>
-      </c>
-      <c r="G43" s="4">
-        <v>15</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P43" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>43000108</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44">
-        <v>11000005</v>
-      </c>
-      <c r="G44" s="4">
-        <v>18</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P44" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>43000109</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45">
-        <v>11000006</v>
-      </c>
-      <c r="G45" s="4">
-        <v>21</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P45" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>43000110</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46">
-        <v>11000006</v>
-      </c>
-      <c r="G46" s="4">
-        <v>24</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P46" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>43000201</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="4">
-        <v>2</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>11000007</v>
-      </c>
-      <c r="G47" s="4">
-        <v>22</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P47" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>43000202</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="4">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>11000001</v>
-      </c>
-      <c r="G48" s="4">
-        <v>17</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P48" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>43000203</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="4">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>11000002</v>
-      </c>
-      <c r="G49" s="4">
-        <v>22</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P49" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>43000301</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="4">
-        <v>3</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>11000002</v>
-      </c>
-      <c r="G50" s="4">
-        <v>7</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4">
-        <v>2</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P50" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>43000302</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="4">
-        <v>3</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>11000008</v>
-      </c>
-      <c r="G51" s="4">
-        <v>9</v>
-      </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4">
-        <v>3</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P51" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>43000303</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="4">
-        <v>4</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52">
-        <v>11000004</v>
-      </c>
-      <c r="G52" s="4">
-        <v>5</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4">
-        <v>2</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P52" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>43000304</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="4">
-        <v>4</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53">
-        <v>11000002</v>
-      </c>
-      <c r="G53" s="4">
-        <v>14</v>
-      </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P53" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>43000305</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="4">
-        <v>4</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F54">
-        <v>11000005</v>
-      </c>
-      <c r="G54" s="4">
-        <v>14</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P54" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>43000306</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="4">
-        <v>3</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>11000008</v>
-      </c>
-      <c r="G55" s="4">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4">
-        <v>6</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P55" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>43000307</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="4">
-        <v>4</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>11000001</v>
-      </c>
-      <c r="G56" s="4">
-        <v>10</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P56" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>43000308</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="4">
-        <v>4</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57">
-        <v>11000001</v>
-      </c>
-      <c r="G57" s="4">
-        <v>11</v>
-      </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P57" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>43000309</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="4">
-        <v>4</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58">
-        <v>11000004</v>
-      </c>
-      <c r="G58" s="4">
-        <v>13</v>
-      </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P58" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>43000310</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="4">
-        <v>4</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59">
-        <v>11000003</v>
-      </c>
-      <c r="G59" s="4">
-        <v>8</v>
-      </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4">
-        <v>2</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P59" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>43000311</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="4">
-        <v>4</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F60">
-        <v>11000005</v>
-      </c>
-      <c r="G60" s="4">
-        <v>13</v>
-      </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P60" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>43000312</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="4">
-        <v>4</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F61">
-        <v>11000001</v>
-      </c>
-      <c r="G61" s="4">
-        <v>18</v>
-      </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P61" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <v>43000401</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="4">
-        <v>5</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62">
-        <v>11000002</v>
-      </c>
-      <c r="G62" s="4">
-        <v>10</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4">
-        <v>6</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P62" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>43000402</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="4">
-        <v>5</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63">
-        <v>11000001</v>
-      </c>
-      <c r="G63" s="4">
-        <v>11</v>
-      </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4">
-        <v>5</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P63" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <v>43000403</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="4">
-        <v>5</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64">
-        <v>11000002</v>
-      </c>
-      <c r="G64" s="4">
-        <v>13</v>
-      </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P64" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <v>43000404</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="4">
-        <v>5</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F65">
-        <v>11000001</v>
-      </c>
-      <c r="G65" s="4">
-        <v>14</v>
-      </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P65" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <v>43000405</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="4">
-        <v>5</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66">
-        <v>11000007</v>
-      </c>
-      <c r="G66" s="4">
-        <v>18</v>
-      </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P66" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <v>43000406</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="4">
-        <v>5</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67">
-        <v>11000006</v>
-      </c>
-      <c r="G67" s="4">
-        <v>15</v>
-      </c>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P67" s="23">
-        <v>22031003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <v>43000407</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="4">
-        <v>5</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68">
-        <v>11000004</v>
-      </c>
-      <c r="G68" s="4">
-        <v>10</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4">
-        <v>4</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P68" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <v>43000408</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" s="4">
-        <v>5</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69">
-        <v>11000002</v>
-      </c>
-      <c r="G69" s="4">
-        <v>7</v>
-      </c>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4">
-        <v>5</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P69" s="23">
-        <v>22031005</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <v>43000501</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="4">
-        <v>6</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70">
-        <v>11000003</v>
-      </c>
-      <c r="G70" s="4">
-        <v>15</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P70" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <v>43000502</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C71" s="4">
-        <v>6</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F71">
-        <v>11000002</v>
-      </c>
-      <c r="G71" s="4">
-        <v>13</v>
-      </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P71" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <v>43000503</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="4">
-        <v>6</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F72">
-        <v>11000008</v>
-      </c>
-      <c r="G72" s="4">
-        <v>9</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4">
-        <v>3</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="O72" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P72" s="23">
-        <v>22031002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <v>43000504</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="4">
-        <v>6</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F73">
-        <v>11000001</v>
-      </c>
-      <c r="G73" s="4">
-        <v>19</v>
-      </c>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="P73" s="23">
-        <v>22031002</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -6187,7 +6926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
@@ -6213,152 +6952,152 @@
   <sheetData>
     <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="L1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>213</v>
-      </c>
       <c r="O1" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="L3" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="O3" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
@@ -6366,13 +7105,13 @@
         <v>43010001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4">
         <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>2</v>
@@ -6391,17 +7130,17 @@
         <v>3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P4" s="19"/>
     </row>
@@ -6410,13 +7149,13 @@
         <v>43010002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4">
         <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
@@ -6440,10 +7179,10 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P5" s="19"/>
     </row>
@@ -6452,13 +7191,13 @@
         <v>43010003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4">
         <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -6474,18 +7213,18 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P6" s="19"/>
     </row>
@@ -6494,13 +7233,13 @@
         <v>43010004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C7" s="4">
         <v>101</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
@@ -6516,18 +7255,18 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P7" s="19"/>
     </row>
@@ -6536,13 +7275,13 @@
         <v>43010005</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C8" s="4">
         <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -6558,20 +7297,20 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P8" s="19"/>
     </row>
@@ -6580,13 +7319,13 @@
         <v>43010006</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C9" s="4">
         <v>101</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -6602,20 +7341,20 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P9" s="19"/>
     </row>
@@ -6624,13 +7363,13 @@
         <v>43010101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C10" s="4">
         <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>2</v>
@@ -6644,18 +7383,18 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P10" s="19"/>
     </row>
@@ -6664,13 +7403,13 @@
         <v>43010102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C11" s="4">
         <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>2</v>
@@ -6684,18 +7423,18 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P11" s="19"/>
     </row>
@@ -6704,13 +7443,13 @@
         <v>43010103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C12" s="4">
         <v>102</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>2</v>
@@ -6724,18 +7463,18 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P12" s="19"/>
     </row>
@@ -6744,13 +7483,13 @@
         <v>43010104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C13" s="4">
         <v>102</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>2</v>
@@ -6764,18 +7503,18 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P13" s="19"/>
     </row>
@@ -6784,13 +7523,13 @@
         <v>43010105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C14" s="4">
         <v>102</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>2</v>
@@ -6804,18 +7543,18 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P14" s="19"/>
     </row>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="279">
   <si>
     <t>老鼠</t>
   </si>
@@ -883,10 +883,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>mini</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>默认对战等级</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -908,6 +904,22 @@
   </si>
   <si>
     <t>土匪</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chongyue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆虫羽蛾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>真崎杏子</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3206,10 +3218,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:P40" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A3:P40"/>
-  <sortState ref="A4:O50">
-    <sortCondition ref="A3:A50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:P42" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A3:P42"/>
+  <sortState ref="A4:O52">
+    <sortCondition ref="A3:A52"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" name="Id" dataDxfId="15"/>
@@ -3610,13 +3622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3652,7 +3664,7 @@
         <v>204</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>264</v>
@@ -3820,7 +3832,7 @@
         <v>67</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="P4" s="23">
         <v>22031002</v>
@@ -3908,7 +3920,7 @@
         <v>74</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P6" s="23">
         <v>22031002</v>
@@ -3952,7 +3964,7 @@
         <v>77</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P7" s="23">
         <v>22031002</v>
@@ -3996,7 +4008,7 @@
         <v>81</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P8" s="23">
         <v>22031002</v>
@@ -4040,7 +4052,7 @@
         <v>85</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P9" s="23">
         <v>22031002</v>
@@ -4084,7 +4096,7 @@
         <v>88</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P10" s="23">
         <v>22031002</v>
@@ -4128,7 +4140,7 @@
         <v>92</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P11" s="23">
         <v>22031002</v>
@@ -4172,7 +4184,7 @@
         <v>96</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P12" s="23">
         <v>22031002</v>
@@ -4216,7 +4228,7 @@
         <v>100</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P13" s="23">
         <v>22031002</v>
@@ -4260,7 +4272,7 @@
         <v>104</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P14" s="23">
         <v>22031002</v>
@@ -4304,7 +4316,7 @@
         <v>107</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P15" s="23">
         <v>22031002</v>
@@ -4348,7 +4360,7 @@
         <v>110</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P16" s="23">
         <v>22031002</v>
@@ -4356,43 +4368,41 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>43020301</v>
+        <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="C17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>11000002</v>
+        <v>11000005</v>
       </c>
       <c r="G17" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="4">
-        <v>2</v>
-      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P17" s="23">
         <v>22031002</v>
@@ -4400,16 +4410,16 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>43020302</v>
+        <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="C18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>2</v>
@@ -4418,25 +4428,23 @@
         <v>11000008</v>
       </c>
       <c r="G18" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="4">
-        <v>3</v>
-      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P18" s="23">
         <v>22031002</v>
@@ -4444,25 +4452,25 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>43020303</v>
+        <v>43020301</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>11000004</v>
+        <v>11000002</v>
       </c>
       <c r="G19" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
@@ -4472,15 +4480,15 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P19" s="23">
         <v>22031002</v>
@@ -4488,43 +4496,43 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>43020304</v>
+        <v>43020302</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>11000002</v>
+        <v>11000008</v>
       </c>
       <c r="G20" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
-        <v>123</v>
+      <c r="I20" s="4">
+        <v>3</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P20" s="23">
         <v>22031002</v>
@@ -4532,10 +4540,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>43020305</v>
+        <v>43020303</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C21" s="4">
         <v>4</v>
@@ -4544,31 +4552,31 @@
         <v>119</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="F21">
-        <v>11000005</v>
+        <v>11000004</v>
       </c>
       <c r="G21" s="4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
-        <v>106</v>
+      <c r="I21" s="4">
+        <v>2</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P21" s="23">
         <v>22031002</v>
@@ -4576,43 +4584,43 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>43020306</v>
+        <v>43020304</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C22" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="F22">
-        <v>11000008</v>
+        <v>11000002</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="4">
-        <v>6</v>
+      <c r="I22" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P22" s="23">
         <v>22031002</v>
@@ -4620,10 +4628,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>43020307</v>
+        <v>43020305</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C23" s="4">
         <v>4</v>
@@ -4632,31 +4640,31 @@
         <v>119</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="F23">
-        <v>11000001</v>
+        <v>11000005</v>
       </c>
       <c r="G23" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P23" s="23">
         <v>22031002</v>
@@ -4664,43 +4672,43 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>43020308</v>
+        <v>43020306</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>11000001</v>
+        <v>11000008</v>
       </c>
       <c r="G24" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
-        <v>73</v>
+      <c r="I24" s="4">
+        <v>6</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P24" s="23">
         <v>22031002</v>
@@ -4708,10 +4716,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>43020309</v>
+        <v>43020307</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C25" s="4">
         <v>4</v>
@@ -4720,31 +4728,31 @@
         <v>119</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>11000004</v>
+        <v>11000001</v>
       </c>
       <c r="G25" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P25" s="23">
         <v>22031002</v>
@@ -4752,10 +4760,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>43020310</v>
+        <v>43020308</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C26" s="4">
         <v>4</v>
@@ -4764,31 +4772,31 @@
         <v>119</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="F26">
-        <v>11000003</v>
+        <v>11000001</v>
       </c>
       <c r="G26" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="4">
-        <v>2</v>
+      <c r="I26" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P26" s="23">
         <v>22031002</v>
@@ -4796,10 +4804,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>43020311</v>
+        <v>43020309</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
@@ -4808,31 +4816,31 @@
         <v>119</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="F27">
-        <v>11000005</v>
+        <v>11000004</v>
       </c>
       <c r="G27" s="4">
         <v>13</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P27" s="23">
         <v>22031002</v>
@@ -4840,10 +4848,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>43020312</v>
+        <v>43020310</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4">
         <v>4</v>
@@ -4852,31 +4860,31 @@
         <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>11000001</v>
+        <v>11000003</v>
       </c>
       <c r="G28" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
-        <v>141</v>
+      <c r="I28" s="4">
+        <v>2</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P28" s="23">
         <v>22031002</v>
@@ -4884,43 +4892,43 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>43020401</v>
+        <v>43020311</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C29" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="F29">
-        <v>11000002</v>
+        <v>11000005</v>
       </c>
       <c r="G29" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="4">
-        <v>6</v>
+      <c r="I29" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P29" s="23">
         <v>22031002</v>
@@ -4928,43 +4936,43 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>43020402</v>
+        <v>43020312</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C30" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="F30">
         <v>11000001</v>
       </c>
       <c r="G30" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="4">
-        <v>5</v>
+      <c r="I30" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P30" s="23">
         <v>22031002</v>
@@ -4972,10 +4980,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>43020403</v>
+        <v>43020401</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C31" s="4">
         <v>5</v>
@@ -4984,31 +4992,31 @@
         <v>144</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="F31">
         <v>11000002</v>
       </c>
       <c r="G31" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="4" t="s">
-        <v>149</v>
+      <c r="I31" s="4">
+        <v>6</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P31" s="23">
         <v>22031002</v>
@@ -5016,10 +5024,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>43020404</v>
+        <v>43020402</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C32" s="4">
         <v>5</v>
@@ -5028,31 +5036,31 @@
         <v>144</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F32">
         <v>11000001</v>
       </c>
       <c r="G32" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
-        <v>109</v>
+      <c r="I32" s="4">
+        <v>5</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P32" s="23">
         <v>22031002</v>
@@ -5060,10 +5068,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>43020405</v>
+        <v>43020403</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C33" s="4">
         <v>5</v>
@@ -5072,31 +5080,31 @@
         <v>144</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>11000007</v>
+        <v>11000002</v>
       </c>
       <c r="G33" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P33" s="23">
         <v>22031002</v>
@@ -5104,10 +5112,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>43020406</v>
+        <v>43020404</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C34" s="4">
         <v>5</v>
@@ -5116,42 +5124,42 @@
         <v>144</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F34">
-        <v>11000006</v>
+        <v>11000001</v>
       </c>
       <c r="G34" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P34" s="23">
-        <v>22031003</v>
+        <v>22031002</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>43020407</v>
+        <v>43020405</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C35" s="4">
         <v>5</v>
@@ -5160,31 +5168,31 @@
         <v>144</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="F35">
-        <v>11000004</v>
+        <v>11000007</v>
       </c>
       <c r="G35" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="4">
-        <v>4</v>
+      <c r="I35" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P35" s="23">
         <v>22031002</v>
@@ -5192,10 +5200,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>43020408</v>
+        <v>43020406</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4">
         <v>5</v>
@@ -5204,75 +5212,75 @@
         <v>144</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F36">
-        <v>11000002</v>
+        <v>11000006</v>
       </c>
       <c r="G36" s="4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="4">
-        <v>5</v>
+      <c r="I36" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P36" s="23">
-        <v>22031005</v>
+        <v>22031003</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>43020501</v>
+        <v>43020407</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C37" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>11000003</v>
+        <v>11000004</v>
       </c>
       <c r="G37" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H37" s="4"/>
-      <c r="I37" s="4" t="s">
-        <v>163</v>
+      <c r="I37" s="4">
+        <v>4</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P37" s="23">
         <v>22031002</v>
@@ -5280,54 +5288,54 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>43020502</v>
+        <v>43020408</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C38" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F38">
         <v>11000002</v>
       </c>
       <c r="G38" s="4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H38" s="4"/>
-      <c r="I38" s="4" t="s">
-        <v>73</v>
+      <c r="I38" s="4">
+        <v>5</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P38" s="23">
-        <v>22031002</v>
+        <v>22031005</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>43020503</v>
+        <v>43020501</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C39" s="4">
         <v>6</v>
@@ -5336,31 +5344,31 @@
         <v>162</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="F39">
-        <v>11000008</v>
+        <v>11000003</v>
       </c>
       <c r="G39" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="4">
-        <v>3</v>
+      <c r="I39" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P39" s="23">
         <v>22031002</v>
@@ -5368,10 +5376,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>43020504</v>
+        <v>43020502</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C40" s="4">
         <v>6</v>
@@ -5383,30 +5391,118 @@
         <v>113</v>
       </c>
       <c r="F40">
-        <v>11000001</v>
+        <v>11000002</v>
       </c>
       <c r="G40" s="4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P40" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>43020503</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="4">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41">
+        <v>11000008</v>
+      </c>
+      <c r="G41" s="4">
+        <v>9</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <v>3</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P41" s="23">
+        <v>22031002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>43020504</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="4">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42">
+        <v>11000001</v>
+      </c>
+      <c r="G42" s="4">
+        <v>19</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="O40" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="P40" s="23">
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P42" s="23">
         <v>22031002</v>
       </c>
     </row>
@@ -5424,11 +5520,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5464,7 +5560,7 @@
         <v>204</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>264</v>
@@ -5666,7 +5762,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>6</v>
@@ -6201,7 +6297,7 @@
         <v>43000016</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -6224,12 +6320,12 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>233</v>
@@ -6241,7 +6337,7 @@
         <v>43000017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -6264,12 +6360,12 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>233</v>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="286">
   <si>
     <t>老鼠</t>
   </si>
@@ -823,21 +823,111 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>特别怪物</t>
+  </si>
+  <si>
+    <t>特别怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetMon</t>
+  </si>
+  <si>
+    <t>PetMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>int[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>特别怪物</t>
-  </si>
-  <si>
-    <t>特别怪物</t>
+    <t>RightMon</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PetMon</t>
-  </si>
-  <si>
-    <t>PetMon</t>
+    <t>51019299;4;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019298;4;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000229;4;-1;51000229;4;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启等级</t>
+  </si>
+  <si>
+    <t>自动开启等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoAddLevel</t>
+  </si>
+  <si>
+    <t>AutoAddLevel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认对战等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000002;3;-1;51000002;3;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanzei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tufei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chongyue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆虫羽蛾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>真崎杏子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InRandomQuest</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -845,89 +935,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>RightMon</t>
+    <t>随机出现</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51019299;4;0</t>
+    <t>bool</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51019298;4;0</t>
+    <t>InRandomQuest</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51000229;4;-1;51000229;4;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动开启等级</t>
-  </si>
-  <si>
-    <t>自动开启等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoAddLevel</t>
-  </si>
-  <si>
-    <t>AutoAddLevel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认对战等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51000002;3;-1;51000002;3;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>山贼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shanzei</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tufei</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>土匪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>chongyue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆虫羽蛾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhenqi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>真崎杏子</t>
+    <t>true</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,9 +1142,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1124,9 +1151,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1617,7 +1657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1675,19 +1715,25 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1735,7 +1781,116 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2223,33 +2378,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3218,91 +3346,94 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:P42" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A3:P42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:Q42" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="A3:Q42"/>
   <sortState ref="A4:O52">
     <sortCondition ref="A3:A52"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="15"/>
-    <tableColumn id="2" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" name="Type" dataDxfId="13"/>
-    <tableColumn id="6" name="World" dataDxfId="12"/>
-    <tableColumn id="7" name="Deck" dataDxfId="11"/>
-    <tableColumn id="10" name="Job" dataDxfId="10"/>
-    <tableColumn id="11" name="Level" dataDxfId="9"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="8"/>
-    <tableColumn id="12" name="Reward" dataDxfId="7"/>
-    <tableColumn id="13" name="Method" dataDxfId="6"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="5"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="4"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="3"/>
-    <tableColumn id="17" name="Figue" dataDxfId="2"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="1"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="0"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" name="Name" dataDxfId="18"/>
+    <tableColumn id="3" name="Type" dataDxfId="17"/>
+    <tableColumn id="6" name="World" dataDxfId="16"/>
+    <tableColumn id="7" name="Deck" dataDxfId="15"/>
+    <tableColumn id="10" name="Job" dataDxfId="14"/>
+    <tableColumn id="11" name="Level" dataDxfId="13"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="12"/>
+    <tableColumn id="12" name="Reward" dataDxfId="11"/>
+    <tableColumn id="13" name="Method" dataDxfId="10"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="8"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="7"/>
+    <tableColumn id="17" name="Figue" dataDxfId="6"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="5"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="4"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:P36" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
-  <autoFilter ref="A3:P36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q36" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+  <autoFilter ref="A3:Q36"/>
   <sortState ref="A4:O44">
     <sortCondition ref="A3:A44"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="53"/>
-    <tableColumn id="2" name="Name" dataDxfId="52"/>
-    <tableColumn id="3" name="Type" dataDxfId="51"/>
-    <tableColumn id="6" name="World" dataDxfId="50"/>
-    <tableColumn id="7" name="Deck" dataDxfId="49"/>
-    <tableColumn id="10" name="Job" dataDxfId="48"/>
-    <tableColumn id="11" name="Level" dataDxfId="47"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="46"/>
-    <tableColumn id="12" name="Reward" dataDxfId="45"/>
-    <tableColumn id="13" name="Method" dataDxfId="44"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="43"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="42"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="41"/>
-    <tableColumn id="17" name="Figue" dataDxfId="40"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="39"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="38"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Id" dataDxfId="56"/>
+    <tableColumn id="2" name="Name" dataDxfId="55"/>
+    <tableColumn id="3" name="Type" dataDxfId="54"/>
+    <tableColumn id="6" name="World" dataDxfId="53"/>
+    <tableColumn id="7" name="Deck" dataDxfId="52"/>
+    <tableColumn id="10" name="Job" dataDxfId="51"/>
+    <tableColumn id="11" name="Level" dataDxfId="50"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="49"/>
+    <tableColumn id="12" name="Reward" dataDxfId="48"/>
+    <tableColumn id="13" name="Method" dataDxfId="47"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="46"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="45"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="44"/>
+    <tableColumn id="17" name="Figue" dataDxfId="43"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="42"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="41"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:P14" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="A3:P14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:Q14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+  <autoFilter ref="A3:Q14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="34"/>
-    <tableColumn id="2" name="Name" dataDxfId="33"/>
-    <tableColumn id="3" name="Type" dataDxfId="32"/>
-    <tableColumn id="6" name="World" dataDxfId="31"/>
-    <tableColumn id="7" name="Deck" dataDxfId="30"/>
-    <tableColumn id="10" name="Job" dataDxfId="29"/>
-    <tableColumn id="11" name="Level" dataDxfId="28"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="27"/>
-    <tableColumn id="12" name="Reward" dataDxfId="26"/>
-    <tableColumn id="13" name="Method" dataDxfId="25"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="24"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="23"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="22"/>
-    <tableColumn id="9" name="Figue" dataDxfId="21"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="20"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="19"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Id" dataDxfId="37"/>
+    <tableColumn id="2" name="Name" dataDxfId="36"/>
+    <tableColumn id="3" name="Type" dataDxfId="35"/>
+    <tableColumn id="6" name="World" dataDxfId="34"/>
+    <tableColumn id="7" name="Deck" dataDxfId="33"/>
+    <tableColumn id="10" name="Job" dataDxfId="32"/>
+    <tableColumn id="11" name="Level" dataDxfId="31"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="30"/>
+    <tableColumn id="12" name="Reward" dataDxfId="29"/>
+    <tableColumn id="13" name="Method" dataDxfId="28"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="27"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="26"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="25"/>
+    <tableColumn id="9" name="Figue" dataDxfId="24"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="23"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3377,23 +3508,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3429,23 +3543,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3622,13 +3719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3644,7 +3741,7 @@
     <col min="16" max="16" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>199</v>
       </c>
@@ -3664,10 +3761,10 @@
         <v>204</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>236</v>
@@ -3682,7 +3779,7 @@
         <v>243</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>209</v>
@@ -3693,8 +3790,11 @@
       <c r="P1" s="14" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q1" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -3743,8 +3843,11 @@
       <c r="P2" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q2" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>210</v>
       </c>
@@ -3767,7 +3870,7 @@
         <v>216</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>217</v>
@@ -3782,7 +3885,7 @@
         <v>245</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>220</v>
@@ -3793,8 +3896,11 @@
       <c r="P3" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q3" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43020101</v>
       </c>
@@ -3834,11 +3940,12 @@
       <c r="O4" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43020102</v>
       </c>
@@ -3878,11 +3985,14 @@
       <c r="O5" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="19">
         <v>22031004</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q5" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43020103</v>
       </c>
@@ -3922,11 +4032,14 @@
       <c r="O6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q6" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43020104</v>
       </c>
@@ -3966,11 +4079,14 @@
       <c r="O7" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q7" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43020105</v>
       </c>
@@ -4010,11 +4126,14 @@
       <c r="O8" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q8" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43020106</v>
       </c>
@@ -4054,11 +4173,14 @@
       <c r="O9" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P9" s="23">
+      <c r="P9" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q9" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43020107</v>
       </c>
@@ -4098,11 +4220,14 @@
       <c r="O10" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q10" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43020108</v>
       </c>
@@ -4142,11 +4267,14 @@
       <c r="O11" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q11" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43020109</v>
       </c>
@@ -4186,11 +4314,14 @@
       <c r="O12" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q12" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43020110</v>
       </c>
@@ -4230,11 +4361,14 @@
       <c r="O13" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q13" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43020201</v>
       </c>
@@ -4274,11 +4408,14 @@
       <c r="O14" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P14" s="23">
+      <c r="P14" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q14" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43020202</v>
       </c>
@@ -4318,11 +4455,14 @@
       <c r="O15" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q15" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43020203</v>
       </c>
@@ -4362,16 +4502,19 @@
       <c r="O16" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P16" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q16" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -4394,26 +4537,29 @@
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q17" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -4436,21 +4582,24 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q18" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43020301</v>
       </c>
@@ -4490,11 +4639,14 @@
       <c r="O19" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q19" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43020302</v>
       </c>
@@ -4534,11 +4686,14 @@
       <c r="O20" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q20" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43020303</v>
       </c>
@@ -4578,11 +4733,14 @@
       <c r="O21" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q21" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43020304</v>
       </c>
@@ -4622,11 +4780,14 @@
       <c r="O22" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q22" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43020305</v>
       </c>
@@ -4666,11 +4827,14 @@
       <c r="O23" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q23" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43020306</v>
       </c>
@@ -4710,11 +4874,14 @@
       <c r="O24" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q24" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43020307</v>
       </c>
@@ -4754,11 +4921,14 @@
       <c r="O25" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q25" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43020308</v>
       </c>
@@ -4798,11 +4968,14 @@
       <c r="O26" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q26" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43020309</v>
       </c>
@@ -4842,11 +5015,14 @@
       <c r="O27" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q27" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43020310</v>
       </c>
@@ -4886,11 +5062,14 @@
       <c r="O28" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P28" s="23">
+      <c r="P28" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q28" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43020311</v>
       </c>
@@ -4930,11 +5109,14 @@
       <c r="O29" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P29" s="23">
+      <c r="P29" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q29" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43020312</v>
       </c>
@@ -4974,11 +5156,14 @@
       <c r="O30" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P30" s="23">
+      <c r="P30" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q30" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43020401</v>
       </c>
@@ -5018,11 +5203,14 @@
       <c r="O31" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P31" s="23">
+      <c r="P31" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q31" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43020402</v>
       </c>
@@ -5062,11 +5250,14 @@
       <c r="O32" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P32" s="23">
+      <c r="P32" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q32" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43020403</v>
       </c>
@@ -5106,11 +5297,14 @@
       <c r="O33" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q33" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43020404</v>
       </c>
@@ -5150,11 +5344,14 @@
       <c r="O34" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P34" s="23">
+      <c r="P34" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q34" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43020405</v>
       </c>
@@ -5194,11 +5391,14 @@
       <c r="O35" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P35" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q35" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43020406</v>
       </c>
@@ -5238,11 +5438,14 @@
       <c r="O36" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P36" s="23">
+      <c r="P36" s="19">
         <v>22031003</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q36" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43020407</v>
       </c>
@@ -5282,11 +5485,14 @@
       <c r="O37" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P37" s="23">
+      <c r="P37" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q37" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43020408</v>
       </c>
@@ -5326,11 +5532,14 @@
       <c r="O38" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P38" s="23">
+      <c r="P38" s="19">
         <v>22031005</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q38" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43020501</v>
       </c>
@@ -5370,11 +5579,14 @@
       <c r="O39" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P39" s="23">
+      <c r="P39" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q39" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43020502</v>
       </c>
@@ -5414,11 +5626,14 @@
       <c r="O40" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P40" s="23">
+      <c r="P40" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q40" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43020503</v>
       </c>
@@ -5458,11 +5673,14 @@
       <c r="O41" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P41" s="23">
+      <c r="P41" s="19">
         <v>22031002</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q41" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43020504</v>
       </c>
@@ -5502,8 +5720,11 @@
       <c r="O42" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="P42" s="23">
+      <c r="P42" s="19">
         <v>22031002</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5518,13 +5739,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5540,7 +5761,7 @@
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>199</v>
       </c>
@@ -5560,10 +5781,10 @@
         <v>204</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>236</v>
@@ -5578,7 +5799,7 @@
         <v>243</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>209</v>
@@ -5589,8 +5810,11 @@
       <c r="P1" s="14" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q1" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>197</v>
       </c>
@@ -5613,7 +5837,7 @@
         <v>197</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>221</v>
@@ -5628,7 +5852,7 @@
         <v>244</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>198</v>
@@ -5639,8 +5863,11 @@
       <c r="P2" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q2" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>210</v>
       </c>
@@ -5663,7 +5890,7 @@
         <v>216</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>217</v>
@@ -5678,7 +5905,7 @@
         <v>245</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>220</v>
@@ -5689,8 +5916,11 @@
       <c r="P3" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q3" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
@@ -5728,9 +5958,10 @@
       <c r="O4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="23"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="23"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
@@ -5762,7 +5993,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>6</v>
@@ -5770,9 +6001,10 @@
       <c r="O5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
@@ -5810,9 +6042,10 @@
       <c r="O6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
@@ -5850,9 +6083,10 @@
       <c r="O7" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="23"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
@@ -5890,9 +6124,10 @@
       <c r="O8" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P8" s="19"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -5930,9 +6165,10 @@
       <c r="O9" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P9" s="19"/>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
@@ -5970,9 +6206,10 @@
       <c r="O10" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P10" s="23"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -6010,9 +6247,10 @@
       <c r="O11" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P11" s="23"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -6050,9 +6288,10 @@
       <c r="O12" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P12" s="19"/>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
@@ -6090,9 +6329,10 @@
       <c r="O13" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P13" s="19"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
@@ -6130,9 +6370,10 @@
       <c r="O14" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P14" s="23"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000012</v>
       </c>
@@ -6170,9 +6411,10 @@
       <c r="O15" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P15" s="19"/>
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000013</v>
       </c>
@@ -6210,9 +6452,10 @@
       <c r="O16" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P16" s="23"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P16" s="19"/>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000014</v>
       </c>
@@ -6250,9 +6493,10 @@
       <c r="O17" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P17" s="23"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="23"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
@@ -6290,14 +6534,15 @@
       <c r="O18" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P18" s="23"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -6320,24 +6565,25 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P19" s="23"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -6360,19 +6606,20 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P20" s="23"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P20" s="19"/>
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
@@ -6410,9 +6657,10 @@
       <c r="O21" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P21" s="23"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P21" s="19"/>
+      <c r="Q21" s="23"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000019</v>
       </c>
@@ -6450,9 +6698,10 @@
       <c r="O22" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P22" s="23"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P22" s="19"/>
+      <c r="Q22" s="23"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
@@ -6490,9 +6739,10 @@
       <c r="O23" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P23" s="23"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P23" s="19"/>
+      <c r="Q23" s="23"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000021</v>
       </c>
@@ -6530,9 +6780,10 @@
       <c r="O24" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P24" s="23"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P24" s="19"/>
+      <c r="Q24" s="23"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000022</v>
       </c>
@@ -6570,9 +6821,10 @@
       <c r="O25" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P25" s="23"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P25" s="19"/>
+      <c r="Q25" s="23"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000023</v>
       </c>
@@ -6610,9 +6862,10 @@
       <c r="O26" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P26" s="23"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P26" s="19"/>
+      <c r="Q26" s="23"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000024</v>
       </c>
@@ -6650,9 +6903,10 @@
       <c r="O27" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P27" s="23"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P27" s="19"/>
+      <c r="Q27" s="23"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000025</v>
       </c>
@@ -6690,9 +6944,10 @@
       <c r="O28" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P28" s="23"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P28" s="19"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000026</v>
       </c>
@@ -6730,9 +6985,10 @@
       <c r="O29" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P29" s="23"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P29" s="19"/>
+      <c r="Q29" s="23"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000027</v>
       </c>
@@ -6770,9 +7026,10 @@
       <c r="O30" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P30" s="23"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P30" s="19"/>
+      <c r="Q30" s="23"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000028</v>
       </c>
@@ -6810,9 +7067,10 @@
       <c r="O31" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P31" s="23"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P31" s="19"/>
+      <c r="Q31" s="23"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000029</v>
       </c>
@@ -6850,9 +7108,10 @@
       <c r="O32" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P32" s="19"/>
+      <c r="Q32" s="23"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000030</v>
       </c>
@@ -6890,9 +7149,10 @@
       <c r="O33" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P33" s="23"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P33" s="19"/>
+      <c r="Q33" s="23"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000031</v>
       </c>
@@ -6930,9 +7190,10 @@
       <c r="O34" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P34" s="23"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P34" s="19"/>
+      <c r="Q34" s="23"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000032</v>
       </c>
@@ -6970,9 +7231,10 @@
       <c r="O35" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P35" s="23"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P35" s="19"/>
+      <c r="Q35" s="23"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000033</v>
       </c>
@@ -7010,7 +7272,8 @@
       <c r="O36" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P36" s="23"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -7024,13 +7287,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7046,7 +7309,7 @@
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>199</v>
       </c>
@@ -7069,7 +7332,7 @@
         <v>205</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>206</v>
@@ -7084,7 +7347,7 @@
         <v>246</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>209</v>
@@ -7092,11 +7355,14 @@
       <c r="O1" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="16" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q1" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>197</v>
       </c>
@@ -7119,7 +7385,7 @@
         <v>197</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>221</v>
@@ -7134,7 +7400,7 @@
         <v>247</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>198</v>
@@ -7142,11 +7408,14 @@
       <c r="O2" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="P2" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>210</v>
       </c>
@@ -7169,7 +7438,7 @@
         <v>216</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>217</v>
@@ -7181,10 +7450,10 @@
         <v>219</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>220</v>
@@ -7192,11 +7461,14 @@
       <c r="O3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="10" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q3" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43010001</v>
       </c>
@@ -7229,7 +7501,7 @@
         <v>174</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="4" t="s">
@@ -7238,9 +7510,10 @@
       <c r="O4" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43010002</v>
       </c>
@@ -7280,9 +7553,10 @@
       <c r="O5" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43010003</v>
       </c>
@@ -7322,9 +7596,10 @@
       <c r="O6" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P6" s="19"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43010004</v>
       </c>
@@ -7364,9 +7639,10 @@
       <c r="O7" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
@@ -7399,7 +7675,7 @@
         <v>228</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="6" t="s">
@@ -7408,9 +7684,10 @@
       <c r="O8" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
@@ -7443,7 +7720,7 @@
         <v>223</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="6" t="s">
@@ -7452,9 +7729,10 @@
       <c r="O9" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43010101</v>
       </c>
@@ -7492,9 +7770,10 @@
       <c r="O10" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43010102</v>
       </c>
@@ -7532,9 +7811,10 @@
       <c r="O11" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43010103</v>
       </c>
@@ -7572,9 +7852,10 @@
       <c r="O12" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43010104</v>
       </c>
@@ -7612,9 +7893,10 @@
       <c r="O13" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>
@@ -7652,7 +7934,8 @@
       <c r="O14" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P14" s="19"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="286">
   <si>
     <t>老鼠</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>sainisi</t>
-  </si>
-  <si>
-    <t>塞巴斯恰恩</t>
   </si>
   <si>
     <t>atr2</t>
@@ -948,6 +945,10 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞巴斯恰恩</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1153,6 +1154,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1160,6 +1162,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1167,6 +1170,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1798,7 +1802,6 @@
         <name val="宋体"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1836,548 +1839,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF4F81BD"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF4F81BD"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF4F81BD"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF4F81BD"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3277,6 +2738,33 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -3332,6 +2820,522 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF4F81BD"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF4F81BD"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF4F81BD"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF4F81BD"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3346,39 +3350,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:Q42" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:Q42" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="A3:Q42"/>
   <sortState ref="A4:O52">
     <sortCondition ref="A3:A52"/>
-  </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" name="Name" dataDxfId="18"/>
-    <tableColumn id="3" name="Type" dataDxfId="17"/>
-    <tableColumn id="6" name="World" dataDxfId="16"/>
-    <tableColumn id="7" name="Deck" dataDxfId="15"/>
-    <tableColumn id="10" name="Job" dataDxfId="14"/>
-    <tableColumn id="11" name="Level" dataDxfId="13"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="12"/>
-    <tableColumn id="12" name="Reward" dataDxfId="11"/>
-    <tableColumn id="13" name="Method" dataDxfId="10"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="8"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="7"/>
-    <tableColumn id="17" name="Figue" dataDxfId="6"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="5"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="4"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q36" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
-  <autoFilter ref="A3:Q36"/>
-  <sortState ref="A4:O44">
-    <sortCondition ref="A3:A44"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" name="Id" dataDxfId="56"/>
@@ -3397,36 +3372,65 @@
     <tableColumn id="17" name="Figue" dataDxfId="43"/>
     <tableColumn id="9" name="BattleMap" dataDxfId="42"/>
     <tableColumn id="8" name="DropItem" dataDxfId="41"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="3"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="A3:Q36"/>
+  <sortState ref="A4:O44">
+    <sortCondition ref="A3:A44"/>
+  </sortState>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Id" dataDxfId="36"/>
+    <tableColumn id="2" name="Name" dataDxfId="35"/>
+    <tableColumn id="3" name="Type" dataDxfId="34"/>
+    <tableColumn id="6" name="World" dataDxfId="33"/>
+    <tableColumn id="7" name="Deck" dataDxfId="32"/>
+    <tableColumn id="10" name="Job" dataDxfId="31"/>
+    <tableColumn id="11" name="Level" dataDxfId="30"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="29"/>
+    <tableColumn id="12" name="Reward" dataDxfId="28"/>
+    <tableColumn id="13" name="Method" dataDxfId="27"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="26"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="25"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="24"/>
+    <tableColumn id="17" name="Figue" dataDxfId="23"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="22"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="21"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:Q14" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:Q14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A3:Q14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="37"/>
-    <tableColumn id="2" name="Name" dataDxfId="36"/>
-    <tableColumn id="3" name="Type" dataDxfId="35"/>
-    <tableColumn id="6" name="World" dataDxfId="34"/>
-    <tableColumn id="7" name="Deck" dataDxfId="33"/>
-    <tableColumn id="10" name="Job" dataDxfId="32"/>
-    <tableColumn id="11" name="Level" dataDxfId="31"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="30"/>
-    <tableColumn id="12" name="Reward" dataDxfId="29"/>
-    <tableColumn id="13" name="Method" dataDxfId="28"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="27"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="26"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="25"/>
-    <tableColumn id="9" name="Figue" dataDxfId="24"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="23"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="16"/>
+    <tableColumn id="2" name="Name" dataDxfId="15"/>
+    <tableColumn id="3" name="Type" dataDxfId="14"/>
+    <tableColumn id="6" name="World" dataDxfId="13"/>
+    <tableColumn id="7" name="Deck" dataDxfId="12"/>
+    <tableColumn id="10" name="Job" dataDxfId="11"/>
+    <tableColumn id="11" name="Level" dataDxfId="10"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="9"/>
+    <tableColumn id="12" name="Reward" dataDxfId="8"/>
+    <tableColumn id="13" name="Method" dataDxfId="7"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="6"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
+    <tableColumn id="9" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3725,7 +3729,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3743,161 +3747,161 @@
   <sheetData>
     <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>238</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -3938,7 +3942,7 @@
         <v>67</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P4" s="19">
         <v>22031002</v>
@@ -3950,7 +3954,7 @@
         <v>43020102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3959,7 +3963,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>11000003</v>
@@ -3975,29 +3979,27 @@
         <v>3</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P5" s="19">
         <v>22031004</v>
       </c>
-      <c r="Q5" s="25" t="s">
-        <v>285</v>
-      </c>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43020103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -4006,7 +4008,7 @@
         <v>66</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6">
         <v>11000002</v>
@@ -4016,27 +4018,27 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P6" s="19">
         <v>22031002</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -4044,7 +4046,7 @@
         <v>43020104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -4053,7 +4055,7 @@
         <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7">
         <v>11000008</v>
@@ -4063,27 +4065,27 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P7" s="19">
         <v>22031002</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -4091,7 +4093,7 @@
         <v>43020105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -4100,7 +4102,7 @@
         <v>66</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8">
         <v>11000007</v>
@@ -4110,27 +4112,27 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P8" s="19">
         <v>22031002</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -4138,7 +4140,7 @@
         <v>43020106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -4147,7 +4149,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9">
         <v>11000005</v>
@@ -4157,27 +4159,27 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P9" s="19">
         <v>22031002</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -4185,7 +4187,7 @@
         <v>43020107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -4194,7 +4196,7 @@
         <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>11000007</v>
@@ -4204,27 +4206,27 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P10" s="19">
         <v>22031002</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -4232,7 +4234,7 @@
         <v>43020108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -4241,7 +4243,7 @@
         <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11">
         <v>11000005</v>
@@ -4251,27 +4253,27 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P11" s="19">
         <v>22031002</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -4279,7 +4281,7 @@
         <v>43020109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -4288,7 +4290,7 @@
         <v>66</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12">
         <v>11000006</v>
@@ -4298,27 +4300,27 @@
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P12" s="19">
         <v>22031002</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -4326,7 +4328,7 @@
         <v>43020110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -4335,7 +4337,7 @@
         <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13">
         <v>11000006</v>
@@ -4345,27 +4347,27 @@
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P13" s="19">
         <v>22031002</v>
       </c>
       <c r="Q13" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -4373,13 +4375,13 @@
         <v>43020201</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>2</v>
@@ -4392,27 +4394,27 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P14" s="19">
         <v>22031002</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -4420,13 +4422,13 @@
         <v>43020202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>2</v>
@@ -4439,27 +4441,27 @@
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P15" s="19">
         <v>22031002</v>
       </c>
       <c r="Q15" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -4467,13 +4469,13 @@
         <v>43020203</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>2</v>
@@ -4486,27 +4488,27 @@
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P16" s="19">
         <v>22031002</v>
       </c>
       <c r="Q16" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -4514,13 +4516,13 @@
         <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>2</v>
@@ -4537,21 +4539,21 @@
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P17" s="19">
         <v>22031002</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -4559,13 +4561,13 @@
         <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>2</v>
@@ -4582,21 +4584,21 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P18" s="19">
         <v>22031002</v>
       </c>
       <c r="Q18" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -4604,13 +4606,13 @@
         <v>43020301</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>2</v>
@@ -4629,21 +4631,21 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P19" s="19">
         <v>22031002</v>
       </c>
       <c r="Q19" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -4651,13 +4653,13 @@
         <v>43020302</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>2</v>
@@ -4676,21 +4678,21 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P20" s="19">
         <v>22031002</v>
       </c>
       <c r="Q20" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -4698,16 +4700,16 @@
         <v>43020303</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="4">
         <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <v>11000004</v>
@@ -4723,21 +4725,21 @@
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P21" s="19">
         <v>22031002</v>
       </c>
       <c r="Q21" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -4745,16 +4747,16 @@
         <v>43020304</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="4">
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22">
         <v>11000002</v>
@@ -4764,27 +4766,27 @@
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P22" s="19">
         <v>22031002</v>
       </c>
       <c r="Q22" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -4792,16 +4794,16 @@
         <v>43020305</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4">
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F23">
         <v>11000005</v>
@@ -4811,27 +4813,27 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P23" s="19">
         <v>22031002</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -4839,13 +4841,13 @@
         <v>43020306</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="4">
         <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>2</v>
@@ -4864,21 +4866,21 @@
         <v>3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P24" s="19">
         <v>22031002</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -4886,13 +4888,13 @@
         <v>43020307</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="4">
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>2</v>
@@ -4905,27 +4907,27 @@
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P25" s="19">
         <v>22031002</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -4933,16 +4935,16 @@
         <v>43020308</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4">
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <v>11000001</v>
@@ -4952,27 +4954,27 @@
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P26" s="19">
         <v>22031002</v>
       </c>
       <c r="Q26" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -4980,16 +4982,16 @@
         <v>43020309</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="4">
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>11000004</v>
@@ -4999,27 +5001,27 @@
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P27" s="19">
         <v>22031002</v>
       </c>
       <c r="Q27" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -5027,13 +5029,13 @@
         <v>43020310</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="4">
         <v>4</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>2</v>
@@ -5052,21 +5054,21 @@
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P28" s="19">
         <v>22031002</v>
       </c>
       <c r="Q28" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -5074,16 +5076,16 @@
         <v>43020311</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="4">
         <v>4</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F29">
         <v>11000005</v>
@@ -5093,27 +5095,27 @@
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P29" s="19">
         <v>22031002</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5121,16 +5123,16 @@
         <v>43020312</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F30">
         <v>11000001</v>
@@ -5140,27 +5142,27 @@
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P30" s="19">
         <v>22031002</v>
       </c>
       <c r="Q30" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5168,16 +5170,16 @@
         <v>43020401</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="4">
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31">
         <v>11000002</v>
@@ -5193,21 +5195,21 @@
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P31" s="19">
         <v>22031002</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5215,16 +5217,16 @@
         <v>43020402</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C32" s="4">
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32">
         <v>11000001</v>
@@ -5240,21 +5242,21 @@
         <v>3</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P32" s="19">
         <v>22031002</v>
       </c>
       <c r="Q32" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5262,13 +5264,13 @@
         <v>43020403</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" s="4">
         <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>2</v>
@@ -5281,27 +5283,27 @@
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P33" s="19">
         <v>22031002</v>
       </c>
       <c r="Q33" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -5309,16 +5311,16 @@
         <v>43020404</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="4">
         <v>5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34">
         <v>11000001</v>
@@ -5328,27 +5330,27 @@
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P34" s="19">
         <v>22031002</v>
       </c>
       <c r="Q34" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -5356,16 +5358,16 @@
         <v>43020405</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4">
         <v>5</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35">
         <v>11000007</v>
@@ -5375,27 +5377,27 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P35" s="19">
         <v>22031002</v>
       </c>
       <c r="Q35" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -5403,16 +5405,16 @@
         <v>43020406</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="4">
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36">
         <v>11000006</v>
@@ -5422,27 +5424,27 @@
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P36" s="19">
         <v>22031003</v>
       </c>
       <c r="Q36" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
@@ -5450,13 +5452,13 @@
         <v>43020407</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4">
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>2</v>
@@ -5475,21 +5477,21 @@
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P37" s="19">
         <v>22031002</v>
       </c>
       <c r="Q37" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
@@ -5497,16 +5499,16 @@
         <v>43020408</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" s="4">
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38">
         <v>11000002</v>
@@ -5522,21 +5524,21 @@
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P38" s="19">
         <v>22031005</v>
       </c>
       <c r="Q38" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -5544,16 +5546,16 @@
         <v>43020501</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="4">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F39">
         <v>11000003</v>
@@ -5563,27 +5565,27 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P39" s="19">
         <v>22031002</v>
       </c>
       <c r="Q39" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -5591,16 +5593,16 @@
         <v>43020502</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="4">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40">
         <v>11000002</v>
@@ -5610,27 +5612,27 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P40" s="19">
         <v>22031002</v>
       </c>
       <c r="Q40" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
@@ -5638,16 +5640,16 @@
         <v>43020503</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="4">
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F41">
         <v>11000008</v>
@@ -5663,21 +5665,21 @@
         <v>3</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P41" s="19">
         <v>22031002</v>
       </c>
       <c r="Q41" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -5685,16 +5687,16 @@
         <v>43020504</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="4">
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42">
         <v>11000001</v>
@@ -5704,27 +5706,27 @@
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P42" s="19">
         <v>22031002</v>
       </c>
       <c r="Q42" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5763,161 +5765,161 @@
   <sheetData>
     <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>204</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>238</v>
-      </c>
       <c r="P1" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -5956,7 +5958,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="23"/>
@@ -5993,13 +5995,13 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="23"/>
@@ -6040,7 +6042,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P6" s="19"/>
       <c r="Q6" s="23"/>
@@ -6081,7 +6083,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="23"/>
@@ -6122,7 +6124,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="23"/>
@@ -6163,7 +6165,7 @@
         <v>14</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="23"/>
@@ -6204,7 +6206,7 @@
         <v>16</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="23"/>
@@ -6245,7 +6247,7 @@
         <v>18</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="23"/>
@@ -6286,7 +6288,7 @@
         <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="23"/>
@@ -6327,7 +6329,7 @@
         <v>22</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="23"/>
@@ -6368,7 +6370,7 @@
         <v>24</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="23"/>
@@ -6409,7 +6411,7 @@
         <v>26</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="23"/>
@@ -6450,7 +6452,7 @@
         <v>28</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="23"/>
@@ -6491,7 +6493,7 @@
         <v>30</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="23"/>
@@ -6532,7 +6534,7 @@
         <v>32</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="23"/>
@@ -6542,7 +6544,7 @@
         <v>43000016</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -6565,15 +6567,15 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="23"/>
@@ -6583,7 +6585,7 @@
         <v>43000017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -6606,15 +6608,15 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="23"/>
@@ -6655,7 +6657,7 @@
         <v>34</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="23"/>
@@ -6696,7 +6698,7 @@
         <v>36</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="23"/>
@@ -6737,7 +6739,7 @@
         <v>38</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="23"/>
@@ -6778,7 +6780,7 @@
         <v>40</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="23"/>
@@ -6819,7 +6821,7 @@
         <v>42</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="23"/>
@@ -6860,7 +6862,7 @@
         <v>44</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="23"/>
@@ -6901,7 +6903,7 @@
         <v>46</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="23"/>
@@ -6942,7 +6944,7 @@
         <v>48</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="23"/>
@@ -6983,7 +6985,7 @@
         <v>50</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="23"/>
@@ -7024,7 +7026,7 @@
         <v>52</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="23"/>
@@ -7065,7 +7067,7 @@
         <v>54</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="23"/>
@@ -7106,7 +7108,7 @@
         <v>56</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="23"/>
@@ -7147,7 +7149,7 @@
         <v>58</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P33" s="19"/>
       <c r="Q33" s="23"/>
@@ -7188,7 +7190,7 @@
         <v>60</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="23"/>
@@ -7229,7 +7231,7 @@
         <v>62</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="23"/>
@@ -7270,7 +7272,7 @@
         <v>64</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="23"/>
@@ -7311,161 +7313,161 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>209</v>
-      </c>
       <c r="O1" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="C2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="O3" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -7473,13 +7475,13 @@
         <v>43010001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4">
         <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>2</v>
@@ -7498,17 +7500,17 @@
         <v>3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="21"/>
@@ -7518,13 +7520,13 @@
         <v>43010002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4">
         <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>2</v>
@@ -7548,10 +7550,10 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="20"/>
@@ -7561,13 +7563,13 @@
         <v>43010003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="4">
         <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2</v>
@@ -7583,18 +7585,18 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="20"/>
@@ -7604,13 +7606,13 @@
         <v>43010004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4">
         <v>101</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
@@ -7626,18 +7628,18 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="20"/>
@@ -7647,13 +7649,13 @@
         <v>43010005</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" s="4">
         <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>2</v>
@@ -7669,20 +7671,20 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="20"/>
@@ -7692,13 +7694,13 @@
         <v>43010006</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C9" s="4">
         <v>101</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
@@ -7714,20 +7716,20 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="20"/>
@@ -7737,13 +7739,13 @@
         <v>43010101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="4">
         <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>2</v>
@@ -7757,18 +7759,18 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="20"/>
@@ -7778,13 +7780,13 @@
         <v>43010102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="4">
         <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>2</v>
@@ -7798,18 +7800,18 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="20"/>
@@ -7819,13 +7821,13 @@
         <v>43010103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="4">
         <v>102</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>2</v>
@@ -7839,18 +7841,18 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="20"/>
@@ -7860,13 +7862,13 @@
         <v>43010104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" s="4">
         <v>102</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>2</v>
@@ -7880,18 +7882,18 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="20"/>
@@ -7901,13 +7903,13 @@
         <v>43010105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="4">
         <v>102</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>2</v>
@@ -7921,18 +7923,18 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="20"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="289">
   <si>
     <t>老鼠</t>
   </si>
@@ -949,6 +949,18 @@
   </si>
   <si>
     <t>塞巴斯恰恩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>食人花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>atr0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shirenhua</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3379,8 +3391,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="A3:Q36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q37" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="A3:Q37"/>
   <sortState ref="A4:O44">
     <sortCondition ref="A3:A44"/>
   </sortState>
@@ -3725,7 +3737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -5741,13 +5753,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q1:Q3"/>
+      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7276,6 +7288,47 @@
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="23"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>43000034</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F37" s="18">
+        <v>11001003</v>
+      </c>
+      <c r="G37" s="4">
+        <v>8</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="291">
   <si>
     <t>老鼠</t>
   </si>
@@ -961,6 +961,14 @@
   </si>
   <si>
     <t>shirenhua</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>element4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000080;1;0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -968,7 +976,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,6 +1191,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1673,7 +1688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1750,6 +1765,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3350,6 +3368,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3456,7 +3542,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3744,7 +3830,7 @@
       <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
@@ -3757,7 +3843,7 @@
     <col min="16" max="16" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="63.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>198</v>
       </c>
@@ -3810,7 +3896,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
@@ -3863,7 +3949,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
         <v>209</v>
       </c>
@@ -3916,7 +4002,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>43020101</v>
       </c>
@@ -3961,7 +4047,7 @@
       </c>
       <c r="Q4" s="25"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>43020102</v>
       </c>
@@ -4006,7 +4092,7 @@
       </c>
       <c r="Q5" s="25"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>43020103</v>
       </c>
@@ -4053,7 +4139,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>43020104</v>
       </c>
@@ -4100,7 +4186,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>43020105</v>
       </c>
@@ -4147,7 +4233,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>43020106</v>
       </c>
@@ -4194,7 +4280,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>43020107</v>
       </c>
@@ -4241,7 +4327,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>43020108</v>
       </c>
@@ -4288,7 +4374,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>43020109</v>
       </c>
@@ -4335,7 +4421,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>43020110</v>
       </c>
@@ -4382,7 +4468,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>43020201</v>
       </c>
@@ -4429,7 +4515,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>43020202</v>
       </c>
@@ -4476,7 +4562,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>43020203</v>
       </c>
@@ -4523,7 +4609,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>43020204</v>
       </c>
@@ -4568,7 +4654,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>43020205</v>
       </c>
@@ -4613,7 +4699,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>43020301</v>
       </c>
@@ -4660,7 +4746,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>43020302</v>
       </c>
@@ -4707,7 +4793,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>43020303</v>
       </c>
@@ -4754,7 +4840,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>43020304</v>
       </c>
@@ -4801,7 +4887,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>43020305</v>
       </c>
@@ -4848,7 +4934,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>43020306</v>
       </c>
@@ -4895,7 +4981,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>43020307</v>
       </c>
@@ -4942,7 +5028,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>43020308</v>
       </c>
@@ -4989,7 +5075,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>43020309</v>
       </c>
@@ -5036,7 +5122,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>43020310</v>
       </c>
@@ -5083,7 +5169,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>43020311</v>
       </c>
@@ -5130,7 +5216,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>43020312</v>
       </c>
@@ -5177,7 +5263,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>43020401</v>
       </c>
@@ -5224,7 +5310,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>43020402</v>
       </c>
@@ -5271,7 +5357,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>43020403</v>
       </c>
@@ -5318,7 +5404,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>43020404</v>
       </c>
@@ -5365,7 +5451,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>43020405</v>
       </c>
@@ -5412,7 +5498,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>43020406</v>
       </c>
@@ -5459,7 +5545,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>43020407</v>
       </c>
@@ -5506,7 +5592,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>43020408</v>
       </c>
@@ -5553,7 +5639,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>43020501</v>
       </c>
@@ -5600,7 +5686,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>43020502</v>
       </c>
@@ -5647,7 +5733,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>43020503</v>
       </c>
@@ -5694,7 +5780,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>43020504</v>
       </c>
@@ -5756,13 +5842,13 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
@@ -5775,7 +5861,7 @@
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="63.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>198</v>
       </c>
@@ -5828,7 +5914,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
@@ -5881,7 +5967,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
         <v>209</v>
       </c>
@@ -5934,11 +6020,11 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>43000001</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
@@ -5975,11 +6061,11 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>43000002</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
@@ -6018,7 +6104,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="23"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>43000003</v>
       </c>
@@ -6059,11 +6145,11 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="23"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>43000004</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4">
@@ -6100,11 +6186,11 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="23"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>43000005</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
@@ -6141,7 +6227,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="23"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -6182,11 +6268,11 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>43000007</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4">
@@ -6223,7 +6309,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="23"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -6264,7 +6350,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -6305,7 +6391,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="23"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>43000010</v>
       </c>
@@ -6346,11 +6432,11 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="23"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>43000011</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4">
@@ -6387,7 +6473,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="23"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>43000012</v>
       </c>
@@ -6428,7 +6514,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>43000013</v>
       </c>
@@ -6469,7 +6555,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="23"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>43000014</v>
       </c>
@@ -6510,11 +6596,11 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="23"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>43000015</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="4">
@@ -6541,9 +6627,11 @@
         <v>32</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="M18" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="N18" s="4" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>232</v>
@@ -6551,11 +6639,11 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="23"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>43000016</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="18" t="s">
         <v>269</v>
       </c>
       <c r="C19" s="4">
@@ -6592,7 +6680,7 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="23"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>43000017</v>
       </c>
@@ -6633,7 +6721,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="23"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>43000018</v>
       </c>
@@ -6674,7 +6762,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="23"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>43000019</v>
       </c>
@@ -6715,11 +6803,11 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="23"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>43000020</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="4">
@@ -6756,7 +6844,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="23"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>43000021</v>
       </c>
@@ -6797,7 +6885,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="23"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>43000022</v>
       </c>
@@ -6838,7 +6926,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="23"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>43000023</v>
       </c>
@@ -6879,7 +6967,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="23"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>43000024</v>
       </c>
@@ -6920,7 +7008,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="23"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>43000025</v>
       </c>
@@ -6961,7 +7049,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="23"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>43000026</v>
       </c>
@@ -7002,7 +7090,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="23"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>43000027</v>
       </c>
@@ -7043,7 +7131,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="23"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>43000028</v>
       </c>
@@ -7084,7 +7172,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="23"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>43000029</v>
       </c>
@@ -7125,7 +7213,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="23"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>43000030</v>
       </c>
@@ -7166,7 +7254,7 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="23"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>43000031</v>
       </c>
@@ -7207,7 +7295,7 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="23"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>43000032</v>
       </c>
@@ -7248,7 +7336,7 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="23"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>43000033</v>
       </c>
@@ -7289,11 +7377,11 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="23"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>43000034</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="18" t="s">
         <v>286</v>
       </c>
       <c r="C37" s="4">
@@ -7351,7 +7439,7 @@
       <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
@@ -7364,7 +7452,7 @@
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="60.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>198</v>
       </c>
@@ -7417,7 +7505,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="7" t="s">
         <v>196</v>
       </c>
@@ -7470,7 +7558,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
         <v>209</v>
       </c>
@@ -7523,7 +7611,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>43010001</v>
       </c>
@@ -7568,7 +7656,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="21"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>43010002</v>
       </c>
@@ -7611,7 +7699,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>43010003</v>
       </c>
@@ -7654,7 +7742,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>43010004</v>
       </c>
@@ -7697,7 +7785,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="20"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>43010005</v>
       </c>
@@ -7742,7 +7830,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="20"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>43010006</v>
       </c>
@@ -7787,7 +7875,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>43010101</v>
       </c>
@@ -7828,7 +7916,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="20"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>43010102</v>
       </c>
@@ -7869,7 +7957,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="20"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>43010103</v>
       </c>
@@ -7910,7 +7998,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="20"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>43010104</v>
       </c>
@@ -7951,7 +8039,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>43010105</v>
       </c>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -3368,74 +3368,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3542,7 +3474,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3823,11 +3755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5841,7 +5773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="289">
   <si>
     <t>老鼠</t>
   </si>
@@ -880,10 +880,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51000002;3;-1;51000002;3;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>山贼</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -965,18 +961,14 @@
   </si>
   <si>
     <t>element4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51000080;1;0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3467,7 +3459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3542,6 +3534,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3577,6 +3586,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3755,14 +3781,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
@@ -3775,7 +3801,7 @@
     <col min="16" max="16" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63.75" customHeight="1">
+    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>198</v>
       </c>
@@ -3825,10 +3851,10 @@
         <v>247</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
@@ -3878,10 +3904,10 @@
         <v>220</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>209</v>
       </c>
@@ -3931,10 +3957,10 @@
         <v>248</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43020101</v>
       </c>
@@ -3979,12 +4005,12 @@
       </c>
       <c r="Q4" s="25"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43020102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -4024,7 +4050,7 @@
       </c>
       <c r="Q5" s="25"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43020103</v>
       </c>
@@ -4068,10 +4094,10 @@
         <v>22031002</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43020104</v>
       </c>
@@ -4115,10 +4141,10 @@
         <v>22031002</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43020105</v>
       </c>
@@ -4162,10 +4188,10 @@
         <v>22031002</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43020106</v>
       </c>
@@ -4209,10 +4235,10 @@
         <v>22031002</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43020107</v>
       </c>
@@ -4256,10 +4282,10 @@
         <v>22031002</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43020108</v>
       </c>
@@ -4303,10 +4329,10 @@
         <v>22031002</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43020109</v>
       </c>
@@ -4350,10 +4376,10 @@
         <v>22031002</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43020110</v>
       </c>
@@ -4397,10 +4423,10 @@
         <v>22031002</v>
       </c>
       <c r="Q13" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43020201</v>
       </c>
@@ -4444,10 +4470,10 @@
         <v>22031002</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43020202</v>
       </c>
@@ -4491,10 +4517,10 @@
         <v>22031002</v>
       </c>
       <c r="Q15" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43020203</v>
       </c>
@@ -4538,15 +4564,15 @@
         <v>22031002</v>
       </c>
       <c r="Q16" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -4569,12 +4595,12 @@
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>233</v>
@@ -4583,15 +4609,15 @@
         <v>22031002</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -4614,12 +4640,12 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>233</v>
@@ -4628,10 +4654,10 @@
         <v>22031002</v>
       </c>
       <c r="Q18" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43020301</v>
       </c>
@@ -4675,10 +4701,10 @@
         <v>22031002</v>
       </c>
       <c r="Q19" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43020302</v>
       </c>
@@ -4722,10 +4748,10 @@
         <v>22031002</v>
       </c>
       <c r="Q20" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43020303</v>
       </c>
@@ -4769,10 +4795,10 @@
         <v>22031002</v>
       </c>
       <c r="Q21" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43020304</v>
       </c>
@@ -4816,10 +4842,10 @@
         <v>22031002</v>
       </c>
       <c r="Q22" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43020305</v>
       </c>
@@ -4863,10 +4889,10 @@
         <v>22031002</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43020306</v>
       </c>
@@ -4910,10 +4936,10 @@
         <v>22031002</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43020307</v>
       </c>
@@ -4957,10 +4983,10 @@
         <v>22031002</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43020308</v>
       </c>
@@ -5004,10 +5030,10 @@
         <v>22031002</v>
       </c>
       <c r="Q26" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43020309</v>
       </c>
@@ -5051,10 +5077,10 @@
         <v>22031002</v>
       </c>
       <c r="Q27" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43020310</v>
       </c>
@@ -5098,10 +5124,10 @@
         <v>22031002</v>
       </c>
       <c r="Q28" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43020311</v>
       </c>
@@ -5145,10 +5171,10 @@
         <v>22031002</v>
       </c>
       <c r="Q29" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43020312</v>
       </c>
@@ -5192,10 +5218,10 @@
         <v>22031002</v>
       </c>
       <c r="Q30" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43020401</v>
       </c>
@@ -5239,10 +5265,10 @@
         <v>22031002</v>
       </c>
       <c r="Q31" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43020402</v>
       </c>
@@ -5286,10 +5312,10 @@
         <v>22031002</v>
       </c>
       <c r="Q32" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43020403</v>
       </c>
@@ -5333,10 +5359,10 @@
         <v>22031002</v>
       </c>
       <c r="Q33" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43020404</v>
       </c>
@@ -5380,10 +5406,10 @@
         <v>22031002</v>
       </c>
       <c r="Q34" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43020405</v>
       </c>
@@ -5427,10 +5453,10 @@
         <v>22031002</v>
       </c>
       <c r="Q35" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43020406</v>
       </c>
@@ -5474,10 +5500,10 @@
         <v>22031003</v>
       </c>
       <c r="Q36" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43020407</v>
       </c>
@@ -5521,10 +5547,10 @@
         <v>22031002</v>
       </c>
       <c r="Q37" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43020408</v>
       </c>
@@ -5568,10 +5594,10 @@
         <v>22031005</v>
       </c>
       <c r="Q38" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43020501</v>
       </c>
@@ -5615,10 +5641,10 @@
         <v>22031002</v>
       </c>
       <c r="Q39" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43020502</v>
       </c>
@@ -5662,10 +5688,10 @@
         <v>22031002</v>
       </c>
       <c r="Q40" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43020503</v>
       </c>
@@ -5709,10 +5735,10 @@
         <v>22031002</v>
       </c>
       <c r="Q41" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43020504</v>
       </c>
@@ -5756,7 +5782,7 @@
         <v>22031002</v>
       </c>
       <c r="Q42" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5773,14 +5799,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="5.25" customWidth="1"/>
@@ -5793,7 +5819,7 @@
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63.75" customHeight="1">
+    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>198</v>
       </c>
@@ -5843,10 +5869,10 @@
         <v>249</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>196</v>
       </c>
@@ -5896,10 +5922,10 @@
         <v>251</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>209</v>
       </c>
@@ -5949,10 +5975,10 @@
         <v>250</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
@@ -5993,7 +6019,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
@@ -6024,9 +6050,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="6" t="s">
-        <v>268</v>
-      </c>
+      <c r="M5" s="6"/>
       <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
@@ -6036,7 +6060,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="23"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
@@ -6077,7 +6101,7 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="23"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
@@ -6118,7 +6142,7 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="23"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
@@ -6159,7 +6183,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="23"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -6200,7 +6224,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
@@ -6241,7 +6265,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="23"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -6282,7 +6306,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -6323,7 +6347,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="23"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
@@ -6364,7 +6388,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="23"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
@@ -6405,7 +6429,7 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="23"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000012</v>
       </c>
@@ -6446,7 +6470,7 @@
       <c r="P15" s="19"/>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000013</v>
       </c>
@@ -6487,7 +6511,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="23"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000014</v>
       </c>
@@ -6528,7 +6552,7 @@
       <c r="P17" s="19"/>
       <c r="Q17" s="23"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
@@ -6559,11 +6583,9 @@
         <v>32</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="6" t="s">
-        <v>290</v>
-      </c>
+      <c r="M18" s="6"/>
       <c r="N18" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>232</v>
@@ -6571,12 +6593,12 @@
       <c r="P18" s="19"/>
       <c r="Q18" s="23"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -6599,12 +6621,12 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>232</v>
@@ -6612,12 +6634,12 @@
       <c r="P19" s="19"/>
       <c r="Q19" s="23"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -6640,12 +6662,12 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>232</v>
@@ -6653,7 +6675,7 @@
       <c r="P20" s="19"/>
       <c r="Q20" s="23"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
@@ -6694,7 +6716,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="23"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000019</v>
       </c>
@@ -6735,7 +6757,7 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="23"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
@@ -6776,7 +6798,7 @@
       <c r="P23" s="19"/>
       <c r="Q23" s="23"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000021</v>
       </c>
@@ -6817,7 +6839,7 @@
       <c r="P24" s="19"/>
       <c r="Q24" s="23"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000022</v>
       </c>
@@ -6858,7 +6880,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="23"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000023</v>
       </c>
@@ -6899,7 +6921,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="23"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000024</v>
       </c>
@@ -6940,7 +6962,7 @@
       <c r="P27" s="19"/>
       <c r="Q27" s="23"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000025</v>
       </c>
@@ -6981,7 +7003,7 @@
       <c r="P28" s="19"/>
       <c r="Q28" s="23"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000026</v>
       </c>
@@ -7022,7 +7044,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="23"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000027</v>
       </c>
@@ -7063,7 +7085,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="23"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000028</v>
       </c>
@@ -7104,7 +7126,7 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="23"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000029</v>
       </c>
@@ -7145,7 +7167,7 @@
       <c r="P32" s="19"/>
       <c r="Q32" s="23"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000030</v>
       </c>
@@ -7186,7 +7208,7 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="23"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000031</v>
       </c>
@@ -7227,7 +7249,7 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="23"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000032</v>
       </c>
@@ -7268,7 +7290,7 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="23"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000033</v>
       </c>
@@ -7309,12 +7331,12 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="23"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000034</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -7323,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F37" s="18">
         <v>11001003</v>
@@ -7337,12 +7359,12 @@
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>232</v>
@@ -7371,7 +7393,7 @@
       <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
@@ -7384,7 +7406,7 @@
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60.75" customHeight="1">
+    <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>198</v>
       </c>
@@ -7434,10 +7456,10 @@
         <v>247</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>196</v>
       </c>
@@ -7484,13 +7506,13 @@
         <v>229</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>209</v>
       </c>
@@ -7540,10 +7562,10 @@
         <v>248</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43010001</v>
       </c>
@@ -7588,7 +7610,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="21"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43010002</v>
       </c>
@@ -7631,7 +7653,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43010003</v>
       </c>
@@ -7674,7 +7696,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43010004</v>
       </c>
@@ -7717,7 +7739,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="20"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
@@ -7762,7 +7784,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="20"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
@@ -7807,7 +7829,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43010101</v>
       </c>
@@ -7848,7 +7870,7 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="20"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43010102</v>
       </c>
@@ -7889,7 +7911,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="20"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43010103</v>
       </c>
@@ -7930,7 +7952,7 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="20"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43010104</v>
       </c>
@@ -7971,7 +7993,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -16,12 +16,12 @@
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="293">
   <si>
     <t>老鼠</t>
   </si>
@@ -961,6 +961,22 @@
   </si>
   <si>
     <t>element4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000080;1;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠王</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000002;3;-1;51000002;3;1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3401,8 +3417,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q37" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="A3:Q37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q38" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="A3:Q38"/>
   <sortState ref="A4:O44">
     <sortCondition ref="A3:A44"/>
   </sortState>
@@ -5797,13 +5813,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6050,7 +6066,9 @@
         <v>6</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
@@ -6583,7 +6601,9 @@
         <v>32</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="N18" s="4" t="s">
         <v>288</v>
       </c>
@@ -7371,6 +7391,47 @@
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="23"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>43000035</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="18">
+        <v>11001003</v>
+      </c>
+      <c r="G38" s="4">
+        <v>6</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5819,7 +5819,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M19"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -3797,11 +3797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4480,7 +4480,7 @@
         <v>103</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P14" s="19">
         <v>22031002</v>
@@ -4527,7 +4527,7 @@
         <v>106</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P15" s="19">
         <v>22031002</v>
@@ -4574,7 +4574,7 @@
         <v>109</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P16" s="19">
         <v>22031002</v>
@@ -4619,7 +4619,7 @@
         <v>272</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P17" s="19">
         <v>22031002</v>
@@ -4664,7 +4664,7 @@
         <v>274</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P18" s="19">
         <v>22031002</v>
@@ -4711,7 +4711,7 @@
         <v>113</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P19" s="19">
         <v>22031002</v>
@@ -4758,7 +4758,7 @@
         <v>116</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P20" s="19">
         <v>22031002</v>
@@ -4805,7 +4805,7 @@
         <v>119</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P21" s="19">
         <v>22031002</v>
@@ -4852,7 +4852,7 @@
         <v>123</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P22" s="19">
         <v>22031002</v>
@@ -4899,7 +4899,7 @@
         <v>125</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P23" s="19">
         <v>22031002</v>
@@ -4946,7 +4946,7 @@
         <v>127</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P24" s="19">
         <v>22031002</v>
@@ -4993,7 +4993,7 @@
         <v>130</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P25" s="19">
         <v>22031002</v>
@@ -5040,7 +5040,7 @@
         <v>132</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P26" s="19">
         <v>22031002</v>
@@ -5087,7 +5087,7 @@
         <v>134</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P27" s="19">
         <v>22031002</v>
@@ -5134,7 +5134,7 @@
         <v>136</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P28" s="19">
         <v>22031002</v>
@@ -5181,7 +5181,7 @@
         <v>138</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P29" s="19">
         <v>22031002</v>
@@ -5228,7 +5228,7 @@
         <v>141</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P30" s="19">
         <v>22031002</v>
@@ -5275,7 +5275,7 @@
         <v>144</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P31" s="19">
         <v>22031002</v>
@@ -5322,7 +5322,7 @@
         <v>146</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P32" s="19">
         <v>22031002</v>
@@ -5369,7 +5369,7 @@
         <v>149</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P33" s="19">
         <v>22031002</v>
@@ -5416,7 +5416,7 @@
         <v>151</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P34" s="19">
         <v>22031002</v>
@@ -5463,7 +5463,7 @@
         <v>153</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P35" s="19">
         <v>22031002</v>
@@ -5510,7 +5510,7 @@
         <v>155</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P36" s="19">
         <v>22031003</v>
@@ -5557,7 +5557,7 @@
         <v>157</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P37" s="19">
         <v>22031002</v>
@@ -5604,7 +5604,7 @@
         <v>159</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P38" s="19">
         <v>22031005</v>
@@ -5651,7 +5651,7 @@
         <v>163</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P39" s="19">
         <v>22031002</v>
@@ -5698,7 +5698,7 @@
         <v>165</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P40" s="19">
         <v>22031002</v>
@@ -5745,7 +5745,7 @@
         <v>168</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P41" s="19">
         <v>22031002</v>
@@ -5792,7 +5792,7 @@
         <v>170</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P42" s="19">
         <v>22031002</v>
@@ -5815,7 +5815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -816,28 +816,24 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>特别怪物</t>
+  </si>
+  <si>
+    <t>特别怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetMon</t>
+  </si>
+  <si>
+    <t>PetMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>int[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>特别怪物</t>
-  </si>
-  <si>
-    <t>特别怪物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PetMon</t>
-  </si>
-  <si>
-    <t>PetMon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RightMon</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -924,10 +920,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>随机出现</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -977,6 +969,14 @@
   </si>
   <si>
     <t>51000002;3;-1;51000002;3;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3797,11 +3797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3837,10 +3837,10 @@
         <v>203</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>235</v>
@@ -3855,7 +3855,7 @@
         <v>242</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>208</v>
@@ -3867,7 +3867,7 @@
         <v>247</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -3917,10 +3917,10 @@
         <v>197</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -3946,7 +3946,7 @@
         <v>215</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>216</v>
@@ -3961,7 +3961,7 @@
         <v>244</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>219</v>
@@ -3973,7 +3973,7 @@
         <v>248</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -4016,9 +4016,7 @@
       <c r="O4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P4" s="19"/>
       <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -4026,7 +4024,7 @@
         <v>43020102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -4061,9 +4059,7 @@
       <c r="O5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P5" s="19">
-        <v>22031004</v>
-      </c>
+      <c r="P5" s="19"/>
       <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -4106,11 +4102,9 @@
       <c r="O6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P6" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P6" s="19"/>
       <c r="Q6" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -4153,11 +4147,9 @@
       <c r="O7" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P7" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P7" s="19"/>
       <c r="Q7" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -4200,11 +4192,9 @@
       <c r="O8" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P8" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P8" s="19"/>
       <c r="Q8" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -4247,11 +4237,9 @@
       <c r="O9" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P9" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P9" s="19"/>
       <c r="Q9" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -4294,11 +4282,9 @@
       <c r="O10" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P10" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P10" s="19"/>
       <c r="Q10" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -4341,11 +4327,9 @@
       <c r="O11" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P11" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P11" s="19"/>
       <c r="Q11" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -4388,11 +4372,9 @@
       <c r="O12" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P12" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P12" s="19"/>
       <c r="Q12" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -4435,11 +4417,9 @@
       <c r="O13" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="P13" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P13" s="19"/>
       <c r="Q13" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -4482,11 +4462,9 @@
       <c r="O14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P14" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P14" s="19"/>
       <c r="Q14" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -4529,11 +4507,9 @@
       <c r="O15" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P15" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P15" s="19"/>
       <c r="Q15" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -4576,11 +4552,9 @@
       <c r="O16" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P16" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P16" s="19"/>
       <c r="Q16" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -4588,7 +4562,7 @@
         <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -4611,21 +4585,19 @@
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P17" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P17" s="19"/>
       <c r="Q17" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -4633,7 +4605,7 @@
         <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -4656,21 +4628,19 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P18" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P18" s="19"/>
       <c r="Q18" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -4713,11 +4683,9 @@
       <c r="O19" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P19" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P19" s="19"/>
       <c r="Q19" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -4760,11 +4728,9 @@
       <c r="O20" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P20" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P20" s="19"/>
       <c r="Q20" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -4807,11 +4773,9 @@
       <c r="O21" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P21" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P21" s="19"/>
       <c r="Q21" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -4854,11 +4818,9 @@
       <c r="O22" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P22" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P22" s="19"/>
       <c r="Q22" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -4901,11 +4863,9 @@
       <c r="O23" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P23" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P23" s="19"/>
       <c r="Q23" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -4948,11 +4908,9 @@
       <c r="O24" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P24" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P24" s="19"/>
       <c r="Q24" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -4995,11 +4953,9 @@
       <c r="O25" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P25" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P25" s="19"/>
       <c r="Q25" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -5042,11 +4998,9 @@
       <c r="O26" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P26" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P26" s="19"/>
       <c r="Q26" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -5089,11 +5043,9 @@
       <c r="O27" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P27" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P27" s="19"/>
       <c r="Q27" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -5136,11 +5088,9 @@
       <c r="O28" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P28" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P28" s="19"/>
       <c r="Q28" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -5183,11 +5133,9 @@
       <c r="O29" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P29" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P29" s="19"/>
       <c r="Q29" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5230,11 +5178,9 @@
       <c r="O30" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P30" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P30" s="19"/>
       <c r="Q30" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5277,11 +5223,9 @@
       <c r="O31" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P31" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P31" s="19"/>
       <c r="Q31" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5324,11 +5268,9 @@
       <c r="O32" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P32" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P32" s="19"/>
       <c r="Q32" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5371,11 +5313,9 @@
       <c r="O33" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P33" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P33" s="19"/>
       <c r="Q33" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -5418,11 +5358,9 @@
       <c r="O34" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P34" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P34" s="19"/>
       <c r="Q34" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -5465,11 +5403,9 @@
       <c r="O35" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P35" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P35" s="19"/>
       <c r="Q35" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -5512,11 +5448,9 @@
       <c r="O36" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P36" s="19">
-        <v>22031003</v>
-      </c>
+      <c r="P36" s="19"/>
       <c r="Q36" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
@@ -5559,11 +5493,9 @@
       <c r="O37" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P37" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P37" s="19"/>
       <c r="Q37" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
@@ -5606,11 +5538,9 @@
       <c r="O38" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P38" s="19">
-        <v>22031005</v>
-      </c>
+      <c r="P38" s="19"/>
       <c r="Q38" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -5653,11 +5583,9 @@
       <c r="O39" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P39" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P39" s="19"/>
       <c r="Q39" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -5700,11 +5628,9 @@
       <c r="O40" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P40" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P40" s="19"/>
       <c r="Q40" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
@@ -5747,11 +5673,9 @@
       <c r="O41" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P41" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P41" s="19"/>
       <c r="Q41" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -5794,11 +5718,9 @@
       <c r="O42" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="P42" s="19">
-        <v>22031002</v>
-      </c>
+      <c r="P42" s="19"/>
       <c r="Q42" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5819,7 +5741,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5855,10 +5777,10 @@
         <v>203</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>235</v>
@@ -5873,7 +5795,7 @@
         <v>242</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>208</v>
@@ -5885,7 +5807,7 @@
         <v>249</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -5911,7 +5833,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>220</v>
@@ -5926,7 +5848,7 @@
         <v>243</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>197</v>
@@ -5935,10 +5857,10 @@
         <v>229</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -5964,7 +5886,7 @@
         <v>215</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>216</v>
@@ -5979,7 +5901,7 @@
         <v>244</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>219</v>
@@ -5991,7 +5913,7 @@
         <v>250</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -6067,7 +5989,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>6</v>
@@ -6602,10 +6524,10 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>232</v>
@@ -6618,7 +6540,7 @@
         <v>43000016</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -6641,12 +6563,12 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>232</v>
@@ -6659,7 +6581,7 @@
         <v>43000017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -6682,12 +6604,12 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>232</v>
@@ -7356,7 +7278,7 @@
         <v>43000034</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -7365,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F37" s="18">
         <v>11001003</v>
@@ -7379,12 +7301,12 @@
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>232</v>
@@ -7397,7 +7319,7 @@
         <v>43000035</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -7420,12 +7342,12 @@
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>232</v>
@@ -7447,11 +7369,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7490,7 +7412,7 @@
         <v>204</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>205</v>
@@ -7505,7 +7427,7 @@
         <v>245</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>208</v>
@@ -7517,7 +7439,7 @@
         <v>247</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -7543,7 +7465,7 @@
         <v>196</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>220</v>
@@ -7558,7 +7480,7 @@
         <v>246</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>197</v>
@@ -7567,10 +7489,10 @@
         <v>229</v>
       </c>
       <c r="P2" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -7596,7 +7518,7 @@
         <v>215</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>216</v>
@@ -7608,10 +7530,10 @@
         <v>218</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>219</v>
@@ -7623,7 +7545,7 @@
         <v>248</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -7659,7 +7581,7 @@
         <v>173</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="4" t="s">
@@ -7833,7 +7755,7 @@
         <v>227</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="6" t="s">
@@ -7878,7 +7800,7 @@
         <v>222</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="6" t="s">

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="295">
   <si>
     <t>老鼠</t>
   </si>
@@ -977,6 +977,14 @@
   </si>
   <si>
     <t>string[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>niutouren</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3417,8 +3425,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q38" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="A3:Q38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q39" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="A3:Q39"/>
   <sortState ref="A4:O44">
     <sortCondition ref="A3:A44"/>
   </sortState>
@@ -5735,13 +5743,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7355,6 +7363,47 @@
       <c r="P38" s="19"/>
       <c r="Q38" s="23"/>
     </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>43000036</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="18">
+        <v>11001003</v>
+      </c>
+      <c r="G39" s="4">
+        <v>9</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7369,7 +7418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="286">
   <si>
     <t>老鼠</t>
   </si>
@@ -239,18 +239,12 @@
     <t>wep1</t>
   </si>
   <si>
-    <t>3;5</t>
-  </si>
-  <si>
     <t>kedi</t>
   </si>
   <si>
     <t>威阿伊丁</t>
   </si>
   <si>
-    <t>5;7</t>
-  </si>
-  <si>
     <t>weia</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>atr2;atr4</t>
   </si>
   <si>
-    <t>2;3</t>
-  </si>
-  <si>
     <t>aolai</t>
   </si>
   <si>
@@ -272,18 +263,12 @@
     <t>atr1</t>
   </si>
   <si>
-    <t>2;4</t>
-  </si>
-  <si>
     <t>milanda</t>
   </si>
   <si>
     <t>盖露贝尔</t>
   </si>
   <si>
-    <t>2;3;6</t>
-  </si>
-  <si>
     <t>gailu</t>
   </si>
   <si>
@@ -293,9 +278,6 @@
     <t>atr1;atr4</t>
   </si>
   <si>
-    <t>2;4;7</t>
-  </si>
-  <si>
     <t>beilukai</t>
   </si>
   <si>
@@ -305,9 +287,6 @@
     <t>atr3</t>
   </si>
   <si>
-    <t>3;6</t>
-  </si>
-  <si>
     <t>leiluo</t>
   </si>
   <si>
@@ -317,9 +296,6 @@
     <t>atr3;atr1</t>
   </si>
   <si>
-    <t>4;5;6</t>
-  </si>
-  <si>
     <t>baludi</t>
   </si>
   <si>
@@ -329,27 +305,18 @@
     <t>游戏王</t>
   </si>
   <si>
-    <t>3;5;7</t>
-  </si>
-  <si>
     <t>youqi</t>
   </si>
   <si>
     <t>城之内</t>
   </si>
   <si>
-    <t>4;5</t>
-  </si>
-  <si>
     <t>cheng</t>
   </si>
   <si>
     <t>海马懒人</t>
   </si>
   <si>
-    <t>6;7</t>
-  </si>
-  <si>
     <t>haima</t>
   </si>
   <si>
@@ -389,9 +356,6 @@
     <t>wep2</t>
   </si>
   <si>
-    <t>4;7</t>
-  </si>
-  <si>
     <t>aisiter</t>
   </si>
   <si>
@@ -410,9 +374,6 @@
     <t>阿特罗姆</t>
   </si>
   <si>
-    <t>2;6</t>
-  </si>
-  <si>
     <t>artrom</t>
   </si>
   <si>
@@ -443,9 +404,6 @@
     <t>纳隆</t>
   </si>
   <si>
-    <t>5;6</t>
-  </si>
-  <si>
     <t>narlon</t>
   </si>
   <si>
@@ -467,9 +425,6 @@
     <t>弗利克</t>
   </si>
   <si>
-    <t>3;4</t>
-  </si>
-  <si>
     <t>frik</t>
   </si>
   <si>
@@ -509,9 +464,6 @@
     <t>英雄传说</t>
   </si>
   <si>
-    <t>4;6</t>
-  </si>
-  <si>
     <t>yuexiuya</t>
   </si>
   <si>
@@ -647,10 +599,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>奖励资源类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>对战卡组限定</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -684,9 +632,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Reward</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -751,10 +696,6 @@
   </si>
   <si>
     <t>oneline</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励资源</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -985,6 +926,43 @@
   </si>
   <si>
     <t>niutouren</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ename</t>
+  </si>
+  <si>
+    <t>Ename</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuya</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aolai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sainisi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>saibasi</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1844,10 +1822,76 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="宋体"/>
-        <scheme val="none"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1898,9 +1942,9 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="宋体"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -2350,33 +2394,6 @@
           <bgColor theme="9" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3300,33 +3317,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color rgb="FF4F81BD"/>
@@ -3404,79 +3394,79 @@
   <tableColumns count="17">
     <tableColumn id="1" name="Id" dataDxfId="56"/>
     <tableColumn id="2" name="Name" dataDxfId="55"/>
+    <tableColumn id="18" name="Ename" dataDxfId="0"/>
     <tableColumn id="3" name="Type" dataDxfId="54"/>
     <tableColumn id="6" name="World" dataDxfId="53"/>
     <tableColumn id="7" name="Deck" dataDxfId="52"/>
     <tableColumn id="10" name="Job" dataDxfId="51"/>
     <tableColumn id="11" name="Level" dataDxfId="50"/>
     <tableColumn id="5" name="AutoAddLevel" dataDxfId="49"/>
-    <tableColumn id="12" name="Reward" dataDxfId="48"/>
-    <tableColumn id="13" name="Method" dataDxfId="47"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="46"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="45"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="44"/>
-    <tableColumn id="17" name="Figue" dataDxfId="43"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="42"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="41"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="40"/>
+    <tableColumn id="13" name="Method" dataDxfId="48"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="47"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="46"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="45"/>
+    <tableColumn id="17" name="Figue" dataDxfId="44"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="43"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="42"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q39" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q39" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="A3:Q39"/>
   <sortState ref="A4:O44">
     <sortCondition ref="A3:A44"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="36"/>
-    <tableColumn id="2" name="Name" dataDxfId="35"/>
-    <tableColumn id="3" name="Type" dataDxfId="34"/>
-    <tableColumn id="6" name="World" dataDxfId="33"/>
-    <tableColumn id="7" name="Deck" dataDxfId="32"/>
-    <tableColumn id="10" name="Job" dataDxfId="31"/>
-    <tableColumn id="11" name="Level" dataDxfId="30"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="29"/>
-    <tableColumn id="12" name="Reward" dataDxfId="28"/>
-    <tableColumn id="13" name="Method" dataDxfId="27"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="26"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="25"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="24"/>
-    <tableColumn id="17" name="Figue" dataDxfId="23"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="22"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="21"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="20"/>
+    <tableColumn id="1" name="Id" dataDxfId="37"/>
+    <tableColumn id="2" name="Name" dataDxfId="36"/>
+    <tableColumn id="18" name="Ename" dataDxfId="2"/>
+    <tableColumn id="3" name="Type" dataDxfId="35"/>
+    <tableColumn id="6" name="World" dataDxfId="34"/>
+    <tableColumn id="7" name="Deck" dataDxfId="33"/>
+    <tableColumn id="10" name="Job" dataDxfId="32"/>
+    <tableColumn id="11" name="Level" dataDxfId="31"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="30"/>
+    <tableColumn id="13" name="Method" dataDxfId="29"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="28"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
+    <tableColumn id="17" name="Figue" dataDxfId="25"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:Q14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:Q14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A3:Q14"/>
   <sortState ref="A4:O83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="16"/>
-    <tableColumn id="2" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" name="Type" dataDxfId="14"/>
-    <tableColumn id="6" name="World" dataDxfId="13"/>
-    <tableColumn id="7" name="Deck" dataDxfId="12"/>
-    <tableColumn id="10" name="Job" dataDxfId="11"/>
-    <tableColumn id="11" name="Level" dataDxfId="10"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="9"/>
-    <tableColumn id="12" name="Reward" dataDxfId="8"/>
-    <tableColumn id="13" name="Method" dataDxfId="7"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="6"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
-    <tableColumn id="9" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" name="Name" dataDxfId="17"/>
+    <tableColumn id="18" name="Ename" dataDxfId="1"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="6" name="World" dataDxfId="15"/>
+    <tableColumn id="7" name="Deck" dataDxfId="14"/>
+    <tableColumn id="10" name="Job" dataDxfId="13"/>
+    <tableColumn id="11" name="Level" dataDxfId="12"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="11"/>
+    <tableColumn id="13" name="Method" dataDxfId="10"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="8"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="7"/>
+    <tableColumn id="9" name="Figue" dataDxfId="6"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="5"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="4"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3805,20 +3795,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="8" width="6.25" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="9" width="6.25" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="13" width="10.625" customWidth="1"/>
     <col min="15" max="15" width="10.625" customWidth="1"/>
@@ -3827,161 +3816,161 @@
   <sheetData>
     <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="P3" s="5" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -3991,25 +3980,25 @@
       <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>11000001</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>2</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
@@ -4022,7 +4011,7 @@
         <v>67</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="25"/>
@@ -4032,27 +4021,27 @@
         <v>43020102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="4">
+        <v>263</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>11000003</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>3</v>
-      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4065,7 +4054,7 @@
         <v>69</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="25"/>
@@ -4077,42 +4066,42 @@
       <c r="B6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11000002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>7</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P6" s="19"/>
       <c r="Q6" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -4120,89 +4109,87 @@
         <v>43020104</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7">
         <v>11000008</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>9</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P7" s="19"/>
-      <c r="Q7" s="25" t="s">
-        <v>281</v>
-      </c>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43020105</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8">
         <v>11000007</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>12</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -4210,44 +4197,44 @@
         <v>43020106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="4">
+        <v>78</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
         <v>11000005</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>14</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -4255,44 +4242,44 @@
         <v>43020107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="4">
+        <v>81</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>11000007</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>15</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -4300,44 +4287,44 @@
         <v>43020108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="4">
+        <v>83</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11">
+      <c r="F11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11">
         <v>11000005</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>18</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -4345,44 +4332,44 @@
         <v>43020109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="4">
+        <v>86</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12">
+      <c r="F12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12">
         <v>11000006</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>21</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -4390,44 +4377,44 @@
         <v>43020110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="4">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13">
         <v>11000006</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>24</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -4435,44 +4422,44 @@
         <v>43020201</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="4">
+        <v>92</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="E14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>11000007</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>22</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -4480,44 +4467,44 @@
         <v>43020202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="4">
+        <v>95</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="E15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>11000001</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>17</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -4525,44 +4512,44 @@
         <v>43020203</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="4">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="E16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>11000002</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>22</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -4570,42 +4557,44 @@
         <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C17" s="4">
+        <v>253</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="E17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>11000005</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>6</v>
       </c>
-      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -4613,42 +4602,44 @@
         <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="4">
+        <v>255</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="E18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>11000008</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -4656,44 +4647,44 @@
         <v>43020301</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="4">
+        <v>99</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>11000002</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>7</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
-        <v>2</v>
-      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -4701,44 +4692,44 @@
         <v>43020302</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="4">
+        <v>103</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="4">
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>11000008</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>9</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <v>3</v>
-      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -4746,44 +4737,44 @@
         <v>43020303</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="4">
+        <v>106</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="4">
         <v>4</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>11000004</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>5</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
-        <v>2</v>
-      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -4791,44 +4782,44 @@
         <v>43020304</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
+        <v>109</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22">
+        <v>107</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22">
         <v>11000002</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>14</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -4836,44 +4827,44 @@
         <v>43020305</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="4">
+        <v>112</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="4">
         <v>4</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23">
+        <v>107</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23">
         <v>11000005</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>14</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -4881,44 +4872,44 @@
         <v>43020306</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="4">
+        <v>114</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="4">
         <v>3</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>11000008</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>1</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
-        <v>6</v>
-      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -4926,44 +4917,44 @@
         <v>43020307</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="4">
+        <v>116</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="4">
         <v>4</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>11000001</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>10</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -4971,44 +4962,44 @@
         <v>43020308</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="4">
+        <v>118</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26">
+        <v>107</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26">
         <v>11000001</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>11</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -5016,44 +5007,44 @@
         <v>43020309</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="4">
+        <v>120</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="4">
         <v>4</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27">
+        <v>107</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27">
         <v>11000004</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>13</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -5061,44 +5052,44 @@
         <v>43020310</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="4">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>11000003</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>8</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4">
-        <v>2</v>
-      </c>
+      <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -5106,44 +5097,44 @@
         <v>43020311</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="4">
+        <v>124</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="4">
         <v>4</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="F29">
+        <v>107</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29">
         <v>11000005</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>13</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -5151,44 +5142,44 @@
         <v>43020312</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="4">
+        <v>126</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F30">
+        <v>107</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30">
         <v>11000001</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>18</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5196,44 +5187,44 @@
         <v>43020401</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="4">
+        <v>128</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="4">
         <v>5</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31">
+        <v>129</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31">
         <v>11000002</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>10</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4">
-        <v>6</v>
-      </c>
+      <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5241,44 +5232,44 @@
         <v>43020402</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="4">
+        <v>131</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="4">
         <v>5</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32">
+        <v>129</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32">
         <v>11000001</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>11</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4">
-        <v>5</v>
-      </c>
+      <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5286,44 +5277,44 @@
         <v>43020403</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="4">
+        <v>133</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="4">
         <v>5</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>11000002</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>13</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P33" s="19"/>
       <c r="Q33" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -5331,44 +5322,44 @@
         <v>43020404</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="4">
+        <v>135</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="4">
         <v>5</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>11000001</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>14</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -5376,44 +5367,44 @@
         <v>43020405</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="4">
+        <v>137</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="4">
         <v>5</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35">
+        <v>129</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35">
         <v>11000007</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>18</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -5421,44 +5412,44 @@
         <v>43020406</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="4">
+        <v>139</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="4">
         <v>5</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36">
+        <v>129</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36">
         <v>11000006</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>15</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
@@ -5466,44 +5457,44 @@
         <v>43020407</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="4">
+        <v>141</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="4">
         <v>5</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>11000004</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>10</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4">
-        <v>4</v>
-      </c>
+      <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
@@ -5511,44 +5502,44 @@
         <v>43020408</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="4">
+        <v>143</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="4">
         <v>5</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38">
+        <v>129</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38">
         <v>11000002</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>7</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4">
-        <v>5</v>
-      </c>
+      <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -5556,44 +5547,44 @@
         <v>43020501</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="4">
+        <v>145</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="4">
         <v>6</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39">
+        <v>146</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39">
         <v>11000003</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>15</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -5601,44 +5592,44 @@
         <v>43020502</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="4">
+        <v>148</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="4">
         <v>6</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40">
+        <v>146</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40">
         <v>11000002</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>13</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P40" s="19"/>
       <c r="Q40" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
@@ -5646,44 +5637,44 @@
         <v>43020503</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="4">
+        <v>150</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="4">
         <v>6</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41">
+        <v>146</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41">
         <v>11000008</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>9</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4">
-        <v>3</v>
-      </c>
+      <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P41" s="19"/>
       <c r="Q41" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -5691,44 +5682,44 @@
         <v>43020504</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="4">
+        <v>153</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="4">
         <v>6</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42">
+        <v>146</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42">
         <v>11000001</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>19</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P42" s="19"/>
       <c r="Q42" s="25" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5745,20 +5736,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="8" width="6.25" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="9" width="6.25" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="13" width="10.625" customWidth="1"/>
     <col min="15" max="15" width="10.625" customWidth="1"/>
@@ -5767,161 +5757,161 @@
   <sheetData>
     <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="P3" s="5" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -5931,22 +5921,24 @@
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="G4" s="18">
         <v>11001003</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
@@ -5960,7 +5952,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="23"/>
@@ -5972,22 +5964,24 @@
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="G5" s="18">
         <v>11001003</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>3</v>
@@ -5997,13 +5991,13 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="6" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="23"/>
@@ -6015,28 +6009,30 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="18">
+      <c r="G6" s="18">
         <v>11001003</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -6044,7 +6040,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P6" s="19"/>
       <c r="Q6" s="23"/>
@@ -6056,22 +6052,24 @@
       <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="G7" s="18">
         <v>11001003</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>5</v>
       </c>
-      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
         <v>3</v>
@@ -6085,7 +6083,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="23"/>
@@ -6097,22 +6095,24 @@
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="18">
+      <c r="G8" s="18">
         <v>11001003</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>7</v>
       </c>
-      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
         <v>3</v>
@@ -6126,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="23"/>
@@ -6138,22 +6138,24 @@
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="18">
+      <c r="G9" s="18">
         <v>11001003</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>11</v>
       </c>
-      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
         <v>3</v>
@@ -6167,7 +6169,7 @@
         <v>14</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="23"/>
@@ -6179,22 +6181,24 @@
       <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="G10" s="18">
         <v>11001003</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
         <v>3</v>
@@ -6208,7 +6212,7 @@
         <v>16</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="23"/>
@@ -6220,22 +6224,24 @@
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="18">
+      <c r="G11" s="18">
         <v>11001003</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>13</v>
       </c>
-      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
         <v>3</v>
@@ -6249,7 +6255,7 @@
         <v>18</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="23"/>
@@ -6261,22 +6267,24 @@
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="18">
+      <c r="G12" s="18">
         <v>11001003</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>13</v>
       </c>
-      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
         <v>3</v>
@@ -6290,7 +6298,7 @@
         <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="23"/>
@@ -6302,22 +6310,24 @@
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="G13" s="18">
         <v>11001003</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>6</v>
       </c>
-      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
         <v>3</v>
@@ -6331,7 +6341,7 @@
         <v>22</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="23"/>
@@ -6343,22 +6353,24 @@
       <c r="B14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="18">
+      <c r="G14" s="18">
         <v>11001003</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
         <v>3</v>
@@ -6372,7 +6384,7 @@
         <v>24</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="23"/>
@@ -6384,22 +6396,24 @@
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="18">
+      <c r="G15" s="18">
         <v>11001003</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>12</v>
       </c>
-      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
         <v>3</v>
@@ -6413,7 +6427,7 @@
         <v>26</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="23"/>
@@ -6425,22 +6439,24 @@
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="G16" s="18">
         <v>11001003</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>10</v>
       </c>
-      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
         <v>3</v>
@@ -6454,7 +6470,7 @@
         <v>28</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="23"/>
@@ -6466,22 +6482,24 @@
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="G17" s="18">
         <v>11001003</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>12</v>
       </c>
-      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
         <v>3</v>
@@ -6495,7 +6513,7 @@
         <v>30</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P17" s="19"/>
       <c r="Q17" s="23"/>
@@ -6507,22 +6525,24 @@
       <c r="B18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="18">
+      <c r="G18" s="18">
         <v>11001003</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>12</v>
       </c>
-      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
         <v>3</v>
@@ -6532,13 +6552,13 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="6" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P18" s="19"/>
       <c r="Q18" s="23"/>
@@ -6548,38 +6568,40 @@
         <v>43000016</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="4">
+        <v>248</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="18">
+      <c r="G19" s="18">
         <v>11001003</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>7</v>
       </c>
-      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="23"/>
@@ -6589,38 +6611,40 @@
         <v>43000017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="4">
+        <v>251</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="G20" s="18">
         <v>11001003</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>5</v>
       </c>
-      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P20" s="19"/>
       <c r="Q20" s="23"/>
@@ -6632,22 +6656,24 @@
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="18">
+      <c r="G21" s="18">
         <v>11001003</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>9</v>
       </c>
-      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
         <v>3</v>
@@ -6661,7 +6687,7 @@
         <v>34</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P21" s="19"/>
       <c r="Q21" s="23"/>
@@ -6673,22 +6699,24 @@
       <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="18">
+      <c r="G22" s="18">
         <v>11001003</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>15</v>
       </c>
-      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
         <v>3</v>
@@ -6702,7 +6730,7 @@
         <v>36</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P22" s="19"/>
       <c r="Q22" s="23"/>
@@ -6714,22 +6742,24 @@
       <c r="B23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="18">
+      <c r="G23" s="18">
         <v>11001003</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>4</v>
       </c>
-      <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
         <v>3</v>
@@ -6743,7 +6773,7 @@
         <v>38</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P23" s="19"/>
       <c r="Q23" s="23"/>
@@ -6755,22 +6785,24 @@
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="18">
+      <c r="G24" s="18">
         <v>11001003</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>15</v>
       </c>
-      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
         <v>3</v>
@@ -6784,7 +6816,7 @@
         <v>40</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P24" s="19"/>
       <c r="Q24" s="23"/>
@@ -6796,22 +6828,24 @@
       <c r="B25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="18">
+      <c r="G25" s="18">
         <v>11001003</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>14</v>
       </c>
-      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
         <v>3</v>
@@ -6825,7 +6859,7 @@
         <v>42</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P25" s="19"/>
       <c r="Q25" s="23"/>
@@ -6837,22 +6871,24 @@
       <c r="B26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="18">
+      <c r="G26" s="18">
         <v>11001003</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>17</v>
       </c>
-      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
         <v>3</v>
@@ -6866,7 +6902,7 @@
         <v>44</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="23"/>
@@ -6878,22 +6914,24 @@
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="18">
+      <c r="G27" s="18">
         <v>11001003</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>34</v>
       </c>
-      <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
         <v>3</v>
@@ -6907,7 +6945,7 @@
         <v>46</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P27" s="19"/>
       <c r="Q27" s="23"/>
@@ -6919,22 +6957,24 @@
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="18">
+      <c r="G28" s="18">
         <v>11001003</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>35</v>
       </c>
-      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
         <v>3</v>
@@ -6948,7 +6988,7 @@
         <v>48</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P28" s="19"/>
       <c r="Q28" s="23"/>
@@ -6960,22 +7000,24 @@
       <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="18">
+      <c r="G29" s="18">
         <v>11001003</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>35</v>
       </c>
-      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
         <v>3</v>
@@ -6989,7 +7031,7 @@
         <v>50</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P29" s="19"/>
       <c r="Q29" s="23"/>
@@ -7001,22 +7043,24 @@
       <c r="B30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="18">
+      <c r="G30" s="18">
         <v>11001003</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>5</v>
       </c>
-      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
         <v>3</v>
@@ -7030,7 +7074,7 @@
         <v>52</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="23"/>
@@ -7042,22 +7086,24 @@
       <c r="B31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="4">
         <v>0</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="18">
+      <c r="G31" s="18">
         <v>11001003</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>16</v>
       </c>
-      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
         <v>3</v>
@@ -7071,7 +7117,7 @@
         <v>54</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P31" s="19"/>
       <c r="Q31" s="23"/>
@@ -7083,22 +7129,24 @@
       <c r="B32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="4">
         <v>0</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="18">
+      <c r="G32" s="18">
         <v>11001003</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>19</v>
       </c>
-      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
         <v>3</v>
@@ -7112,7 +7160,7 @@
         <v>56</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P32" s="19"/>
       <c r="Q32" s="23"/>
@@ -7124,22 +7172,24 @@
       <c r="B33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="18">
+      <c r="G33" s="18">
         <v>11001003</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>16</v>
       </c>
-      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
         <v>3</v>
@@ -7153,7 +7203,7 @@
         <v>58</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P33" s="19"/>
       <c r="Q33" s="23"/>
@@ -7165,22 +7215,24 @@
       <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="4">
         <v>0</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="18">
+      <c r="G34" s="18">
         <v>11001003</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>7</v>
       </c>
-      <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
         <v>3</v>
@@ -7194,7 +7246,7 @@
         <v>60</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P34" s="19"/>
       <c r="Q34" s="23"/>
@@ -7206,22 +7258,24 @@
       <c r="B35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="18">
+      <c r="G35" s="18">
         <v>11001003</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>18</v>
       </c>
-      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
         <v>3</v>
@@ -7235,7 +7289,7 @@
         <v>62</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="23"/>
@@ -7247,22 +7301,24 @@
       <c r="B36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="18">
+      <c r="G36" s="18">
         <v>11001003</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>7</v>
       </c>
-      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
         <v>3</v>
@@ -7276,7 +7332,7 @@
         <v>64</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="23"/>
@@ -7286,38 +7342,40 @@
         <v>43000034</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="C37" s="4">
+        <v>264</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="4">
         <v>0</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="F37" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" s="18">
         <v>11001003</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>8</v>
       </c>
-      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="23"/>
@@ -7327,38 +7385,40 @@
         <v>43000035</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C38" s="4">
+        <v>270</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="18">
+      <c r="G38" s="18">
         <v>11001003</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>6</v>
       </c>
-      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P38" s="19"/>
       <c r="Q38" s="23"/>
@@ -7368,38 +7428,40 @@
         <v>43000036</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C39" s="4">
+        <v>274</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D39" s="4">
         <v>0</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="18">
+      <c r="G39" s="18">
         <v>11001003</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>9</v>
       </c>
-      <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="P39" s="19"/>
       <c r="Q39" s="23"/>
@@ -7422,16 +7484,15 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="8" width="6.125" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="9" width="6.125" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="13" width="10.625" customWidth="1"/>
     <col min="15" max="15" width="10.625" customWidth="1"/>
@@ -7440,161 +7501,161 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="O1" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>247</v>
-      </c>
       <c r="Q1" s="16" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="P3" s="10" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -7602,42 +7663,44 @@
         <v>43010001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="4">
+        <v>155</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="4">
         <v>101</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="18">
+      <c r="G4" s="18">
         <v>11001002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="4" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="21"/>
@@ -7647,27 +7710,29 @@
         <v>43010002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="4">
+        <v>158</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="4">
         <v>101</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="G5" s="18">
         <v>11001002</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
@@ -7677,10 +7742,10 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="20"/>
@@ -7690,40 +7755,42 @@
         <v>43010003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="4">
+        <v>160</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="4">
         <v>101</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="18">
+      <c r="G6" s="18">
         <v>11001002</v>
-      </c>
-      <c r="G6" s="4">
-        <v>10</v>
       </c>
       <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
       <c r="J6" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="20"/>
@@ -7733,40 +7800,42 @@
         <v>43010004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="4">
+        <v>162</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="4">
         <v>101</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="18">
+      <c r="G7" s="18">
         <v>11001002</v>
-      </c>
-      <c r="G7" s="4">
-        <v>10</v>
       </c>
       <c r="H7" s="4">
         <v>10</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
       <c r="J7" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="20"/>
@@ -7776,42 +7845,44 @@
         <v>43010005</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="4">
+        <v>206</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="4">
         <v>101</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="18">
+      <c r="G8" s="18">
         <v>11001001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="I8" s="4"/>
       <c r="J8" s="6" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="6" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="20"/>
@@ -7821,42 +7892,44 @@
         <v>43010006</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="4">
+        <v>207</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="4">
         <v>101</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="E9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="18">
+      <c r="G9" s="18">
         <v>11001001</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="4"/>
       <c r="J9" s="6" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="20"/>
@@ -7866,38 +7939,40 @@
         <v>43010101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="4">
+        <v>164</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="4">
         <v>102</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="E10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="G10" s="18">
         <v>11001001</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="20"/>
@@ -7907,38 +7982,40 @@
         <v>43010102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="4">
+        <v>169</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="4">
         <v>102</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="E11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="18">
+      <c r="G11" s="18">
         <v>11001001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>10</v>
       </c>
-      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="20"/>
@@ -7948,38 +8025,40 @@
         <v>43010103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="4">
+        <v>173</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="4">
         <v>102</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="E12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="18">
+      <c r="G12" s="18">
         <v>11001001</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="20"/>
@@ -7989,38 +8068,40 @@
         <v>43010104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="4">
+        <v>175</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="4">
         <v>102</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="E13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="G13" s="18">
         <v>11001001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>10</v>
       </c>
-      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="20"/>
@@ -8030,38 +8111,40 @@
         <v>43010105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="4">
+        <v>178</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="4">
         <v>102</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="E14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="18">
+      <c r="G14" s="18">
         <v>11001001</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>25</v>
       </c>
-      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="20"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="299">
   <si>
     <t>老鼠</t>
   </si>
@@ -86,9 +86,6 @@
     <t>shuishashou</t>
   </si>
   <si>
-    <t>紫蘑菇</t>
-  </si>
-  <si>
     <t>mogu</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>element4</t>
-  </si>
-  <si>
-    <t>红狼</t>
   </si>
   <si>
     <t>honglang</t>
@@ -721,248 +715,303 @@
     <t>atr6;atr4</t>
   </si>
   <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItem</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别怪物</t>
+  </si>
+  <si>
+    <t>特别怪物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetMon</t>
+  </si>
+  <si>
+    <t>PetMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019299;4;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019298;4;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000229;4;-1;51000229;4;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动开启等级</t>
+  </si>
+  <si>
+    <t>自动开启等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoAddLevel</t>
+  </si>
+  <si>
+    <t>AutoAddLevel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认对战等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山贼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanzei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tufei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chongyue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆虫羽蛾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>真崎杏子</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InRandomQuest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InRandomQuest</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞巴斯恰恩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>食人花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>atr0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shirenhua</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>element4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000080;1;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠王</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000002;3;-1;51000002;3;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>niutouren</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ename</t>
+  </si>
+  <si>
+    <t>Ename</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuya</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>aolai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sainisi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>saibasi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫蘑菇</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红狼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量速度降低</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EpSlow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>右方Add</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightMon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>右方Add</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItem</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItem</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>特别怪物</t>
-  </si>
-  <si>
-    <t>特别怪物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PetMon</t>
-  </si>
-  <si>
-    <t>PetMon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightMon</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51019299;4;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51019298;4;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51000229;4;-1;51000229;4;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动开启等级</t>
-  </si>
-  <si>
-    <t>自动开启等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoAddLevel</t>
-  </si>
-  <si>
-    <t>AutoAddLevel</t>
+    <t>能量速度降低</t>
+  </si>
+  <si>
+    <t>EpSlow</t>
+  </si>
+  <si>
+    <t>右方Add</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌数减少</t>
+  </si>
+  <si>
+    <t>手牌数减少</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>默认对战等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>山贼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shanzei</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tufei</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>土匪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>chongyue</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>昆虫羽蛾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhenqi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>真崎杏子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机出现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>InRandomQuest</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机出现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>InRandomQuest</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞巴斯恰恩</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>食人花</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>atr0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shirenhua</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>element4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51000080;1;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝙蝠王</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51000002;3;-1;51000002;3;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛头人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>niutouren</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名</t>
-  </si>
-  <si>
-    <t>英文名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ename</t>
-  </si>
-  <si>
-    <t>Ename</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuya</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>aolai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sainisi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>saibasi</t>
+    <t>CardReduce</t>
+  </si>
+  <si>
+    <t>CardReduce</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1196,7 +1245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1403,6 +1452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,7 +1737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1764,6 +1819,9 @@
     <xf numFmtId="0" fontId="26" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1809,100 +1867,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <font>
         <b val="0"/>
@@ -2052,6 +2017,64 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2272,6 +2295,35 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2571,6 +2623,37 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -2762,6 +2845,68 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3060,6 +3205,37 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -3303,6 +3479,62 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -3386,52 +3618,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:Q42" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
-  <autoFilter ref="A3:Q42"/>
-  <sortState ref="A4:O52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+  <autoFilter ref="A3:S42"/>
+  <sortState ref="A4:Q52">
     <sortCondition ref="A3:A52"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="56"/>
-    <tableColumn id="2" name="Name" dataDxfId="55"/>
-    <tableColumn id="18" name="Ename" dataDxfId="0"/>
-    <tableColumn id="3" name="Type" dataDxfId="54"/>
-    <tableColumn id="6" name="World" dataDxfId="53"/>
-    <tableColumn id="7" name="Deck" dataDxfId="52"/>
-    <tableColumn id="10" name="Job" dataDxfId="51"/>
-    <tableColumn id="11" name="Level" dataDxfId="50"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="49"/>
-    <tableColumn id="13" name="Method" dataDxfId="48"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="47"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="46"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="45"/>
-    <tableColumn id="17" name="Figue" dataDxfId="44"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="43"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="42"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="41"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Id" dataDxfId="62"/>
+    <tableColumn id="2" name="Name" dataDxfId="61"/>
+    <tableColumn id="18" name="Ename" dataDxfId="60"/>
+    <tableColumn id="3" name="Type" dataDxfId="59"/>
+    <tableColumn id="6" name="World" dataDxfId="58"/>
+    <tableColumn id="7" name="Deck" dataDxfId="57"/>
+    <tableColumn id="10" name="Job" dataDxfId="56"/>
+    <tableColumn id="11" name="Level" dataDxfId="55"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="54"/>
+    <tableColumn id="13" name="Method" dataDxfId="53"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="52"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="51"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="50"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="49"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="48"/>
+    <tableColumn id="17" name="Figue" dataDxfId="47"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="46"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="45"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:Q39" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
-  <autoFilter ref="A3:Q39"/>
-  <sortState ref="A4:O44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S39" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="A3:S39"/>
+  <sortState ref="A4:Q44">
     <sortCondition ref="A3:A44"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="37"/>
-    <tableColumn id="2" name="Name" dataDxfId="36"/>
-    <tableColumn id="18" name="Ename" dataDxfId="2"/>
-    <tableColumn id="3" name="Type" dataDxfId="35"/>
-    <tableColumn id="6" name="World" dataDxfId="34"/>
-    <tableColumn id="7" name="Deck" dataDxfId="33"/>
-    <tableColumn id="10" name="Job" dataDxfId="32"/>
-    <tableColumn id="11" name="Level" dataDxfId="31"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="30"/>
-    <tableColumn id="13" name="Method" dataDxfId="29"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="28"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" name="Name" dataDxfId="39"/>
+    <tableColumn id="18" name="Ename" dataDxfId="38"/>
+    <tableColumn id="3" name="Type" dataDxfId="37"/>
+    <tableColumn id="6" name="World" dataDxfId="36"/>
+    <tableColumn id="7" name="Deck" dataDxfId="35"/>
+    <tableColumn id="10" name="Job" dataDxfId="34"/>
+    <tableColumn id="11" name="Level" dataDxfId="33"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
+    <tableColumn id="13" name="Method" dataDxfId="31"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
     <tableColumn id="15" name="RightMon" dataDxfId="27"/>
     <tableColumn id="4" name="PetMon" dataDxfId="26"/>
     <tableColumn id="17" name="Figue" dataDxfId="25"/>
@@ -3444,29 +3680,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:Q14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A3:Q14"/>
-  <sortState ref="A4:O83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A3:S14"/>
+  <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="19">
     <tableColumn id="1" name="Id" dataDxfId="18"/>
     <tableColumn id="2" name="Name" dataDxfId="17"/>
-    <tableColumn id="18" name="Ename" dataDxfId="1"/>
-    <tableColumn id="3" name="Type" dataDxfId="16"/>
-    <tableColumn id="6" name="World" dataDxfId="15"/>
-    <tableColumn id="7" name="Deck" dataDxfId="14"/>
-    <tableColumn id="10" name="Job" dataDxfId="13"/>
-    <tableColumn id="11" name="Level" dataDxfId="12"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="11"/>
-    <tableColumn id="13" name="Method" dataDxfId="10"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="8"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="7"/>
-    <tableColumn id="9" name="Figue" dataDxfId="6"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="5"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="4"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="3"/>
+    <tableColumn id="18" name="Ename" dataDxfId="16"/>
+    <tableColumn id="3" name="Type" dataDxfId="15"/>
+    <tableColumn id="6" name="World" dataDxfId="14"/>
+    <tableColumn id="7" name="Deck" dataDxfId="13"/>
+    <tableColumn id="10" name="Job" dataDxfId="12"/>
+    <tableColumn id="11" name="Level" dataDxfId="11"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
+    <tableColumn id="13" name="Method" dataDxfId="9"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
+    <tableColumn id="9" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3793,13 +4031,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3809,185 +4047,204 @@
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="9" width="6.25" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="13" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="15" width="5.875" customWidth="1"/>
+    <col min="17" max="17" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="S3" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43020101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>2</v>
@@ -4003,37 +4260,39 @@
         <v>3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43020102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G5">
         <v>11000003</v>
@@ -4046,37 +4305,39 @@
         <v>3</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43020103</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <v>11000002</v>
@@ -4089,39 +4350,41 @@
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43020104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G7">
         <v>11000008</v>
@@ -4134,37 +4397,39 @@
         <v>3</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43020105</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <v>11000007</v>
@@ -4177,39 +4442,41 @@
         <v>3</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43020106</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <v>11000005</v>
@@ -4222,39 +4489,41 @@
         <v>3</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43020107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G10">
         <v>11000007</v>
@@ -4267,39 +4536,41 @@
         <v>3</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43020108</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G11">
         <v>11000005</v>
@@ -4312,39 +4583,41 @@
         <v>3</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43020109</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G12">
         <v>11000006</v>
@@ -4357,39 +4630,41 @@
         <v>3</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43020110</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13">
         <v>11000006</v>
@@ -4402,36 +4677,38 @@
         <v>3</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R13" s="19"/>
+      <c r="S13" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43020201</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>2</v>
@@ -4447,36 +4724,38 @@
         <v>3</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43020202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>2</v>
@@ -4492,36 +4771,38 @@
         <v>3</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43020203</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>2</v>
@@ -4537,36 +4818,38 @@
         <v>3</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R16" s="19"/>
+      <c r="S16" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>2</v>
@@ -4582,36 +4865,38 @@
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>2</v>
@@ -4627,36 +4912,38 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43020301</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>2</v>
@@ -4672,36 +4959,38 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R19" s="19"/>
+      <c r="S19" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43020302</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>2</v>
@@ -4717,39 +5006,41 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R20" s="19"/>
+      <c r="S20" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43020303</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21">
         <v>11000004</v>
@@ -4762,39 +5053,41 @@
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43020304</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22">
         <v>11000002</v>
@@ -4807,39 +5100,41 @@
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R22" s="19"/>
+      <c r="S22" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43020305</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G23">
         <v>11000005</v>
@@ -4852,36 +5147,38 @@
         <v>3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R23" s="19"/>
+      <c r="S23" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43020306</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>2</v>
@@ -4897,36 +5194,38 @@
         <v>3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R24" s="19"/>
+      <c r="S24" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43020307</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>2</v>
@@ -4942,39 +5241,41 @@
         <v>3</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R25" s="19"/>
+      <c r="S25" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43020308</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26">
         <v>11000001</v>
@@ -4987,39 +5288,41 @@
         <v>3</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R26" s="19"/>
+      <c r="S26" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43020309</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G27">
         <v>11000004</v>
@@ -5032,36 +5335,38 @@
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R27" s="19"/>
+      <c r="S27" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43020310</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>2</v>
@@ -5077,39 +5382,41 @@
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R28" s="19"/>
+      <c r="S28" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43020311</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D29" s="4">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G29">
         <v>11000005</v>
@@ -5122,39 +5429,41 @@
         <v>3</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R29" s="19"/>
+      <c r="S29" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43020312</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D30" s="4">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G30">
         <v>11000001</v>
@@ -5167,39 +5476,41 @@
         <v>3</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R30" s="19"/>
+      <c r="S30" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43020401</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D31" s="4">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G31">
         <v>11000002</v>
@@ -5212,39 +5523,41 @@
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R31" s="19"/>
+      <c r="S31" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43020402</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" s="4">
         <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32">
         <v>11000001</v>
@@ -5257,36 +5570,38 @@
         <v>3</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R32" s="19"/>
+      <c r="S32" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43020403</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4">
         <v>5</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>2</v>
@@ -5302,39 +5617,41 @@
         <v>3</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R33" s="19"/>
+      <c r="S33" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43020404</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D34" s="4">
         <v>5</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G34">
         <v>11000001</v>
@@ -5347,39 +5664,41 @@
         <v>3</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R34" s="19"/>
+      <c r="S34" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43020405</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D35" s="4">
         <v>5</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G35">
         <v>11000007</v>
@@ -5392,39 +5711,41 @@
         <v>3</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R35" s="19"/>
+      <c r="S35" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43020406</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D36" s="4">
         <v>5</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G36">
         <v>11000006</v>
@@ -5437,36 +5758,38 @@
         <v>3</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R36" s="19"/>
+      <c r="S36" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43020407</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D37" s="4">
         <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>2</v>
@@ -5482,39 +5805,41 @@
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R37" s="19"/>
+      <c r="S37" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43020408</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D38" s="4">
         <v>5</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38">
         <v>11000002</v>
@@ -5527,39 +5852,41 @@
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R38" s="19"/>
+      <c r="S38" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43020501</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D39" s="4">
         <v>6</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G39">
         <v>11000003</v>
@@ -5572,39 +5899,41 @@
         <v>3</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R39" s="19"/>
+      <c r="S39" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43020502</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D40" s="4">
         <v>6</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G40">
         <v>11000002</v>
@@ -5617,39 +5946,41 @@
         <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R40" s="19"/>
+      <c r="S40" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43020503</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="D41" s="4">
         <v>6</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G41">
         <v>11000008</v>
@@ -5662,39 +5993,41 @@
         <v>3</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R41" s="19"/>
+      <c r="S41" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43020504</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D42" s="4">
         <v>6</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G42">
         <v>11000001</v>
@@ -5707,19 +6040,21 @@
         <v>3</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="25" t="s">
-        <v>262</v>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R42" s="19"/>
+      <c r="S42" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5734,13 +6069,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5750,171 +6085,190 @@
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="9" width="6.25" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="13" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="15" width="6.125" customWidth="1"/>
+    <col min="17" max="17" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" s="14" t="s">
+      <c r="D3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q3" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
@@ -5946,18 +6300,24 @@
       <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>15</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R4" s="19"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
@@ -5989,24 +6349,30 @@
       <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>15</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="23"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -6032,20 +6398,26 @@
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>15</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q6" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
@@ -6077,18 +6449,24 @@
       <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <v>15</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="23"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="23"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
@@ -6120,18 +6498,24 @@
       <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>15</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="23"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -6163,18 +6547,24 @@
       <c r="K9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>15</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="23"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
@@ -6206,18 +6596,24 @@
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>15</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="23"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q10" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -6249,18 +6645,24 @@
       <c r="K11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>15</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="23"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q11" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -6292,26 +6694,32 @@
       <c r="K12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>15</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -6333,28 +6741,34 @@
         <v>3</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="23"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>15</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R13" s="19"/>
+      <c r="S13" s="23"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -6376,28 +6790,34 @@
         <v>3</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="23"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <v>15</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R14" s="19"/>
+      <c r="S14" s="23"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000012</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -6419,28 +6839,34 @@
         <v>3</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="23"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <v>15</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="23"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000013</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -6462,28 +6888,34 @@
         <v>3</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="23"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <v>15</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R16" s="19"/>
+      <c r="S16" s="23"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000014</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -6505,28 +6937,34 @@
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="23"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>15</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -6548,30 +6986,36 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="23"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>15</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R18" s="19"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -6593,28 +7037,34 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="23"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="L19" s="4">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>15</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R19" s="19"/>
+      <c r="S19" s="23"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>251</v>
+      <c r="B20" s="27" t="s">
+        <v>247</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -6636,28 +7086,34 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="23"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>15</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R20" s="19"/>
+      <c r="S20" s="23"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
+      <c r="B21" s="27" t="s">
+        <v>283</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -6679,28 +7135,34 @@
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="23"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>15</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="23"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000019</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -6722,28 +7184,34 @@
         <v>3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>15</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R22" s="19"/>
+      <c r="S22" s="23"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -6765,28 +7233,34 @@
         <v>3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="23"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>15</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R23" s="19"/>
+      <c r="S23" s="23"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000021</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -6808,28 +7282,34 @@
         <v>3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="23"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>15</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R24" s="19"/>
+      <c r="S24" s="23"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000022</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -6851,28 +7331,34 @@
         <v>3</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="23"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>15</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R25" s="19"/>
+      <c r="S25" s="23"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000023</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -6894,28 +7380,34 @@
         <v>3</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="23"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="L26" s="4">
+        <v>1</v>
+      </c>
+      <c r="M26" s="4">
+        <v>15</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R26" s="19"/>
+      <c r="S26" s="23"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000024</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -6937,28 +7429,34 @@
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="23"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>15</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R27" s="19"/>
+      <c r="S27" s="23"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000025</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -6980,28 +7478,34 @@
         <v>3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>15</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R28" s="19"/>
+      <c r="S28" s="23"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000026</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -7023,28 +7527,34 @@
         <v>3</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="23"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>15</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R29" s="19"/>
+      <c r="S29" s="23"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000027</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -7066,28 +7576,34 @@
         <v>3</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="23"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>15</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R30" s="19"/>
+      <c r="S30" s="23"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000028</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -7109,28 +7625,34 @@
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="23"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>15</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R31" s="19"/>
+      <c r="S31" s="23"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000029</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -7152,28 +7674,34 @@
         <v>3</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="23"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1</v>
+      </c>
+      <c r="M32" s="4">
+        <v>15</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R32" s="19"/>
+      <c r="S32" s="23"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000030</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -7195,28 +7723,34 @@
         <v>3</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="23"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="L33" s="4">
+        <v>1</v>
+      </c>
+      <c r="M33" s="4">
+        <v>15</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R33" s="19"/>
+      <c r="S33" s="23"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000031</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -7238,28 +7772,34 @@
         <v>3</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="23"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+      <c r="M34" s="4">
+        <v>15</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R34" s="19"/>
+      <c r="S34" s="23"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000032</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -7281,28 +7821,34 @@
         <v>3</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="23"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
+        <v>15</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R35" s="19"/>
+      <c r="S35" s="23"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000033</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -7324,28 +7870,34 @@
         <v>3</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="23"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
+        <v>15</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R36" s="19"/>
+      <c r="S36" s="23"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000034</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -7354,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G37" s="18">
         <v>11001003</v>
@@ -7367,28 +7919,34 @@
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="23"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>15</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R37" s="19"/>
+      <c r="S37" s="23"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43000035</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -7410,28 +7968,34 @@
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="23"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1</v>
+      </c>
+      <c r="M38" s="4">
+        <v>15</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R38" s="19"/>
+      <c r="S38" s="23"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43000036</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -7453,18 +8017,24 @@
         <v>3</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="23"/>
+        <v>271</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>15</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R39" s="19"/>
+      <c r="S39" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -7478,13 +8048,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7494,185 +8064,204 @@
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="9" width="6.125" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="13" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="15" width="6.125" customWidth="1"/>
+    <col min="17" max="17" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="D3" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="O3" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R3" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43010001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D4" s="4">
         <v>101</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>2</v>
@@ -7690,36 +8279,38 @@
         <v>3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43010002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4">
         <v>101</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>2</v>
@@ -7741,30 +8332,32 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43010003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4">
         <v>101</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -7779,37 +8372,39 @@
         <v>10</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43010004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="4">
         <v>101</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>2</v>
@@ -7824,37 +8419,39 @@
         <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D8" s="4">
         <v>101</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>2</v>
@@ -7869,39 +8466,41 @@
         <v>2</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D9" s="4">
         <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>2</v>
@@ -7916,39 +8515,41 @@
         <v>2</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43010101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D10" s="4">
         <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>2</v>
@@ -7961,37 +8562,39 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43010102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4">
         <v>102</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>2</v>
@@ -8004,37 +8607,39 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43010103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="4">
         <v>102</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>2</v>
@@ -8047,37 +8652,39 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43010104</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D13" s="4">
         <v>102</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>2</v>
@@ -8090,37 +8697,39 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="4">
         <v>102</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>2</v>
@@ -8133,21 +8742,23 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="20"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="304">
   <si>
     <t>老鼠</t>
   </si>
@@ -1012,6 +1012,25 @@
   </si>
   <si>
     <t>double</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>半人马</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spcentaurs</t>
+  </si>
+  <si>
+    <t>51000021;4;-1;51000021;4;0;51000021;4;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spcentaurs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaurs</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3649,8 +3668,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S39" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A3:S39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S40" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="A3:S40"/>
   <sortState ref="A4:Q44">
     <sortCondition ref="A3:A44"/>
   </sortState>
@@ -4034,7 +4053,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
@@ -6069,13 +6088,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4:L39"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8036,6 +8055,59 @@
       <c r="R39" s="19"/>
       <c r="S39" s="23"/>
     </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>43001001</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="18">
+        <v>11001003</v>
+      </c>
+      <c r="H40" s="4">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <v>24</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" s="4">
+        <v>51000021</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R40" s="19"/>
+      <c r="S40" s="23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8054,7 +8126,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="306">
   <si>
     <t>老鼠</t>
   </si>
@@ -681,9 +681,6 @@
   <si>
     <t>blank</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>doublec</t>
   </si>
   <si>
     <t>oneline</t>
@@ -743,13 +740,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>特别怪物</t>
-  </si>
-  <si>
-    <t>特别怪物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>PetMon</t>
   </si>
   <si>
@@ -765,18 +755,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51019299;4;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51019298;4;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51000229;4;-1;51000229;4;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>自动开启等级</t>
   </si>
   <si>
@@ -883,10 +861,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51000080;1;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>bat</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -895,10 +869,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51000002;3;-1;51000002;3;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>string[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1022,15 +992,53 @@
     <t>spcentaurs</t>
   </si>
   <si>
-    <t>51000021;4;-1;51000021;4;0;51000021;4;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>spcentaurs</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>centaurs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别怪物（特殊出现）</t>
+  </si>
+  <si>
+    <t>特别怪物（特殊出现）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetMon</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000229;6;3;51000229;6;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019299;6;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019298;6;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000002;7;3;51000002;7;1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000080;9;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000021;5;4;51000021;7;2;51000021;7;6</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,26 +1798,8 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1840,6 +1830,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1886,7 +1891,14 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3637,93 +3649,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
   <autoFilter ref="A3:S42"/>
   <sortState ref="A4:Q52">
     <sortCondition ref="A3:A52"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="62"/>
-    <tableColumn id="2" name="Name" dataDxfId="61"/>
-    <tableColumn id="18" name="Ename" dataDxfId="60"/>
-    <tableColumn id="3" name="Type" dataDxfId="59"/>
-    <tableColumn id="6" name="World" dataDxfId="58"/>
-    <tableColumn id="7" name="Deck" dataDxfId="57"/>
-    <tableColumn id="10" name="Job" dataDxfId="56"/>
-    <tableColumn id="11" name="Level" dataDxfId="55"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="54"/>
-    <tableColumn id="13" name="Method" dataDxfId="53"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="52"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="51"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="50"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="49"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="48"/>
-    <tableColumn id="17" name="Figue" dataDxfId="47"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="46"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="45"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="44"/>
+    <tableColumn id="1" name="Id" dataDxfId="63"/>
+    <tableColumn id="2" name="Name" dataDxfId="62"/>
+    <tableColumn id="18" name="Ename" dataDxfId="61"/>
+    <tableColumn id="3" name="Type" dataDxfId="60"/>
+    <tableColumn id="6" name="World" dataDxfId="59"/>
+    <tableColumn id="7" name="Deck" dataDxfId="58"/>
+    <tableColumn id="10" name="Job" dataDxfId="57"/>
+    <tableColumn id="11" name="Level" dataDxfId="56"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="55"/>
+    <tableColumn id="13" name="Method" dataDxfId="54"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="53"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="52"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="51"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="50"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="49"/>
+    <tableColumn id="17" name="Figue" dataDxfId="48"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="47"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="46"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S40" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S40" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A3:S40"/>
   <sortState ref="A4:Q44">
     <sortCondition ref="A3:A44"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" name="Name" dataDxfId="39"/>
-    <tableColumn id="18" name="Ename" dataDxfId="38"/>
-    <tableColumn id="3" name="Type" dataDxfId="37"/>
-    <tableColumn id="6" name="World" dataDxfId="36"/>
-    <tableColumn id="7" name="Deck" dataDxfId="35"/>
-    <tableColumn id="10" name="Job" dataDxfId="34"/>
-    <tableColumn id="11" name="Level" dataDxfId="33"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
-    <tableColumn id="13" name="Method" dataDxfId="31"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
-    <tableColumn id="17" name="Figue" dataDxfId="25"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
+    <tableColumn id="1" name="Id" dataDxfId="41"/>
+    <tableColumn id="2" name="Name" dataDxfId="40"/>
+    <tableColumn id="18" name="Ename" dataDxfId="39"/>
+    <tableColumn id="3" name="Type" dataDxfId="38"/>
+    <tableColumn id="6" name="World" dataDxfId="37"/>
+    <tableColumn id="7" name="Deck" dataDxfId="36"/>
+    <tableColumn id="10" name="Job" dataDxfId="35"/>
+    <tableColumn id="11" name="Level" dataDxfId="34"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="33"/>
+    <tableColumn id="13" name="Method" dataDxfId="32"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="31"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="30"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="29"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="28"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="27"/>
+    <tableColumn id="17" name="Figue" dataDxfId="26"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="25"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="24"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A3:S14"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" name="Name" dataDxfId="17"/>
-    <tableColumn id="18" name="Ename" dataDxfId="16"/>
-    <tableColumn id="3" name="Type" dataDxfId="15"/>
-    <tableColumn id="6" name="World" dataDxfId="14"/>
-    <tableColumn id="7" name="Deck" dataDxfId="13"/>
-    <tableColumn id="10" name="Job" dataDxfId="12"/>
-    <tableColumn id="11" name="Level" dataDxfId="11"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
-    <tableColumn id="13" name="Method" dataDxfId="9"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
-    <tableColumn id="9" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" name="Name" dataDxfId="18"/>
+    <tableColumn id="18" name="Ename" dataDxfId="17"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="6" name="World" dataDxfId="15"/>
+    <tableColumn id="7" name="Deck" dataDxfId="14"/>
+    <tableColumn id="10" name="Job" dataDxfId="13"/>
+    <tableColumn id="11" name="Level" dataDxfId="12"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="11"/>
+    <tableColumn id="13" name="Method" dataDxfId="10"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="8"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="7"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="6"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="5"/>
+    <tableColumn id="9" name="Figue" dataDxfId="4"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="3"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4053,10 +4065,10 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4072,63 +4084,63 @@
     <col min="18" max="18" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>252</v>
+      <c r="R1" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -4139,7 +4151,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>178</v>
@@ -4166,10 +4178,10 @@
         <v>179</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>200</v>
@@ -4184,10 +4196,10 @@
         <v>179</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -4198,7 +4210,7 @@
         <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>192</v>
@@ -4216,7 +4228,7 @@
         <v>196</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>197</v>
@@ -4225,16 +4237,16 @@
         <v>198</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>199</v>
@@ -4243,10 +4255,10 @@
         <v>210</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>254</v>
+        <v>224</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -4257,7 +4269,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4289,20 +4301,20 @@
         <v>65</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="25"/>
+        <v>212</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="19"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43020102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -4334,10 +4346,10 @@
         <v>67</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="25"/>
+        <v>212</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -4379,11 +4391,11 @@
         <v>70</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="25" t="s">
-        <v>258</v>
+        <v>212</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -4403,7 +4415,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G7">
         <v>11000008</v>
@@ -4426,10 +4438,10 @@
         <v>72</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="25"/>
+        <v>212</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -4461,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -4471,11 +4483,11 @@
         <v>75</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="25" t="s">
-        <v>258</v>
+        <v>212</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -4518,11 +4530,11 @@
         <v>78</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="25" t="s">
-        <v>258</v>
+        <v>212</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -4565,11 +4577,11 @@
         <v>80</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="25" t="s">
-        <v>258</v>
+        <v>212</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -4612,11 +4624,11 @@
         <v>83</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="25" t="s">
-        <v>258</v>
+        <v>212</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
@@ -4659,11 +4671,11 @@
         <v>86</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R12" s="19"/>
-      <c r="S12" s="25" t="s">
-        <v>258</v>
+        <v>212</v>
+      </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -4706,11 +4718,11 @@
         <v>89</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="25" t="s">
-        <v>258</v>
+        <v>212</v>
+      </c>
+      <c r="R13" s="13"/>
+      <c r="S13" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -4755,9 +4767,9 @@
       <c r="Q14" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="25" t="s">
-        <v>258</v>
+      <c r="R14" s="13"/>
+      <c r="S14" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -4802,9 +4814,9 @@
       <c r="Q15" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="25" t="s">
-        <v>258</v>
+      <c r="R15" s="13"/>
+      <c r="S15" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -4849,9 +4861,9 @@
       <c r="Q16" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="25" t="s">
-        <v>258</v>
+      <c r="R16" s="13"/>
+      <c r="S16" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
@@ -4859,10 +4871,10 @@
         <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -4884,21 +4896,21 @@
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="25" t="s">
-        <v>258</v>
+      <c r="R17" s="13"/>
+      <c r="S17" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
@@ -4906,10 +4918,10 @@
         <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -4931,21 +4943,21 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="25" t="s">
-        <v>258</v>
+      <c r="R18" s="13"/>
+      <c r="S18" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
@@ -4990,9 +5002,9 @@
       <c r="Q19" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="25" t="s">
-        <v>258</v>
+      <c r="R19" s="13"/>
+      <c r="S19" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
@@ -5037,9 +5049,9 @@
       <c r="Q20" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="25" t="s">
-        <v>258</v>
+      <c r="R20" s="13"/>
+      <c r="S20" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
@@ -5084,9 +5096,9 @@
       <c r="Q21" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R21" s="19"/>
-      <c r="S21" s="25" t="s">
-        <v>258</v>
+      <c r="R21" s="13"/>
+      <c r="S21" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
@@ -5131,9 +5143,9 @@
       <c r="Q22" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="25" t="s">
-        <v>258</v>
+      <c r="R22" s="13"/>
+      <c r="S22" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
@@ -5153,7 +5165,7 @@
         <v>105</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23">
         <v>11000005</v>
@@ -5178,9 +5190,9 @@
       <c r="Q23" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R23" s="19"/>
-      <c r="S23" s="25" t="s">
-        <v>258</v>
+      <c r="R23" s="13"/>
+      <c r="S23" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -5225,9 +5237,9 @@
       <c r="Q24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R24" s="19"/>
-      <c r="S24" s="25" t="s">
-        <v>258</v>
+      <c r="R24" s="13"/>
+      <c r="S24" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -5272,9 +5284,9 @@
       <c r="Q25" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R25" s="19"/>
-      <c r="S25" s="25" t="s">
-        <v>258</v>
+      <c r="R25" s="13"/>
+      <c r="S25" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -5319,9 +5331,9 @@
       <c r="Q26" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R26" s="19"/>
-      <c r="S26" s="25" t="s">
-        <v>258</v>
+      <c r="R26" s="13"/>
+      <c r="S26" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
@@ -5366,9 +5378,9 @@
       <c r="Q27" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R27" s="19"/>
-      <c r="S27" s="25" t="s">
-        <v>258</v>
+      <c r="R27" s="13"/>
+      <c r="S27" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -5413,9 +5425,9 @@
       <c r="Q28" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R28" s="19"/>
-      <c r="S28" s="25" t="s">
-        <v>258</v>
+      <c r="R28" s="13"/>
+      <c r="S28" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -5435,7 +5447,7 @@
         <v>105</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G29">
         <v>11000005</v>
@@ -5460,9 +5472,9 @@
       <c r="Q29" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R29" s="19"/>
-      <c r="S29" s="25" t="s">
-        <v>258</v>
+      <c r="R29" s="13"/>
+      <c r="S29" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
@@ -5482,7 +5494,7 @@
         <v>105</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G30">
         <v>11000001</v>
@@ -5507,9 +5519,9 @@
       <c r="Q30" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R30" s="19"/>
-      <c r="S30" s="25" t="s">
-        <v>258</v>
+      <c r="R30" s="13"/>
+      <c r="S30" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
@@ -5554,9 +5566,9 @@
       <c r="Q31" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R31" s="19"/>
-      <c r="S31" s="25" t="s">
-        <v>258</v>
+      <c r="R31" s="13"/>
+      <c r="S31" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
@@ -5601,9 +5613,9 @@
       <c r="Q32" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R32" s="19"/>
-      <c r="S32" s="25" t="s">
-        <v>258</v>
+      <c r="R32" s="13"/>
+      <c r="S32" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
@@ -5648,9 +5660,9 @@
       <c r="Q33" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R33" s="19"/>
-      <c r="S33" s="25" t="s">
-        <v>258</v>
+      <c r="R33" s="13"/>
+      <c r="S33" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
@@ -5695,9 +5707,9 @@
       <c r="Q34" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R34" s="19"/>
-      <c r="S34" s="25" t="s">
-        <v>258</v>
+      <c r="R34" s="13"/>
+      <c r="S34" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
@@ -5742,9 +5754,9 @@
       <c r="Q35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R35" s="19"/>
-      <c r="S35" s="25" t="s">
-        <v>258</v>
+      <c r="R35" s="13"/>
+      <c r="S35" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
@@ -5789,9 +5801,9 @@
       <c r="Q36" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R36" s="19"/>
-      <c r="S36" s="25" t="s">
-        <v>258</v>
+      <c r="R36" s="13"/>
+      <c r="S36" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
@@ -5836,9 +5848,9 @@
       <c r="Q37" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="25" t="s">
-        <v>258</v>
+      <c r="R37" s="13"/>
+      <c r="S37" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
@@ -5883,9 +5895,9 @@
       <c r="Q38" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R38" s="19"/>
-      <c r="S38" s="25" t="s">
-        <v>258</v>
+      <c r="R38" s="13"/>
+      <c r="S38" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
@@ -5930,9 +5942,9 @@
       <c r="Q39" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R39" s="19"/>
-      <c r="S39" s="25" t="s">
-        <v>258</v>
+      <c r="R39" s="13"/>
+      <c r="S39" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
@@ -5977,9 +5989,9 @@
       <c r="Q40" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R40" s="19"/>
-      <c r="S40" s="25" t="s">
-        <v>258</v>
+      <c r="R40" s="13"/>
+      <c r="S40" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
@@ -6024,9 +6036,9 @@
       <c r="Q41" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R41" s="19"/>
-      <c r="S41" s="25" t="s">
-        <v>258</v>
+      <c r="R41" s="13"/>
+      <c r="S41" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
@@ -6071,9 +6083,9 @@
       <c r="Q42" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R42" s="19"/>
-      <c r="S42" s="25" t="s">
-        <v>258</v>
+      <c r="R42" s="13"/>
+      <c r="S42" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6091,10 +6103,10 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6105,68 +6117,69 @@
     <col min="8" max="9" width="6.25" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="15" width="6.125" customWidth="1"/>
+    <col min="12" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="15" width="27.125" customWidth="1"/>
     <col min="17" max="17" width="10.625" customWidth="1"/>
     <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>252</v>
+      <c r="R1" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -6177,7 +6190,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>178</v>
@@ -6195,7 +6208,7 @@
         <v>178</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>179</v>
@@ -6204,16 +6217,16 @@
         <v>179</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>179</v>
@@ -6225,7 +6238,7 @@
         <v>201</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -6236,7 +6249,7 @@
         <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>192</v>
@@ -6254,7 +6267,7 @@
         <v>196</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>197</v>
@@ -6263,16 +6276,16 @@
         <v>198</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>199</v>
@@ -6281,17 +6294,17 @@
         <v>210</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>254</v>
+        <v>226</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -6306,7 +6319,7 @@
       <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="12">
         <v>11001003</v>
       </c>
       <c r="H4" s="4">
@@ -6331,16 +6344,16 @@
         <v>4</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="23"/>
+        <v>298</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -6355,7 +6368,7 @@
       <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="12">
         <v>11001003</v>
       </c>
       <c r="H5" s="4">
@@ -6376,22 +6389,22 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="6" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="23"/>
+        <v>298</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -6406,7 +6419,7 @@
       <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="12">
         <v>11001003</v>
       </c>
       <c r="H6" s="4">
@@ -6417,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
@@ -6431,16 +6444,16 @@
         <v>8</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -6455,7 +6468,7 @@
       <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="12">
         <v>11001003</v>
       </c>
       <c r="H7" s="4">
@@ -6480,16 +6493,16 @@
         <v>10</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -6504,7 +6517,7 @@
       <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="12">
         <v>11001003</v>
       </c>
       <c r="H8" s="4">
@@ -6529,10 +6542,10 @@
         <v>12</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -6553,7 +6566,7 @@
       <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="12">
         <v>11001003</v>
       </c>
       <c r="H9" s="4">
@@ -6578,16 +6591,16 @@
         <v>14</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -6602,7 +6615,7 @@
       <c r="F10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="12">
         <v>11001003</v>
       </c>
       <c r="H10" s="4">
@@ -6627,10 +6640,10 @@
         <v>16</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="23"/>
+        <v>298</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -6651,7 +6664,7 @@
       <c r="F11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="12">
         <v>11001003</v>
       </c>
       <c r="H11" s="4">
@@ -6676,10 +6689,10 @@
         <v>18</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="17"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -6700,7 +6713,7 @@
       <c r="F12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="12">
         <v>11001003</v>
       </c>
       <c r="H12" s="4">
@@ -6725,17 +6738,17 @@
         <v>20</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R12" s="19"/>
-      <c r="S12" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>282</v>
+      <c r="B13" s="21" t="s">
+        <v>274</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -6749,7 +6762,7 @@
       <c r="F13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="12">
         <v>11001003</v>
       </c>
       <c r="H13" s="4">
@@ -6774,16 +6787,16 @@
         <v>21</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R13" s="13"/>
+      <c r="S13" s="17"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -6798,7 +6811,7 @@
       <c r="F14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="12">
         <v>11001003</v>
       </c>
       <c r="H14" s="4">
@@ -6823,10 +6836,10 @@
         <v>23</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="17"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -6847,7 +6860,7 @@
       <c r="F15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="12">
         <v>11001003</v>
       </c>
       <c r="H15" s="4">
@@ -6872,10 +6885,10 @@
         <v>25</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R15" s="13"/>
+      <c r="S15" s="17"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -6896,7 +6909,7 @@
       <c r="F16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="12">
         <v>11001003</v>
       </c>
       <c r="H16" s="4">
@@ -6921,10 +6934,10 @@
         <v>27</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="17"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
@@ -6945,7 +6958,7 @@
       <c r="F17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="12">
         <v>11001003</v>
       </c>
       <c r="H17" s="4">
@@ -6970,16 +6983,16 @@
         <v>29</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="S17" s="17"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -6994,7 +7007,7 @@
       <c r="F18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="12">
         <v>11001003</v>
       </c>
       <c r="H18" s="4">
@@ -7015,26 +7028,26 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="6" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R18" s="19"/>
-      <c r="S18" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="S18" s="17"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>244</v>
+      <c r="B19" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -7045,7 +7058,7 @@
       <c r="F19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="12">
         <v>11001003</v>
       </c>
       <c r="H19" s="4">
@@ -7056,7 +7069,7 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L19" s="4">
         <v>1</v>
@@ -7067,23 +7080,23 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="17"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>247</v>
+      <c r="B20" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -7094,7 +7107,7 @@
       <c r="F20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="12">
         <v>11001003</v>
       </c>
       <c r="H20" s="4">
@@ -7105,7 +7118,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L20" s="4">
         <v>1</v>
@@ -7116,20 +7129,20 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R20" s="13"/>
+      <c r="S20" s="17"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>283</v>
+      <c r="B21" s="21" t="s">
+        <v>275</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>32</v>
@@ -7143,7 +7156,7 @@
       <c r="F21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="12">
         <v>11001003</v>
       </c>
       <c r="H21" s="4">
@@ -7168,10 +7181,10 @@
         <v>32</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R21" s="19"/>
-      <c r="S21" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="17"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
@@ -7192,7 +7205,7 @@
       <c r="F22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="12">
         <v>11001003</v>
       </c>
       <c r="H22" s="4">
@@ -7217,16 +7230,16 @@
         <v>34</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R22" s="13"/>
+      <c r="S22" s="17"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -7241,7 +7254,7 @@
       <c r="F23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="12">
         <v>11001003</v>
       </c>
       <c r="H23" s="4">
@@ -7266,10 +7279,10 @@
         <v>36</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R23" s="19"/>
-      <c r="S23" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R23" s="13"/>
+      <c r="S23" s="17"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
@@ -7290,7 +7303,7 @@
       <c r="F24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="12">
         <v>11001003</v>
       </c>
       <c r="H24" s="4">
@@ -7315,10 +7328,10 @@
         <v>38</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R24" s="19"/>
-      <c r="S24" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R24" s="13"/>
+      <c r="S24" s="17"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
@@ -7339,7 +7352,7 @@
       <c r="F25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="12">
         <v>11001003</v>
       </c>
       <c r="H25" s="4">
@@ -7364,10 +7377,10 @@
         <v>40</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R25" s="19"/>
-      <c r="S25" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R25" s="13"/>
+      <c r="S25" s="17"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
@@ -7388,7 +7401,7 @@
       <c r="F26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="12">
         <v>11001003</v>
       </c>
       <c r="H26" s="4">
@@ -7413,10 +7426,10 @@
         <v>42</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R26" s="19"/>
-      <c r="S26" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R26" s="13"/>
+      <c r="S26" s="17"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
@@ -7437,7 +7450,7 @@
       <c r="F27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="12">
         <v>11001003</v>
       </c>
       <c r="H27" s="4">
@@ -7462,10 +7475,10 @@
         <v>44</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R27" s="19"/>
-      <c r="S27" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R27" s="13"/>
+      <c r="S27" s="17"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28">
@@ -7486,7 +7499,7 @@
       <c r="F28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="12">
         <v>11001003</v>
       </c>
       <c r="H28" s="4">
@@ -7511,10 +7524,10 @@
         <v>46</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R28" s="19"/>
-      <c r="S28" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R28" s="13"/>
+      <c r="S28" s="17"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29">
@@ -7535,7 +7548,7 @@
       <c r="F29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="12">
         <v>11001003</v>
       </c>
       <c r="H29" s="4">
@@ -7560,10 +7573,10 @@
         <v>48</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R29" s="19"/>
-      <c r="S29" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R29" s="13"/>
+      <c r="S29" s="17"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -7584,7 +7597,7 @@
       <c r="F30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="12">
         <v>11001003</v>
       </c>
       <c r="H30" s="4">
@@ -7609,10 +7622,10 @@
         <v>50</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R30" s="19"/>
-      <c r="S30" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R30" s="13"/>
+      <c r="S30" s="17"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
@@ -7633,7 +7646,7 @@
       <c r="F31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="12">
         <v>11001003</v>
       </c>
       <c r="H31" s="4">
@@ -7658,10 +7671,10 @@
         <v>52</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R31" s="19"/>
-      <c r="S31" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R31" s="13"/>
+      <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
@@ -7682,7 +7695,7 @@
       <c r="F32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="12">
         <v>11001003</v>
       </c>
       <c r="H32" s="4">
@@ -7707,10 +7720,10 @@
         <v>54</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R32" s="19"/>
-      <c r="S32" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R32" s="13"/>
+      <c r="S32" s="17"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33">
@@ -7731,7 +7744,7 @@
       <c r="F33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="12">
         <v>11001003</v>
       </c>
       <c r="H33" s="4">
@@ -7756,10 +7769,10 @@
         <v>56</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R33" s="19"/>
-      <c r="S33" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R33" s="13"/>
+      <c r="S33" s="17"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34">
@@ -7780,7 +7793,7 @@
       <c r="F34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="12">
         <v>11001003</v>
       </c>
       <c r="H34" s="4">
@@ -7805,10 +7818,10 @@
         <v>58</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R34" s="19"/>
-      <c r="S34" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R34" s="13"/>
+      <c r="S34" s="17"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35">
@@ -7829,7 +7842,7 @@
       <c r="F35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="12">
         <v>11001003</v>
       </c>
       <c r="H35" s="4">
@@ -7854,10 +7867,10 @@
         <v>60</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R35" s="19"/>
-      <c r="S35" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R35" s="13"/>
+      <c r="S35" s="17"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36">
@@ -7878,7 +7891,7 @@
       <c r="F36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="12">
         <v>11001003</v>
       </c>
       <c r="H36" s="4">
@@ -7903,20 +7916,20 @@
         <v>62</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R36" s="19"/>
-      <c r="S36" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R36" s="13"/>
+      <c r="S36" s="17"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000034</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>260</v>
+      <c r="B37" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -7925,9 +7938,9 @@
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G37" s="18">
+        <v>255</v>
+      </c>
+      <c r="G37" s="12">
         <v>11001003</v>
       </c>
       <c r="H37" s="4">
@@ -7938,7 +7951,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L37" s="4">
         <v>1</v>
@@ -7949,23 +7962,23 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R37" s="19"/>
-      <c r="S37" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R37" s="13"/>
+      <c r="S37" s="17"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43000035</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>266</v>
+      <c r="B38" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -7976,7 +7989,7 @@
       <c r="F38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="12">
         <v>11001003</v>
       </c>
       <c r="H38" s="4">
@@ -7987,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L38" s="4">
         <v>1</v>
@@ -7998,23 +8011,23 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R38" s="19"/>
-      <c r="S38" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R38" s="13"/>
+      <c r="S38" s="17"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43000036</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>270</v>
+      <c r="B39" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -8025,7 +8038,7 @@
       <c r="F39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="12">
         <v>11001003</v>
       </c>
       <c r="H39" s="4">
@@ -8036,7 +8049,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L39" s="4">
         <v>1</v>
@@ -8047,23 +8060,23 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R39" s="19"/>
-      <c r="S39" s="23"/>
+        <v>213</v>
+      </c>
+      <c r="R39" s="13"/>
+      <c r="S39" s="17"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43001001</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>299</v>
+      <c r="B40" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -8074,7 +8087,7 @@
       <c r="F40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="12">
         <v>11001003</v>
       </c>
       <c r="H40" s="4">
@@ -8085,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L40" s="4">
         <v>1</v>
@@ -8094,22 +8107,25 @@
         <v>24</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="O40" s="4">
-        <v>51000021</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="R40" s="19"/>
-      <c r="S40" s="23"/>
+        <v>294</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>299</v>
+      </c>
+      <c r="R40" s="13"/>
+      <c r="S40" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="Q40">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(Q40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -8126,7 +8142,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8137,68 +8153,70 @@
     <col min="8" max="9" width="6.125" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="15" width="6.125" customWidth="1"/>
+    <col min="12" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="28.375" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
     <col min="17" max="17" width="10.625" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="L1" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="P1" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>255</v>
+      <c r="R1" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -8209,7 +8227,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>178</v>
@@ -8227,7 +8245,7 @@
         <v>178</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>179</v>
@@ -8236,16 +8254,16 @@
         <v>179</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>179</v>
@@ -8254,10 +8272,10 @@
         <v>209</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -8268,7 +8286,7 @@
         <v>191</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>192</v>
@@ -8286,7 +8304,7 @@
         <v>196</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>197</v>
@@ -8295,16 +8313,16 @@
         <v>198</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>199</v>
@@ -8313,10 +8331,10 @@
         <v>210</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>257</v>
+        <v>224</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -8338,7 +8356,7 @@
       <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="12">
         <v>11001002</v>
       </c>
       <c r="H4" s="4">
@@ -8356,17 +8374,17 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="6" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="4" t="s">
         <v>211</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="21"/>
+      <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -8387,7 +8405,7 @@
       <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="12">
         <v>11001002</v>
       </c>
       <c r="H5" s="4">
@@ -8410,10 +8428,10 @@
         <v>157</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="20"/>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
@@ -8434,7 +8452,7 @@
       <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="12">
         <v>11001002</v>
       </c>
       <c r="H6" s="4">
@@ -8457,10 +8475,10 @@
         <v>159</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="20"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -8481,7 +8499,7 @@
       <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="12">
         <v>11001002</v>
       </c>
       <c r="H7" s="4">
@@ -8504,10 +8522,10 @@
         <v>161</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="20"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -8528,7 +8546,7 @@
       <c r="F8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="12">
         <v>11001001</v>
       </c>
       <c r="H8" s="4">
@@ -8546,17 +8564,17 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="4" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="6" t="s">
         <v>203</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="20"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
@@ -8577,7 +8595,7 @@
       <c r="F9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="12">
         <v>11001001</v>
       </c>
       <c r="H9" s="4">
@@ -8595,17 +8613,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="4" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="6" t="s">
         <v>206</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="20"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -8626,7 +8644,7 @@
       <c r="F10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="12">
         <v>11001001</v>
       </c>
       <c r="H10" s="4">
@@ -8647,10 +8665,10 @@
         <v>166</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="20"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -8671,7 +8689,7 @@
       <c r="F11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="12">
         <v>11001001</v>
       </c>
       <c r="H11" s="4">
@@ -8692,10 +8710,10 @@
         <v>170</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R11" s="4"/>
-      <c r="S11" s="20"/>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -8716,7 +8734,7 @@
       <c r="F12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="12">
         <v>11001001</v>
       </c>
       <c r="H12" s="4">
@@ -8737,10 +8755,10 @@
         <v>172</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R12" s="4"/>
-      <c r="S12" s="20"/>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -8761,7 +8779,7 @@
       <c r="F13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="12">
         <v>11001001</v>
       </c>
       <c r="H13" s="4">
@@ -8782,10 +8800,10 @@
         <v>175</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R13" s="4"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="14"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -8806,7 +8824,7 @@
       <c r="F14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="12">
         <v>11001001</v>
       </c>
       <c r="H14" s="4">
@@ -8827,10 +8845,10 @@
         <v>177</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R14" s="4"/>
-      <c r="S14" s="20"/>
+      <c r="S14" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -16,7 +16,7 @@
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1038,7 +1038,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51000021;5;4;51000021;7;2;51000021;7;6</t>
+    <t>51000021;5;4;51000021;7;2;51000021;7;6;51000021;12;3;51000021;12;5</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1892,13 +1892,6 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3060,6 +3053,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3680,62 +3680,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S40" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S40" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A3:S40"/>
   <sortState ref="A4:Q44">
     <sortCondition ref="A3:A44"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="41"/>
-    <tableColumn id="2" name="Name" dataDxfId="40"/>
-    <tableColumn id="18" name="Ename" dataDxfId="39"/>
-    <tableColumn id="3" name="Type" dataDxfId="38"/>
-    <tableColumn id="6" name="World" dataDxfId="37"/>
-    <tableColumn id="7" name="Deck" dataDxfId="36"/>
-    <tableColumn id="10" name="Job" dataDxfId="35"/>
-    <tableColumn id="11" name="Level" dataDxfId="34"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="33"/>
-    <tableColumn id="13" name="Method" dataDxfId="32"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="31"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="30"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="29"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="28"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="27"/>
-    <tableColumn id="17" name="Figue" dataDxfId="26"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="25"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="24"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="23"/>
+    <tableColumn id="1" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" name="Name" dataDxfId="39"/>
+    <tableColumn id="18" name="Ename" dataDxfId="38"/>
+    <tableColumn id="3" name="Type" dataDxfId="37"/>
+    <tableColumn id="6" name="World" dataDxfId="36"/>
+    <tableColumn id="7" name="Deck" dataDxfId="35"/>
+    <tableColumn id="10" name="Job" dataDxfId="34"/>
+    <tableColumn id="11" name="Level" dataDxfId="33"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
+    <tableColumn id="13" name="Method" dataDxfId="31"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
+    <tableColumn id="17" name="Figue" dataDxfId="25"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A3:S14"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" name="Name" dataDxfId="18"/>
-    <tableColumn id="18" name="Ename" dataDxfId="17"/>
-    <tableColumn id="3" name="Type" dataDxfId="16"/>
-    <tableColumn id="6" name="World" dataDxfId="15"/>
-    <tableColumn id="7" name="Deck" dataDxfId="14"/>
-    <tableColumn id="10" name="Job" dataDxfId="13"/>
-    <tableColumn id="11" name="Level" dataDxfId="12"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="11"/>
-    <tableColumn id="13" name="Method" dataDxfId="10"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="8"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="7"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="6"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="5"/>
-    <tableColumn id="9" name="Figue" dataDxfId="4"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="3"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" name="Name" dataDxfId="17"/>
+    <tableColumn id="18" name="Ename" dataDxfId="16"/>
+    <tableColumn id="3" name="Type" dataDxfId="15"/>
+    <tableColumn id="6" name="World" dataDxfId="14"/>
+    <tableColumn id="7" name="Deck" dataDxfId="13"/>
+    <tableColumn id="10" name="Job" dataDxfId="12"/>
+    <tableColumn id="11" name="Level" dataDxfId="11"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
+    <tableColumn id="13" name="Method" dataDxfId="9"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
+    <tableColumn id="9" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6106,7 +6106,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8104,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>305</v>
@@ -8122,7 +8122,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="Q40">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="44" priority="1">
       <formula>LEN(TRIM(Q40))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -1022,14 +1022,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51019299;6;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51019298;6;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>51000002;7;3;51000002;7;1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1039,6 +1031,14 @@
   </si>
   <si>
     <t>51000021;5;4;51000021;7;2;51000021;7;6;51000021;12;3;51000021;12;5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019002;6;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51019001;6;2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6102,11 +6102,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>6</v>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>257</v>
@@ -8107,7 +8107,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
@@ -8138,11 +8138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8564,7 +8564,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="6" t="s">
@@ -8613,7 +8613,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="6" t="s">

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -1030,16 +1030,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>51000021;5;4;51000021;7;2;51000021;7;6;51000021;12;3;51000021;12;5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>51019002;6;2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>51019001;6;2</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000021;5;4;51000021;7;2;51000021;7;6</t>
   </si>
 </sst>
 </file>
@@ -6102,11 +6101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8107,7 +8106,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
@@ -8138,11 +8137,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8564,7 +8563,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="6" t="s">
@@ -8613,7 +8612,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="6" t="s">

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="312">
   <si>
     <t>老鼠</t>
   </si>
@@ -1039,6 +1039,30 @@
   </si>
   <si>
     <t>51000021;5;4;51000021;7;2;51000021;7;6</t>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>honglang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>feichong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mifeng</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜蜂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bee</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1763,7 +1787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1845,6 +1869,9 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1891,6 +1918,13 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3052,13 +3086,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3679,62 +3706,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S40" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A3:S40"/>
-  <sortState ref="A4:Q44">
-    <sortCondition ref="A3:A44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S41" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
+  <autoFilter ref="A3:S41"/>
+  <sortState ref="A4:Q45">
+    <sortCondition ref="A3:A45"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" name="Name" dataDxfId="39"/>
-    <tableColumn id="18" name="Ename" dataDxfId="38"/>
-    <tableColumn id="3" name="Type" dataDxfId="37"/>
-    <tableColumn id="6" name="World" dataDxfId="36"/>
-    <tableColumn id="7" name="Deck" dataDxfId="35"/>
-    <tableColumn id="10" name="Job" dataDxfId="34"/>
-    <tableColumn id="11" name="Level" dataDxfId="33"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
-    <tableColumn id="13" name="Method" dataDxfId="31"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
-    <tableColumn id="17" name="Figue" dataDxfId="25"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
+    <tableColumn id="1" name="Id" dataDxfId="41"/>
+    <tableColumn id="2" name="Name" dataDxfId="40"/>
+    <tableColumn id="18" name="Ename" dataDxfId="39"/>
+    <tableColumn id="3" name="Type" dataDxfId="38"/>
+    <tableColumn id="6" name="World" dataDxfId="37"/>
+    <tableColumn id="7" name="Deck" dataDxfId="36"/>
+    <tableColumn id="10" name="Job" dataDxfId="35"/>
+    <tableColumn id="11" name="Level" dataDxfId="34"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="33"/>
+    <tableColumn id="13" name="Method" dataDxfId="32"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="31"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="30"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="29"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="28"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="27"/>
+    <tableColumn id="17" name="Figue" dataDxfId="26"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="25"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="24"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A3:S14"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" name="Name" dataDxfId="17"/>
-    <tableColumn id="18" name="Ename" dataDxfId="16"/>
-    <tableColumn id="3" name="Type" dataDxfId="15"/>
-    <tableColumn id="6" name="World" dataDxfId="14"/>
-    <tableColumn id="7" name="Deck" dataDxfId="13"/>
-    <tableColumn id="10" name="Job" dataDxfId="12"/>
-    <tableColumn id="11" name="Level" dataDxfId="11"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
-    <tableColumn id="13" name="Method" dataDxfId="9"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
-    <tableColumn id="9" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" name="Name" dataDxfId="18"/>
+    <tableColumn id="18" name="Ename" dataDxfId="17"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="6" name="World" dataDxfId="15"/>
+    <tableColumn id="7" name="Deck" dataDxfId="14"/>
+    <tableColumn id="10" name="Job" dataDxfId="13"/>
+    <tableColumn id="11" name="Level" dataDxfId="12"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="11"/>
+    <tableColumn id="13" name="Method" dataDxfId="10"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="8"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="7"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="6"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="5"/>
+    <tableColumn id="9" name="Figue" dataDxfId="4"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="3"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6099,13 +6126,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6332,7 +6359,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="4">
         <v>15</v>
@@ -6356,7 +6383,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -6381,10 +6408,10 @@
         <v>6</v>
       </c>
       <c r="L5" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M5" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="6" t="s">
@@ -6603,7 +6630,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -6628,10 +6655,10 @@
         <v>16</v>
       </c>
       <c r="L10" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M10" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -7140,11 +7167,11 @@
       <c r="A21">
         <v>43000018</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="12" t="s">
         <v>275</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -8069,13 +8096,13 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>43001001</v>
+        <v>43000037</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -8090,39 +8117,88 @@
         <v>11001003</v>
       </c>
       <c r="H40" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="L40" s="4">
         <v>1</v>
       </c>
       <c r="M40" s="4">
-        <v>20</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>305</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>43001001</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="12">
+        <v>11001003</v>
+      </c>
+      <c r="H41" s="4">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1</v>
+      </c>
+      <c r="M41" s="4">
+        <v>20</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q41" t="s">
         <v>299</v>
       </c>
-      <c r="R40" s="13"/>
-      <c r="S40" s="17"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="Q40">
-    <cfRule type="containsBlanks" dxfId="44" priority="1">
-      <formula>LEN(TRIM(Q40))=0</formula>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(Q41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="313">
   <si>
     <t>老鼠</t>
   </si>
@@ -1062,6 +1062,10 @@
   </si>
   <si>
     <t>bee</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingting</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1918,13 +1922,6 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3086,6 +3083,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3706,62 +3710,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S41" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S41" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A3:S41"/>
   <sortState ref="A4:Q45">
     <sortCondition ref="A3:A45"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="41"/>
-    <tableColumn id="2" name="Name" dataDxfId="40"/>
-    <tableColumn id="18" name="Ename" dataDxfId="39"/>
-    <tableColumn id="3" name="Type" dataDxfId="38"/>
-    <tableColumn id="6" name="World" dataDxfId="37"/>
-    <tableColumn id="7" name="Deck" dataDxfId="36"/>
-    <tableColumn id="10" name="Job" dataDxfId="35"/>
-    <tableColumn id="11" name="Level" dataDxfId="34"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="33"/>
-    <tableColumn id="13" name="Method" dataDxfId="32"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="31"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="30"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="29"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="28"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="27"/>
-    <tableColumn id="17" name="Figue" dataDxfId="26"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="25"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="24"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="23"/>
+    <tableColumn id="1" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" name="Name" dataDxfId="39"/>
+    <tableColumn id="18" name="Ename" dataDxfId="38"/>
+    <tableColumn id="3" name="Type" dataDxfId="37"/>
+    <tableColumn id="6" name="World" dataDxfId="36"/>
+    <tableColumn id="7" name="Deck" dataDxfId="35"/>
+    <tableColumn id="10" name="Job" dataDxfId="34"/>
+    <tableColumn id="11" name="Level" dataDxfId="33"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
+    <tableColumn id="13" name="Method" dataDxfId="31"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
+    <tableColumn id="17" name="Figue" dataDxfId="25"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A3:S14"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" name="Name" dataDxfId="18"/>
-    <tableColumn id="18" name="Ename" dataDxfId="17"/>
-    <tableColumn id="3" name="Type" dataDxfId="16"/>
-    <tableColumn id="6" name="World" dataDxfId="15"/>
-    <tableColumn id="7" name="Deck" dataDxfId="14"/>
-    <tableColumn id="10" name="Job" dataDxfId="13"/>
-    <tableColumn id="11" name="Level" dataDxfId="12"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="11"/>
-    <tableColumn id="13" name="Method" dataDxfId="10"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="8"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="7"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="6"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="5"/>
-    <tableColumn id="9" name="Figue" dataDxfId="4"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="3"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="2"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" name="Name" dataDxfId="17"/>
+    <tableColumn id="18" name="Ename" dataDxfId="16"/>
+    <tableColumn id="3" name="Type" dataDxfId="15"/>
+    <tableColumn id="6" name="World" dataDxfId="14"/>
+    <tableColumn id="7" name="Deck" dataDxfId="13"/>
+    <tableColumn id="10" name="Job" dataDxfId="12"/>
+    <tableColumn id="11" name="Level" dataDxfId="11"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
+    <tableColumn id="13" name="Method" dataDxfId="9"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
+    <tableColumn id="9" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6129,10 +6133,10 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7853,11 +7857,11 @@
       <c r="A35">
         <v>43000032</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -8197,7 +8201,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="Q41">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="44" priority="1">
       <formula>LEN(TRIM(Q41))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="316">
   <si>
     <t>老鼠</t>
   </si>
@@ -793,10 +793,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>土匪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>chongyue</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1066,14 +1062,30 @@
   </si>
   <si>
     <t>qingting</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishman</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tufei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,6 +1307,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1791,7 +1810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1876,6 +1895,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1922,6 +1944,13 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3083,13 +3112,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3679,93 +3701,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
-  <autoFilter ref="A3:S42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
+  <autoFilter ref="A3:S42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A4:Q52">
     <sortCondition ref="A3:A52"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="63"/>
-    <tableColumn id="2" name="Name" dataDxfId="62"/>
-    <tableColumn id="18" name="Ename" dataDxfId="61"/>
-    <tableColumn id="3" name="Type" dataDxfId="60"/>
-    <tableColumn id="6" name="World" dataDxfId="59"/>
-    <tableColumn id="7" name="Deck" dataDxfId="58"/>
-    <tableColumn id="10" name="Job" dataDxfId="57"/>
-    <tableColumn id="11" name="Level" dataDxfId="56"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="55"/>
-    <tableColumn id="13" name="Method" dataDxfId="54"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="53"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="52"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="51"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="50"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="49"/>
-    <tableColumn id="17" name="Figue" dataDxfId="48"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="47"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="46"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="62"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Ename" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="World" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Deck" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Job" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Level" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AutoAddLevel" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Method" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Emethod" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="EpSlow" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="CardReduce" dataDxfId="51"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="RightMon" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PetMon" dataDxfId="49"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Figue" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BattleMap" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DropItem" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="InRandomQuest" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S41" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A3:S41"/>
-  <sortState ref="A4:Q45">
-    <sortCondition ref="A3:A45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S42" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
+  <autoFilter ref="A3:S42" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState ref="A4:Q46">
+    <sortCondition ref="A3:A46"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" name="Name" dataDxfId="39"/>
-    <tableColumn id="18" name="Ename" dataDxfId="38"/>
-    <tableColumn id="3" name="Type" dataDxfId="37"/>
-    <tableColumn id="6" name="World" dataDxfId="36"/>
-    <tableColumn id="7" name="Deck" dataDxfId="35"/>
-    <tableColumn id="10" name="Job" dataDxfId="34"/>
-    <tableColumn id="11" name="Level" dataDxfId="33"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
-    <tableColumn id="13" name="Method" dataDxfId="31"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
-    <tableColumn id="17" name="Figue" dataDxfId="25"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Ename" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="World" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Deck" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Job" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Level" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AutoAddLevel" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Method" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Emethod" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="EpSlow" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="CardReduce" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RightMon" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PetMon" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Figue" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BattleMap" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DropItem" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="InRandomQuest" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A3:S14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="A3:S14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" name="Name" dataDxfId="17"/>
-    <tableColumn id="18" name="Ename" dataDxfId="16"/>
-    <tableColumn id="3" name="Type" dataDxfId="15"/>
-    <tableColumn id="6" name="World" dataDxfId="14"/>
-    <tableColumn id="7" name="Deck" dataDxfId="13"/>
-    <tableColumn id="10" name="Job" dataDxfId="12"/>
-    <tableColumn id="11" name="Level" dataDxfId="11"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
-    <tableColumn id="13" name="Method" dataDxfId="9"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
-    <tableColumn id="9" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Ename" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="World" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Deck" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Job" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Level" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AutoAddLevel" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Method" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Emethod" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="EpSlow" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="CardReduce" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RightMon" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PetMon" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Figue" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="BattleMap" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="DropItem" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="InRandomQuest" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4091,7 +4113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +4144,7 @@
         <v>181</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>182</v>
@@ -4149,16 +4171,16 @@
         <v>188</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>189</v>
@@ -4170,7 +4192,7 @@
         <v>223</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -4181,7 +4203,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>178</v>
@@ -4208,10 +4230,10 @@
         <v>179</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>200</v>
@@ -4226,10 +4248,10 @@
         <v>179</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -4240,7 +4262,7 @@
         <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>192</v>
@@ -4267,16 +4289,16 @@
         <v>198</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>221</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>199</v>
@@ -4288,7 +4310,7 @@
         <v>224</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -4299,7 +4321,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4341,10 +4363,10 @@
         <v>43020102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -4425,7 +4447,7 @@
       </c>
       <c r="R6" s="13"/>
       <c r="S6" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -4503,7 +4525,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -4517,7 +4539,7 @@
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -4564,7 +4586,7 @@
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -4611,7 +4633,7 @@
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -4658,7 +4680,7 @@
       </c>
       <c r="R11" s="13"/>
       <c r="S11" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
@@ -4705,7 +4727,7 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -4752,7 +4774,7 @@
       </c>
       <c r="R13" s="13"/>
       <c r="S13" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -4799,7 +4821,7 @@
       </c>
       <c r="R14" s="13"/>
       <c r="S14" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -4846,7 +4868,7 @@
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -4893,7 +4915,7 @@
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
@@ -4901,10 +4923,10 @@
         <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -4926,21 +4948,21 @@
         <v>3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>212</v>
       </c>
       <c r="R17" s="13"/>
       <c r="S17" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
@@ -4948,10 +4970,10 @@
         <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -4973,21 +4995,21 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>212</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
@@ -5034,7 +5056,7 @@
       </c>
       <c r="R19" s="13"/>
       <c r="S19" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
@@ -5081,7 +5103,7 @@
       </c>
       <c r="R20" s="13"/>
       <c r="S20" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
@@ -5128,7 +5150,7 @@
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
@@ -5175,7 +5197,7 @@
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
@@ -5222,7 +5244,7 @@
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -5269,7 +5291,7 @@
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -5316,7 +5338,7 @@
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -5363,7 +5385,7 @@
       </c>
       <c r="R26" s="13"/>
       <c r="S26" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
@@ -5410,7 +5432,7 @@
       </c>
       <c r="R27" s="13"/>
       <c r="S27" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -5457,7 +5479,7 @@
       </c>
       <c r="R28" s="13"/>
       <c r="S28" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -5504,7 +5526,7 @@
       </c>
       <c r="R29" s="13"/>
       <c r="S29" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
@@ -5551,7 +5573,7 @@
       </c>
       <c r="R30" s="13"/>
       <c r="S30" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
@@ -5598,7 +5620,7 @@
       </c>
       <c r="R31" s="13"/>
       <c r="S31" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
@@ -5645,7 +5667,7 @@
       </c>
       <c r="R32" s="13"/>
       <c r="S32" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
@@ -5692,7 +5714,7 @@
       </c>
       <c r="R33" s="13"/>
       <c r="S33" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
@@ -5739,7 +5761,7 @@
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
@@ -5786,7 +5808,7 @@
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
@@ -5833,7 +5855,7 @@
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
@@ -5880,7 +5902,7 @@
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
@@ -5927,7 +5949,7 @@
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
@@ -5974,7 +5996,7 @@
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
@@ -6021,7 +6043,7 @@
       </c>
       <c r="R40" s="13"/>
       <c r="S40" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
@@ -6068,7 +6090,7 @@
       </c>
       <c r="R41" s="13"/>
       <c r="S41" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
@@ -6115,7 +6137,7 @@
       </c>
       <c r="R42" s="13"/>
       <c r="S42" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -6129,14 +6151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6161,7 +6183,7 @@
         <v>181</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>182</v>
@@ -6188,16 +6210,16 @@
         <v>188</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P1" s="23" t="s">
         <v>189</v>
@@ -6209,7 +6231,7 @@
         <v>225</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -6220,7 +6242,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>178</v>
@@ -6247,10 +6269,10 @@
         <v>179</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>220</v>
@@ -6268,7 +6290,7 @@
         <v>201</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -6279,7 +6301,7 @@
         <v>191</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>192</v>
@@ -6306,10 +6328,10 @@
         <v>198</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>221</v>
@@ -6327,7 +6349,7 @@
         <v>226</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -6374,7 +6396,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R4" s="13"/>
       <c r="S4" s="17"/>
@@ -6387,7 +6409,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -6419,13 +6441,13 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="17"/>
@@ -6460,7 +6482,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L6" s="4">
         <v>1</v>
@@ -6634,7 +6656,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -6670,7 +6692,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="17"/>
@@ -6778,7 +6800,7 @@
         <v>43000010</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>21</v>
@@ -7058,10 +7080,10 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>213</v>
@@ -7122,11 +7144,11 @@
       <c r="A20">
         <v>43000017</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>241</v>
+      <c r="B20" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -7172,10 +7194,10 @@
         <v>43000018</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -7861,7 +7883,7 @@
         <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -7956,10 +7978,10 @@
         <v>43000034</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -7968,7 +7990,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G37" s="12">
         <v>11001003</v>
@@ -7981,7 +8003,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L37" s="4">
         <v>1</v>
@@ -7992,7 +8014,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>213</v>
@@ -8005,10 +8027,10 @@
         <v>43000035</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -8030,7 +8052,7 @@
         <v>3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L38" s="4">
         <v>1</v>
@@ -8041,7 +8063,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>213</v>
@@ -8054,10 +8076,10 @@
         <v>43000036</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -8079,7 +8101,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L39" s="4">
         <v>1</v>
@@ -8090,7 +8112,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>213</v>
@@ -8103,10 +8125,10 @@
         <v>43000037</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -8128,7 +8150,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L40" s="4">
         <v>1</v>
@@ -8139,7 +8161,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>213</v>
@@ -8149,13 +8171,13 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>43001001</v>
+        <v>43000038</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -8170,39 +8192,88 @@
         <v>11001003</v>
       </c>
       <c r="H41" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L41" s="4">
         <v>1</v>
       </c>
       <c r="M41" s="4">
-        <v>20</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>305</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>299</v>
-      </c>
-      <c r="R41" s="13"/>
-      <c r="S41" s="17"/>
+        <v>313</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>43001001</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>11001003</v>
+      </c>
+      <c r="H42" s="4">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4">
+        <v>20</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>298</v>
+      </c>
+      <c r="R42" s="13"/>
+      <c r="S42" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="Q41">
-    <cfRule type="containsBlanks" dxfId="44" priority="1">
-      <formula>LEN(TRIM(Q41))=0</formula>
+  <conditionalFormatting sqref="Q42">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(Q42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8214,7 +8285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8247,7 +8318,7 @@
         <v>181</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>182</v>
@@ -8274,16 +8345,16 @@
         <v>188</v>
       </c>
       <c r="L1" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P1" s="26" t="s">
         <v>189</v>
@@ -8295,7 +8366,7 @@
         <v>223</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -8306,7 +8377,7 @@
         <v>179</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>178</v>
@@ -8333,10 +8404,10 @@
         <v>179</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>222</v>
@@ -8351,10 +8422,10 @@
         <v>209</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -8365,7 +8436,7 @@
         <v>191</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>192</v>
@@ -8392,10 +8463,10 @@
         <v>198</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>230</v>
@@ -8413,7 +8484,7 @@
         <v>224</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -8453,7 +8524,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="4" t="s">
@@ -8643,7 +8714,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="6" t="s">
@@ -8692,7 +8763,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="6" t="s">

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="320">
   <si>
     <t>老鼠</t>
   </si>
@@ -1079,6 +1079,21 @@
   <si>
     <t>海盗</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000010;0;0;51000010;2;2;51000010;0;4;51000009;7;2</t>
   </si>
 </sst>
 </file>
@@ -1314,6 +1329,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1944,13 +1960,6 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3112,6 +3121,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3732,62 +3748,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S42" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
-  <autoFilter ref="A3:S42" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S43" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="A3:S43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A4:Q46">
     <sortCondition ref="A3:A46"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Ename" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="World" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Deck" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Job" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Level" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AutoAddLevel" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Method" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Emethod" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="EpSlow" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="CardReduce" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RightMon" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PetMon" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Figue" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BattleMap" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DropItem" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="InRandomQuest" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Ename" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="World" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Deck" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Job" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Level" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AutoAddLevel" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Method" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Emethod" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="EpSlow" dataDxfId="29"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="CardReduce" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RightMon" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PetMon" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Figue" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BattleMap" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DropItem" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="InRandomQuest" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A3:S14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Ename" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="World" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Deck" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Job" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Level" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AutoAddLevel" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Method" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Emethod" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="EpSlow" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="CardReduce" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RightMon" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PetMon" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Figue" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="BattleMap" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="DropItem" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="InRandomQuest" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Ename" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="World" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Deck" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Job" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Level" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AutoAddLevel" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Method" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Emethod" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="EpSlow" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="CardReduce" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PetMon" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6152,13 +6168,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8269,10 +8285,61 @@
       <c r="R42" s="13"/>
       <c r="S42" s="17"/>
     </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>43001002</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="12">
+        <v>11001003</v>
+      </c>
+      <c r="H43" s="4">
+        <v>12</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
+      <c r="M43" s="4">
+        <v>20</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R43" s="13"/>
+      <c r="S43" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="44" priority="1">
       <formula>LEN(TRIM(Q42))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="321">
   <si>
     <t>老鼠</t>
   </si>
@@ -1094,12 +1094,16 @@
   </si>
   <si>
     <t>51000010;0;0;51000010;2;2;51000010;0;4;51000009;7;2</t>
+  </si>
+  <si>
+    <t>hydra</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3717,93 +3721,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
-  <autoFilter ref="A3:S42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
+  <autoFilter ref="A3:S42"/>
   <sortState ref="A4:Q52">
     <sortCondition ref="A3:A52"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="62"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Ename" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="World" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Deck" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Job" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Level" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AutoAddLevel" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Method" dataDxfId="54"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Emethod" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="EpSlow" dataDxfId="52"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="CardReduce" dataDxfId="51"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="RightMon" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PetMon" dataDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Figue" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BattleMap" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DropItem" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="InRandomQuest" dataDxfId="45"/>
+    <tableColumn id="1" name="Id" dataDxfId="63"/>
+    <tableColumn id="2" name="Name" dataDxfId="62"/>
+    <tableColumn id="18" name="Ename" dataDxfId="61"/>
+    <tableColumn id="3" name="Type" dataDxfId="60"/>
+    <tableColumn id="6" name="World" dataDxfId="59"/>
+    <tableColumn id="7" name="Deck" dataDxfId="58"/>
+    <tableColumn id="10" name="Job" dataDxfId="57"/>
+    <tableColumn id="11" name="Level" dataDxfId="56"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="55"/>
+    <tableColumn id="13" name="Method" dataDxfId="54"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="53"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="52"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="51"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="50"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="49"/>
+    <tableColumn id="17" name="Figue" dataDxfId="48"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="47"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="46"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S43" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A3:S43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S43" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="A3:S43"/>
   <sortState ref="A4:Q46">
     <sortCondition ref="A3:A46"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Ename" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="World" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Deck" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Job" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Level" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AutoAddLevel" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Method" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Emethod" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="EpSlow" dataDxfId="29"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="CardReduce" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RightMon" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PetMon" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Figue" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BattleMap" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DropItem" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="InRandomQuest" dataDxfId="22"/>
+    <tableColumn id="1" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" name="Name" dataDxfId="39"/>
+    <tableColumn id="18" name="Ename" dataDxfId="38"/>
+    <tableColumn id="3" name="Type" dataDxfId="37"/>
+    <tableColumn id="6" name="World" dataDxfId="36"/>
+    <tableColumn id="7" name="Deck" dataDxfId="35"/>
+    <tableColumn id="10" name="Job" dataDxfId="34"/>
+    <tableColumn id="11" name="Level" dataDxfId="33"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
+    <tableColumn id="13" name="Method" dataDxfId="31"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
+    <tableColumn id="17" name="Figue" dataDxfId="25"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A3:S14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A3:S14"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Ename" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="World" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Deck" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Job" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Level" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AutoAddLevel" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Method" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Emethod" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="EpSlow" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="CardReduce" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PetMon" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="DropItem" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="InRandomQuest" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" name="Name" dataDxfId="17"/>
+    <tableColumn id="18" name="Ename" dataDxfId="16"/>
+    <tableColumn id="3" name="Type" dataDxfId="15"/>
+    <tableColumn id="6" name="World" dataDxfId="14"/>
+    <tableColumn id="7" name="Deck" dataDxfId="13"/>
+    <tableColumn id="10" name="Job" dataDxfId="12"/>
+    <tableColumn id="11" name="Level" dataDxfId="11"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
+    <tableColumn id="13" name="Method" dataDxfId="9"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
+    <tableColumn id="9" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4129,7 +4133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6167,14 +6171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N43" sqref="N43"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7748,11 +7752,11 @@
       <c r="A32">
         <v>43000029</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>54</v>
+        <v>320</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -7767,7 +7771,7 @@
         <v>11001003</v>
       </c>
       <c r="H32" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
@@ -8352,7 +8356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="325">
   <si>
     <t>老鼠</t>
   </si>
@@ -1097,13 +1097,29 @@
   </si>
   <si>
     <t>hydra</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>穷奇</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiongqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicorn</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1830,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1918,6 +1934,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1964,6 +1983,13 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3125,13 +3151,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3721,93 +3740,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
-  <autoFilter ref="A3:S42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
+  <autoFilter ref="A3:S42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A4:Q52">
     <sortCondition ref="A3:A52"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="63"/>
-    <tableColumn id="2" name="Name" dataDxfId="62"/>
-    <tableColumn id="18" name="Ename" dataDxfId="61"/>
-    <tableColumn id="3" name="Type" dataDxfId="60"/>
-    <tableColumn id="6" name="World" dataDxfId="59"/>
-    <tableColumn id="7" name="Deck" dataDxfId="58"/>
-    <tableColumn id="10" name="Job" dataDxfId="57"/>
-    <tableColumn id="11" name="Level" dataDxfId="56"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="55"/>
-    <tableColumn id="13" name="Method" dataDxfId="54"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="53"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="52"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="51"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="50"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="49"/>
-    <tableColumn id="17" name="Figue" dataDxfId="48"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="47"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="46"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="62"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Ename" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="World" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Deck" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Job" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Level" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AutoAddLevel" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Method" dataDxfId="54"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Emethod" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="EpSlow" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="CardReduce" dataDxfId="51"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="RightMon" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PetMon" dataDxfId="49"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Figue" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BattleMap" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DropItem" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="InRandomQuest" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S43" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A3:S43"/>
-  <sortState ref="A4:Q46">
-    <sortCondition ref="A3:A46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S45" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
+  <autoFilter ref="A3:S45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState ref="A4:Q47">
+    <sortCondition ref="A3:A47"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" name="Name" dataDxfId="39"/>
-    <tableColumn id="18" name="Ename" dataDxfId="38"/>
-    <tableColumn id="3" name="Type" dataDxfId="37"/>
-    <tableColumn id="6" name="World" dataDxfId="36"/>
-    <tableColumn id="7" name="Deck" dataDxfId="35"/>
-    <tableColumn id="10" name="Job" dataDxfId="34"/>
-    <tableColumn id="11" name="Level" dataDxfId="33"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
-    <tableColumn id="13" name="Method" dataDxfId="31"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
-    <tableColumn id="17" name="Figue" dataDxfId="25"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Ename" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="World" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Deck" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Job" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Level" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AutoAddLevel" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Method" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Emethod" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="EpSlow" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="CardReduce" dataDxfId="29"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RightMon" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PetMon" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Figue" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BattleMap" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DropItem" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="InRandomQuest" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A3:S14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="A3:S14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" name="Name" dataDxfId="17"/>
-    <tableColumn id="18" name="Ename" dataDxfId="16"/>
-    <tableColumn id="3" name="Type" dataDxfId="15"/>
-    <tableColumn id="6" name="World" dataDxfId="14"/>
-    <tableColumn id="7" name="Deck" dataDxfId="13"/>
-    <tableColumn id="10" name="Job" dataDxfId="12"/>
-    <tableColumn id="11" name="Level" dataDxfId="11"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
-    <tableColumn id="13" name="Method" dataDxfId="9"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
-    <tableColumn id="9" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Ename" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="World" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Deck" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Job" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Level" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AutoAddLevel" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Method" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Emethod" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="EpSlow" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="CardReduce" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RightMon" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PetMon" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Figue" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="BattleMap" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="DropItem" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="InRandomQuest" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4133,7 +4152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6171,14 +6190,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="P44" sqref="P44:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8340,10 +8359,108 @@
       <c r="R43" s="13"/>
       <c r="S43" s="17"/>
     </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A44" s="27">
+        <v>43002001</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D44" s="27">
+        <v>0</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="29">
+        <v>11001003</v>
+      </c>
+      <c r="H44" s="27">
+        <v>7</v>
+      </c>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1</v>
+      </c>
+      <c r="M44" s="4">
+        <v>15</v>
+      </c>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A45" s="27">
+        <v>43002002</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" s="27">
+        <v>0</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="29">
+        <v>11001003</v>
+      </c>
+      <c r="H45" s="27">
+        <v>7</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="L45" s="4">
+        <v>1</v>
+      </c>
+      <c r="M45" s="4">
+        <v>15</v>
+      </c>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="containsBlanks" dxfId="44" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(Q42))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8356,7 +8473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="326">
   <si>
     <t>老鼠</t>
   </si>
@@ -1113,6 +1113,10 @@
   </si>
   <si>
     <t>unicorn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuloufashi</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1354,7 +1358,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1567,6 +1571,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1846,7 +1856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1937,6 +1947,12 @@
     <xf numFmtId="0" fontId="22" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1983,13 +1999,6 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3151,6 +3160,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3771,62 +3787,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S45" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S45" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A3:S45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A4:Q47">
     <sortCondition ref="A3:A47"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Ename" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="World" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Deck" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Job" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Level" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AutoAddLevel" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Method" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Emethod" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="EpSlow" dataDxfId="30"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="CardReduce" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RightMon" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PetMon" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Figue" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BattleMap" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DropItem" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="InRandomQuest" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Ename" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="World" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Deck" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Job" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Level" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AutoAddLevel" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Method" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Emethod" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="EpSlow" dataDxfId="29"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="CardReduce" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RightMon" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PetMon" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Figue" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BattleMap" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DropItem" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="InRandomQuest" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A3:S14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Ename" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="World" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Deck" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Job" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Level" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AutoAddLevel" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Method" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Emethod" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="EpSlow" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="CardReduce" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RightMon" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PetMon" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Figue" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="BattleMap" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="DropItem" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="InRandomQuest" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Ename" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="World" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Deck" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Job" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Level" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AutoAddLevel" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Method" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Emethod" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="EpSlow" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="CardReduce" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PetMon" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6194,10 +6210,10 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P44" sqref="P44:P45"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6248,10 +6264,10 @@
       <c r="K1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="30" t="s">
         <v>283</v>
       </c>
       <c r="N1" s="11" t="s">
@@ -6307,11 +6323,11 @@
       <c r="K2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>285</v>
+      <c r="M2" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>220</v>
@@ -6366,10 +6382,10 @@
       <c r="K3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="10" t="s">
         <v>287</v>
       </c>
       <c r="N3" s="5" t="s">
@@ -6622,7 +6638,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M8" s="4">
         <v>15</v>
@@ -6642,11 +6658,11 @@
       <c r="A9">
         <v>43000006</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6668,10 +6684,10 @@
         <v>3</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="L9" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="M9" s="4">
         <v>15</v>
@@ -8460,7 +8476,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="44" priority="1">
       <formula>LEN(TRIM(Q42))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -16,12 +16,12 @@
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="330">
   <si>
     <t>老鼠</t>
   </si>
@@ -1093,30 +1093,46 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>hydra</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>穷奇</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiongqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicorn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuloufashi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>thief</t>
+  </si>
+  <si>
+    <t>thief</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗贼头目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>51000010;0;0;51000010;2;2;51000010;0;4;51000009;7;2</t>
-  </si>
-  <si>
-    <t>hydra</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>独角兽</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>穷奇</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>qiongqi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>unicorn</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuloufashi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000031;7;1;51000258;7;3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3787,10 +3803,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S45" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A3:S45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState ref="A4:Q47">
-    <sortCondition ref="A3:A47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S46" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="A3:S46" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState ref="A4:Q48">
+    <sortCondition ref="A3:A48"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="40"/>
@@ -6207,13 +6223,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6662,7 +6678,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6684,7 +6700,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L9" s="4">
         <v>1.3</v>
@@ -7791,7 +7807,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -8363,7 +8379,7 @@
         <v>20</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4" t="s">
@@ -8376,49 +8392,51 @@
       <c r="S43" s="17"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A44" s="27">
-        <v>43002001</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D44" s="27">
+      <c r="A44">
+        <v>43001003</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D44" s="4">
         <v>0</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="27" t="s">
+      <c r="E44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="29">
+      <c r="G44" s="12">
         <v>11001003</v>
       </c>
-      <c r="H44" s="27">
-        <v>7</v>
+      <c r="H44" s="4">
+        <v>12</v>
       </c>
       <c r="I44" s="27"/>
-      <c r="J44" s="27" t="s">
+      <c r="J44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L44" s="4">
         <v>1</v>
       </c>
       <c r="M44" s="4">
-        <v>15</v>
-      </c>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="O44" s="4"/>
       <c r="P44" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q44" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>213</v>
       </c>
       <c r="R44" s="27"/>
@@ -8426,13 +8444,13 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" s="27">
-        <v>43002002</v>
+        <v>43002001</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>321</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D45" s="27">
         <v>0</v>
@@ -8454,7 +8472,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L45" s="4">
         <v>1</v>
@@ -8465,13 +8483,62 @@
       <c r="N45" s="27"/>
       <c r="O45" s="27"/>
       <c r="P45" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q45" s="27" t="s">
         <v>213</v>
       </c>
       <c r="R45" s="27"/>
       <c r="S45" s="27"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A46" s="27">
+        <v>43002002</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D46" s="27">
+        <v>0</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="29">
+        <v>11001003</v>
+      </c>
+      <c r="H46" s="27">
+        <v>7</v>
+      </c>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" s="4">
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
+        <v>15</v>
+      </c>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
     <sheet name="怪物" sheetId="1" r:id="rId2"/>
     <sheet name="特殊" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="334">
   <si>
     <t>老鼠</t>
   </si>
@@ -1120,26 +1120,42 @@
     <t>thief</t>
   </si>
   <si>
+    <t>盗贼头目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000010;0;0;51000010;2;2;51000010;0;4;51000009;7;2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>51000031;7;1;51000258;7;3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>thief</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>盗贼头目</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51000010;0;0;51000010;2;2;51000010;0;4;51000009;7;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>51000031;7;1;51000258;7;3</t>
+    <t>qiongqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicorn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wildking</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮王</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2014,7 +2030,28 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3760,6 +3797,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3772,93 +3877,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
-  <autoFilter ref="A3:S42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67">
+  <autoFilter ref="A3:S42"/>
   <sortState ref="A4:Q52">
     <sortCondition ref="A3:A52"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="62"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Ename" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="World" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Deck" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Job" dataDxfId="57"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Level" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AutoAddLevel" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Method" dataDxfId="54"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Emethod" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="EpSlow" dataDxfId="52"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="CardReduce" dataDxfId="51"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="RightMon" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PetMon" dataDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Figue" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BattleMap" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DropItem" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="InRandomQuest" dataDxfId="45"/>
+    <tableColumn id="1" name="Id" dataDxfId="66"/>
+    <tableColumn id="2" name="Name" dataDxfId="65"/>
+    <tableColumn id="18" name="Ename" dataDxfId="64"/>
+    <tableColumn id="3" name="Type" dataDxfId="63"/>
+    <tableColumn id="6" name="World" dataDxfId="62"/>
+    <tableColumn id="7" name="Deck" dataDxfId="61"/>
+    <tableColumn id="10" name="Job" dataDxfId="60"/>
+    <tableColumn id="11" name="Level" dataDxfId="59"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="58"/>
+    <tableColumn id="13" name="Method" dataDxfId="57"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="56"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="55"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="54"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="53"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="52"/>
+    <tableColumn id="17" name="Figue" dataDxfId="51"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="50"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="49"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A3:S46" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A3:S46" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S47" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+  <autoFilter ref="A3:S47"/>
   <sortState ref="A4:Q48">
     <sortCondition ref="A3:A48"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Ename" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="World" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Deck" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Job" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Level" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="AutoAddLevel" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Method" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Emethod" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="EpSlow" dataDxfId="29"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="CardReduce" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RightMon" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PetMon" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Figue" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BattleMap" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="DropItem" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="InRandomQuest" dataDxfId="22"/>
+    <tableColumn id="1" name="Id" dataDxfId="43"/>
+    <tableColumn id="2" name="Name" dataDxfId="42"/>
+    <tableColumn id="18" name="Ename" dataDxfId="41"/>
+    <tableColumn id="3" name="Type" dataDxfId="40"/>
+    <tableColumn id="6" name="World" dataDxfId="39"/>
+    <tableColumn id="7" name="Deck" dataDxfId="38"/>
+    <tableColumn id="10" name="Job" dataDxfId="37"/>
+    <tableColumn id="11" name="Level" dataDxfId="36"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="35"/>
+    <tableColumn id="13" name="Method" dataDxfId="34"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="33"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="32"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="31"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="30"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="29"/>
+    <tableColumn id="17" name="Figue" dataDxfId="28"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="27"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="26"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A3:S14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A3:S14"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Ename" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="World" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Deck" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Job" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Level" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="AutoAddLevel" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Method" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Emethod" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="EpSlow" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="CardReduce" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PetMon" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="DropItem" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="InRandomQuest" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="21"/>
+    <tableColumn id="2" name="Name" dataDxfId="20"/>
+    <tableColumn id="18" name="Ename" dataDxfId="19"/>
+    <tableColumn id="3" name="Type" dataDxfId="18"/>
+    <tableColumn id="6" name="World" dataDxfId="17"/>
+    <tableColumn id="7" name="Deck" dataDxfId="16"/>
+    <tableColumn id="10" name="Job" dataDxfId="15"/>
+    <tableColumn id="11" name="Level" dataDxfId="14"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="13"/>
+    <tableColumn id="13" name="Method" dataDxfId="12"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="11"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="10"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="9"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="8"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="7"/>
+    <tableColumn id="9" name="Figue" dataDxfId="6"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="5"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="4"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3872,7 +3977,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4184,7 +4289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6222,14 +6327,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
+      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8379,7 +8484,7 @@
         <v>20</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4" t="s">
@@ -8396,10 +8501,10 @@
         <v>43001003</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C44" s="12" t="s">
         <v>326</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -8430,7 +8535,7 @@
         <v>10</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="4" t="s">
@@ -8450,7 +8555,7 @@
         <v>321</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D45" s="27">
         <v>0</v>
@@ -8478,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N45" s="27"/>
       <c r="O45" s="27"/>
@@ -8499,7 +8604,7 @@
         <v>320</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D46" s="27">
         <v>0</v>
@@ -8527,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="M46" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" s="27"/>
@@ -8540,11 +8645,75 @@
       <c r="R46" s="27"/>
       <c r="S46" s="27"/>
     </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A47" s="27">
+        <v>43002003</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47" s="27">
+        <v>0</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="29">
+        <v>11001003</v>
+      </c>
+      <c r="H47" s="27">
+        <v>7</v>
+      </c>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1</v>
+      </c>
+      <c r="M47" s="4">
+        <v>10</v>
+      </c>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="containsBlanks" dxfId="44" priority="1">
+    <cfRule type="containsBlanks" dxfId="47" priority="4">
       <formula>LEN(TRIM(Q42))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(C47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(K47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P47">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(P47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8556,7 +8725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1148,7 +1148,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>蛮王</t>
+    <t>泰达米尔</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2031,27 +2031,6 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="70">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3220,6 +3199,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3797,74 +3797,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3908,62 +3840,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S47" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S47" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A3:S47"/>
   <sortState ref="A4:Q48">
     <sortCondition ref="A3:A48"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="43"/>
-    <tableColumn id="2" name="Name" dataDxfId="42"/>
-    <tableColumn id="18" name="Ename" dataDxfId="41"/>
-    <tableColumn id="3" name="Type" dataDxfId="40"/>
-    <tableColumn id="6" name="World" dataDxfId="39"/>
-    <tableColumn id="7" name="Deck" dataDxfId="38"/>
-    <tableColumn id="10" name="Job" dataDxfId="37"/>
-    <tableColumn id="11" name="Level" dataDxfId="36"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="35"/>
-    <tableColumn id="13" name="Method" dataDxfId="34"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="33"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="32"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="31"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="30"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="29"/>
-    <tableColumn id="17" name="Figue" dataDxfId="28"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="27"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="26"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="25"/>
+    <tableColumn id="1" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" name="Name" dataDxfId="39"/>
+    <tableColumn id="18" name="Ename" dataDxfId="38"/>
+    <tableColumn id="3" name="Type" dataDxfId="37"/>
+    <tableColumn id="6" name="World" dataDxfId="36"/>
+    <tableColumn id="7" name="Deck" dataDxfId="35"/>
+    <tableColumn id="10" name="Job" dataDxfId="34"/>
+    <tableColumn id="11" name="Level" dataDxfId="33"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
+    <tableColumn id="13" name="Method" dataDxfId="31"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
+    <tableColumn id="17" name="Figue" dataDxfId="25"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A3:S14"/>
   <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="21"/>
-    <tableColumn id="2" name="Name" dataDxfId="20"/>
-    <tableColumn id="18" name="Ename" dataDxfId="19"/>
-    <tableColumn id="3" name="Type" dataDxfId="18"/>
-    <tableColumn id="6" name="World" dataDxfId="17"/>
-    <tableColumn id="7" name="Deck" dataDxfId="16"/>
-    <tableColumn id="10" name="Job" dataDxfId="15"/>
-    <tableColumn id="11" name="Level" dataDxfId="14"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="13"/>
-    <tableColumn id="13" name="Method" dataDxfId="12"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="11"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="10"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="9"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="8"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="7"/>
-    <tableColumn id="9" name="Figue" dataDxfId="6"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="5"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="4"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="3"/>
+    <tableColumn id="1" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" name="Name" dataDxfId="17"/>
+    <tableColumn id="18" name="Ename" dataDxfId="16"/>
+    <tableColumn id="3" name="Type" dataDxfId="15"/>
+    <tableColumn id="6" name="World" dataDxfId="14"/>
+    <tableColumn id="7" name="Deck" dataDxfId="13"/>
+    <tableColumn id="10" name="Job" dataDxfId="12"/>
+    <tableColumn id="11" name="Level" dataDxfId="11"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
+    <tableColumn id="13" name="Method" dataDxfId="9"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
+    <tableColumn id="9" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3977,7 +3909,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6334,7 +6266,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8702,17 +8634,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="46" priority="3">
       <formula>LEN(TRIM(C47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="45" priority="2">
       <formula>LEN(TRIM(K47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="44" priority="1">
       <formula>LEN(TRIM(P47))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="340">
   <si>
     <t>老鼠</t>
   </si>
@@ -1149,6 +1149,27 @@
   </si>
   <si>
     <t>泰达米尔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔力克</t>
+  </si>
+  <si>
+    <t>马道克</t>
+  </si>
+  <si>
+    <t>科力克</t>
+  </si>
+  <si>
+    <t>madawc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>korlic</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1888,7 +1909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1985,6 +2006,9 @@
     <xf numFmtId="0" fontId="19" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2030,7 +2054,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="73">
     <dxf>
       <font>
         <b val="0"/>
@@ -3220,6 +3244,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3809,39 +3854,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" tableBorderDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" tableBorderDxfId="70">
   <autoFilter ref="A3:S42"/>
   <sortState ref="A4:Q52">
     <sortCondition ref="A3:A52"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="66"/>
-    <tableColumn id="2" name="Name" dataDxfId="65"/>
-    <tableColumn id="18" name="Ename" dataDxfId="64"/>
-    <tableColumn id="3" name="Type" dataDxfId="63"/>
-    <tableColumn id="6" name="World" dataDxfId="62"/>
-    <tableColumn id="7" name="Deck" dataDxfId="61"/>
-    <tableColumn id="10" name="Job" dataDxfId="60"/>
-    <tableColumn id="11" name="Level" dataDxfId="59"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="58"/>
-    <tableColumn id="13" name="Method" dataDxfId="57"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="56"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="55"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="54"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="53"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="52"/>
-    <tableColumn id="17" name="Figue" dataDxfId="51"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="50"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="49"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="48"/>
+    <tableColumn id="1" name="Id" dataDxfId="69"/>
+    <tableColumn id="2" name="Name" dataDxfId="68"/>
+    <tableColumn id="18" name="Ename" dataDxfId="67"/>
+    <tableColumn id="3" name="Type" dataDxfId="66"/>
+    <tableColumn id="6" name="World" dataDxfId="65"/>
+    <tableColumn id="7" name="Deck" dataDxfId="64"/>
+    <tableColumn id="10" name="Job" dataDxfId="63"/>
+    <tableColumn id="11" name="Level" dataDxfId="62"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="61"/>
+    <tableColumn id="13" name="Method" dataDxfId="60"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="59"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="58"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="57"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="56"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="55"/>
+    <tableColumn id="17" name="Figue" dataDxfId="54"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="53"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="52"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S47" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A3:S47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S50" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="A3:S50"/>
   <sortState ref="A4:Q48">
     <sortCondition ref="A3:A48"/>
   </sortState>
@@ -6260,13 +6305,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8626,26 +8671,188 @@
       <c r="R47" s="27"/>
       <c r="S47" s="27"/>
     </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A48" s="27">
+        <v>43002004</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D48" s="27">
+        <v>0</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="29">
+        <v>11001003</v>
+      </c>
+      <c r="H48" s="27">
+        <v>7</v>
+      </c>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1</v>
+      </c>
+      <c r="M48" s="4">
+        <v>10</v>
+      </c>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A49" s="27">
+        <v>43002005</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="29">
+        <v>11001003</v>
+      </c>
+      <c r="H49" s="27">
+        <v>7</v>
+      </c>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4">
+        <v>10</v>
+      </c>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A50" s="27">
+        <v>43002006</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="27">
+        <v>0</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="29">
+        <v>11001003</v>
+      </c>
+      <c r="H50" s="27">
+        <v>7</v>
+      </c>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50" s="4">
+        <v>10</v>
+      </c>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="containsBlanks" dxfId="47" priority="4">
+    <cfRule type="containsBlanks" dxfId="50" priority="7">
       <formula>LEN(TRIM(Q42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="containsBlanks" dxfId="46" priority="3">
+    <cfRule type="containsBlanks" dxfId="49" priority="6">
       <formula>LEN(TRIM(C47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="containsBlanks" dxfId="45" priority="2">
+    <cfRule type="containsBlanks" dxfId="48" priority="5">
       <formula>LEN(TRIM(K47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
+    <cfRule type="containsBlanks" dxfId="47" priority="4">
+      <formula>LEN(TRIM(P47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C50">
+    <cfRule type="containsBlanks" dxfId="46" priority="3">
+      <formula>LEN(TRIM(C48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:K50">
+    <cfRule type="containsBlanks" dxfId="45" priority="2">
+      <formula>LEN(TRIM(K48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P48:P50">
     <cfRule type="containsBlanks" dxfId="44" priority="1">
-      <formula>LEN(TRIM(P47))=0</formula>
+      <formula>LEN(TRIM(P48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="345">
   <si>
     <t>老鼠</t>
   </si>
@@ -1170,6 +1170,24 @@
   </si>
   <si>
     <t>korlic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王塔id</t>
+  </si>
+  <si>
+    <t>王塔id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingTowerId</t>
+  </si>
+  <si>
+    <t>KingTowerId</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2054,7 +2072,133 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3216,55 +3360,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3854,93 +3949,96 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" tableBorderDxfId="70">
-  <autoFilter ref="A3:S42"/>
-  <sortState ref="A4:Q52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:T42" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
+  <autoFilter ref="A3:T42"/>
+  <sortState ref="A4:R52">
     <sortCondition ref="A3:A52"/>
   </sortState>
-  <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="69"/>
-    <tableColumn id="2" name="Name" dataDxfId="68"/>
-    <tableColumn id="18" name="Ename" dataDxfId="67"/>
-    <tableColumn id="3" name="Type" dataDxfId="66"/>
-    <tableColumn id="6" name="World" dataDxfId="65"/>
-    <tableColumn id="7" name="Deck" dataDxfId="64"/>
-    <tableColumn id="10" name="Job" dataDxfId="63"/>
-    <tableColumn id="11" name="Level" dataDxfId="62"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="61"/>
-    <tableColumn id="13" name="Method" dataDxfId="60"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="59"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="58"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="57"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="56"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="55"/>
-    <tableColumn id="17" name="Figue" dataDxfId="54"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="53"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="52"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="51"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Id" dataDxfId="72"/>
+    <tableColumn id="2" name="Name" dataDxfId="71"/>
+    <tableColumn id="18" name="Ename" dataDxfId="70"/>
+    <tableColumn id="3" name="Type" dataDxfId="69"/>
+    <tableColumn id="6" name="World" dataDxfId="68"/>
+    <tableColumn id="7" name="Deck" dataDxfId="67"/>
+    <tableColumn id="10" name="Job" dataDxfId="66"/>
+    <tableColumn id="11" name="Level" dataDxfId="65"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="64"/>
+    <tableColumn id="13" name="Method" dataDxfId="63"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="62"/>
+    <tableColumn id="20" name="KingTowerId" dataDxfId="8"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="61"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="60"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="59"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="58"/>
+    <tableColumn id="17" name="Figue" dataDxfId="57"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="56"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="55"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S50" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A3:S50"/>
-  <sortState ref="A4:Q48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:T50" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
+  <autoFilter ref="A3:T50"/>
+  <sortState ref="A4:R48">
     <sortCondition ref="A3:A48"/>
   </sortState>
-  <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" name="Name" dataDxfId="39"/>
-    <tableColumn id="18" name="Ename" dataDxfId="38"/>
-    <tableColumn id="3" name="Type" dataDxfId="37"/>
-    <tableColumn id="6" name="World" dataDxfId="36"/>
-    <tableColumn id="7" name="Deck" dataDxfId="35"/>
-    <tableColumn id="10" name="Job" dataDxfId="34"/>
-    <tableColumn id="11" name="Level" dataDxfId="33"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="32"/>
-    <tableColumn id="13" name="Method" dataDxfId="31"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="30"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="29"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="28"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="27"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="26"/>
-    <tableColumn id="17" name="Figue" dataDxfId="25"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="24"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="23"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="22"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Id" dataDxfId="50"/>
+    <tableColumn id="2" name="Name" dataDxfId="49"/>
+    <tableColumn id="18" name="Ename" dataDxfId="48"/>
+    <tableColumn id="3" name="Type" dataDxfId="47"/>
+    <tableColumn id="6" name="World" dataDxfId="46"/>
+    <tableColumn id="7" name="Deck" dataDxfId="45"/>
+    <tableColumn id="10" name="Job" dataDxfId="44"/>
+    <tableColumn id="11" name="Level" dataDxfId="43"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="42"/>
+    <tableColumn id="13" name="Method" dataDxfId="41"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="40"/>
+    <tableColumn id="20" name="KingTowerId" dataDxfId="9"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="39"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="38"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="37"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="36"/>
+    <tableColumn id="17" name="Figue" dataDxfId="35"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="34"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="33"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
-  <autoFilter ref="A3:S14"/>
-  <sortState ref="A4:Q83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:T14" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="A3:T14"/>
+  <sortState ref="A4:R83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="19">
-    <tableColumn id="1" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" name="Name" dataDxfId="17"/>
-    <tableColumn id="18" name="Ename" dataDxfId="16"/>
-    <tableColumn id="3" name="Type" dataDxfId="15"/>
-    <tableColumn id="6" name="World" dataDxfId="14"/>
-    <tableColumn id="7" name="Deck" dataDxfId="13"/>
-    <tableColumn id="10" name="Job" dataDxfId="12"/>
-    <tableColumn id="11" name="Level" dataDxfId="11"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="10"/>
-    <tableColumn id="13" name="Method" dataDxfId="9"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="8"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
-    <tableColumn id="9" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Id" dataDxfId="28"/>
+    <tableColumn id="2" name="Name" dataDxfId="27"/>
+    <tableColumn id="18" name="Ename" dataDxfId="26"/>
+    <tableColumn id="3" name="Type" dataDxfId="25"/>
+    <tableColumn id="6" name="World" dataDxfId="24"/>
+    <tableColumn id="7" name="Deck" dataDxfId="23"/>
+    <tableColumn id="10" name="Job" dataDxfId="22"/>
+    <tableColumn id="11" name="Level" dataDxfId="21"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="20"/>
+    <tableColumn id="13" name="Method" dataDxfId="19"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="18"/>
+    <tableColumn id="20" name="KingTowerId" dataDxfId="0"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="17"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="16"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="15"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="14"/>
+    <tableColumn id="9" name="Figue" dataDxfId="13"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="12"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="11"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4267,13 +4365,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4283,13 +4381,13 @@
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="9" width="6.25" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="15" width="5.875" customWidth="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1"/>
-    <col min="18" max="18" width="9.5" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="16" width="5.875" customWidth="1"/>
+    <col min="18" max="18" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>180</v>
       </c>
@@ -4324,31 +4422,34 @@
         <v>188</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>178</v>
       </c>
@@ -4383,31 +4484,34 @@
         <v>179</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>190</v>
       </c>
@@ -4442,31 +4546,34 @@
         <v>198</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43020101</v>
       </c>
@@ -4498,20 +4605,23 @@
       <c r="K4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>51013002</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="19"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S4" s="13"/>
+      <c r="T4" s="19"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43020102</v>
       </c>
@@ -4547,16 +4657,17 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="19"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S5" s="13"/>
+      <c r="T5" s="19"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43020103</v>
       </c>
@@ -4592,18 +4703,19 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="13"/>
+      <c r="T6" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43020104</v>
       </c>
@@ -4639,16 +4751,17 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="19"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S7" s="13"/>
+      <c r="T7" s="19"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43020105</v>
       </c>
@@ -4684,18 +4797,19 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="13"/>
+      <c r="T8" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43020106</v>
       </c>
@@ -4731,18 +4845,19 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="13"/>
+      <c r="T9" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43020107</v>
       </c>
@@ -4778,18 +4893,19 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="19" t="s">
+      <c r="S10" s="13"/>
+      <c r="T10" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43020108</v>
       </c>
@@ -4825,18 +4941,19 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="13"/>
+      <c r="T11" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43020109</v>
       </c>
@@ -4872,18 +4989,19 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="13"/>
+      <c r="T12" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43020110</v>
       </c>
@@ -4919,18 +5037,19 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="13"/>
+      <c r="T13" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43020201</v>
       </c>
@@ -4966,18 +5085,19 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="13"/>
+      <c r="T14" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43020202</v>
       </c>
@@ -5013,18 +5133,19 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="19" t="s">
+      <c r="S15" s="13"/>
+      <c r="T15" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43020203</v>
       </c>
@@ -5060,18 +5181,19 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="13"/>
+      <c r="T16" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43020204</v>
       </c>
@@ -5107,18 +5229,19 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="19" t="s">
+      <c r="S17" s="13"/>
+      <c r="T17" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43020205</v>
       </c>
@@ -5154,18 +5277,19 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="13"/>
+      <c r="T18" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43020301</v>
       </c>
@@ -5201,18 +5325,19 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="19" t="s">
+      <c r="S19" s="13"/>
+      <c r="T19" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43020302</v>
       </c>
@@ -5248,18 +5373,19 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="19" t="s">
+      <c r="S20" s="13"/>
+      <c r="T20" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43020303</v>
       </c>
@@ -5295,18 +5421,19 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="19" t="s">
+      <c r="S21" s="13"/>
+      <c r="T21" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43020304</v>
       </c>
@@ -5342,18 +5469,19 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="19" t="s">
+      <c r="S22" s="13"/>
+      <c r="T22" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43020305</v>
       </c>
@@ -5389,18 +5517,19 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="19" t="s">
+      <c r="S23" s="13"/>
+      <c r="T23" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43020306</v>
       </c>
@@ -5436,18 +5565,19 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="19" t="s">
+      <c r="S24" s="13"/>
+      <c r="T24" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43020307</v>
       </c>
@@ -5483,18 +5613,19 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R25" s="13"/>
-      <c r="S25" s="19" t="s">
+      <c r="S25" s="13"/>
+      <c r="T25" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43020308</v>
       </c>
@@ -5530,18 +5661,19 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R26" s="13"/>
-      <c r="S26" s="19" t="s">
+      <c r="S26" s="13"/>
+      <c r="T26" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43020309</v>
       </c>
@@ -5577,18 +5709,19 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R27" s="13"/>
-      <c r="S27" s="19" t="s">
+      <c r="S27" s="13"/>
+      <c r="T27" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43020310</v>
       </c>
@@ -5624,18 +5757,19 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R28" s="13"/>
-      <c r="S28" s="19" t="s">
+      <c r="S28" s="13"/>
+      <c r="T28" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43020311</v>
       </c>
@@ -5671,18 +5805,19 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R29" s="13"/>
-      <c r="S29" s="19" t="s">
+      <c r="S29" s="13"/>
+      <c r="T29" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43020312</v>
       </c>
@@ -5718,18 +5853,19 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R30" s="13"/>
-      <c r="S30" s="19" t="s">
+      <c r="S30" s="13"/>
+      <c r="T30" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43020401</v>
       </c>
@@ -5765,18 +5901,19 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R31" s="13"/>
-      <c r="S31" s="19" t="s">
+      <c r="S31" s="13"/>
+      <c r="T31" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43020402</v>
       </c>
@@ -5812,18 +5949,19 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R32" s="13"/>
-      <c r="S32" s="19" t="s">
+      <c r="S32" s="13"/>
+      <c r="T32" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43020403</v>
       </c>
@@ -5859,18 +5997,19 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4" t="s">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R33" s="13"/>
-      <c r="S33" s="19" t="s">
+      <c r="S33" s="13"/>
+      <c r="T33" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43020404</v>
       </c>
@@ -5906,18 +6045,19 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="4" t="s">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R34" s="13"/>
-      <c r="S34" s="19" t="s">
+      <c r="S34" s="13"/>
+      <c r="T34" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43020405</v>
       </c>
@@ -5953,18 +6093,19 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R35" s="13"/>
-      <c r="S35" s="19" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43020406</v>
       </c>
@@ -6000,18 +6141,19 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4" t="s">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R36" s="13"/>
-      <c r="S36" s="19" t="s">
+      <c r="S36" s="13"/>
+      <c r="T36" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43020407</v>
       </c>
@@ -6047,18 +6189,19 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4" t="s">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R37" s="13"/>
-      <c r="S37" s="19" t="s">
+      <c r="S37" s="13"/>
+      <c r="T37" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43020408</v>
       </c>
@@ -6094,18 +6237,19 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="4" t="s">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="19" t="s">
+      <c r="S38" s="13"/>
+      <c r="T38" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43020501</v>
       </c>
@@ -6141,18 +6285,19 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4" t="s">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R39" s="13"/>
-      <c r="S39" s="19" t="s">
+      <c r="S39" s="13"/>
+      <c r="T39" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43020502</v>
       </c>
@@ -6188,18 +6333,19 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="4" t="s">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R40" s="13"/>
-      <c r="S40" s="19" t="s">
+      <c r="S40" s="13"/>
+      <c r="T40" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43020503</v>
       </c>
@@ -6235,18 +6381,19 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="4" t="s">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="R41" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R41" s="13"/>
-      <c r="S41" s="19" t="s">
+      <c r="S41" s="13"/>
+      <c r="T41" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43020504</v>
       </c>
@@ -6282,14 +6429,15 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="4" t="s">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="R42" s="13"/>
-      <c r="S42" s="19" t="s">
+      <c r="S42" s="13"/>
+      <c r="T42" s="19" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6305,13 +6453,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6321,14 +6469,14 @@
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="9" width="6.25" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="13" width="6.125" customWidth="1"/>
-    <col min="14" max="15" width="27.125" customWidth="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="14" width="6.125" customWidth="1"/>
+    <col min="15" max="16" width="27.125" customWidth="1"/>
+    <col min="18" max="18" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>180</v>
       </c>
@@ -6362,32 +6510,35 @@
       <c r="K1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>178</v>
       </c>
@@ -6421,32 +6572,35 @@
       <c r="K2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>190</v>
       </c>
@@ -6480,32 +6634,35 @@
       <c r="K3" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43000001</v>
       </c>
@@ -6537,24 +6694,25 @@
       <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>15</v>
       </c>
-      <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S4" s="13"/>
+      <c r="T4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43000002</v>
       </c>
@@ -6586,26 +6744,27 @@
       <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>1.5</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>18</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S5" s="13"/>
+      <c r="T5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43000003</v>
       </c>
@@ -6637,24 +6796,25 @@
       <c r="K6" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
         <v>15</v>
       </c>
-      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S6" s="13"/>
+      <c r="T6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43000004</v>
       </c>
@@ -6686,24 +6846,25 @@
       <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="4">
-        <v>1</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
         <v>15</v>
       </c>
-      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="17"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S7" s="13"/>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43000005</v>
       </c>
@@ -6735,24 +6896,25 @@
       <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
         <v>1.5</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>15</v>
       </c>
-      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S8" s="13"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43000006</v>
       </c>
@@ -6784,24 +6946,25 @@
       <c r="K9" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
         <v>1.3</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>15</v>
       </c>
-      <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S9" s="13"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43000007</v>
       </c>
@@ -6833,24 +6996,25 @@
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <v>1.5</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>18</v>
       </c>
-      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S10" s="13"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43000008</v>
       </c>
@@ -6882,24 +7046,25 @@
       <c r="K11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
         <v>15</v>
       </c>
-      <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S11" s="13"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43000009</v>
       </c>
@@ -6931,24 +7096,25 @@
       <c r="K12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
         <v>15</v>
       </c>
-      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S12" s="13"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43000010</v>
       </c>
@@ -6980,24 +7146,25 @@
       <c r="K13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
         <v>15</v>
       </c>
-      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="17"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S13" s="13"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43000011</v>
       </c>
@@ -7029,24 +7196,25 @@
       <c r="K14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="4">
-        <v>1</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
         <v>15</v>
       </c>
-      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="17"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S14" s="13"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43000012</v>
       </c>
@@ -7078,24 +7246,25 @@
       <c r="K15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
         <v>15</v>
       </c>
-      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="17"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S15" s="13"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43000013</v>
       </c>
@@ -7127,24 +7296,25 @@
       <c r="K16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
         <v>15</v>
       </c>
-      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S16" s="13"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43000014</v>
       </c>
@@ -7176,24 +7346,25 @@
       <c r="K17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="4">
-        <v>1</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
         <v>15</v>
       </c>
-      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="17"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S17" s="13"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43000015</v>
       </c>
@@ -7225,26 +7396,27 @@
       <c r="K18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="4">
-        <v>1</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
         <v>15</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="4"/>
+      <c r="P18" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="17"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S18" s="13"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43000016</v>
       </c>
@@ -7276,24 +7448,25 @@
       <c r="K19" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L19" s="4">
-        <v>1</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
         <v>15</v>
       </c>
-      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="4" t="s">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="17"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S19" s="13"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43000017</v>
       </c>
@@ -7325,24 +7498,25 @@
       <c r="K20" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="4">
-        <v>1</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
         <v>15</v>
       </c>
-      <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="17"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S20" s="13"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43000018</v>
       </c>
@@ -7374,24 +7548,25 @@
       <c r="K21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="4">
-        <v>1</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
         <v>15</v>
       </c>
-      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="4" t="s">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="17"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S21" s="13"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43000019</v>
       </c>
@@ -7423,24 +7598,25 @@
       <c r="K22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="4">
-        <v>1</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
         <v>15</v>
       </c>
-      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4" t="s">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="17"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S22" s="13"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43000020</v>
       </c>
@@ -7472,24 +7648,25 @@
       <c r="K23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="4">
-        <v>1</v>
-      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
         <v>15</v>
       </c>
-      <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4" t="s">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="17"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S23" s="13"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43000021</v>
       </c>
@@ -7521,24 +7698,25 @@
       <c r="K24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="4">
-        <v>1</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
         <v>15</v>
       </c>
-      <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="4" t="s">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="17"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S24" s="13"/>
+      <c r="T24" s="17"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43000022</v>
       </c>
@@ -7570,24 +7748,25 @@
       <c r="K25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="4">
-        <v>1</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
         <v>15</v>
       </c>
-      <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4" t="s">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R25" s="13"/>
-      <c r="S25" s="17"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S25" s="13"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43000023</v>
       </c>
@@ -7619,24 +7798,25 @@
       <c r="K26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="4">
-        <v>1</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4">
         <v>15</v>
       </c>
-      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4" t="s">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R26" s="13"/>
-      <c r="S26" s="17"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S26" s="13"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43000024</v>
       </c>
@@ -7668,24 +7848,25 @@
       <c r="K27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="4">
-        <v>1</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
         <v>15</v>
       </c>
-      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4" t="s">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R27" s="13"/>
-      <c r="S27" s="17"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S27" s="13"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43000025</v>
       </c>
@@ -7717,24 +7898,25 @@
       <c r="K28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="4">
-        <v>1</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="4">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4">
         <v>15</v>
       </c>
-      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="4" t="s">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R28" s="13"/>
-      <c r="S28" s="17"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S28" s="13"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43000026</v>
       </c>
@@ -7766,24 +7948,25 @@
       <c r="K29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="4">
-        <v>1</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4">
         <v>15</v>
       </c>
-      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R29" s="13"/>
-      <c r="S29" s="17"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S29" s="13"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43000027</v>
       </c>
@@ -7815,24 +7998,25 @@
       <c r="K30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L30" s="4">
-        <v>1</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="4">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4">
         <v>15</v>
       </c>
-      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4" t="s">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R30" s="13"/>
-      <c r="S30" s="17"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S30" s="13"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43000028</v>
       </c>
@@ -7864,24 +8048,25 @@
       <c r="K31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="4">
-        <v>1</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="4">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4">
         <v>15</v>
       </c>
-      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4" t="s">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R31" s="13"/>
-      <c r="S31" s="17"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S31" s="13"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43000029</v>
       </c>
@@ -7913,24 +8098,25 @@
       <c r="K32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="4">
-        <v>1</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="4">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4">
         <v>15</v>
       </c>
-      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R32" s="13"/>
-      <c r="S32" s="17"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S32" s="13"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43000030</v>
       </c>
@@ -7962,24 +8148,25 @@
       <c r="K33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L33" s="4">
-        <v>1</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
         <v>15</v>
       </c>
-      <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4" t="s">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R33" s="13"/>
-      <c r="S33" s="17"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S33" s="13"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>43000031</v>
       </c>
@@ -8011,24 +8198,25 @@
       <c r="K34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="4">
-        <v>1</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="4">
+        <v>1</v>
+      </c>
+      <c r="N34" s="4">
         <v>15</v>
       </c>
-      <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="4" t="s">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R34" s="13"/>
-      <c r="S34" s="17"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S34" s="13"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>43000032</v>
       </c>
@@ -8060,24 +8248,25 @@
       <c r="K35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L35" s="4">
-        <v>1</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4">
         <v>15</v>
       </c>
-      <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="4" t="s">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R35" s="13"/>
-      <c r="S35" s="17"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S35" s="13"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>43000033</v>
       </c>
@@ -8109,24 +8298,25 @@
       <c r="K36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="4">
-        <v>1</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4">
         <v>15</v>
       </c>
-      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4" t="s">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R36" s="13"/>
-      <c r="S36" s="17"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S36" s="13"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>43000034</v>
       </c>
@@ -8158,24 +8348,25 @@
       <c r="K37" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L37" s="4">
-        <v>1</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="4">
+        <v>1</v>
+      </c>
+      <c r="N37" s="4">
         <v>15</v>
       </c>
-      <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="4" t="s">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R37" s="13"/>
-      <c r="S37" s="17"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S37" s="13"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>43000035</v>
       </c>
@@ -8207,24 +8398,25 @@
       <c r="K38" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="L38" s="4">
-        <v>1</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="4">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4">
         <v>15</v>
       </c>
-      <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="4" t="s">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="17"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S38" s="13"/>
+      <c r="T38" s="17"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>43000036</v>
       </c>
@@ -8256,24 +8448,25 @@
       <c r="K39" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="L39" s="4">
-        <v>1</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4">
+        <v>1</v>
+      </c>
+      <c r="N39" s="4">
         <v>15</v>
       </c>
-      <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4" t="s">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R39" s="13"/>
-      <c r="S39" s="17"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S39" s="13"/>
+      <c r="T39" s="17"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>43000037</v>
       </c>
@@ -8305,24 +8498,25 @@
       <c r="K40" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="L40" s="4">
-        <v>1</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="4">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
         <v>15</v>
       </c>
-      <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="4" t="s">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R40" s="27"/>
       <c r="S40" s="27"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T40" s="27"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43000038</v>
       </c>
@@ -8354,24 +8548,25 @@
       <c r="K41" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="L41" s="4">
-        <v>1</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41" s="4">
         <v>15</v>
       </c>
-      <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="4" t="s">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="R41" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R41" s="28"/>
       <c r="S41" s="28"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T41" s="28"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>43001001</v>
       </c>
@@ -8403,26 +8598,27 @@
       <c r="K42" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="L42" s="4">
-        <v>1</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="4">
+        <v>1</v>
+      </c>
+      <c r="N42" s="4">
         <v>20</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4" t="s">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>298</v>
       </c>
-      <c r="R42" s="13"/>
-      <c r="S42" s="17"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S42" s="13"/>
+      <c r="T42" s="17"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>43001002</v>
       </c>
@@ -8454,26 +8650,27 @@
       <c r="K43" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="L43" s="4">
-        <v>1</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="4">
+        <v>1</v>
+      </c>
+      <c r="N43" s="4">
         <v>20</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4" t="s">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="R43" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R43" s="13"/>
-      <c r="S43" s="17"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S43" s="13"/>
+      <c r="T43" s="17"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43001003</v>
       </c>
@@ -8505,26 +8702,27 @@
       <c r="K44" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="L44" s="4">
-        <v>1</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="4">
+        <v>1</v>
+      </c>
+      <c r="N44" s="4">
         <v>10</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="O44" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4" t="s">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="R44" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R44" s="27"/>
       <c r="S44" s="27"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T44" s="27"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="27">
         <v>43002001</v>
       </c>
@@ -8556,24 +8754,25 @@
       <c r="K45" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L45" s="4">
-        <v>1</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="4">
+        <v>1</v>
+      </c>
+      <c r="N45" s="4">
         <v>10</v>
       </c>
-      <c r="N45" s="27"/>
       <c r="O45" s="27"/>
-      <c r="P45" s="4" t="s">
+      <c r="P45" s="27"/>
+      <c r="Q45" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="R45" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="R45" s="27"/>
       <c r="S45" s="27"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T45" s="27"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="27">
         <v>43002002</v>
       </c>
@@ -8605,24 +8804,25 @@
       <c r="K46" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="L46" s="4">
-        <v>1</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="4">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
         <v>10</v>
       </c>
-      <c r="N46" s="27"/>
       <c r="O46" s="27"/>
-      <c r="P46" s="4" t="s">
+      <c r="P46" s="27"/>
+      <c r="Q46" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="Q46" s="27" t="s">
+      <c r="R46" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="R46" s="27"/>
       <c r="S46" s="27"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T46" s="27"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="27">
         <v>43002003</v>
       </c>
@@ -8654,24 +8854,25 @@
       <c r="K47" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="L47" s="4">
-        <v>1</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="4">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4">
         <v>10</v>
       </c>
-      <c r="N47" s="27"/>
       <c r="O47" s="27"/>
-      <c r="P47" s="4" t="s">
+      <c r="P47" s="27"/>
+      <c r="Q47" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="Q47" s="27" t="s">
+      <c r="R47" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="R47" s="27"/>
       <c r="S47" s="27"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T47" s="27"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="27">
         <v>43002004</v>
       </c>
@@ -8703,24 +8904,25 @@
       <c r="K48" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="L48" s="4">
-        <v>1</v>
-      </c>
+      <c r="L48" s="32"/>
       <c r="M48" s="4">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4">
         <v>10</v>
       </c>
-      <c r="N48" s="27"/>
       <c r="O48" s="27"/>
-      <c r="P48" s="32" t="s">
+      <c r="P48" s="27"/>
+      <c r="Q48" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="Q48" s="27" t="s">
+      <c r="R48" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="R48" s="27"/>
       <c r="S48" s="27"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T48" s="27"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="27">
         <v>43002005</v>
       </c>
@@ -8752,24 +8954,25 @@
       <c r="K49" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="L49" s="4">
-        <v>1</v>
-      </c>
+      <c r="L49" s="32"/>
       <c r="M49" s="4">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
         <v>10</v>
       </c>
-      <c r="N49" s="27"/>
       <c r="O49" s="27"/>
-      <c r="P49" s="32" t="s">
+      <c r="P49" s="27"/>
+      <c r="Q49" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="Q49" s="27" t="s">
+      <c r="R49" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="R49" s="27"/>
       <c r="S49" s="27"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T49" s="27"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="27">
         <v>43002006</v>
       </c>
@@ -8801,58 +9004,59 @@
       <c r="K50" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="L50" s="4">
-        <v>1</v>
-      </c>
+      <c r="L50" s="32"/>
       <c r="M50" s="4">
+        <v>1</v>
+      </c>
+      <c r="N50" s="4">
         <v>10</v>
       </c>
-      <c r="N50" s="27"/>
       <c r="O50" s="27"/>
-      <c r="P50" s="32" t="s">
+      <c r="P50" s="27"/>
+      <c r="Q50" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="Q50" s="27" t="s">
+      <c r="R50" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="R50" s="27"/>
       <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="Q42">
-    <cfRule type="containsBlanks" dxfId="50" priority="7">
-      <formula>LEN(TRIM(Q42))=0</formula>
+  <conditionalFormatting sqref="R42">
+    <cfRule type="containsBlanks" dxfId="7" priority="7">
+      <formula>LEN(TRIM(R42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="containsBlanks" dxfId="49" priority="6">
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
       <formula>LEN(TRIM(C47))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="containsBlanks" dxfId="48" priority="5">
+  <conditionalFormatting sqref="K47:L47">
+    <cfRule type="containsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(K47))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P47">
-    <cfRule type="containsBlanks" dxfId="47" priority="4">
-      <formula>LEN(TRIM(P47))=0</formula>
+  <conditionalFormatting sqref="Q47">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(Q47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C50">
-    <cfRule type="containsBlanks" dxfId="46" priority="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(C48))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:K50">
-    <cfRule type="containsBlanks" dxfId="45" priority="2">
+  <conditionalFormatting sqref="K48:L50">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(K48))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P48:P50">
-    <cfRule type="containsBlanks" dxfId="44" priority="1">
-      <formula>LEN(TRIM(P48))=0</formula>
+  <conditionalFormatting sqref="Q48:Q50">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(Q48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8865,13 +9069,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8881,15 +9085,15 @@
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="9" width="6.125" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="13" width="6.125" customWidth="1"/>
-    <col min="14" max="14" width="28.375" customWidth="1"/>
-    <col min="15" max="15" width="19.5" customWidth="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="14" width="6.125" customWidth="1"/>
+    <col min="15" max="15" width="28.375" customWidth="1"/>
+    <col min="16" max="16" width="19.5" customWidth="1"/>
+    <col min="18" max="18" width="10.625" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>180</v>
       </c>
@@ -8924,31 +9128,34 @@
         <v>188</v>
       </c>
       <c r="L1" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>178</v>
       </c>
@@ -8983,31 +9190,34 @@
         <v>179</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>190</v>
       </c>
@@ -9042,31 +9252,34 @@
         <v>198</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="T3" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43010001</v>
       </c>
@@ -9102,20 +9315,21 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="6"/>
+      <c r="Q4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S4" s="4"/>
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43010002</v>
       </c>
@@ -9153,16 +9367,17 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="14"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S5" s="4"/>
+      <c r="T5" s="14"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43010003</v>
       </c>
@@ -9200,16 +9415,17 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S6" s="4"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43010004</v>
       </c>
@@ -9247,16 +9463,17 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S7" s="4"/>
+      <c r="T7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43010005</v>
       </c>
@@ -9292,20 +9509,21 @@
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S8" s="4"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43010006</v>
       </c>
@@ -9341,20 +9559,21 @@
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="6"/>
+      <c r="O9" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S9" s="4"/>
+      <c r="T9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43010101</v>
       </c>
@@ -9390,16 +9609,17 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S10" s="4"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43010102</v>
       </c>
@@ -9435,16 +9655,17 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="14"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S11" s="4"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43010103</v>
       </c>
@@ -9480,16 +9701,17 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S12" s="4"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43010104</v>
       </c>
@@ -9525,16 +9747,17 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="14"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S13" s="4"/>
+      <c r="T13" s="14"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43010105</v>
       </c>
@@ -9570,14 +9793,15 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="14"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -2085,132 +2085,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="宋体"/>
         <scheme val="none"/>
@@ -2348,6 +2222,35 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -3012,6 +2915,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -3360,6 +3282,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3509,6 +3480,35 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -3937,6 +3937,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3966,79 +4034,79 @@
     <tableColumn id="5" name="AutoAddLevel" dataDxfId="64"/>
     <tableColumn id="13" name="Method" dataDxfId="63"/>
     <tableColumn id="14" name="Emethod" dataDxfId="62"/>
-    <tableColumn id="20" name="KingTowerId" dataDxfId="8"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="61"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="60"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="59"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="58"/>
-    <tableColumn id="17" name="Figue" dataDxfId="57"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="56"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="55"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="54"/>
+    <tableColumn id="20" name="KingTowerId" dataDxfId="61"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="60"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="59"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="58"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="57"/>
+    <tableColumn id="17" name="Figue" dataDxfId="56"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="55"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="54"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:T50" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:T50" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A3:T50"/>
   <sortState ref="A4:R48">
     <sortCondition ref="A3:A48"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="Id" dataDxfId="50"/>
-    <tableColumn id="2" name="Name" dataDxfId="49"/>
-    <tableColumn id="18" name="Ename" dataDxfId="48"/>
-    <tableColumn id="3" name="Type" dataDxfId="47"/>
-    <tableColumn id="6" name="World" dataDxfId="46"/>
-    <tableColumn id="7" name="Deck" dataDxfId="45"/>
-    <tableColumn id="10" name="Job" dataDxfId="44"/>
-    <tableColumn id="11" name="Level" dataDxfId="43"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="42"/>
-    <tableColumn id="13" name="Method" dataDxfId="41"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="40"/>
-    <tableColumn id="20" name="KingTowerId" dataDxfId="9"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="39"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="38"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="37"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="36"/>
-    <tableColumn id="17" name="Figue" dataDxfId="35"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="34"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="33"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="32"/>
+    <tableColumn id="1" name="Id" dataDxfId="42"/>
+    <tableColumn id="2" name="Name" dataDxfId="41"/>
+    <tableColumn id="18" name="Ename" dataDxfId="40"/>
+    <tableColumn id="3" name="Type" dataDxfId="39"/>
+    <tableColumn id="6" name="World" dataDxfId="38"/>
+    <tableColumn id="7" name="Deck" dataDxfId="37"/>
+    <tableColumn id="10" name="Job" dataDxfId="36"/>
+    <tableColumn id="11" name="Level" dataDxfId="35"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="34"/>
+    <tableColumn id="13" name="Method" dataDxfId="33"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="32"/>
+    <tableColumn id="20" name="KingTowerId" dataDxfId="31"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="30"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="29"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="28"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="27"/>
+    <tableColumn id="17" name="Figue" dataDxfId="26"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="25"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="24"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:T14" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:T14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="A3:T14"/>
   <sortState ref="A4:R83">
     <sortCondition ref="A3:A83"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="Id" dataDxfId="28"/>
-    <tableColumn id="2" name="Name" dataDxfId="27"/>
-    <tableColumn id="18" name="Ename" dataDxfId="26"/>
-    <tableColumn id="3" name="Type" dataDxfId="25"/>
-    <tableColumn id="6" name="World" dataDxfId="24"/>
-    <tableColumn id="7" name="Deck" dataDxfId="23"/>
-    <tableColumn id="10" name="Job" dataDxfId="22"/>
-    <tableColumn id="11" name="Level" dataDxfId="21"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="20"/>
-    <tableColumn id="13" name="Method" dataDxfId="19"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="18"/>
-    <tableColumn id="20" name="KingTowerId" dataDxfId="0"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="17"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="16"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="15"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="14"/>
-    <tableColumn id="9" name="Figue" dataDxfId="13"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="12"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="11"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="10"/>
+    <tableColumn id="1" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" name="Name" dataDxfId="18"/>
+    <tableColumn id="18" name="Ename" dataDxfId="17"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="6" name="World" dataDxfId="15"/>
+    <tableColumn id="7" name="Deck" dataDxfId="14"/>
+    <tableColumn id="10" name="Job" dataDxfId="13"/>
+    <tableColumn id="11" name="Level" dataDxfId="12"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="11"/>
+    <tableColumn id="13" name="Method" dataDxfId="10"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
+    <tableColumn id="20" name="KingTowerId" dataDxfId="8"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
+    <tableColumn id="9" name="Figue" dataDxfId="3"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4052,7 +4120,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4367,7 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -4605,9 +4673,7 @@
       <c r="K4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="4">
-        <v>51013002</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -6455,11 +6521,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:L3"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6694,7 +6760,9 @@
       <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4">
+        <v>51018004</v>
+      </c>
       <c r="M4" s="4">
         <v>2</v>
       </c>
@@ -6744,7 +6812,9 @@
       <c r="K5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5">
+        <v>51018004</v>
+      </c>
       <c r="M5" s="4">
         <v>1.5</v>
       </c>
@@ -6796,7 +6866,9 @@
       <c r="K6" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6">
+        <v>51018004</v>
+      </c>
       <c r="M6" s="4">
         <v>1</v>
       </c>
@@ -6846,7 +6918,9 @@
       <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7">
+        <v>51018004</v>
+      </c>
       <c r="M7" s="4">
         <v>1</v>
       </c>
@@ -6896,7 +6970,9 @@
       <c r="K8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8">
+        <v>51018004</v>
+      </c>
       <c r="M8" s="4">
         <v>1.5</v>
       </c>
@@ -6946,7 +7022,9 @@
       <c r="K9" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9">
+        <v>51018004</v>
+      </c>
       <c r="M9" s="4">
         <v>1.3</v>
       </c>
@@ -6996,7 +7074,9 @@
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10">
+        <v>51018004</v>
+      </c>
       <c r="M10" s="4">
         <v>1.5</v>
       </c>
@@ -7046,7 +7126,9 @@
       <c r="K11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11">
+        <v>51018004</v>
+      </c>
       <c r="M11" s="4">
         <v>1</v>
       </c>
@@ -7096,7 +7178,9 @@
       <c r="K12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12">
+        <v>51018004</v>
+      </c>
       <c r="M12" s="4">
         <v>1</v>
       </c>
@@ -7146,7 +7230,9 @@
       <c r="K13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13">
+        <v>51018004</v>
+      </c>
       <c r="M13" s="4">
         <v>1</v>
       </c>
@@ -7196,7 +7282,9 @@
       <c r="K14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14">
+        <v>51018004</v>
+      </c>
       <c r="M14" s="4">
         <v>1</v>
       </c>
@@ -7246,7 +7334,9 @@
       <c r="K15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15">
+        <v>51018004</v>
+      </c>
       <c r="M15" s="4">
         <v>1</v>
       </c>
@@ -7296,7 +7386,9 @@
       <c r="K16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16">
+        <v>51018004</v>
+      </c>
       <c r="M16" s="4">
         <v>1</v>
       </c>
@@ -7346,7 +7438,9 @@
       <c r="K17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17">
+        <v>51018004</v>
+      </c>
       <c r="M17" s="4">
         <v>1</v>
       </c>
@@ -7396,7 +7490,9 @@
       <c r="K18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18">
+        <v>51018004</v>
+      </c>
       <c r="M18" s="4">
         <v>1</v>
       </c>
@@ -7448,7 +7544,9 @@
       <c r="K19" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19">
+        <v>51018004</v>
+      </c>
       <c r="M19" s="4">
         <v>1</v>
       </c>
@@ -7498,7 +7596,9 @@
       <c r="K20" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20">
+        <v>51018004</v>
+      </c>
       <c r="M20" s="4">
         <v>1</v>
       </c>
@@ -7548,7 +7648,9 @@
       <c r="K21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21">
+        <v>51018004</v>
+      </c>
       <c r="M21" s="4">
         <v>1</v>
       </c>
@@ -7598,7 +7700,9 @@
       <c r="K22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22">
+        <v>51018004</v>
+      </c>
       <c r="M22" s="4">
         <v>1</v>
       </c>
@@ -7648,7 +7752,9 @@
       <c r="K23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23">
+        <v>51018004</v>
+      </c>
       <c r="M23" s="4">
         <v>1</v>
       </c>
@@ -7698,7 +7804,9 @@
       <c r="K24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="4"/>
+      <c r="L24">
+        <v>51018004</v>
+      </c>
       <c r="M24" s="4">
         <v>1</v>
       </c>
@@ -7748,7 +7856,9 @@
       <c r="K25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25">
+        <v>51018004</v>
+      </c>
       <c r="M25" s="4">
         <v>1</v>
       </c>
@@ -7798,7 +7908,9 @@
       <c r="K26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26">
+        <v>51018004</v>
+      </c>
       <c r="M26" s="4">
         <v>1</v>
       </c>
@@ -7848,7 +7960,9 @@
       <c r="K27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27">
+        <v>51018004</v>
+      </c>
       <c r="M27" s="4">
         <v>1</v>
       </c>
@@ -7898,7 +8012,9 @@
       <c r="K28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="4"/>
+      <c r="L28">
+        <v>51018004</v>
+      </c>
       <c r="M28" s="4">
         <v>1</v>
       </c>
@@ -7948,7 +8064,9 @@
       <c r="K29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29">
+        <v>51018004</v>
+      </c>
       <c r="M29" s="4">
         <v>1</v>
       </c>
@@ -7998,7 +8116,9 @@
       <c r="K30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L30" s="4"/>
+      <c r="L30">
+        <v>51018004</v>
+      </c>
       <c r="M30" s="4">
         <v>1</v>
       </c>
@@ -8048,7 +8168,9 @@
       <c r="K31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="4"/>
+      <c r="L31">
+        <v>51018004</v>
+      </c>
       <c r="M31" s="4">
         <v>1</v>
       </c>
@@ -8098,7 +8220,9 @@
       <c r="K32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="4"/>
+      <c r="L32">
+        <v>51018004</v>
+      </c>
       <c r="M32" s="4">
         <v>1</v>
       </c>
@@ -8148,7 +8272,9 @@
       <c r="K33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L33" s="4"/>
+      <c r="L33">
+        <v>51018004</v>
+      </c>
       <c r="M33" s="4">
         <v>1</v>
       </c>
@@ -8198,7 +8324,9 @@
       <c r="K34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L34" s="4"/>
+      <c r="L34">
+        <v>51018004</v>
+      </c>
       <c r="M34" s="4">
         <v>1</v>
       </c>
@@ -8248,7 +8376,9 @@
       <c r="K35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L35" s="4"/>
+      <c r="L35">
+        <v>51018004</v>
+      </c>
       <c r="M35" s="4">
         <v>1</v>
       </c>
@@ -8298,7 +8428,9 @@
       <c r="K36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L36" s="4"/>
+      <c r="L36">
+        <v>51018004</v>
+      </c>
       <c r="M36" s="4">
         <v>1</v>
       </c>
@@ -8348,7 +8480,9 @@
       <c r="K37" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L37" s="4"/>
+      <c r="L37">
+        <v>51018004</v>
+      </c>
       <c r="M37" s="4">
         <v>1</v>
       </c>
@@ -8398,7 +8532,9 @@
       <c r="K38" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="L38" s="4"/>
+      <c r="L38">
+        <v>51018004</v>
+      </c>
       <c r="M38" s="4">
         <v>1</v>
       </c>
@@ -8448,7 +8584,9 @@
       <c r="K39" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="L39" s="4"/>
+      <c r="L39">
+        <v>51018004</v>
+      </c>
       <c r="M39" s="4">
         <v>1</v>
       </c>
@@ -8498,7 +8636,9 @@
       <c r="K40" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="L40" s="4"/>
+      <c r="L40">
+        <v>51018004</v>
+      </c>
       <c r="M40" s="4">
         <v>1</v>
       </c>
@@ -8548,7 +8688,9 @@
       <c r="K41" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="L41" s="4"/>
+      <c r="L41">
+        <v>51018004</v>
+      </c>
       <c r="M41" s="4">
         <v>1</v>
       </c>
@@ -8598,7 +8740,9 @@
       <c r="K42" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="L42" s="4"/>
+      <c r="L42">
+        <v>51018004</v>
+      </c>
       <c r="M42" s="4">
         <v>1</v>
       </c>
@@ -8650,7 +8794,9 @@
       <c r="K43" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="L43" s="4"/>
+      <c r="L43">
+        <v>51018004</v>
+      </c>
       <c r="M43" s="4">
         <v>1</v>
       </c>
@@ -8702,7 +8848,9 @@
       <c r="K44" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="L44" s="4"/>
+      <c r="L44">
+        <v>51018004</v>
+      </c>
       <c r="M44" s="4">
         <v>1</v>
       </c>
@@ -8754,7 +8902,9 @@
       <c r="K45" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L45" s="4"/>
+      <c r="L45">
+        <v>51018004</v>
+      </c>
       <c r="M45" s="4">
         <v>1</v>
       </c>
@@ -8804,7 +8954,9 @@
       <c r="K46" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="L46" s="4"/>
+      <c r="L46">
+        <v>51018004</v>
+      </c>
       <c r="M46" s="4">
         <v>1</v>
       </c>
@@ -8854,7 +9006,9 @@
       <c r="K47" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="L47" s="4"/>
+      <c r="L47">
+        <v>51018004</v>
+      </c>
       <c r="M47" s="4">
         <v>1</v>
       </c>
@@ -8904,7 +9058,9 @@
       <c r="K48" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="L48" s="32"/>
+      <c r="L48">
+        <v>51018004</v>
+      </c>
       <c r="M48" s="4">
         <v>1</v>
       </c>
@@ -8954,7 +9110,9 @@
       <c r="K49" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="L49" s="32"/>
+      <c r="L49">
+        <v>51018004</v>
+      </c>
       <c r="M49" s="4">
         <v>1</v>
       </c>
@@ -9004,7 +9162,9 @@
       <c r="K50" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="L50" s="32"/>
+      <c r="L50">
+        <v>51018004</v>
+      </c>
       <c r="M50" s="4">
         <v>1</v>
       </c>
@@ -9025,37 +9185,37 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="R42">
-    <cfRule type="containsBlanks" dxfId="7" priority="7">
+    <cfRule type="containsBlanks" dxfId="52" priority="7">
       <formula>LEN(TRIM(R42))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="containsBlanks" dxfId="6" priority="6">
+    <cfRule type="containsBlanks" dxfId="51" priority="6">
       <formula>LEN(TRIM(C47))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:L47">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsBlanks" dxfId="50" priority="5">
       <formula>LEN(TRIM(K47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q47">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
+    <cfRule type="containsBlanks" dxfId="49" priority="4">
       <formula>LEN(TRIM(Q47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C50">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="48" priority="3">
       <formula>LEN(TRIM(C48))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:L50">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+  <conditionalFormatting sqref="K48:K50">
+    <cfRule type="containsBlanks" dxfId="47" priority="2">
       <formula>LEN(TRIM(K48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q48:Q50">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="46" priority="1">
       <formula>LEN(TRIM(Q48))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/People.xlsx
+++ b/ConfigData/Xlsx/People.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="人物" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="326">
   <si>
     <t>老鼠</t>
   </si>
@@ -29,9 +29,6 @@
     <t>幻兽传说</t>
   </si>
   <si>
-    <t>atr0</t>
-  </si>
-  <si>
     <t>common</t>
   </si>
   <si>
@@ -221,18 +218,12 @@
     <t>sainisi</t>
   </si>
   <si>
-    <t>atr2</t>
-  </si>
-  <si>
     <t>saibasi</t>
   </si>
   <si>
     <t>科迪</t>
   </si>
   <si>
-    <t>wep1</t>
-  </si>
-  <si>
     <t>kedi</t>
   </si>
   <si>
@@ -245,18 +236,12 @@
     <t>奥莱伊李</t>
   </si>
   <si>
-    <t>atr2;atr4</t>
-  </si>
-  <si>
     <t>aolai</t>
   </si>
   <si>
     <t>米兰达</t>
   </si>
   <si>
-    <t>atr1</t>
-  </si>
-  <si>
     <t>milanda</t>
   </si>
   <si>
@@ -269,27 +254,18 @@
     <t>贝露凯伊鲁</t>
   </si>
   <si>
-    <t>atr1;atr4</t>
-  </si>
-  <si>
     <t>beilukai</t>
   </si>
   <si>
     <t>雷洛比克</t>
   </si>
   <si>
-    <t>atr3</t>
-  </si>
-  <si>
     <t>leiluo</t>
   </si>
   <si>
     <t>巴鲁迪亚斯</t>
   </si>
   <si>
-    <t>atr3;atr1</t>
-  </si>
-  <si>
     <t>baludi</t>
   </si>
   <si>
@@ -320,18 +296,12 @@
     <t>风之纹章</t>
   </si>
   <si>
-    <t>atr5</t>
-  </si>
-  <si>
     <t>neifuni</t>
   </si>
   <si>
     <t>塔妮丝</t>
   </si>
   <si>
-    <t>atr6</t>
-  </si>
-  <si>
     <t>tanisi</t>
   </si>
   <si>
@@ -347,9 +317,6 @@
     <t>艾斯特尔</t>
   </si>
   <si>
-    <t>wep2</t>
-  </si>
-  <si>
     <t>aisiter</t>
   </si>
   <si>
@@ -470,9 +437,6 @@
     <t>亚妮拉丝</t>
   </si>
   <si>
-    <t>atr4</t>
-  </si>
-  <si>
     <t>yaslani</t>
   </si>
   <si>
@@ -581,10 +545,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>卡组类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>职业</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -615,9 +575,6 @@
   </si>
   <si>
     <t>World</t>
-  </si>
-  <si>
-    <t>Deck</t>
   </si>
   <si>
     <t>Job</t>
@@ -700,18 +657,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>atr4;atr0</t>
-  </si>
-  <si>
-    <t>atr4;atr5</t>
-  </si>
-  <si>
-    <t>atr6;atr0</t>
-  </si>
-  <si>
-    <t>atr6;atr4</t>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -842,10 +787,6 @@
   </si>
   <si>
     <t>食人花</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>atr0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2072,7 +2013,56 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="73">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2459,33 +2449,6 @@
           <color theme="4"/>
         </top>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3123,33 +3086,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3278,55 +3214,6 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3783,33 +3670,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -4017,96 +3877,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:T42" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
-  <autoFilter ref="A3:T42"/>
-  <sortState ref="A4:R52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A3:S42" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" tableBorderDxfId="70">
+  <autoFilter ref="A3:S42"/>
+  <sortState ref="A4:Q52">
     <sortCondition ref="A3:A52"/>
   </sortState>
-  <tableColumns count="20">
-    <tableColumn id="1" name="Id" dataDxfId="72"/>
-    <tableColumn id="2" name="Name" dataDxfId="71"/>
-    <tableColumn id="18" name="Ename" dataDxfId="70"/>
-    <tableColumn id="3" name="Type" dataDxfId="69"/>
-    <tableColumn id="6" name="World" dataDxfId="68"/>
-    <tableColumn id="7" name="Deck" dataDxfId="67"/>
-    <tableColumn id="10" name="Job" dataDxfId="66"/>
-    <tableColumn id="11" name="Level" dataDxfId="65"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="64"/>
-    <tableColumn id="13" name="Method" dataDxfId="63"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="62"/>
-    <tableColumn id="20" name="KingTowerId" dataDxfId="61"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="60"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="59"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="58"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="57"/>
-    <tableColumn id="17" name="Figue" dataDxfId="56"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="55"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="54"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="53"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Id" dataDxfId="69"/>
+    <tableColumn id="2" name="Name" dataDxfId="68"/>
+    <tableColumn id="18" name="Ename" dataDxfId="67"/>
+    <tableColumn id="3" name="Type" dataDxfId="66"/>
+    <tableColumn id="6" name="World" dataDxfId="65"/>
+    <tableColumn id="10" name="Job" dataDxfId="64"/>
+    <tableColumn id="11" name="Level" dataDxfId="63"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="62"/>
+    <tableColumn id="13" name="Method" dataDxfId="61"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="60"/>
+    <tableColumn id="20" name="KingTowerId" dataDxfId="59"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="58"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="57"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="56"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="55"/>
+    <tableColumn id="17" name="Figue" dataDxfId="54"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="53"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="52"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:T50" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
-  <autoFilter ref="A3:T50"/>
-  <sortState ref="A4:R48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:S50" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A3:S50"/>
+  <sortState ref="A4:Q48">
     <sortCondition ref="A3:A48"/>
   </sortState>
-  <tableColumns count="20">
-    <tableColumn id="1" name="Id" dataDxfId="42"/>
-    <tableColumn id="2" name="Name" dataDxfId="41"/>
-    <tableColumn id="18" name="Ename" dataDxfId="40"/>
-    <tableColumn id="3" name="Type" dataDxfId="39"/>
-    <tableColumn id="6" name="World" dataDxfId="38"/>
-    <tableColumn id="7" name="Deck" dataDxfId="37"/>
-    <tableColumn id="10" name="Job" dataDxfId="36"/>
-    <tableColumn id="11" name="Level" dataDxfId="35"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="34"/>
-    <tableColumn id="13" name="Method" dataDxfId="33"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="32"/>
-    <tableColumn id="20" name="KingTowerId" dataDxfId="31"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="30"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="29"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="28"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="27"/>
-    <tableColumn id="17" name="Figue" dataDxfId="26"/>
-    <tableColumn id="9" name="BattleMap" dataDxfId="25"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="24"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="23"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Id" dataDxfId="47"/>
+    <tableColumn id="2" name="Name" dataDxfId="46"/>
+    <tableColumn id="18" name="Ename" dataDxfId="45"/>
+    <tableColumn id="3" name="Type" dataDxfId="44"/>
+    <tableColumn id="6" name="World" dataDxfId="43"/>
+    <tableColumn id="10" name="Job" dataDxfId="42"/>
+    <tableColumn id="11" name="Level" dataDxfId="41"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="40"/>
+    <tableColumn id="13" name="Method" dataDxfId="39"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="38"/>
+    <tableColumn id="20" name="KingTowerId" dataDxfId="37"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="36"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="35"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="34"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="33"/>
+    <tableColumn id="17" name="Figue" dataDxfId="32"/>
+    <tableColumn id="9" name="BattleMap" dataDxfId="31"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="30"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:T14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="A3:T14"/>
-  <sortState ref="A4:R83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="A3:S14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="A3:S14"/>
+  <sortState ref="A4:Q83">
     <sortCondition ref="A3:A83"/>
   </sortState>
-  <tableColumns count="20">
-    <tableColumn id="1" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" name="Name" dataDxfId="18"/>
-    <tableColumn id="18" name="Ename" dataDxfId="17"/>
-    <tableColumn id="3" name="Type" dataDxfId="16"/>
-    <tableColumn id="6" name="World" dataDxfId="15"/>
-    <tableColumn id="7" name="Deck" dataDxfId="14"/>
-    <tableColumn id="10" name="Job" dataDxfId="13"/>
-    <tableColumn id="11" name="Level" dataDxfId="12"/>
-    <tableColumn id="5" name="AutoAddLevel" dataDxfId="11"/>
-    <tableColumn id="13" name="Method" dataDxfId="10"/>
-    <tableColumn id="14" name="Emethod" dataDxfId="9"/>
-    <tableColumn id="20" name="KingTowerId" dataDxfId="8"/>
-    <tableColumn id="12" name="EpSlow" dataDxfId="7"/>
-    <tableColumn id="19" name="CardReduce" dataDxfId="6"/>
-    <tableColumn id="15" name="RightMon" dataDxfId="5"/>
-    <tableColumn id="4" name="PetMon" dataDxfId="4"/>
-    <tableColumn id="9" name="Figue" dataDxfId="3"/>
-    <tableColumn id="17" name="BattleMap" dataDxfId="2"/>
-    <tableColumn id="8" name="DropItem" dataDxfId="1"/>
-    <tableColumn id="16" name="InRandomQuest" dataDxfId="0"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Id" dataDxfId="25"/>
+    <tableColumn id="2" name="Name" dataDxfId="24"/>
+    <tableColumn id="18" name="Ename" dataDxfId="23"/>
+    <tableColumn id="3" name="Type" dataDxfId="22"/>
+    <tableColumn id="6" name="World" dataDxfId="21"/>
+    <tableColumn id="10" name="Job" dataDxfId="20"/>
+    <tableColumn id="11" name="Level" dataDxfId="19"/>
+    <tableColumn id="5" name="AutoAddLevel" dataDxfId="18"/>
+    <tableColumn id="13" name="Method" dataDxfId="17"/>
+    <tableColumn id="14" name="Emethod" dataDxfId="16"/>
+    <tableColumn id="20" name="KingTowerId" dataDxfId="15"/>
+    <tableColumn id="12" name="EpSlow" dataDxfId="14"/>
+    <tableColumn id="19" name="CardReduce" dataDxfId="13"/>
+    <tableColumn id="15" name="RightMon" dataDxfId="12"/>
+    <tableColumn id="4" name="PetMon" dataDxfId="11"/>
+    <tableColumn id="9" name="Figue" dataDxfId="10"/>
+    <tableColumn id="17" name="BattleMap" dataDxfId="9"/>
+    <tableColumn id="8" name="DropItem" dataDxfId="8"/>
+    <tableColumn id="16" name="InRandomQuest" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4433,2078 +4290,1952 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="9" width="6.25" customWidth="1"/>
-    <col min="10" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="16" width="5.875" customWidth="1"/>
-    <col min="18" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="8" width="6.25" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="15" width="5.875" customWidth="1"/>
+    <col min="17" max="17" width="10.625" customWidth="1"/>
+    <col min="18" max="18" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="H3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J3" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="K3" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="R3" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>43020101</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4">
+        <v>11000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>11000001</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="Q4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="19"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="19"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>43020102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5">
+        <v>63</v>
+      </c>
+      <c r="F5">
         <v>11000003</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="Q5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="19"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>43020103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6">
+        <v>63</v>
+      </c>
+      <c r="F6">
         <v>11000002</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="4">
         <v>7</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="Q6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>43020104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7">
+        <v>63</v>
+      </c>
+      <c r="F7">
         <v>11000008</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="4">
         <v>9</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="Q7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R7" s="13"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>43020105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8">
+        <v>63</v>
+      </c>
+      <c r="F8">
         <v>11000007</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
         <v>12</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>270</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="Q8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>43020106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9">
+        <v>63</v>
+      </c>
+      <c r="F9">
         <v>11000005</v>
       </c>
-      <c r="H9" s="4">
+      <c r="G9" s="4">
         <v>14</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="P9" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="Q9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>43020107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10">
+        <v>63</v>
+      </c>
+      <c r="F10">
         <v>11000007</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
         <v>15</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="Q10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>43020108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11">
+        <v>63</v>
+      </c>
+      <c r="F11">
         <v>11000005</v>
       </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
         <v>18</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="Q11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R11" s="13"/>
+      <c r="S11" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>43020109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12">
+        <v>63</v>
+      </c>
+      <c r="F12">
         <v>11000006</v>
       </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
         <v>21</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="Q12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R12" s="13"/>
+      <c r="S12" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>43020110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13">
+        <v>63</v>
+      </c>
+      <c r="F13">
         <v>11000006</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G13" s="4">
         <v>24</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="Q13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R13" s="13"/>
+      <c r="S13" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>43020201</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14">
+        <v>83</v>
+      </c>
+      <c r="F14">
         <v>11000007</v>
       </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
         <v>22</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="Q14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="S14" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>43020202</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15">
+        <v>83</v>
+      </c>
+      <c r="F15">
         <v>11000001</v>
       </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
         <v>17</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="Q15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R15" s="13"/>
+      <c r="S15" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>43020203</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16">
+        <v>83</v>
+      </c>
+      <c r="F16">
         <v>11000002</v>
       </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
         <v>22</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="Q16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>43020204</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17">
+        <v>83</v>
+      </c>
+      <c r="F17">
         <v>11000005</v>
       </c>
-      <c r="H17" s="4">
+      <c r="G17" s="4">
         <v>6</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="Q17" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S17" s="13"/>
-      <c r="T17" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="S17" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>43020205</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18">
+        <v>83</v>
+      </c>
+      <c r="F18">
         <v>11000008</v>
       </c>
-      <c r="H18" s="4">
+      <c r="G18" s="4">
         <v>4</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>243</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="Q18" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="S18" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>43020301</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19">
+        <v>90</v>
+      </c>
+      <c r="F19">
         <v>11000002</v>
       </c>
-      <c r="H19" s="4">
+      <c r="G19" s="4">
         <v>7</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="Q19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>43020302</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20">
+        <v>90</v>
+      </c>
+      <c r="F20">
         <v>11000008</v>
       </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
         <v>9</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="Q20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R20" s="13"/>
+      <c r="S20" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>43020303</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21">
+        <v>95</v>
+      </c>
+      <c r="F21">
         <v>11000004</v>
       </c>
-      <c r="H21" s="4">
+      <c r="G21" s="4">
         <v>5</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="P21" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="Q21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>43020304</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22">
+        <v>95</v>
+      </c>
+      <c r="F22">
         <v>11000002</v>
       </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4">
         <v>14</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="Q22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R22" s="13"/>
+      <c r="S22" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>43020305</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D23" s="4">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23">
+        <v>95</v>
+      </c>
+      <c r="F23">
         <v>11000005</v>
       </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
         <v>14</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="P23" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="Q23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R23" s="13"/>
+      <c r="S23" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>43020306</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24">
+        <v>90</v>
+      </c>
+      <c r="F24">
         <v>11000008</v>
       </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4"/>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="Q24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S24" s="13"/>
-      <c r="T24" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R24" s="13"/>
+      <c r="S24" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>43020307</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25">
+        <v>95</v>
+      </c>
+      <c r="F25">
         <v>11000001</v>
       </c>
-      <c r="H25" s="4">
+      <c r="G25" s="4">
         <v>10</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="Q25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S25" s="13"/>
-      <c r="T25" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R25" s="13"/>
+      <c r="S25" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>43020308</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26">
+        <v>95</v>
+      </c>
+      <c r="F26">
         <v>11000001</v>
       </c>
-      <c r="H26" s="4">
+      <c r="G26" s="4">
         <v>11</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="P26" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="Q26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R26" s="13"/>
+      <c r="S26" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>43020309</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27">
+        <v>95</v>
+      </c>
+      <c r="F27">
         <v>11000004</v>
       </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
         <v>13</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>119</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="P27" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="Q27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R27" s="13"/>
+      <c r="S27" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>43020310</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28">
+        <v>95</v>
+      </c>
+      <c r="F28">
         <v>11000003</v>
       </c>
-      <c r="H28" s="4">
+      <c r="G28" s="4">
         <v>8</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="P28" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="Q28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R28" s="13"/>
+      <c r="S28" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>43020311</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D29" s="4">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G29">
+        <v>95</v>
+      </c>
+      <c r="F29">
         <v>11000005</v>
       </c>
-      <c r="H29" s="4">
+      <c r="G29" s="4">
         <v>13</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="P29" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="Q29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R29" s="13"/>
+      <c r="S29" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>43020312</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D30" s="4">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G30">
+        <v>95</v>
+      </c>
+      <c r="F30">
         <v>11000001</v>
       </c>
-      <c r="H30" s="4">
+      <c r="G30" s="4">
         <v>18</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>125</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="P30" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="Q30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S30" s="13"/>
-      <c r="T30" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R30" s="13"/>
+      <c r="S30" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>43020401</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D31" s="4">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31">
+        <v>116</v>
+      </c>
+      <c r="F31">
         <v>11000002</v>
       </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
         <v>10</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>128</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="P31" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="Q31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S31" s="13"/>
-      <c r="T31" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R31" s="13"/>
+      <c r="S31" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>43020402</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D32" s="4">
         <v>5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32">
+        <v>116</v>
+      </c>
+      <c r="F32">
         <v>11000001</v>
       </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
         <v>11</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="P32" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="Q32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S32" s="13"/>
-      <c r="T32" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="R32" s="13"/>
+      <c r="S32" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>43020403</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D33" s="4">
         <v>5</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33">
+        <v>116</v>
+      </c>
+      <c r="F33">
         <v>11000002</v>
       </c>
-      <c r="H33" s="4">
+      <c r="G33" s="4">
         <v>13</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="P33" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="Q33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S33" s="13"/>
-      <c r="T33"